--- a/project/Zeiterfassung.xlsx
+++ b/project/Zeiterfassung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Raphael\Dropbox\BA\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\BA\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E09DB70-54C4-4DDA-9A83-869899608621}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E335EBE3-82B4-4D86-9BB4-C75668A60040}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="70110" yWindow="0" windowWidth="19560" windowHeight="8115" tabRatio="745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="70110" yWindow="0" windowWidth="19560" windowHeight="8118" tabRatio="745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raphael" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1078" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="346">
   <si>
     <t>Mit Betreuer</t>
   </si>
@@ -1071,6 +1071,9 @@
   </si>
   <si>
     <t>MS8:4</t>
+  </si>
+  <si>
+    <t>Code</t>
   </si>
 </sst>
 </file>
@@ -2614,19 +2617,19 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>13</c:v>
+                  <c:v>12.976406533575318</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.545454545454547</c:v>
+                  <c:v>22.686025408348456</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>5.9891107078039925</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.954545454545453</c:v>
+                  <c:v>41.878402903811249</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.5</c:v>
+                  <c:v>16.470054446460981</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2852,7 +2855,7 @@
                   <c:v>71.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>124</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>33</c:v>
@@ -5105,28 +5108,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M143"/>
+  <dimension ref="A1:M142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F144" sqref="F144"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29:XFD29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="7"/>
+    <col min="1" max="1" width="11.41796875" style="7"/>
     <col min="2" max="2" width="10" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="11.42578125" style="7"/>
-    <col min="11" max="11" width="26.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="7"/>
-    <col min="13" max="13" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="7"/>
+    <col min="3" max="3" width="12.26171875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.68359375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26171875" style="7" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="11.41796875" style="7"/>
+    <col min="11" max="11" width="26.41796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.41796875" style="7"/>
+    <col min="13" max="13" width="17.83984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.41796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
@@ -5149,7 +5152,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -5160,7 +5163,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
@@ -5177,7 +5180,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10">
         <v>43153</v>
       </c>
@@ -5198,7 +5201,7 @@
         <v>6</v>
       </c>
       <c r="I4" s="8">
-        <f>SUM(G4,G9,G21,G33,G44,G55,G65,G89,G78,G102,G70,G113,G121,G131,G140)</f>
+        <f>SUM(G4,G9,G21,G32,G43,G54,G64,G88,G77,G101,G69,G112,G120,G130,G139)</f>
         <v>277.75</v>
       </c>
       <c r="K4" s="7" t="s">
@@ -5208,7 +5211,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10">
         <v>43153</v>
       </c>
@@ -5231,7 +5234,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4">
         <v>43153</v>
       </c>
@@ -5257,7 +5260,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10">
         <v>43154</v>
       </c>
@@ -5277,7 +5280,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4">
         <v>43154</v>
       </c>
@@ -5297,7 +5300,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="G9" s="8">
         <f>SUM(B11:B18)</f>
         <v>16.25</v>
@@ -5306,7 +5309,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>47</v>
       </c>
@@ -5315,7 +5318,7 @@
         <v>18.516666666666666</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10">
         <v>43157</v>
       </c>
@@ -5332,7 +5335,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10">
         <v>43157</v>
       </c>
@@ -5350,7 +5353,7 @@
       </c>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10">
         <v>43158</v>
       </c>
@@ -5368,7 +5371,7 @@
       </c>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4">
         <v>43159</v>
       </c>
@@ -5385,7 +5388,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4">
         <v>43159</v>
       </c>
@@ -5402,7 +5405,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10">
         <v>43160</v>
       </c>
@@ -5420,7 +5423,7 @@
       </c>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10">
         <v>43160</v>
       </c>
@@ -5438,7 +5441,7 @@
       </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4">
         <v>43161</v>
       </c>
@@ -5455,10 +5458,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="23" t="s">
         <v>100</v>
       </c>
@@ -5471,7 +5474,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4">
         <v>43165</v>
       </c>
@@ -5491,11 +5494,11 @@
         <v>22</v>
       </c>
       <c r="G21" s="2">
-        <f>SUM(B21:B30)</f>
+        <f>SUM(B21:B29)</f>
         <v>17.5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4">
         <v>43165</v>
       </c>
@@ -5515,7 +5518,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10">
         <v>43166</v>
       </c>
@@ -5535,7 +5538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10">
         <v>43166</v>
       </c>
@@ -5555,7 +5558,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10">
         <v>43167</v>
       </c>
@@ -5572,7 +5575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10">
         <v>43167</v>
       </c>
@@ -5592,7 +5595,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10">
         <v>43167</v>
       </c>
@@ -5612,7 +5615,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="4">
         <v>43167</v>
       </c>
@@ -5625,109 +5628,124 @@
       <c r="D28" s="11" t="s">
         <v>110</v>
       </c>
+      <c r="E28" s="11" t="s">
+        <v>17</v>
+      </c>
       <c r="F28" s="20">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="22">
         <v>43168</v>
       </c>
+      <c r="B29" s="2">
+        <v>0.5</v>
+      </c>
       <c r="C29" s="11" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="22">
-        <v>43168</v>
-      </c>
-      <c r="B30" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C30" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="11" t="s">
+      <c r="D29" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="E30" s="11" t="s">
+      <c r="E29" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F30" s="14"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="23" t="s">
+      <c r="F29" s="14"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="23" t="s">
         <v>114</v>
       </c>
-      <c r="G32" s="3" t="s">
+      <c r="G31" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="4">
+        <v>43171</v>
+      </c>
+      <c r="B32" s="2">
+        <v>1</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="E32" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F32" s="14">
+        <v>24</v>
+      </c>
+      <c r="G32" s="2">
+        <f>SUM(B32:B40)</f>
+        <v>17.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="4">
-        <v>43171</v>
+        <v>43172</v>
       </c>
       <c r="B33" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D33" s="11" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E33" s="11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F33" s="14">
-        <v>24</v>
-      </c>
-      <c r="G33" s="2">
-        <f>SUM(B33:B41)</f>
-        <v>17.5</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="4">
         <v>43172</v>
       </c>
-      <c r="B34" s="2">
-        <v>2</v>
+      <c r="B34" s="8">
+        <v>1</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="D34" s="11" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="E34" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F34" s="19">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="4">
-        <v>43172</v>
+        <v>43173</v>
       </c>
       <c r="B35" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D35" s="11" t="s">
-        <v>119</v>
+        <v>99</v>
       </c>
       <c r="E35" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F35" s="19">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F35" s="14">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="4">
         <v>43173</v>
       </c>
@@ -5738,184 +5756,181 @@
         <v>8</v>
       </c>
       <c r="D36" s="11" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E36" s="11" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="F36" s="14">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="4">
         <v>43173</v>
       </c>
       <c r="B37" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C37" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>103</v>
+        <v>127</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F37" s="14">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="4">
-        <v>43173</v>
-      </c>
-      <c r="B38" s="8">
-        <v>3</v>
-      </c>
-      <c r="C38" s="11" t="s">
+        <v>43174</v>
+      </c>
+      <c r="B38" s="2">
+        <v>1</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>8</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F38" s="14">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="4">
         <v>43174</v>
       </c>
       <c r="B39" s="2">
-        <v>1</v>
-      </c>
-      <c r="C39" s="12" t="s">
+        <v>3.5</v>
+      </c>
+      <c r="C39" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>108</v>
+        <v>126</v>
       </c>
       <c r="E39" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F39" s="20">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="22">
+        <v>43174</v>
+      </c>
+      <c r="B40" s="2">
+        <v>2</v>
+      </c>
+      <c r="C40" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="E40" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F40" s="14"/>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="10"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="G42" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="4">
+        <v>43178</v>
+      </c>
+      <c r="B43" s="2">
+        <v>3</v>
+      </c>
+      <c r="C43" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D43" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="E43" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F43" s="14">
         <v>25</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="4">
-        <v>43174</v>
-      </c>
-      <c r="B40" s="2">
-        <v>3.5</v>
-      </c>
-      <c r="C40" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D40" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E40" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="20">
+      <c r="G43" s="2">
+        <f>SUM(B43:B51)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="10">
+        <v>43178</v>
+      </c>
+      <c r="B44" s="8">
+        <v>2</v>
+      </c>
+      <c r="C44" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D44" s="11" t="s">
+        <v>132</v>
+      </c>
+      <c r="E44" s="11" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="22">
-        <v>43174</v>
-      </c>
-      <c r="B41" s="2">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="10">
+        <v>43179</v>
+      </c>
+      <c r="B45" s="8">
+        <v>4</v>
+      </c>
+      <c r="C45" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D45" s="11" t="s">
+        <v>137</v>
+      </c>
+      <c r="E45" s="11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="10">
+        <v>43180</v>
+      </c>
+      <c r="B46" s="8">
         <v>2</v>
       </c>
-      <c r="C41" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D41" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E41" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F41" s="14"/>
-      <c r="G41" s="8"/>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="10"/>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="G43" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="4">
-        <v>43178</v>
-      </c>
-      <c r="B44" s="2">
-        <v>3</v>
-      </c>
-      <c r="C44" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D44" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E44" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F44" s="14">
-        <v>25</v>
-      </c>
-      <c r="G44" s="2">
-        <f>SUM(B44:B52)</f>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="10">
-        <v>43178</v>
-      </c>
-      <c r="B45" s="8">
-        <v>2</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D45" s="11" t="s">
-        <v>132</v>
-      </c>
-      <c r="E45" s="11" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="10">
-        <v>43179</v>
-      </c>
-      <c r="B46" s="8">
-        <v>4</v>
-      </c>
       <c r="C46" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="10">
         <v>43180</v>
       </c>
@@ -5926,115 +5941,122 @@
         <v>8</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10">
-        <v>43180</v>
+        <v>43181</v>
       </c>
       <c r="B48" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C48" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="10">
         <v>43181</v>
       </c>
       <c r="B49" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C49" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G49" s="9"/>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10">
         <v>43181</v>
       </c>
       <c r="B50" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C50" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="G50" s="9"/>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G50" s="8"/>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10">
-        <v>43181</v>
-      </c>
-      <c r="B51" s="8">
+        <v>43182</v>
+      </c>
+      <c r="B51" s="25">
+        <v>1</v>
+      </c>
+      <c r="C51" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="E51" s="11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="23" t="s">
+        <v>143</v>
+      </c>
+      <c r="B53" s="2"/>
+      <c r="C53" s="1"/>
+      <c r="D53" s="6"/>
+      <c r="E53" s="1"/>
+      <c r="F53" s="14"/>
+      <c r="G53" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="10">
+        <v>43185</v>
+      </c>
+      <c r="B54" s="8">
         <v>3</v>
       </c>
-      <c r="C51" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G51" s="8"/>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="10">
-        <v>43182</v>
-      </c>
-      <c r="B52" s="25">
-        <v>1</v>
-      </c>
-      <c r="C52" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D52" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="E52" s="11" t="s">
+      <c r="C54" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D54" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="E54" s="11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="B54" s="2"/>
-      <c r="C54" s="1"/>
-      <c r="D54" s="6"/>
-      <c r="E54" s="1"/>
-      <c r="F54" s="14"/>
-      <c r="G54" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="F54" s="14">
+        <v>29</v>
+      </c>
+      <c r="G54" s="2">
+        <f>SUM(B54:B61)</f>
+        <v>21.5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="10">
-        <v>43185</v>
+        <v>43186</v>
       </c>
       <c r="B55" s="8">
         <v>3</v>
@@ -6051,89 +6073,84 @@
       <c r="F55" s="14">
         <v>29</v>
       </c>
-      <c r="G55" s="2">
-        <f>SUM(B55:B62)</f>
-        <v>21.5</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="10">
-        <v>43186</v>
+        <v>43187</v>
       </c>
       <c r="B56" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C56" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F56" s="14">
+      <c r="F56" s="19">
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="10">
         <v>43187</v>
       </c>
-      <c r="B57" s="8">
-        <v>2</v>
+      <c r="B57" s="25">
+        <v>1</v>
       </c>
       <c r="C57" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="11" t="s">
-        <v>159</v>
+        <v>49</v>
+      </c>
+      <c r="D57" s="12" t="s">
+        <v>142</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F57" s="19">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="10">
-        <v>43187</v>
-      </c>
-      <c r="B58" s="25">
-        <v>1</v>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="4">
+        <v>43188</v>
+      </c>
+      <c r="B58" s="2">
+        <v>5.5</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>142</v>
+        <v>8</v>
+      </c>
+      <c r="D58" s="11" t="s">
+        <v>149</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+        <v>19</v>
+      </c>
+      <c r="M58" s="11"/>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="4">
         <v>43188</v>
       </c>
       <c r="B59" s="2">
-        <v>5.5</v>
+        <v>1</v>
       </c>
       <c r="C59" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>149</v>
+        <v>162</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="M59" s="11"/>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F59" s="13"/>
+      <c r="G59" s="9"/>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="4">
-        <v>43188</v>
+        <v>43189</v>
       </c>
       <c r="B60" s="2">
         <v>1</v>
@@ -6142,96 +6159,97 @@
         <v>8</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E60" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F60" s="13"/>
-      <c r="G60" s="9"/>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+      <c r="F60" s="26"/>
+      <c r="G60" s="8"/>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="4">
         <v>43189</v>
       </c>
       <c r="B61" s="2">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C61" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F61" s="26"/>
-      <c r="G61" s="8"/>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="4">
-        <v>43189</v>
-      </c>
-      <c r="B62" s="2">
-        <v>5</v>
-      </c>
-      <c r="C62" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="E62" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62" s="26"/>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="4"/>
-      <c r="B63" s="2"/>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="4"/>
+      <c r="B62" s="2"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="11"/>
+      <c r="E62" s="11"/>
+      <c r="F62" s="21"/>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="23" t="s">
+        <v>165</v>
+      </c>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
-      <c r="F63" s="21"/>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="C64" s="11"/>
-      <c r="D64" s="11"/>
-      <c r="E64" s="11"/>
-      <c r="F64" s="26"/>
-      <c r="G64" s="3" t="s">
+      <c r="F63" s="26"/>
+      <c r="G63" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="10">
+        <v>43193</v>
+      </c>
+      <c r="B64" s="8">
+        <v>3</v>
+      </c>
+      <c r="C64" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D64" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="E64" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64" s="26">
+        <v>1</v>
+      </c>
+      <c r="G64" s="2">
+        <f>SUM(B64:B66)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10">
         <v>43193</v>
       </c>
       <c r="B65" s="8">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C65" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F65" s="26">
-        <v>1</v>
-      </c>
-      <c r="G65" s="2">
-        <f>SUM(B65:B67)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+        <v>17</v>
+      </c>
+      <c r="F65" s="27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="10">
         <v>43193</v>
       </c>
@@ -6242,54 +6260,56 @@
         <v>8</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="F66" s="27">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="10">
-        <v>43193</v>
-      </c>
-      <c r="B67" s="8">
-        <v>1</v>
-      </c>
-      <c r="C67" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="E67" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F67" s="26">
+      <c r="F66" s="26">
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="22"/>
-      <c r="C68" s="11"/>
-      <c r="D68" s="11"/>
-      <c r="E68" s="11"/>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="22"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="11"/>
+      <c r="E67" s="11"/>
+      <c r="F67" s="26"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="3" t="s">
+        <v>178</v>
+      </c>
       <c r="F68" s="26"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="3" t="s">
-        <v>178</v>
+      <c r="G68" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="22">
+        <v>43199</v>
+      </c>
+      <c r="B69" s="8">
+        <v>8</v>
+      </c>
+      <c r="C69" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D69" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E69" s="11" t="s">
+        <v>19</v>
       </c>
       <c r="F69" s="26"/>
-      <c r="G69" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="22">
-        <v>43199</v>
+      <c r="G69" s="2">
+        <f>SUM(B69:B74)</f>
+        <v>31.5</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="10">
+        <v>43200</v>
       </c>
       <c r="B70" s="8">
         <v>8</v>
@@ -6298,132 +6318,132 @@
         <v>8</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F70" s="26"/>
-      <c r="G70" s="2">
-        <f>SUM(B70:B75)</f>
-        <v>31.5</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="10">
-        <v>43200</v>
-      </c>
-      <c r="B71" s="8">
-        <v>8</v>
+      <c r="G70" s="8"/>
+      <c r="H70" s="9"/>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="4">
+        <v>43201</v>
+      </c>
+      <c r="B71" s="2">
+        <v>4</v>
       </c>
       <c r="C71" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F71" s="26"/>
-      <c r="G71" s="8"/>
-      <c r="H71" s="9"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="4">
-        <v>43201</v>
-      </c>
-      <c r="B72" s="2">
-        <v>4</v>
+      <c r="F71" s="21"/>
+      <c r="H71" s="8"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="10">
+        <v>43202</v>
+      </c>
+      <c r="B72" s="8">
+        <v>5</v>
       </c>
       <c r="C72" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F72" s="21"/>
-      <c r="H72" s="8"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="F72" s="27"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="10">
-        <v>43202</v>
-      </c>
-      <c r="B73" s="8">
-        <v>5</v>
+        <v>43203</v>
+      </c>
+      <c r="B73" s="25">
+        <v>0.5</v>
       </c>
       <c r="C73" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D73" s="11" t="s">
-        <v>179</v>
+        <v>49</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>52</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F73" s="27"/>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="10">
         <v>43203</v>
       </c>
-      <c r="B74" s="25">
-        <v>0.5</v>
+      <c r="B74" s="8">
+        <v>6</v>
       </c>
       <c r="C74" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>52</v>
+        <v>8</v>
+      </c>
+      <c r="D74" s="11" t="s">
+        <v>180</v>
       </c>
       <c r="E74" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F74" s="27"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="10"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="11"/>
+      <c r="E75" s="11"/>
+      <c r="F75" s="27"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="1"/>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="21"/>
+      <c r="G76" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="22">
+        <v>43206</v>
+      </c>
+      <c r="B77" s="2">
+        <v>1</v>
+      </c>
+      <c r="C77" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D77" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E77" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F74" s="27"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="10">
-        <v>43203</v>
-      </c>
-      <c r="B75" s="8">
-        <v>6</v>
-      </c>
-      <c r="C75" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="11" t="s">
-        <v>180</v>
-      </c>
-      <c r="E75" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F75" s="27"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="10"/>
-      <c r="C76" s="11"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-      <c r="F76" s="27"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="3" t="s">
-        <v>194</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="1"/>
-      <c r="D77" s="1"/>
-      <c r="E77" s="1"/>
       <c r="F77" s="21"/>
-      <c r="G77" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="22">
+      <c r="G77" s="2">
+        <f>SUM(B77:B85)</f>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="4">
         <v>43206</v>
       </c>
       <c r="B78" s="2">
@@ -6433,20 +6453,17 @@
         <v>8</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F78" s="21"/>
-      <c r="G78" s="2">
-        <f>SUM(B78:B86)</f>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="4">
-        <v>43206</v>
+      <c r="G78" s="2"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="22">
+        <v>43207</v>
       </c>
       <c r="B79" s="2">
         <v>1</v>
@@ -6455,34 +6472,34 @@
         <v>8</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="E79" s="11" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="F79" s="21"/>
-      <c r="G79" s="2"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="G79" s="1"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="22">
-        <v>43207</v>
+        <v>43208</v>
       </c>
       <c r="B80" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C80" s="11" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>188</v>
+        <v>197</v>
       </c>
       <c r="E80" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F80" s="21"/>
+      <c r="F80" s="27"/>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="22">
         <v>43208</v>
       </c>
@@ -6490,37 +6507,37 @@
         <v>2</v>
       </c>
       <c r="C81" s="11" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E81" s="11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F81" s="27"/>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="22">
-        <v>43208</v>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="4">
+        <v>43209</v>
       </c>
       <c r="B82" s="2">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C82" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="E82" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F82" s="27"/>
+      <c r="F82" s="21"/>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="4">
         <v>43209</v>
       </c>
@@ -6531,94 +6548,99 @@
         <v>8</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="E83" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F83" s="21"/>
+      <c r="F83" s="27"/>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="4">
-        <v>43209</v>
+        <v>43210</v>
       </c>
       <c r="B84" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C84" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>207</v>
+        <v>188</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="F84" s="27"/>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="4">
         <v>43210</v>
       </c>
       <c r="B85" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C85" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F85" s="27"/>
+        <v>16</v>
+      </c>
+      <c r="F85" s="21"/>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="4">
-        <v>43210</v>
-      </c>
-      <c r="B86" s="2">
-        <v>2</v>
-      </c>
-      <c r="C86" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="E86" s="11" t="s">
-        <v>16</v>
-      </c>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="3"/>
+      <c r="B86" s="2"/>
+      <c r="C86" s="1"/>
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
       <c r="F86" s="21"/>
-      <c r="G86" s="1"/>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
+      <c r="G86" s="3"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="23" t="s">
+        <v>201</v>
+      </c>
       <c r="B87" s="2"/>
-      <c r="C87" s="1"/>
-      <c r="D87" s="1"/>
-      <c r="E87" s="1"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="11"/>
+      <c r="E87" s="11"/>
       <c r="F87" s="21"/>
-      <c r="G87" s="3"/>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="23" t="s">
-        <v>201</v>
-      </c>
-      <c r="B88" s="2"/>
-      <c r="C88" s="11"/>
-      <c r="D88" s="11"/>
-      <c r="E88" s="11"/>
-      <c r="F88" s="21"/>
-      <c r="G88" s="3" t="s">
+      <c r="G87" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="4">
+        <v>43213</v>
+      </c>
+      <c r="B88" s="2">
+        <v>4</v>
+      </c>
+      <c r="C88" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D88" s="11" t="s">
+        <v>203</v>
+      </c>
+      <c r="E88" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F88" s="27" t="s">
+        <v>242</v>
+      </c>
+      <c r="G88" s="2">
+        <f>SUM(B88:B98)</f>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="4">
         <v>43213</v>
       </c>
@@ -6629,82 +6651,78 @@
         <v>8</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F89" s="27" t="s">
         <v>242</v>
       </c>
-      <c r="G89" s="2">
-        <f>SUM(B89:B99)</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G89" s="1"/>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="4">
-        <v>43213</v>
+        <v>43214</v>
       </c>
       <c r="B90" s="2">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C90" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F90" s="27" t="s">
-        <v>242</v>
-      </c>
+      <c r="F90" s="27"/>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="4">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="10">
         <v>43214</v>
       </c>
-      <c r="B91" s="2">
+      <c r="B91" s="8">
         <v>1</v>
       </c>
       <c r="C91" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E91" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="27"/>
-      <c r="G91" s="1"/>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F91" s="27" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="10">
         <v>43214</v>
       </c>
       <c r="B92" s="8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C92" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E92" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F92" s="27" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="10">
-        <v>43214</v>
+        <v>43215</v>
       </c>
       <c r="B93" s="8">
         <v>3</v>
@@ -6713,7 +6731,7 @@
         <v>8</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>208</v>
+        <v>218</v>
       </c>
       <c r="E93" s="11" t="s">
         <v>16</v>
@@ -6722,27 +6740,27 @@
         <v>240</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="10">
-        <v>43215</v>
+        <v>43216</v>
       </c>
       <c r="B94" s="8">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C94" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="E94" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F94" s="27" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="10">
         <v>43216</v>
       </c>
@@ -6753,7 +6771,7 @@
         <v>8</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E95" s="11" t="s">
         <v>16</v>
@@ -6762,144 +6780,143 @@
         <v>241</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="10">
         <v>43216</v>
       </c>
-      <c r="B96" s="8">
+      <c r="B96" s="2">
         <v>2</v>
       </c>
       <c r="C96" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E96" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F96" s="27" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="10">
-        <v>43216</v>
+        <v>240</v>
+      </c>
+      <c r="G96" s="3"/>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="4">
+        <v>43217</v>
       </c>
       <c r="B97" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C97" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="E97" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F97" s="27" t="s">
-        <v>240</v>
-      </c>
-      <c r="G97" s="3"/>
-    </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+        <v>241</v>
+      </c>
+      <c r="G97" s="2"/>
+    </row>
+    <row r="98" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="4">
         <v>43217</v>
       </c>
-      <c r="B98" s="2">
+      <c r="B98" s="24">
         <v>1</v>
       </c>
       <c r="C98" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>219</v>
+        <v>52</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F98" s="27" t="s">
-        <v>241</v>
-      </c>
-      <c r="G98" s="2"/>
-    </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" s="4">
-        <v>43217</v>
-      </c>
-      <c r="B99" s="24">
-        <v>1</v>
-      </c>
-      <c r="C99" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D99" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E99" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F99" s="27"/>
+      <c r="F98" s="27"/>
+      <c r="G98" s="1"/>
+    </row>
+    <row r="99" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="4"/>
+      <c r="B99" s="2"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="11"/>
+      <c r="E99" s="11"/>
+      <c r="F99" s="21"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100" s="4"/>
+    <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="23" t="s">
+        <v>232</v>
+      </c>
       <c r="B100" s="2"/>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
       <c r="E100" s="11"/>
       <c r="F100" s="21"/>
-      <c r="G100" s="1"/>
-    </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101" s="23" t="s">
-        <v>232</v>
-      </c>
-      <c r="B101" s="2"/>
-      <c r="C101" s="11"/>
-      <c r="D101" s="11"/>
-      <c r="E101" s="11"/>
+      <c r="G100" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="M100" s="11"/>
+    </row>
+    <row r="101" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="4">
+        <v>43221</v>
+      </c>
+      <c r="B101" s="2">
+        <v>1</v>
+      </c>
+      <c r="C101" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D101" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="E101" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="F101" s="21"/>
-      <c r="G101" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M101" s="11"/>
-    </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G101" s="2">
+        <f>SUM(B101:B109)</f>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="4">
         <v>43221</v>
       </c>
       <c r="B102" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C102" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E102" s="11" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F102" s="21"/>
-      <c r="G102" s="2">
-        <f>SUM(B102:B110)</f>
-        <v>20</v>
-      </c>
-    </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G102" s="1"/>
+    </row>
+    <row r="103" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="4">
-        <v>43221</v>
-      </c>
-      <c r="B103" s="2">
-        <v>2</v>
+        <v>43222</v>
+      </c>
+      <c r="B103" s="8">
+        <v>4</v>
       </c>
       <c r="C103" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="E103" s="11" t="s">
         <v>19</v>
@@ -6907,68 +6924,68 @@
       <c r="F103" s="21"/>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="4">
-        <v>43222</v>
+        <v>43223</v>
       </c>
       <c r="B104" s="8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C104" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="E104" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F104" s="21"/>
-      <c r="G104" s="1"/>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="F104" s="26"/>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="4">
         <v>43223</v>
       </c>
-      <c r="B105" s="8">
-        <v>3</v>
+      <c r="B105" s="2">
+        <v>2</v>
       </c>
       <c r="C105" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="E105" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F105" s="26"/>
-    </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="G105" s="3"/>
+    </row>
+    <row r="106" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="4">
         <v>43223</v>
       </c>
       <c r="B106" s="2">
+        <v>4</v>
+      </c>
+      <c r="C106" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D106" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="E106" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F106" s="21"/>
+      <c r="G106" s="2"/>
+    </row>
+    <row r="107" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="10">
+        <v>43224</v>
+      </c>
+      <c r="B107" s="8">
         <v>2</v>
-      </c>
-      <c r="C106" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D106" s="11" t="s">
-        <v>247</v>
-      </c>
-      <c r="E106" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F106" s="26"/>
-      <c r="G106" s="3"/>
-    </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107" s="4">
-        <v>43223</v>
-      </c>
-      <c r="B107" s="2">
-        <v>4</v>
       </c>
       <c r="C107" s="11" t="s">
         <v>8</v>
@@ -6980,27 +6997,26 @@
         <v>19</v>
       </c>
       <c r="F107" s="21"/>
-      <c r="G107" s="2"/>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="10">
         <v>43224</v>
       </c>
-      <c r="B108" s="8">
-        <v>2</v>
+      <c r="B108" s="2">
+        <v>1</v>
       </c>
       <c r="C108" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="E108" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F108" s="21"/>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="10">
         <v>43224</v>
       </c>
@@ -7008,121 +7024,122 @@
         <v>1</v>
       </c>
       <c r="C109" s="11" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="E109" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F109" s="21"/>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" s="10">
-        <v>43224</v>
-      </c>
-      <c r="B110" s="2">
-        <v>1</v>
-      </c>
-      <c r="C110" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="D110" s="11" t="s">
-        <v>254</v>
-      </c>
-      <c r="E110" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="F110" s="21"/>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111" s="10"/>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="10"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="11"/>
+      <c r="E110" s="11"/>
+      <c r="F110" s="26"/>
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="23" t="s">
+        <v>256</v>
+      </c>
       <c r="C111" s="11"/>
       <c r="D111" s="11"/>
       <c r="E111" s="11"/>
       <c r="F111" s="26"/>
-    </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="C112" s="11"/>
-      <c r="D112" s="11"/>
-      <c r="E112" s="11"/>
+      <c r="G111" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="10">
+        <v>43227</v>
+      </c>
+      <c r="B112" s="8">
+        <v>6</v>
+      </c>
+      <c r="C112" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D112" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="E112" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="F112" s="26"/>
-      <c r="G112" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="10">
-        <v>43227</v>
+      <c r="G112" s="2">
+        <f>SUM(B112:B117)</f>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="22">
+        <v>43228</v>
       </c>
       <c r="B113" s="8">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C113" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>257</v>
+        <v>181</v>
       </c>
       <c r="E113" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F113" s="26"/>
-      <c r="G113" s="2">
-        <f>SUM(B113:B118)</f>
-        <v>22.5</v>
-      </c>
-    </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="22">
-        <v>43228</v>
-      </c>
-      <c r="B114" s="8">
-        <v>5</v>
+      <c r="G113" s="3"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="4">
+        <v>43229</v>
+      </c>
+      <c r="B114" s="2">
+        <v>3</v>
       </c>
       <c r="C114" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>181</v>
+        <v>258</v>
       </c>
       <c r="E114" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F114" s="26"/>
-      <c r="G114" s="3"/>
-    </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F114" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="G114" s="2"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="4">
-        <v>43229</v>
+        <v>43230</v>
       </c>
       <c r="B115" s="2">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C115" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>258</v>
+        <v>271</v>
       </c>
       <c r="E115" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F115" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="G115" s="2"/>
-    </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F115" s="21"/>
+      <c r="G115" s="1"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="4">
-        <v>43230</v>
-      </c>
-      <c r="B116" s="2">
-        <v>6</v>
+        <v>43231</v>
+      </c>
+      <c r="B116" s="8">
+        <v>2</v>
       </c>
       <c r="C116" s="11" t="s">
         <v>8</v>
@@ -7136,410 +7153,411 @@
       <c r="F116" s="21"/>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="4">
         <v>43231</v>
       </c>
-      <c r="B117" s="8">
-        <v>2</v>
+      <c r="B117" s="2">
+        <v>0.5</v>
       </c>
       <c r="C117" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>271</v>
+        <v>52</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F117" s="21"/>
-      <c r="G117" s="1"/>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="4">
-        <v>43231</v>
-      </c>
-      <c r="B118" s="2">
-        <v>0.5</v>
-      </c>
-      <c r="C118" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D118" s="11" t="s">
-        <v>52</v>
-      </c>
-      <c r="E118" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="F117" s="26"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="10"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="11"/>
+      <c r="E118" s="11"/>
       <c r="F118" s="26"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="10"/>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="23" t="s">
+        <v>272</v>
+      </c>
       <c r="C119" s="11"/>
       <c r="D119" s="11"/>
       <c r="E119" s="11"/>
-      <c r="F119" s="26"/>
-    </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="23" t="s">
-        <v>272</v>
-      </c>
-      <c r="C120" s="11"/>
-      <c r="D120" s="11"/>
-      <c r="E120" s="11"/>
-      <c r="F120" s="27"/>
-      <c r="G120" s="3" t="s">
+      <c r="F119" s="27"/>
+      <c r="G119" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="4">
+        <v>43234</v>
+      </c>
+      <c r="B120" s="2">
+        <v>2</v>
+      </c>
+      <c r="C120" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D120" s="11" t="s">
+        <v>276</v>
+      </c>
+      <c r="E120" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="F120" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="G120" s="2">
+        <f>SUM(B120:B128)</f>
+        <v>25.5</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="4">
         <v>43234</v>
       </c>
-      <c r="B121" s="2">
+      <c r="B121" s="8">
         <v>2</v>
       </c>
       <c r="C121" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E121" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="F121" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="G121" s="2">
-        <f>SUM(B121:B129)</f>
-        <v>25.5</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="4">
-        <v>43234</v>
+        <v>19</v>
+      </c>
+      <c r="F121" s="27" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="10">
+        <v>43235</v>
       </c>
       <c r="B122" s="8">
-        <v>2</v>
+        <v>3.5</v>
       </c>
       <c r="C122" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E122" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F122" s="27" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="10">
-        <v>43235</v>
-      </c>
-      <c r="B123" s="8">
-        <v>3.5</v>
+      <c r="F122" s="20" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="22">
+        <v>43236</v>
+      </c>
+      <c r="B123" s="2">
+        <v>5</v>
       </c>
       <c r="C123" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="E123" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F123" s="20" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="22">
+      <c r="F123" s="27" t="s">
+        <v>278</v>
+      </c>
+      <c r="G123" s="25"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="4">
         <v>43236</v>
       </c>
-      <c r="B124" s="2">
-        <v>5</v>
+      <c r="B124" s="25">
+        <v>1</v>
       </c>
       <c r="C124" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E124" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F124" s="27" t="s">
-        <v>278</v>
-      </c>
-      <c r="G124" s="25"/>
-    </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F124" s="20" t="s">
+        <v>283</v>
+      </c>
+      <c r="G124" s="2"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="4">
-        <v>43236</v>
+        <v>43237</v>
       </c>
       <c r="B125" s="25">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="C125" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="E125" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F125" s="20" t="s">
-        <v>283</v>
-      </c>
-      <c r="G125" s="2"/>
-    </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="4">
-        <v>43237</v>
-      </c>
-      <c r="B126" s="25">
-        <v>7</v>
+      <c r="F125" s="14"/>
+      <c r="G125" s="1"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="22">
+        <v>43238</v>
+      </c>
+      <c r="B126" s="8">
+        <v>4</v>
       </c>
       <c r="C126" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="E126" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F126" s="14"/>
-      <c r="G126" s="1"/>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="22">
+      <c r="F126" s="20"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" s="10">
         <v>43238</v>
       </c>
-      <c r="B127" s="8">
-        <v>4</v>
+      <c r="B127" s="2">
+        <v>1</v>
       </c>
       <c r="C127" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E127" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F127" s="20"/>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="10">
-        <v>43238</v>
-      </c>
-      <c r="B128" s="2">
-        <v>1</v>
-      </c>
-      <c r="C128" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D128" s="11" t="s">
-        <v>288</v>
-      </c>
-      <c r="E128" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="F127" s="14"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="B128" s="2"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="11"/>
+      <c r="E128" s="11"/>
       <c r="F128" s="14"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" s="3" t="s">
+        <v>291</v>
+      </c>
       <c r="B129" s="2"/>
       <c r="C129" s="11"/>
       <c r="D129" s="11"/>
       <c r="E129" s="11"/>
       <c r="F129" s="14"/>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="B130" s="2"/>
-      <c r="C130" s="11"/>
-      <c r="D130" s="11"/>
-      <c r="E130" s="11"/>
+      <c r="G129" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" s="10">
+        <v>43241</v>
+      </c>
+      <c r="B130" s="2">
+        <v>3</v>
+      </c>
+      <c r="C130" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D130" s="11" t="s">
+        <v>294</v>
+      </c>
+      <c r="E130" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="F130" s="14"/>
-      <c r="G130" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G130" s="2">
+        <f>SUM(B130:B136)</f>
+        <v>24.5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="10">
-        <v>43241</v>
+        <v>43242</v>
       </c>
       <c r="B131" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C131" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="E131" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F131" s="14"/>
-      <c r="G131" s="2">
-        <f>SUM(B131:B137)</f>
-        <v>24.5</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="10">
         <v>43242</v>
       </c>
       <c r="B132" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C132" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E132" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F132" s="14"/>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="10">
-        <v>43242</v>
-      </c>
-      <c r="B133" s="2">
-        <v>3</v>
+        <v>43243</v>
+      </c>
+      <c r="B133" s="8">
+        <v>5</v>
       </c>
       <c r="C133" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>294</v>
+        <v>338</v>
       </c>
       <c r="E133" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F133" s="14"/>
-    </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F133" s="11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="10">
-        <v>43243</v>
+        <v>43244</v>
       </c>
       <c r="B134" s="8">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C134" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="E134" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F134" s="11" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="10">
-        <v>43244</v>
+        <v>43245</v>
       </c>
       <c r="B135" s="8">
-        <v>8</v>
+        <v>0.5</v>
       </c>
       <c r="C135" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>339</v>
+        <v>287</v>
       </c>
       <c r="E135" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F135" s="11" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="10">
         <v>43245</v>
       </c>
       <c r="B136" s="8">
-        <v>0.5</v>
+        <v>4</v>
       </c>
       <c r="C136" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>287</v>
+        <v>340</v>
       </c>
       <c r="E136" s="11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="10">
-        <v>43245</v>
-      </c>
-      <c r="B137" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" s="3" t="s">
+        <v>312</v>
+      </c>
+      <c r="G138" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" s="10">
+        <v>43248</v>
+      </c>
+      <c r="B139" s="8">
         <v>4</v>
       </c>
-      <c r="C137" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D137" s="11" t="s">
-        <v>340</v>
-      </c>
-      <c r="E137" s="11" t="s">
+      <c r="C139" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D139" s="11" t="s">
+        <v>336</v>
+      </c>
+      <c r="E139" s="11" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="G139" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="F139" s="11" t="s">
+        <v>344</v>
+      </c>
+      <c r="G139" s="8">
+        <f>SUM(B139:B147)</f>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="10">
         <v>43248</v>
       </c>
       <c r="B140" s="8">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C140" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>336</v>
+        <v>247</v>
       </c>
       <c r="E140" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F140" s="11" t="s">
-        <v>344</v>
-      </c>
-      <c r="G140" s="8">
-        <f>SUM(B140:B148)</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="10">
-        <v>43248</v>
+        <v>43249</v>
       </c>
       <c r="B141" s="8">
         <v>1</v>
@@ -7557,7 +7575,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="10">
         <v>43249</v>
       </c>
@@ -7568,32 +7586,12 @@
         <v>8</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>247</v>
+        <v>337</v>
       </c>
       <c r="E142" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F142" s="11" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="10">
-        <v>43249</v>
-      </c>
-      <c r="B143" s="8">
-        <v>1</v>
-      </c>
-      <c r="C143" s="11" t="s">
-        <v>8</v>
-      </c>
-      <c r="D143" s="11" t="s">
-        <v>337</v>
-      </c>
-      <c r="E143" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F143" s="11" t="s">
         <v>344</v>
       </c>
     </row>
@@ -7611,9 +7609,9 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>38</v>
       </c>
@@ -7624,7 +7622,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7640,7 +7638,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7656,7 +7654,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7672,12 +7670,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" s="28" t="str">
-        <f>Raphael!G32</f>
+        <f>Raphael!G31</f>
         <v>Total / Woche</v>
       </c>
       <c r="C5" s="28">
@@ -7688,12 +7686,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" s="28">
-        <f>Raphael!G41</f>
+        <f>Raphael!G40</f>
         <v>0</v>
       </c>
       <c r="C6" s="28">
@@ -7704,12 +7702,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" s="28">
-        <f>Raphael!G51</f>
+        <f>Raphael!G50</f>
         <v>0</v>
       </c>
       <c r="C7" s="28">
@@ -7720,12 +7718,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" s="28">
-        <f>Raphael!G61</f>
+        <f>Raphael!G60</f>
         <v>0</v>
       </c>
       <c r="C8" s="28">
@@ -7736,12 +7734,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" s="28">
-        <f>Raphael!G71</f>
+        <f>Raphael!G70</f>
         <v>0</v>
       </c>
       <c r="C9" s="28">
@@ -7752,12 +7750,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" s="28">
-        <f>Raphael!G79</f>
+        <f>Raphael!G78</f>
         <v>0</v>
       </c>
       <c r="C10" s="28">
@@ -7768,12 +7766,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" s="28" t="str">
-        <f>Raphael!G88</f>
+        <f>Raphael!G87</f>
         <v>Total / Woche</v>
       </c>
       <c r="C11" s="28">
@@ -7784,12 +7782,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" s="28">
-        <f>Raphael!G98</f>
+        <f>Raphael!G97</f>
         <v>0</v>
       </c>
       <c r="C12" s="28">
@@ -7800,12 +7798,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" s="28">
-        <f>Raphael!G107</f>
+        <f>Raphael!G106</f>
         <v>0</v>
       </c>
       <c r="C13" s="28">
@@ -7816,12 +7814,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" s="28">
-        <f>Raphael!G115</f>
+        <f>Raphael!G114</f>
         <v>0</v>
       </c>
       <c r="C14" s="28">
@@ -7832,12 +7830,12 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" s="28">
-        <f>Raphael!G125</f>
+        <f>Raphael!G124</f>
         <v>0</v>
       </c>
       <c r="C15" s="28">
@@ -7848,7 +7846,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -7875,12 +7873,12 @@
       <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9"/>
       <c r="B9" t="s">
         <v>38</v>
@@ -7892,12 +7890,12 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B10">
-        <f>SUMIF(Raphael!$E$5:$E$133,Raphael!L2,Raphael!$B$5:$B$133)</f>
+        <f>SUMIF(Raphael!$E$5:$E$132,Raphael!L2,Raphael!$B$5:$B$132)</f>
         <v>37</v>
       </c>
       <c r="C10" s="29">
@@ -7910,16 +7908,16 @@
       </c>
       <c r="E10" s="30">
         <f>D10/D$15*100</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+        <v>12.976406533575318</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B11">
-        <f>SUMIF(Raphael!$E$5:$E$133,Raphael!L3,Raphael!$B$5:$B$133)</f>
-        <v>58.5</v>
+        <f>SUMIF(Raphael!$E$5:$E$132,Raphael!L3,Raphael!$B$5:$B$132)</f>
+        <v>59.5</v>
       </c>
       <c r="C11">
         <f>SUMIF(Nico!$E$4:$E$150,Nico!L3,Nico!$B$4:$B$150)</f>
@@ -7927,19 +7925,19 @@
       </c>
       <c r="D11">
         <f>SUM(B11:C11)</f>
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E11" s="30">
         <f t="shared" ref="E11:E15" si="0">D11/D$15*100</f>
-        <v>22.545454545454547</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+        <v>22.686025408348456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B12">
-        <f>SUMIF(Raphael!$E$5:$E$133,Raphael!L4,Raphael!$B$5:$B$133)</f>
+        <f>SUMIF(Raphael!$E$5:$E$132,Raphael!L4,Raphael!$B$5:$B$132)</f>
         <v>18</v>
       </c>
       <c r="C12">
@@ -7952,15 +7950,15 @@
       </c>
       <c r="E12" s="30">
         <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+        <v>5.9891107078039925</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B13">
-        <f>SUMIF(Raphael!$E$5:$E$133,Raphael!L5,Raphael!$B$5:$B$133)</f>
+        <f>SUMIF(Raphael!$E$5:$E$132,Raphael!L5,Raphael!$B$5:$B$132)</f>
         <v>104.5</v>
       </c>
       <c r="C13">
@@ -7973,15 +7971,15 @@
       </c>
       <c r="E13" s="30">
         <f t="shared" si="0"/>
-        <v>41.954545454545453</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+        <v>41.878402903811249</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B14">
-        <f>SUMIF(Raphael!$E$5:$E$133,Raphael!L6,Raphael!$B$5:$B$133)</f>
+        <f>SUMIF(Raphael!$E$5:$E$132,Raphael!L6,Raphael!$B$5:$B$132)</f>
         <v>33.25</v>
       </c>
       <c r="C14">
@@ -7994,16 +7992,16 @@
       </c>
       <c r="E14" s="30">
         <f t="shared" si="0"/>
-        <v>16.5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+        <v>16.470054446460981</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="11" t="s">
         <v>22</v>
       </c>
       <c r="B15">
         <f>SUM(B10:B14)</f>
-        <v>251.25</v>
+        <v>252.25</v>
       </c>
       <c r="C15">
         <f>SUM(C10:C14)</f>
@@ -8011,7 +8009,7 @@
       </c>
       <c r="D15">
         <f>SUM(D10:D14)</f>
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="E15" s="30">
         <f t="shared" si="0"/>
@@ -8033,7 +8031,7 @@
       <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8041,30 +8039,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:L150"/>
+  <dimension ref="A1:M150"/>
   <sheetViews>
-    <sheetView topLeftCell="A133" workbookViewId="0">
-      <selection activeCell="E142" sqref="E142"/>
+    <sheetView topLeftCell="A128" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="11.42578125" style="2"/>
-    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="14" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="1"/>
-    <col min="11" max="11" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.41796875" style="1"/>
+    <col min="2" max="2" width="11.41796875" style="2"/>
+    <col min="3" max="3" width="12.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.68359375" style="14" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.41796875" style="1"/>
+    <col min="9" max="9" width="14.68359375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.41796875" style="1"/>
+    <col min="11" max="11" width="26.41796875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="16384" width="11.41796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
@@ -8086,8 +8084,11 @@
       <c r="L1" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
@@ -8097,8 +8098,11 @@
       <c r="L2" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M2" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -8114,8 +8118,11 @@
       <c r="L3" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4">
         <v>43150</v>
       </c>
@@ -8145,8 +8152,11 @@
       <c r="L4" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M4" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4">
         <v>43152</v>
       </c>
@@ -8168,8 +8178,11 @@
       <c r="L5" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M5" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4">
         <v>43153</v>
       </c>
@@ -8194,8 +8207,11 @@
       <c r="L6" s="1" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M6" s="11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4">
         <v>43154</v>
       </c>
@@ -8216,7 +8232,7 @@
         <v>20.76923076923077</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4">
         <v>43154</v>
       </c>
@@ -8233,7 +8249,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="23" t="s">
         <v>47</v>
       </c>
@@ -8241,7 +8257,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="22">
         <v>43158</v>
       </c>
@@ -8262,7 +8278,7 @@
         <v>13.75</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4">
         <v>43159</v>
       </c>
@@ -8280,7 +8296,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4">
         <v>43159</v>
       </c>
@@ -8297,7 +8313,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4">
         <v>43160</v>
       </c>
@@ -8314,7 +8330,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4">
         <v>43161</v>
       </c>
@@ -8334,7 +8350,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4">
         <v>43161</v>
       </c>
@@ -8354,7 +8370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="23" t="s">
         <v>100</v>
       </c>
@@ -8365,7 +8381,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4">
         <v>43162</v>
       </c>
@@ -8386,7 +8402,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4">
         <v>43162</v>
       </c>
@@ -8406,7 +8422,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4">
         <v>43163</v>
       </c>
@@ -8426,7 +8442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4">
         <v>43164</v>
       </c>
@@ -8446,7 +8462,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4">
         <v>43165</v>
       </c>
@@ -8466,7 +8482,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4">
         <v>43166</v>
       </c>
@@ -8486,7 +8502,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="22">
         <v>43167</v>
       </c>
@@ -8506,7 +8522,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4">
         <v>43167</v>
       </c>
@@ -8526,7 +8542,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4">
         <v>43168</v>
       </c>
@@ -8546,7 +8562,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="22">
         <v>43168</v>
       </c>
@@ -8567,7 +8583,7 @@
       </c>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4">
         <v>43168</v>
       </c>
@@ -8588,7 +8604,7 @@
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="23" t="s">
         <v>114</v>
       </c>
@@ -8599,7 +8615,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="4">
         <v>43169</v>
       </c>
@@ -8623,7 +8639,7 @@
         <v>21.25</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="4">
         <v>43170</v>
       </c>
@@ -8643,7 +8659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="37">
         <v>43171</v>
       </c>
@@ -8663,7 +8679,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="4">
         <v>43171</v>
       </c>
@@ -8683,7 +8699,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="4">
         <v>43171</v>
       </c>
@@ -8703,7 +8719,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="4">
         <v>43172</v>
       </c>
@@ -8723,7 +8739,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="4">
         <v>43173</v>
       </c>
@@ -8743,7 +8759,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="4">
         <v>43174</v>
       </c>
@@ -8763,7 +8779,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="4">
         <v>43174</v>
       </c>
@@ -8783,7 +8799,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="22">
         <v>43174</v>
       </c>
@@ -8801,7 +8817,7 @@
       </c>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="4">
         <v>43175</v>
       </c>
@@ -8819,7 +8835,7 @@
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="4">
         <v>43175</v>
       </c>
@@ -8839,7 +8855,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="22">
         <v>43175</v>
       </c>
@@ -8859,7 +8875,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="4">
         <v>43175</v>
       </c>
@@ -8873,7 +8889,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="23" t="s">
         <v>133</v>
       </c>
@@ -8881,7 +8897,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="4">
         <v>43179</v>
       </c>
@@ -8905,7 +8921,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="4">
         <v>43179</v>
       </c>
@@ -8925,7 +8941,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="4">
         <v>43180</v>
       </c>
@@ -8945,7 +8961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="4">
         <v>43180</v>
       </c>
@@ -8965,7 +8981,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="4">
         <v>43181</v>
       </c>
@@ -8985,7 +9001,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="4">
         <v>43181</v>
       </c>
@@ -9005,7 +9021,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="4">
         <v>43181</v>
       </c>
@@ -9025,7 +9041,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="4">
         <v>43182</v>
       </c>
@@ -9042,7 +9058,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="22">
         <v>43154</v>
       </c>
@@ -9059,7 +9075,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="23" t="s">
         <v>143</v>
       </c>
@@ -9068,7 +9084,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="22">
         <v>43183</v>
       </c>
@@ -9089,7 +9105,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="4">
         <v>43185</v>
       </c>
@@ -9110,7 +9126,7 @@
       </c>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="4">
         <v>43185</v>
       </c>
@@ -9130,7 +9146,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="4">
         <v>43185</v>
       </c>
@@ -9150,7 +9166,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="4">
         <v>43186</v>
       </c>
@@ -9170,7 +9186,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="4">
         <v>43187</v>
       </c>
@@ -9187,7 +9203,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="4">
         <v>43187</v>
       </c>
@@ -9204,7 +9220,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="4">
         <v>43188</v>
       </c>
@@ -9221,7 +9237,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="4">
         <v>43189</v>
       </c>
@@ -9238,7 +9254,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="4">
         <v>43189</v>
       </c>
@@ -9255,7 +9271,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="23" t="s">
         <v>165</v>
       </c>
@@ -9264,7 +9280,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="22">
         <v>43192</v>
       </c>
@@ -9288,7 +9304,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="4">
         <v>43193</v>
       </c>
@@ -9309,7 +9325,7 @@
       </c>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="4">
         <v>43194</v>
       </c>
@@ -9329,7 +9345,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="4">
         <v>43195</v>
       </c>
@@ -9349,7 +9365,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="4">
         <v>43195</v>
       </c>
@@ -9366,7 +9382,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="4">
         <v>43195</v>
       </c>
@@ -9386,7 +9402,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="4">
         <v>43196</v>
       </c>
@@ -9406,7 +9422,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="23" t="s">
         <v>178</v>
       </c>
@@ -9417,7 +9433,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="4">
         <v>43197</v>
       </c>
@@ -9441,7 +9457,7 @@
         <v>25.25</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="4">
         <v>43198</v>
       </c>
@@ -9461,7 +9477,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="4">
         <v>43199</v>
       </c>
@@ -9481,7 +9497,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="4">
         <v>43199</v>
       </c>
@@ -9509,7 +9525,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="4">
         <v>43199</v>
       </c>
@@ -9537,7 +9553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="4">
         <v>43202</v>
       </c>
@@ -9564,7 +9580,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="4">
         <v>43203</v>
       </c>
@@ -9589,7 +9605,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="4">
         <v>43203</v>
       </c>
@@ -9616,7 +9632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="23" t="s">
         <v>194</v>
       </c>
@@ -9636,7 +9652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="4">
         <v>43205</v>
       </c>
@@ -9667,7 +9683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="4">
         <v>43206</v>
       </c>
@@ -9694,7 +9710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="4">
         <v>43206</v>
       </c>
@@ -9721,7 +9737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="4">
         <v>43206</v>
       </c>
@@ -9749,7 +9765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="4">
         <v>43207</v>
       </c>
@@ -9777,7 +9793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="4">
         <v>43207</v>
       </c>
@@ -9804,7 +9820,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="4">
         <v>43208</v>
       </c>
@@ -9831,7 +9847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="4">
         <v>43208</v>
       </c>
@@ -9858,7 +9874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="4">
         <v>43209</v>
       </c>
@@ -9885,7 +9901,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="4">
         <v>43209</v>
       </c>
@@ -9912,7 +9928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="4">
         <v>43209</v>
       </c>
@@ -9939,7 +9955,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="22">
         <v>43210</v>
       </c>
@@ -9964,7 +9980,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="4">
         <v>43210</v>
       </c>
@@ -9991,7 +10007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="23" t="s">
         <v>201</v>
       </c>
@@ -10009,7 +10025,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="22">
         <v>43214</v>
       </c>
@@ -10040,7 +10056,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="22">
         <v>43214</v>
       </c>
@@ -10068,7 +10084,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="4">
         <v>43215</v>
       </c>
@@ -10095,7 +10111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="4">
         <v>43216</v>
       </c>
@@ -10122,7 +10138,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="4">
         <v>43216</v>
       </c>
@@ -10149,7 +10165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="4">
         <v>43217</v>
       </c>
@@ -10173,7 +10189,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="4">
         <v>43217</v>
       </c>
@@ -10200,7 +10216,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="4">
         <v>43217</v>
       </c>
@@ -10227,7 +10243,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="23" t="s">
         <v>232</v>
       </c>
@@ -10245,7 +10261,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="22">
         <v>43218</v>
       </c>
@@ -10276,7 +10292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="22">
         <v>43220</v>
       </c>
@@ -10304,7 +10320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="10">
         <v>43250</v>
       </c>
@@ -10332,7 +10348,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="4">
         <v>43221</v>
       </c>
@@ -10359,7 +10375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="4">
         <v>43222</v>
       </c>
@@ -10386,7 +10402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="4">
         <v>43223</v>
       </c>
@@ -10413,7 +10429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="4">
         <v>43224</v>
       </c>
@@ -10440,7 +10456,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="4">
         <v>43224</v>
       </c>
@@ -10464,7 +10480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="23" t="s">
         <v>256</v>
       </c>
@@ -10479,7 +10495,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="4">
         <v>43227</v>
       </c>
@@ -10510,7 +10526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="4">
         <v>43227</v>
       </c>
@@ -10530,7 +10546,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="4">
         <v>43229</v>
       </c>
@@ -10550,7 +10566,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="22">
         <v>43230</v>
       </c>
@@ -10570,7 +10586,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="4">
         <v>43231</v>
       </c>
@@ -10595,7 +10611,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="4">
         <v>43231</v>
       </c>
@@ -10612,7 +10628,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="23" t="s">
         <v>272</v>
       </c>
@@ -10626,7 +10642,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="4">
         <v>43233</v>
       </c>
@@ -10654,7 +10670,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="4">
         <v>43234</v>
       </c>
@@ -10674,7 +10690,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="22">
         <v>43234</v>
       </c>
@@ -10694,7 +10710,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="22">
         <v>43235</v>
       </c>
@@ -10715,7 +10731,7 @@
       </c>
       <c r="G124" s="11"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="4">
         <v>43236</v>
       </c>
@@ -10736,7 +10752,7 @@
       </c>
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="4">
         <v>43237</v>
       </c>
@@ -10754,7 +10770,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="4">
         <v>43237</v>
       </c>
@@ -10772,7 +10788,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="22">
         <v>43238</v>
       </c>
@@ -10792,7 +10808,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="4">
         <v>43238</v>
       </c>
@@ -10809,7 +10825,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="23" t="s">
         <v>291</v>
       </c>
@@ -10817,7 +10833,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="4">
         <v>43241</v>
       </c>
@@ -10841,7 +10857,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="4">
         <v>43242</v>
       </c>
@@ -10861,7 +10877,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="4">
         <v>43243</v>
       </c>
@@ -10881,7 +10897,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="4">
         <v>43245</v>
       </c>
@@ -10901,7 +10917,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="4">
         <v>43246</v>
       </c>
@@ -10918,7 +10934,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="4">
         <v>43246</v>
       </c>
@@ -10935,7 +10951,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="23" t="s">
         <v>312</v>
       </c>
@@ -10946,7 +10962,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="4">
         <v>43246</v>
       </c>
@@ -10970,7 +10986,7 @@
         <v>8.75</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="4">
         <v>43247</v>
       </c>
@@ -10990,7 +11006,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="4">
         <v>43248</v>
       </c>
@@ -11010,7 +11026,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="4">
         <v>43249</v>
       </c>
@@ -11027,12 +11043,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="3"/>
       <c r="D142" s="11"/>
       <c r="G142" s="25"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="4"/>
       <c r="B143" s="25"/>
       <c r="C143" s="11"/>
@@ -11040,39 +11056,39 @@
       <c r="E143" s="11"/>
       <c r="G143" s="2"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="4"/>
       <c r="C144" s="11"/>
       <c r="D144" s="11"/>
       <c r="E144" s="11"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="22"/>
       <c r="C145" s="11"/>
       <c r="D145" s="11"/>
       <c r="E145" s="11"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C146" s="11"/>
       <c r="D146" s="11"/>
       <c r="E146" s="11"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C147" s="11"/>
       <c r="D147" s="11"/>
       <c r="E147" s="11"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
       <c r="E148" s="11"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C149" s="11"/>
       <c r="D149" s="11"/>
       <c r="E149" s="11"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="C150" s="11"/>
       <c r="D150" s="11"/>
       <c r="E150" s="11"/>
@@ -11091,19 +11107,19 @@
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="90.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.26171875" customWidth="1"/>
+    <col min="5" max="5" width="7.26171875" customWidth="1"/>
+    <col min="6" max="6" width="6.15625" customWidth="1"/>
+    <col min="8" max="8" width="22.41796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
@@ -11129,7 +11145,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -11149,7 +11165,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="35">
         <v>2</v>
       </c>
@@ -11167,7 +11183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="33">
         <v>3</v>
       </c>
@@ -11185,7 +11201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="35">
         <v>4</v>
       </c>
@@ -11205,7 +11221,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="33">
         <v>5</v>
       </c>
@@ -11223,7 +11239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="35">
         <v>6</v>
       </c>
@@ -11241,7 +11257,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="33">
         <v>7</v>
       </c>
@@ -11259,7 +11275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="35">
         <v>8</v>
       </c>
@@ -11279,7 +11295,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="33">
         <v>9</v>
       </c>
@@ -11297,7 +11313,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="35">
         <v>10</v>
       </c>
@@ -11315,7 +11331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="33">
         <v>11</v>
       </c>
@@ -11335,7 +11351,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="35">
         <v>12</v>
       </c>
@@ -11353,7 +11369,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="33">
         <v>13</v>
       </c>
@@ -11371,7 +11387,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="35">
         <v>14</v>
       </c>
@@ -11391,7 +11407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="33">
         <v>15</v>
       </c>
@@ -11409,7 +11425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="35">
         <v>16</v>
       </c>
@@ -11429,7 +11445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="33">
         <v>17</v>
       </c>
@@ -11447,7 +11463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="35">
         <v>18</v>
       </c>
@@ -11467,7 +11483,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="33">
         <v>19</v>
       </c>
@@ -11487,7 +11503,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="35">
         <v>20</v>
       </c>
@@ -11505,7 +11521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="33">
         <v>21</v>
       </c>
@@ -11523,7 +11539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="35">
         <v>22</v>
       </c>
@@ -11543,7 +11559,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="33">
         <v>23</v>
       </c>
@@ -11561,7 +11577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="35">
         <v>24</v>
       </c>
@@ -11581,7 +11597,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="33">
         <v>25</v>
       </c>
@@ -11601,7 +11617,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="35">
         <v>26</v>
       </c>
@@ -11613,7 +11629,7 @@
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="33">
         <v>27</v>
       </c>
@@ -11625,7 +11641,7 @@
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="35">
         <v>28</v>
       </c>
@@ -11639,7 +11655,7 @@
       </c>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="33">
         <v>29</v>
       </c>
@@ -11651,7 +11667,7 @@
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="35">
         <v>30</v>
       </c>
@@ -11661,7 +11677,7 @@
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="33">
         <v>31</v>
       </c>
@@ -11671,7 +11687,7 @@
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="35">
         <v>32</v>
       </c>
@@ -11681,7 +11697,7 @@
       <c r="E33" s="35"/>
       <c r="F33" s="35"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="33">
         <v>33</v>
       </c>
@@ -11705,19 +11721,19 @@
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="90.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.26171875" customWidth="1"/>
+    <col min="5" max="5" width="7.26171875" customWidth="1"/>
+    <col min="6" max="6" width="6.15625" customWidth="1"/>
+    <col min="8" max="8" width="22.41796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
@@ -11743,7 +11759,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -11759,7 +11775,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="35">
         <v>2</v>
       </c>
@@ -11775,7 +11791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="33">
         <v>3</v>
       </c>
@@ -11791,7 +11807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="35">
         <v>4</v>
       </c>
@@ -11807,7 +11823,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="33">
         <v>5</v>
       </c>
@@ -11823,7 +11839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="35">
         <v>6</v>
       </c>
@@ -11839,7 +11855,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="33">
         <v>7</v>
       </c>
@@ -11855,7 +11871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="35">
         <v>8</v>
       </c>
@@ -11871,7 +11887,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="33">
         <v>9</v>
       </c>
@@ -11887,7 +11903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="35">
         <v>10</v>
       </c>
@@ -11903,7 +11919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="33">
         <v>11</v>
       </c>
@@ -11919,7 +11935,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="35">
         <v>12</v>
       </c>
@@ -11935,7 +11951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="33">
         <v>13</v>
       </c>
@@ -11951,7 +11967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="35">
         <v>14</v>
       </c>
@@ -11969,7 +11985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="33">
         <v>15</v>
       </c>
@@ -11985,7 +12001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="35">
         <v>16</v>
       </c>
@@ -12001,7 +12017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="33">
         <v>17</v>
       </c>
@@ -12017,7 +12033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="35"/>
       <c r="B19" s="36"/>
       <c r="C19" s="35"/>
@@ -12029,7 +12045,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="33"/>
       <c r="B20" s="34"/>
       <c r="C20" s="33"/>
@@ -12041,7 +12057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="35"/>
@@ -12053,7 +12069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="33"/>
       <c r="B22" s="34"/>
       <c r="C22" s="33"/>
@@ -12065,7 +12081,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="35"/>
       <c r="B23" s="36"/>
       <c r="C23" s="35"/>
@@ -12077,7 +12093,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="33"/>
       <c r="B24" s="34"/>
       <c r="C24" s="33"/>
@@ -12089,7 +12105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="35"/>
       <c r="B25" s="36"/>
       <c r="C25" s="35"/>
@@ -12101,7 +12117,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="33"/>
       <c r="B26" s="34"/>
       <c r="C26" s="33"/>
@@ -12113,7 +12129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="35"/>
       <c r="B27" s="36"/>
       <c r="C27" s="35"/>
@@ -12121,7 +12137,7 @@
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="33"/>
       <c r="B28" s="34"/>
       <c r="C28" s="33"/>
@@ -12129,7 +12145,7 @@
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="35"/>
       <c r="B29" s="36"/>
       <c r="C29" s="35"/>
@@ -12137,7 +12153,7 @@
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="33"/>
       <c r="B30" s="34"/>
       <c r="C30" s="33"/>
@@ -12145,7 +12161,7 @@
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="35"/>
       <c r="B31" s="36"/>
       <c r="C31" s="35"/>
@@ -12153,7 +12169,7 @@
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="33"/>
       <c r="B32" s="34"/>
       <c r="C32" s="33"/>
@@ -12161,7 +12177,7 @@
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="35"/>
       <c r="B33" s="36"/>
       <c r="C33" s="35"/>
@@ -12169,7 +12185,7 @@
       <c r="E33" s="35"/>
       <c r="F33" s="35"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="33"/>
       <c r="B34" s="34"/>
       <c r="C34" s="33"/>
@@ -12191,19 +12207,19 @@
       <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="90.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.26171875" customWidth="1"/>
+    <col min="5" max="5" width="7.26171875" customWidth="1"/>
+    <col min="6" max="6" width="6.15625" customWidth="1"/>
+    <col min="8" max="8" width="22.41796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
@@ -12229,7 +12245,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -12245,7 +12261,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="35">
         <v>2</v>
       </c>
@@ -12261,7 +12277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="33">
         <v>3</v>
       </c>
@@ -12277,7 +12293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="35">
         <v>4</v>
       </c>
@@ -12293,7 +12309,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="33">
         <v>5</v>
       </c>
@@ -12309,7 +12325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="35">
         <v>6</v>
       </c>
@@ -12325,7 +12341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="33">
         <v>7</v>
       </c>
@@ -12343,7 +12359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="35">
         <v>8</v>
       </c>
@@ -12361,7 +12377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="33"/>
       <c r="B10" s="34"/>
       <c r="C10" s="33"/>
@@ -12373,7 +12389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="35"/>
       <c r="B11" s="36"/>
       <c r="C11" s="35"/>
@@ -12385,7 +12401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="33"/>
       <c r="B12" s="34"/>
       <c r="C12" s="33"/>
@@ -12397,7 +12413,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="35"/>
       <c r="B13" s="36"/>
       <c r="C13" s="35"/>
@@ -12409,7 +12425,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="33"/>
       <c r="B14" s="34"/>
       <c r="C14" s="33"/>
@@ -12421,7 +12437,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="35"/>
       <c r="B15" s="36"/>
       <c r="C15" s="35"/>
@@ -12433,7 +12449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="33"/>
       <c r="B16" s="34"/>
       <c r="C16" s="33"/>
@@ -12445,7 +12461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="35"/>
       <c r="B17" s="36"/>
       <c r="C17" s="35"/>
@@ -12457,7 +12473,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="33"/>
       <c r="B18" s="34"/>
       <c r="C18" s="33"/>
@@ -12469,7 +12485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="35"/>
       <c r="B19" s="36"/>
       <c r="C19" s="35"/>
@@ -12481,7 +12497,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="33"/>
       <c r="B20" s="34"/>
       <c r="C20" s="33"/>
@@ -12493,7 +12509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="35"/>
@@ -12505,7 +12521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="33"/>
       <c r="B22" s="34"/>
       <c r="C22" s="33"/>
@@ -12517,7 +12533,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="35"/>
       <c r="B23" s="36"/>
       <c r="C23" s="35"/>
@@ -12529,7 +12545,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="33"/>
       <c r="B24" s="34"/>
       <c r="C24" s="33"/>
@@ -12541,7 +12557,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="35"/>
       <c r="B25" s="36"/>
       <c r="C25" s="35"/>
@@ -12553,7 +12569,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="33"/>
       <c r="B26" s="34"/>
       <c r="C26" s="33"/>
@@ -12565,7 +12581,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="35"/>
       <c r="B27" s="36"/>
       <c r="C27" s="35"/>
@@ -12573,7 +12589,7 @@
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="33"/>
       <c r="B28" s="34"/>
       <c r="C28" s="33"/>
@@ -12581,7 +12597,7 @@
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="35"/>
       <c r="B29" s="36"/>
       <c r="C29" s="35"/>
@@ -12589,7 +12605,7 @@
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="33"/>
       <c r="B30" s="34"/>
       <c r="C30" s="33"/>
@@ -12597,7 +12613,7 @@
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="35"/>
       <c r="B31" s="36"/>
       <c r="C31" s="35"/>
@@ -12605,7 +12621,7 @@
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="33"/>
       <c r="B32" s="34"/>
       <c r="C32" s="33"/>
@@ -12613,7 +12629,7 @@
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="35"/>
       <c r="B33" s="36"/>
       <c r="C33" s="35"/>
@@ -12621,7 +12637,7 @@
       <c r="E33" s="35"/>
       <c r="F33" s="35"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="33"/>
       <c r="B34" s="34"/>
       <c r="C34" s="33"/>
@@ -12643,19 +12659,19 @@
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="90.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.26171875" customWidth="1"/>
+    <col min="5" max="5" width="7.26171875" customWidth="1"/>
+    <col min="6" max="6" width="6.15625" customWidth="1"/>
+    <col min="8" max="8" width="22.41796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
@@ -12681,7 +12697,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -12701,7 +12717,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="35">
         <v>2</v>
       </c>
@@ -12721,7 +12737,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="33">
         <v>3</v>
       </c>
@@ -12741,7 +12757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="35">
         <v>4</v>
       </c>
@@ -12759,7 +12775,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="33">
         <v>5</v>
       </c>
@@ -12777,7 +12793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="35">
         <v>6</v>
       </c>
@@ -12795,7 +12811,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="33">
         <v>7</v>
       </c>
@@ -12815,7 +12831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="35">
         <v>8</v>
       </c>
@@ -12835,7 +12851,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="33">
         <v>9</v>
       </c>
@@ -12851,7 +12867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="35"/>
       <c r="B11" s="36"/>
       <c r="C11" s="35"/>
@@ -12863,7 +12879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="33"/>
       <c r="B12" s="34"/>
       <c r="C12" s="33"/>
@@ -12875,7 +12891,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="35"/>
       <c r="B13" s="36"/>
       <c r="C13" s="35"/>
@@ -12887,7 +12903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="33"/>
       <c r="B14" s="34"/>
       <c r="C14" s="33"/>
@@ -12899,7 +12915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="35"/>
       <c r="B15" s="36"/>
       <c r="C15" s="35"/>
@@ -12911,7 +12927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="33"/>
       <c r="B16" s="34"/>
       <c r="C16" s="33"/>
@@ -12923,7 +12939,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="35"/>
       <c r="B17" s="36"/>
       <c r="C17" s="35"/>
@@ -12935,7 +12951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="33"/>
       <c r="B18" s="34"/>
       <c r="C18" s="33"/>
@@ -12947,7 +12963,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="35"/>
       <c r="B19" s="36"/>
       <c r="C19" s="35"/>
@@ -12959,7 +12975,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="33"/>
       <c r="B20" s="34"/>
       <c r="C20" s="33"/>
@@ -12971,7 +12987,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="35"/>
@@ -12983,7 +12999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="33"/>
       <c r="B22" s="34"/>
       <c r="C22" s="33"/>
@@ -12995,7 +13011,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="35"/>
       <c r="B23" s="36"/>
       <c r="C23" s="35"/>
@@ -13007,7 +13023,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="33"/>
       <c r="B24" s="34"/>
       <c r="C24" s="33"/>
@@ -13019,7 +13035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="35"/>
       <c r="B25" s="36"/>
       <c r="C25" s="35"/>
@@ -13031,7 +13047,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="33"/>
       <c r="B26" s="34"/>
       <c r="C26" s="33"/>
@@ -13043,7 +13059,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="35"/>
       <c r="B27" s="36"/>
       <c r="C27" s="35"/>
@@ -13051,7 +13067,7 @@
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="33"/>
       <c r="B28" s="34"/>
       <c r="C28" s="33"/>
@@ -13059,7 +13075,7 @@
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="35"/>
       <c r="B29" s="36"/>
       <c r="C29" s="35"/>
@@ -13067,7 +13083,7 @@
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="33"/>
       <c r="B30" s="34"/>
       <c r="C30" s="33"/>
@@ -13075,7 +13091,7 @@
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="35"/>
       <c r="B31" s="36"/>
       <c r="C31" s="35"/>
@@ -13083,7 +13099,7 @@
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="33"/>
       <c r="B32" s="34"/>
       <c r="C32" s="33"/>
@@ -13091,7 +13107,7 @@
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="35"/>
       <c r="B33" s="36"/>
       <c r="C33" s="35"/>
@@ -13099,7 +13115,7 @@
       <c r="E33" s="35"/>
       <c r="F33" s="35"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="33"/>
       <c r="B34" s="34"/>
       <c r="C34" s="33"/>
@@ -13121,19 +13137,19 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="90.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.26171875" customWidth="1"/>
+    <col min="5" max="5" width="7.26171875" customWidth="1"/>
+    <col min="6" max="6" width="6.15625" customWidth="1"/>
+    <col min="8" max="8" width="22.41796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
@@ -13159,7 +13175,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -13177,7 +13193,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="35">
         <v>2</v>
       </c>
@@ -13195,7 +13211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="33">
         <v>3</v>
       </c>
@@ -13213,7 +13229,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="35">
         <v>4</v>
       </c>
@@ -13231,7 +13247,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="33">
         <v>5</v>
       </c>
@@ -13251,7 +13267,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="35">
         <v>6</v>
       </c>
@@ -13269,7 +13285,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="33">
         <v>7</v>
       </c>
@@ -13287,7 +13303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="35">
         <v>8</v>
       </c>
@@ -13305,7 +13321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="33"/>
       <c r="B10" s="34"/>
       <c r="C10" s="33"/>
@@ -13317,7 +13333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="35"/>
       <c r="B11" s="36"/>
       <c r="C11" s="35"/>
@@ -13334,7 +13350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="33"/>
       <c r="B12" s="34"/>
       <c r="C12" s="33"/>
@@ -13346,7 +13362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="35"/>
       <c r="B13" s="36"/>
       <c r="C13" s="35"/>
@@ -13358,7 +13374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="33"/>
       <c r="B14" s="34"/>
       <c r="C14" s="33"/>
@@ -13370,7 +13386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="35"/>
       <c r="B15" s="36"/>
       <c r="C15" s="35"/>
@@ -13382,7 +13398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="33"/>
       <c r="B16" s="34"/>
       <c r="C16" s="33"/>
@@ -13394,7 +13410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="35"/>
       <c r="B17" s="36"/>
       <c r="C17" s="35"/>
@@ -13406,7 +13422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="33"/>
       <c r="B18" s="34"/>
       <c r="C18" s="33"/>
@@ -13418,7 +13434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="35"/>
       <c r="B19" s="36"/>
       <c r="C19" s="35"/>
@@ -13430,7 +13446,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="33"/>
       <c r="B20" s="34"/>
       <c r="C20" s="33"/>
@@ -13442,7 +13458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="35"/>
@@ -13454,7 +13470,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="33"/>
       <c r="B22" s="34"/>
       <c r="C22" s="33"/>
@@ -13466,7 +13482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="35"/>
       <c r="B23" s="36"/>
       <c r="C23" s="35"/>
@@ -13478,7 +13494,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="33"/>
       <c r="B24" s="34"/>
       <c r="C24" s="33"/>
@@ -13490,7 +13506,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="35"/>
       <c r="B25" s="36"/>
       <c r="C25" s="35"/>
@@ -13502,7 +13518,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="33"/>
       <c r="B26" s="34"/>
       <c r="C26" s="33"/>
@@ -13514,7 +13530,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="35"/>
       <c r="B27" s="36"/>
       <c r="C27" s="35"/>
@@ -13522,7 +13538,7 @@
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="33"/>
       <c r="B28" s="34"/>
       <c r="C28" s="33"/>
@@ -13530,7 +13546,7 @@
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="35"/>
       <c r="B29" s="36"/>
       <c r="C29" s="35"/>
@@ -13538,7 +13554,7 @@
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="33"/>
       <c r="B30" s="34"/>
       <c r="C30" s="33"/>
@@ -13546,7 +13562,7 @@
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="35"/>
       <c r="B31" s="36"/>
       <c r="C31" s="35"/>
@@ -13554,7 +13570,7 @@
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="33"/>
       <c r="B32" s="34"/>
       <c r="C32" s="33"/>
@@ -13562,7 +13578,7 @@
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="35"/>
       <c r="B33" s="36"/>
       <c r="C33" s="35"/>
@@ -13570,7 +13586,7 @@
       <c r="E33" s="35"/>
       <c r="F33" s="35"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="33"/>
       <c r="B34" s="34"/>
       <c r="C34" s="33"/>
@@ -13592,19 +13608,19 @@
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="90.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.26171875" customWidth="1"/>
+    <col min="5" max="5" width="7.26171875" customWidth="1"/>
+    <col min="6" max="6" width="6.15625" customWidth="1"/>
+    <col min="8" max="8" width="22.41796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
@@ -13630,7 +13646,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -13648,7 +13664,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="35">
         <v>2</v>
       </c>
@@ -13666,7 +13682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="33">
         <v>3</v>
       </c>
@@ -13684,7 +13700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="35">
         <v>4</v>
       </c>
@@ -13702,7 +13718,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="33">
         <v>5</v>
       </c>
@@ -13720,7 +13736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="35">
         <v>6</v>
       </c>
@@ -13738,7 +13754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="33">
         <v>7</v>
       </c>
@@ -13756,7 +13772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="35"/>
       <c r="B9" s="36"/>
       <c r="C9" s="35"/>
@@ -13768,7 +13784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="33"/>
       <c r="B10" s="34"/>
       <c r="C10" s="33"/>
@@ -13780,7 +13796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="35"/>
       <c r="B11" s="36"/>
       <c r="C11" s="35"/>
@@ -13797,7 +13813,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="33"/>
       <c r="B12" s="34"/>
       <c r="C12" s="33"/>
@@ -13809,7 +13825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="35"/>
       <c r="B13" s="36"/>
       <c r="C13" s="35"/>
@@ -13821,7 +13837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="33"/>
       <c r="B14" s="34"/>
       <c r="C14" s="33"/>
@@ -13833,7 +13849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="35"/>
       <c r="B15" s="36"/>
       <c r="C15" s="35"/>
@@ -13845,7 +13861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="33"/>
       <c r="B16" s="34"/>
       <c r="C16" s="33"/>
@@ -13857,7 +13873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="35"/>
       <c r="B17" s="36"/>
       <c r="C17" s="35"/>
@@ -13869,7 +13885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="33"/>
       <c r="B18" s="34"/>
       <c r="C18" s="33"/>
@@ -13881,7 +13897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="35"/>
       <c r="B19" s="36"/>
       <c r="C19" s="35"/>
@@ -13893,7 +13909,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="33"/>
       <c r="B20" s="34"/>
       <c r="C20" s="33"/>
@@ -13905,7 +13921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="35"/>
@@ -13917,7 +13933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="33"/>
       <c r="B22" s="34"/>
       <c r="C22" s="33"/>
@@ -13929,7 +13945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="35"/>
       <c r="B23" s="36"/>
       <c r="C23" s="35"/>
@@ -13941,7 +13957,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="33"/>
       <c r="B24" s="34"/>
       <c r="C24" s="33"/>
@@ -13953,7 +13969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="35"/>
       <c r="B25" s="36"/>
       <c r="C25" s="35"/>
@@ -13965,7 +13981,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="33"/>
       <c r="B26" s="34"/>
       <c r="C26" s="33"/>
@@ -13977,7 +13993,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="35"/>
       <c r="B27" s="36"/>
       <c r="C27" s="35"/>
@@ -13985,7 +14001,7 @@
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="33"/>
       <c r="B28" s="34"/>
       <c r="C28" s="33"/>
@@ -13993,7 +14009,7 @@
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="35"/>
       <c r="B29" s="36"/>
       <c r="C29" s="35"/>
@@ -14001,7 +14017,7 @@
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="33"/>
       <c r="B30" s="34"/>
       <c r="C30" s="33"/>
@@ -14009,7 +14025,7 @@
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="35"/>
       <c r="B31" s="36"/>
       <c r="C31" s="35"/>
@@ -14017,7 +14033,7 @@
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="33"/>
       <c r="B32" s="34"/>
       <c r="C32" s="33"/>
@@ -14025,7 +14041,7 @@
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="35"/>
       <c r="B33" s="36"/>
       <c r="C33" s="35"/>
@@ -14033,7 +14049,7 @@
       <c r="E33" s="35"/>
       <c r="F33" s="35"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="33"/>
       <c r="B34" s="34"/>
       <c r="C34" s="33"/>
@@ -14055,19 +14071,19 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="90.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.26171875" customWidth="1"/>
+    <col min="5" max="5" width="7.26171875" customWidth="1"/>
+    <col min="6" max="6" width="6.15625" customWidth="1"/>
+    <col min="8" max="8" width="22.41796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="15" t="s">
         <v>29</v>
       </c>
@@ -14093,7 +14109,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="31">
         <v>1</v>
       </c>
@@ -14113,7 +14129,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="35">
         <v>2</v>
       </c>
@@ -14131,7 +14147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="33">
         <v>3</v>
       </c>
@@ -14149,7 +14165,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="35">
         <v>4</v>
       </c>
@@ -14167,7 +14183,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="33">
         <v>5</v>
       </c>
@@ -14185,7 +14201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="35">
         <v>6</v>
       </c>
@@ -14203,7 +14219,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="33">
         <v>7</v>
       </c>
@@ -14221,7 +14237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="35">
         <v>8</v>
       </c>
@@ -14239,7 +14255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="33">
         <v>9</v>
       </c>
@@ -14257,7 +14273,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="35"/>
       <c r="B11" s="36"/>
       <c r="C11" s="35"/>
@@ -14274,7 +14290,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="33"/>
       <c r="B12" s="34"/>
       <c r="C12" s="33"/>
@@ -14286,7 +14302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="35"/>
       <c r="B13" s="36"/>
       <c r="C13" s="35"/>
@@ -14298,7 +14314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="33"/>
       <c r="B14" s="34"/>
       <c r="C14" s="33"/>
@@ -14310,7 +14326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="35"/>
       <c r="B15" s="36"/>
       <c r="C15" s="35"/>
@@ -14322,7 +14338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="33"/>
       <c r="B16" s="34"/>
       <c r="C16" s="33"/>
@@ -14334,7 +14350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="35"/>
       <c r="B17" s="36"/>
       <c r="C17" s="35"/>
@@ -14346,7 +14362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="33"/>
       <c r="B18" s="34"/>
       <c r="C18" s="33"/>
@@ -14358,7 +14374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="35"/>
       <c r="B19" s="36"/>
       <c r="C19" s="35"/>
@@ -14370,7 +14386,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="33"/>
       <c r="B20" s="34"/>
       <c r="C20" s="33"/>
@@ -14382,7 +14398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="35"/>
       <c r="B21" s="36"/>
       <c r="C21" s="35"/>
@@ -14394,7 +14410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="33"/>
       <c r="B22" s="34"/>
       <c r="C22" s="33"/>
@@ -14406,7 +14422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="35"/>
       <c r="B23" s="36"/>
       <c r="C23" s="35"/>
@@ -14418,7 +14434,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="33"/>
       <c r="B24" s="34"/>
       <c r="C24" s="33"/>
@@ -14430,7 +14446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="35"/>
       <c r="B25" s="36"/>
       <c r="C25" s="35"/>
@@ -14442,7 +14458,7 @@
         <v>5.25</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="33"/>
       <c r="B26" s="34"/>
       <c r="C26" s="33"/>
@@ -14454,7 +14470,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="35"/>
       <c r="B27" s="36"/>
       <c r="C27" s="35"/>
@@ -14462,7 +14478,7 @@
       <c r="E27" s="35"/>
       <c r="F27" s="35"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="33"/>
       <c r="B28" s="34"/>
       <c r="C28" s="33"/>
@@ -14470,7 +14486,7 @@
       <c r="E28" s="33"/>
       <c r="F28" s="33"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="35"/>
       <c r="B29" s="36"/>
       <c r="C29" s="35"/>
@@ -14478,7 +14494,7 @@
       <c r="E29" s="35"/>
       <c r="F29" s="35"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="33"/>
       <c r="B30" s="34"/>
       <c r="C30" s="33"/>
@@ -14486,7 +14502,7 @@
       <c r="E30" s="33"/>
       <c r="F30" s="33"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="35"/>
       <c r="B31" s="36"/>
       <c r="C31" s="35"/>
@@ -14494,7 +14510,7 @@
       <c r="E31" s="35"/>
       <c r="F31" s="35"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="33"/>
       <c r="B32" s="34"/>
       <c r="C32" s="33"/>
@@ -14502,7 +14518,7 @@
       <c r="E32" s="33"/>
       <c r="F32" s="33"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="35"/>
       <c r="B33" s="36"/>
       <c r="C33" s="35"/>
@@ -14510,7 +14526,7 @@
       <c r="E33" s="35"/>
       <c r="F33" s="35"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="33"/>
       <c r="B34" s="34"/>
       <c r="C34" s="33"/>

--- a/project/Zeiterfassung.xlsx
+++ b/project/Zeiterfassung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\BA\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E335EBE3-82B4-4D86-9BB4-C75668A60040}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFA9E9E-1C74-4707-92CB-8B3627782949}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="70110" yWindow="0" windowWidth="19560" windowHeight="8118" tabRatio="745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="70110" yWindow="0" windowWidth="19560" windowHeight="8118" tabRatio="745" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raphael" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1079" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="346">
   <si>
     <t>Mit Betreuer</t>
   </si>
@@ -2617,19 +2617,19 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>12.976406533575318</c:v>
+                  <c:v>13.03956834532374</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.686025408348456</c:v>
+                  <c:v>22.661870503597122</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.9891107078039925</c:v>
+                  <c:v>5.9352517985611506</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.878402903811249</c:v>
+                  <c:v>42.041366906474821</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.470054446460981</c:v>
+                  <c:v>16.321942446043167</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2852,16 +2852,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>71.5</c:v>
+                  <c:v>72.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>125</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>230.75</c:v>
+                  <c:v>233.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>90.75</c:v>
@@ -5110,8 +5110,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M142"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29:XFD29"/>
+    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -7900,15 +7900,15 @@
       </c>
       <c r="C10" s="29">
         <f>SUMIF(Nico!$E$4:$E$150,Nico!L2,Nico!$B$4:$B$150)</f>
-        <v>34.5</v>
+        <v>35.5</v>
       </c>
       <c r="D10">
         <f>SUM(B10:C10)</f>
-        <v>71.5</v>
+        <v>72.5</v>
       </c>
       <c r="E10" s="30">
         <f>D10/D$15*100</f>
-        <v>12.976406533575318</v>
+        <v>13.03956834532374</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7921,15 +7921,15 @@
       </c>
       <c r="C11">
         <f>SUMIF(Nico!$E$4:$E$150,Nico!L3,Nico!$B$4:$B$150)</f>
-        <v>65.5</v>
+        <v>66.5</v>
       </c>
       <c r="D11">
         <f>SUM(B11:C11)</f>
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E11" s="30">
         <f t="shared" ref="E11:E15" si="0">D11/D$15*100</f>
-        <v>22.686025408348456</v>
+        <v>22.661870503597122</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7950,7 +7950,7 @@
       </c>
       <c r="E12" s="30">
         <f t="shared" si="0"/>
-        <v>5.9891107078039925</v>
+        <v>5.9352517985611506</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7963,15 +7963,15 @@
       </c>
       <c r="C13">
         <f>SUMIF(Nico!$E$4:$E$150,Nico!L5,Nico!$B$4:$B$150)</f>
-        <v>126.25</v>
+        <v>129.25</v>
       </c>
       <c r="D13">
         <f>SUM(B13:C13)</f>
-        <v>230.75</v>
+        <v>233.75</v>
       </c>
       <c r="E13" s="30">
         <f t="shared" si="0"/>
-        <v>41.878402903811249</v>
+        <v>42.041366906474821</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7992,7 +7992,7 @@
       </c>
       <c r="E14" s="30">
         <f t="shared" si="0"/>
-        <v>16.470054446460981</v>
+        <v>16.321942446043167</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8005,11 +8005,11 @@
       </c>
       <c r="C15">
         <f>SUM(C10:C14)</f>
-        <v>298.75</v>
+        <v>303.75</v>
       </c>
       <c r="D15">
         <f>SUM(D10:D14)</f>
-        <v>551</v>
+        <v>556</v>
       </c>
       <c r="E15" s="30">
         <f t="shared" si="0"/>
@@ -8041,8 +8041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M150"/>
   <sheetViews>
-    <sheetView topLeftCell="A128" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8888,6 +8888,9 @@
       <c r="D42" s="11" t="s">
         <v>102</v>
       </c>
+      <c r="E42" s="11" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="23" t="s">
@@ -10765,7 +10768,9 @@
       <c r="D126" s="11" t="s">
         <v>285</v>
       </c>
-      <c r="E126" s="11"/>
+      <c r="E126" s="11" t="s">
+        <v>19</v>
+      </c>
       <c r="F126" s="20" t="s">
         <v>299</v>
       </c>
@@ -10783,7 +10788,9 @@
       <c r="D127" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="E127" s="11"/>
+      <c r="E127" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="F127" s="20" t="s">
         <v>298</v>
       </c>

--- a/project/Zeiterfassung.xlsx
+++ b/project/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\BA\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FFA9E9E-1C74-4707-92CB-8B3627782949}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFA76C6-282C-492C-9811-DA5F340E1D82}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="70110" yWindow="0" windowWidth="19560" windowHeight="8118" tabRatio="745" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5110,7 +5110,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M142"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -8041,8 +8041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8143,8 +8143,8 @@
         <v>12</v>
       </c>
       <c r="I4" s="2">
-        <f>SUM(G4+G10+G17+G29+G44+G54+G65+G73+G82+G96+G105+G114+G121+G143)</f>
-        <v>270</v>
+        <f>SUM(G4+G10+G17+G29+G44+G54+G65+G73+G82+G96+G105+G114+G121+G131+G138)</f>
+        <v>303.75</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>12</v>
@@ -8228,8 +8228,8 @@
         <v>20</v>
       </c>
       <c r="I7" s="1">
-        <f>I4/13</f>
-        <v>20.76923076923077</v>
+        <f>I4/14</f>
+        <v>21.696428571428573</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -8274,8 +8274,8 @@
         <v>17</v>
       </c>
       <c r="G10" s="2">
-        <f>SUM(B10:B14)</f>
-        <v>13.75</v>
+        <f>SUM(B10:B15)</f>
+        <v>17.25</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -10939,6 +10939,9 @@
       </c>
       <c r="E135" s="11" t="s">
         <v>19</v>
+      </c>
+      <c r="F135" s="20" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -11722,10 +11725,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D3616A-6673-4D07-80D3-98A3C4D36418}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11815,390 +11818,374 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="35">
+      <c r="A5" s="33">
         <v>4</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>307</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
+      <c r="B5" s="34" t="s">
+        <v>323</v>
+      </c>
+      <c r="C5" s="33"/>
+      <c r="D5" s="34"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
       <c r="H5">
-        <f>Nico!K79</f>
-        <v>15.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="33">
+        <f>Nico!K80</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="35">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>323</v>
-      </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="B6" s="36" t="s">
+        <v>324</v>
+      </c>
+      <c r="C6" s="35"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="35"/>
+      <c r="F6" s="35"/>
       <c r="H6">
-        <f>Nico!K80</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="35">
+        <f>Nico!K81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="33">
         <v>6</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>324</v>
-      </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
+      <c r="B7" s="34" t="s">
+        <v>325</v>
+      </c>
+      <c r="C7" s="33"/>
+      <c r="D7" s="34"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
       <c r="H7">
-        <f>Nico!K81</f>
+        <f>Nico!K82</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="33">
+      <c r="A8" s="35">
         <v>7</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
+      <c r="B8" s="36" t="s">
+        <v>326</v>
+      </c>
+      <c r="C8" s="35"/>
+      <c r="D8" s="36"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
       <c r="H8">
-        <f>Nico!K82</f>
+        <f>Nico!K83</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="35">
-        <v>8</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>326</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
+      <c r="A9" s="33">
+        <v>8</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>327</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
       <c r="H9">
-        <f>Nico!K83</f>
+        <f>Nico!K84</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="33">
+      <c r="A10" s="35">
         <v>9</v>
       </c>
-      <c r="B10" s="34" t="s">
-        <v>327</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
+      <c r="B10" s="36" t="s">
+        <v>328</v>
+      </c>
+      <c r="C10" s="35"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
       <c r="H10">
-        <f>Nico!K84</f>
+        <f>Nico!K85</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="35">
+      <c r="A11" s="33">
         <v>10</v>
       </c>
-      <c r="B11" s="36" t="s">
-        <v>328</v>
-      </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
+      <c r="B11" s="34" t="s">
+        <v>164</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
       <c r="H11">
-        <f>Nico!K85</f>
+        <f>Nico!K86</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="33">
+      <c r="A12" s="35">
         <v>11</v>
       </c>
-      <c r="B12" s="34" t="s">
-        <v>164</v>
-      </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
+      <c r="B12" s="36" t="s">
+        <v>329</v>
+      </c>
+      <c r="C12" s="35"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="35"/>
       <c r="H12">
-        <f>Nico!K86</f>
+        <f>Nico!K87</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="35">
+      <c r="A13" s="33">
         <v>12</v>
       </c>
-      <c r="B13" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+      <c r="B13" s="34" t="s">
+        <v>330</v>
+      </c>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
       <c r="H13">
-        <f>Nico!K87</f>
+        <f>Nico!K88</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="33">
+      <c r="A14" s="35">
         <v>13</v>
       </c>
-      <c r="B14" s="34" t="s">
-        <v>330</v>
-      </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
+      <c r="B14" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36" t="s">
+        <v>334</v>
+      </c>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
       <c r="H14">
-        <f>Nico!K88</f>
+        <f>Nico!K89</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="35">
+      <c r="A15" s="33">
         <v>14</v>
       </c>
-      <c r="B15" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36" t="s">
-        <v>334</v>
-      </c>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="B15" s="34" t="s">
+        <v>331</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
       <c r="H15">
-        <f>Nico!K89</f>
+        <f>Nico!K90</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="33">
+      <c r="A16" s="35">
         <v>15</v>
       </c>
-      <c r="B16" s="34" t="s">
-        <v>331</v>
-      </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
+      <c r="B16" s="36" t="s">
+        <v>332</v>
+      </c>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
       <c r="H16">
-        <f>Nico!K90</f>
+        <f>Nico!K91</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="35">
+      <c r="A17" s="33">
         <v>16</v>
       </c>
-      <c r="B17" s="36" t="s">
-        <v>332</v>
-      </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
+      <c r="B17" s="34" t="s">
+        <v>333</v>
+      </c>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
       <c r="H17">
-        <f>Nico!K91</f>
+        <f>Nico!K92</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="33">
-        <v>17</v>
-      </c>
-      <c r="B18" s="34" t="s">
-        <v>333</v>
-      </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
       <c r="H18">
-        <f>Nico!K92</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="H19">
         <f>Nico!K93</f>
         <v>2</v>
       </c>
     </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="H19">
+        <f>Nico!K94</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
       <c r="H20">
-        <f>Nico!K94</f>
+        <f>Nico!K95</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
+      <c r="A21" s="33"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
       <c r="H21">
-        <f>Nico!K95</f>
+        <f>Nico!K96</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="33"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
       <c r="H22">
-        <f>Nico!K96</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="35"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="H23">
         <f>Nico!K97</f>
         <v>6.75</v>
       </c>
     </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="33"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="H23">
+        <f>Nico!K98</f>
+        <v>0</v>
+      </c>
+    </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="33"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
       <c r="H24">
-        <f>Nico!K98</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="35"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="H25">
         <f>Nico!K99</f>
         <v>5.25</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="33"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="H26">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="33"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="H25">
         <f>Nico!K100</f>
         <v>9</v>
       </c>
     </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+    </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="35"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
+      <c r="A27" s="33"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="33"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="35"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="33"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="35"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="33"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="35"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="33"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -12662,7 +12649,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDDA8C9E-E8C2-4DAE-A213-7FA1BC7F9D14}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>

--- a/project/Zeiterfassung.xlsx
+++ b/project/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\BA\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAFA76C6-282C-492C-9811-DA5F340E1D82}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A999627-7578-4950-B66A-3994F0DC1CAE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="70110" yWindow="0" windowWidth="19560" windowHeight="8118" tabRatio="745" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1082" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="349">
   <si>
     <t>Mit Betreuer</t>
   </si>
@@ -410,9 +410,6 @@
     <t>napalm-logs pull request</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
-  </si>
-  <si>
     <t>Überarbeiten Doku</t>
   </si>
   <si>
@@ -758,15 +755,6 @@
     <t>netflow workflow</t>
   </si>
   <si>
-    <t>MS5:4</t>
-  </si>
-  <si>
-    <t>MS5:2</t>
-  </si>
-  <si>
-    <t>MS5:5</t>
-  </si>
-  <si>
     <t>Event standard</t>
   </si>
   <si>
@@ -872,9 +860,6 @@
     <t>Influx read</t>
   </si>
   <si>
-    <t>MS7:2</t>
-  </si>
-  <si>
     <t>Bugfix timestamp influx</t>
   </si>
   <si>
@@ -1061,19 +1046,43 @@
     <t>Influx cleanup</t>
   </si>
   <si>
-    <t>MS7:5</t>
-  </si>
-  <si>
-    <t>MS7:8</t>
-  </si>
-  <si>
-    <t>MS8:3</t>
-  </si>
-  <si>
-    <t>MS8:4</t>
-  </si>
-  <si>
     <t>Code</t>
+  </si>
+  <si>
+    <t>Grafana Zeiterfassung</t>
+  </si>
+  <si>
+    <t>MS8: 1</t>
+  </si>
+  <si>
+    <t>MS5: 4</t>
+  </si>
+  <si>
+    <t>MS5: 2</t>
+  </si>
+  <si>
+    <t>MS7: 2</t>
+  </si>
+  <si>
+    <t>MS7: 8</t>
+  </si>
+  <si>
+    <t>MS8: 3</t>
+  </si>
+  <si>
+    <t>Projekt mgmt</t>
+  </si>
+  <si>
+    <t>MS4: 10</t>
+  </si>
+  <si>
+    <t>MS5: 8</t>
+  </si>
+  <si>
+    <t>MS6: 9</t>
+  </si>
+  <si>
+    <t>MS7: 10</t>
   </si>
 </sst>
 </file>
@@ -2617,19 +2626,19 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>13.03956834532374</c:v>
+                  <c:v>12.911843276936777</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.661870503597122</c:v>
+                  <c:v>22.439893143365982</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.9352517985611506</c:v>
+                  <c:v>5.8771148708815675</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42.041366906474821</c:v>
+                  <c:v>41.629563668744431</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.321942446043167</c:v>
+                  <c:v>17.141585040071238</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2864,7 +2873,7 @@
                   <c:v>233.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>90.75</c:v>
+                  <c:v>96.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5110,8 +5119,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M142"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5776,7 +5785,7 @@
         <v>8</v>
       </c>
       <c r="D37" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="E37" s="11" t="s">
         <v>17</v>
@@ -5816,7 +5825,7 @@
         <v>8</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>19</v>
@@ -5836,7 +5845,7 @@
         <v>8</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>20</v>
@@ -5849,7 +5858,7 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G42" s="3" t="s">
         <v>24</v>
@@ -5866,7 +5875,7 @@
         <v>8</v>
       </c>
       <c r="D43" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>17</v>
@@ -5890,7 +5899,7 @@
         <v>8</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>16</v>
@@ -5907,7 +5916,7 @@
         <v>8</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>17</v>
@@ -5924,7 +5933,7 @@
         <v>8</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>17</v>
@@ -5941,7 +5950,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>17</v>
@@ -5958,7 +5967,7 @@
         <v>8</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>17</v>
@@ -5975,7 +5984,7 @@
         <v>8</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>17</v>
@@ -5993,7 +6002,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>17</v>
@@ -6011,7 +6020,7 @@
         <v>49</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>20</v>
@@ -6019,7 +6028,7 @@
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
@@ -6041,7 +6050,7 @@
         <v>8</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>20</v>
@@ -6065,7 +6074,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>20</v>
@@ -6085,7 +6094,7 @@
         <v>8</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>20</v>
@@ -6105,7 +6114,7 @@
         <v>49</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>20</v>
@@ -6122,7 +6131,7 @@
         <v>8</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>19</v>
@@ -6140,7 +6149,7 @@
         <v>8</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>17</v>
@@ -6159,7 +6168,7 @@
         <v>8</v>
       </c>
       <c r="D60" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>20</v>
@@ -6178,7 +6187,7 @@
         <v>8</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>16</v>
@@ -6195,7 +6204,7 @@
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
@@ -6216,7 +6225,7 @@
         <v>8</v>
       </c>
       <c r="D64" s="11" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E64" s="11" t="s">
         <v>16</v>
@@ -6240,7 +6249,7 @@
         <v>8</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>17</v>
@@ -6260,7 +6269,7 @@
         <v>8</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>16</v>
@@ -6278,7 +6287,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F68" s="26"/>
       <c r="G68" s="3" t="s">
@@ -6296,7 +6305,7 @@
         <v>8</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>19</v>
@@ -6318,7 +6327,7 @@
         <v>8</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>19</v>
@@ -6338,7 +6347,7 @@
         <v>8</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>19</v>
@@ -6357,7 +6366,7 @@
         <v>8</v>
       </c>
       <c r="D72" s="11" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E72" s="11" t="s">
         <v>19</v>
@@ -6393,7 +6402,7 @@
         <v>8</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>19</v>
@@ -6409,7 +6418,7 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B76" s="2"/>
       <c r="C76" s="1"/>
@@ -6431,7 +6440,7 @@
         <v>8</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>20</v>
@@ -6453,7 +6462,7 @@
         <v>8</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E78" s="11" t="s">
         <v>16</v>
@@ -6472,7 +6481,7 @@
         <v>8</v>
       </c>
       <c r="D79" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E79" s="11" t="s">
         <v>20</v>
@@ -6491,7 +6500,7 @@
         <v>49</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E80" s="11" t="s">
         <v>20</v>
@@ -6510,7 +6519,7 @@
         <v>8</v>
       </c>
       <c r="D81" s="11" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E81" s="11" t="s">
         <v>18</v>
@@ -6529,7 +6538,7 @@
         <v>8</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E82" s="11" t="s">
         <v>18</v>
@@ -6548,7 +6557,7 @@
         <v>8</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E83" s="11" t="s">
         <v>18</v>
@@ -6567,7 +6576,7 @@
         <v>8</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E84" s="11" t="s">
         <v>20</v>
@@ -6586,7 +6595,7 @@
         <v>8</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E85" s="11" t="s">
         <v>16</v>
@@ -6605,7 +6614,7 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="11"/>
@@ -6627,13 +6636,13 @@
         <v>8</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E88" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F88" s="27" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G88" s="2">
         <f>SUM(B88:B98)</f>
@@ -6651,13 +6660,13 @@
         <v>8</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F89" s="27" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="G89" s="1"/>
     </row>
@@ -6672,7 +6681,7 @@
         <v>8</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>16</v>
@@ -6691,13 +6700,13 @@
         <v>8</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E91" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F91" s="27" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6711,13 +6720,13 @@
         <v>8</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E92" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F92" s="27" t="s">
-        <v>240</v>
+        <v>339</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6731,13 +6740,13 @@
         <v>8</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E93" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F93" s="27" t="s">
-        <v>240</v>
+        <v>339</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6751,13 +6760,13 @@
         <v>8</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E94" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F94" s="27" t="s">
-        <v>241</v>
+        <v>340</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6771,13 +6780,13 @@
         <v>8</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E95" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F95" s="27" t="s">
-        <v>241</v>
+        <v>340</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6791,13 +6800,13 @@
         <v>8</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E96" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F96" s="27" t="s">
-        <v>240</v>
+        <v>339</v>
       </c>
       <c r="G96" s="3"/>
     </row>
@@ -6812,13 +6821,13 @@
         <v>8</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E97" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F97" s="27" t="s">
-        <v>241</v>
+        <v>340</v>
       </c>
       <c r="G97" s="2"/>
     </row>
@@ -6852,7 +6861,7 @@
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="11"/>
@@ -6875,7 +6884,7 @@
         <v>8</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="E101" s="11" t="s">
         <v>16</v>
@@ -6897,7 +6906,7 @@
         <v>8</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E102" s="11" t="s">
         <v>19</v>
@@ -6916,7 +6925,7 @@
         <v>8</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E103" s="11" t="s">
         <v>19</v>
@@ -6935,7 +6944,7 @@
         <v>8</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="E104" s="11" t="s">
         <v>16</v>
@@ -6953,7 +6962,7 @@
         <v>8</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E105" s="11" t="s">
         <v>18</v>
@@ -6972,7 +6981,7 @@
         <v>8</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E106" s="11" t="s">
         <v>19</v>
@@ -6991,7 +7000,7 @@
         <v>8</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="E107" s="11" t="s">
         <v>19</v>
@@ -7009,7 +7018,7 @@
         <v>8</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="E108" s="11" t="s">
         <v>19</v>
@@ -7027,7 +7036,7 @@
         <v>49</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E109" s="11" t="s">
         <v>20</v>
@@ -7043,7 +7052,7 @@
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="23" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C111" s="11"/>
       <c r="D111" s="11"/>
@@ -7064,7 +7073,7 @@
         <v>8</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="E112" s="11" t="s">
         <v>19</v>
@@ -7086,7 +7095,7 @@
         <v>8</v>
       </c>
       <c r="D113" s="11" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="E113" s="11" t="s">
         <v>19</v>
@@ -7105,13 +7114,13 @@
         <v>8</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E114" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F114" s="20" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G114" s="2"/>
     </row>
@@ -7126,7 +7135,7 @@
         <v>8</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E115" s="11" t="s">
         <v>19</v>
@@ -7145,7 +7154,7 @@
         <v>8</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="E116" s="11" t="s">
         <v>19</v>
@@ -7180,7 +7189,7 @@
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="23" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C119" s="11"/>
       <c r="D119" s="11"/>
@@ -7201,13 +7210,13 @@
         <v>8</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="E120" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F120" s="20" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G120" s="2">
         <f>SUM(B120:B128)</f>
@@ -7225,13 +7234,13 @@
         <v>8</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="E121" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F121" s="27" t="s">
-        <v>278</v>
+        <v>341</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -7245,13 +7254,13 @@
         <v>8</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E122" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F122" s="20" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -7265,13 +7274,13 @@
         <v>8</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="E123" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F123" s="27" t="s">
-        <v>278</v>
+        <v>341</v>
       </c>
       <c r="G123" s="25"/>
     </row>
@@ -7286,13 +7295,13 @@
         <v>8</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E124" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F124" s="20" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="G124" s="2"/>
     </row>
@@ -7307,7 +7316,7 @@
         <v>8</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="E125" s="11" t="s">
         <v>19</v>
@@ -7326,7 +7335,7 @@
         <v>8</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="E126" s="11" t="s">
         <v>19</v>
@@ -7344,7 +7353,7 @@
         <v>8</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E127" s="11" t="s">
         <v>20</v>
@@ -7360,7 +7369,7 @@
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="3" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="11"/>
@@ -7382,7 +7391,7 @@
         <v>8</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E130" s="11" t="s">
         <v>19</v>
@@ -7404,7 +7413,7 @@
         <v>8</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="E131" s="11" t="s">
         <v>19</v>
@@ -7422,7 +7431,7 @@
         <v>8</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="E132" s="11" t="s">
         <v>19</v>
@@ -7440,13 +7449,13 @@
         <v>8</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="E133" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F133" s="11" t="s">
-        <v>341</v>
+        <v>294</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -7460,7 +7469,7 @@
         <v>8</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E134" s="11" t="s">
         <v>19</v>
@@ -7480,7 +7489,7 @@
         <v>8</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E135" s="11" t="s">
         <v>20</v>
@@ -7497,7 +7506,7 @@
         <v>8</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E136" s="11" t="s">
         <v>19</v>
@@ -7505,7 +7514,7 @@
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="3" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>24</v>
@@ -7522,13 +7531,13 @@
         <v>8</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="E139" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F139" s="11" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
       <c r="G139" s="8">
         <f>SUM(B139:B147)</f>
@@ -7546,7 +7555,7 @@
         <v>8</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E140" s="11" t="s">
         <v>19</v>
@@ -7566,7 +7575,7 @@
         <v>8</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="E141" s="11" t="s">
         <v>19</v>
@@ -7586,13 +7595,13 @@
         <v>8</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E142" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F142" s="11" t="s">
-        <v>344</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -7908,7 +7917,7 @@
       </c>
       <c r="E10" s="30">
         <f>D10/D$15*100</f>
-        <v>13.03956834532374</v>
+        <v>12.911843276936777</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7929,7 +7938,7 @@
       </c>
       <c r="E11" s="30">
         <f t="shared" ref="E11:E15" si="0">D11/D$15*100</f>
-        <v>22.661870503597122</v>
+        <v>22.439893143365982</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7950,7 +7959,7 @@
       </c>
       <c r="E12" s="30">
         <f t="shared" si="0"/>
-        <v>5.9352517985611506</v>
+        <v>5.8771148708815675</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7971,7 +7980,7 @@
       </c>
       <c r="E13" s="30">
         <f t="shared" si="0"/>
-        <v>42.041366906474821</v>
+        <v>41.629563668744431</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7984,15 +7993,15 @@
       </c>
       <c r="C14">
         <f>SUMIF(Nico!$E$4:$E$150,Nico!L6,Nico!$B$4:$B$150)</f>
-        <v>57.5</v>
+        <v>63</v>
       </c>
       <c r="D14">
         <f>SUM(B14:C14)</f>
-        <v>90.75</v>
+        <v>96.25</v>
       </c>
       <c r="E14" s="30">
         <f t="shared" si="0"/>
-        <v>16.321942446043167</v>
+        <v>17.141585040071238</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8005,11 +8014,11 @@
       </c>
       <c r="C15">
         <f>SUM(C10:C14)</f>
-        <v>303.75</v>
+        <v>309.25</v>
       </c>
       <c r="D15">
         <f>SUM(D10:D14)</f>
-        <v>556</v>
+        <v>561.5</v>
       </c>
       <c r="E15" s="30">
         <f t="shared" si="0"/>
@@ -8041,8 +8050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
+      <selection activeCell="F142" sqref="F142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8085,7 +8094,7 @@
         <v>15</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -8138,13 +8147,16 @@
       <c r="E4" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="F4" s="14">
+        <v>27</v>
+      </c>
       <c r="G4" s="2">
         <f>SUM(B4:B8)</f>
         <v>12</v>
       </c>
       <c r="I4" s="2">
         <f>SUM(G4+G10+G17+G29+G44+G54+G65+G73+G82+G96+G105+G114+G121+G131+G138)</f>
-        <v>303.75</v>
+        <v>309.25</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>12</v>
@@ -8172,6 +8184,9 @@
       <c r="E5" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="F5" s="14">
+        <v>27</v>
+      </c>
       <c r="K5" s="1" t="s">
         <v>13</v>
       </c>
@@ -8198,6 +8213,9 @@
       <c r="E6" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="F6" s="14">
+        <v>27</v>
+      </c>
       <c r="I6" s="3" t="s">
         <v>25</v>
       </c>
@@ -8227,9 +8245,12 @@
       <c r="E7" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="F7" s="14">
+        <v>27</v>
+      </c>
       <c r="I7" s="1">
         <f>I4/14</f>
-        <v>21.696428571428573</v>
+        <v>22.089285714285715</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -8248,6 +8269,9 @@
       <c r="E8" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="F8" s="14">
+        <v>27</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="23" t="s">
@@ -8273,6 +8297,9 @@
       <c r="E10" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="F10" s="14">
+        <v>27</v>
+      </c>
       <c r="G10" s="2">
         <f>SUM(B10:B15)</f>
         <v>17.25</v>
@@ -8294,6 +8321,9 @@
       <c r="E11" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="F11" s="14">
+        <v>27</v>
+      </c>
       <c r="G11" s="2"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -8312,6 +8342,9 @@
       <c r="E12" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="F12" s="14">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4">
@@ -8328,6 +8361,9 @@
       </c>
       <c r="E13" s="11" t="s">
         <v>20</v>
+      </c>
+      <c r="F13" s="14">
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -8397,6 +8433,9 @@
       <c r="E17" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="F17" s="14">
+        <v>24</v>
+      </c>
       <c r="G17" s="2">
         <f>SUM(B17:B27)</f>
         <v>21</v>
@@ -8795,8 +8834,8 @@
       <c r="E37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="20" t="s">
-        <v>124</v>
+      <c r="F37" s="20">
+        <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -8810,10 +8849,13 @@
         <v>8</v>
       </c>
       <c r="D38" s="11" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>20</v>
+      </c>
+      <c r="F38" s="14">
+        <v>27</v>
       </c>
       <c r="G38" s="3"/>
     </row>
@@ -8828,10 +8870,13 @@
         <v>8</v>
       </c>
       <c r="D39" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>16</v>
+      </c>
+      <c r="F39" s="14">
+        <v>15</v>
       </c>
       <c r="G39" s="2"/>
     </row>
@@ -8846,7 +8891,7 @@
         <v>8</v>
       </c>
       <c r="D40" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>20</v>
@@ -8866,7 +8911,7 @@
         <v>8</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>20</v>
@@ -8891,10 +8936,13 @@
       <c r="E42" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="F42" s="14">
+        <v>2</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="23" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G43" s="3" t="s">
         <v>24</v>
@@ -8911,7 +8959,7 @@
         <v>8</v>
       </c>
       <c r="D44" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>20</v>
@@ -8935,7 +8983,7 @@
         <v>8</v>
       </c>
       <c r="D45" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>20</v>
@@ -8955,7 +9003,7 @@
         <v>8</v>
       </c>
       <c r="D46" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>20</v>
@@ -8975,7 +9023,7 @@
         <v>8</v>
       </c>
       <c r="D47" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>17</v>
@@ -8995,7 +9043,7 @@
         <v>8</v>
       </c>
       <c r="D48" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>17</v>
@@ -9015,7 +9063,7 @@
         <v>8</v>
       </c>
       <c r="D49" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>20</v>
@@ -9035,7 +9083,7 @@
         <v>8</v>
       </c>
       <c r="D50" s="11" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>17</v>
@@ -9055,10 +9103,13 @@
         <v>8</v>
       </c>
       <c r="D51" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E51" s="11" t="s">
         <v>17</v>
+      </c>
+      <c r="F51" s="14">
+        <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -9072,15 +9123,18 @@
         <v>49</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E52" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="F52" s="14">
+        <v>26</v>
+      </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="23" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D53" s="6"/>
       <c r="G53" s="3" t="s">
@@ -9098,10 +9152,13 @@
         <v>8</v>
       </c>
       <c r="D54" s="11" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>17</v>
+      </c>
+      <c r="F54" s="14">
+        <v>29</v>
       </c>
       <c r="G54" s="2">
         <f>SUM(B54:B63)</f>
@@ -9119,7 +9176,7 @@
         <v>8</v>
       </c>
       <c r="D55" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E55" s="11" t="s">
         <v>20</v>
@@ -9140,7 +9197,7 @@
         <v>8</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>20</v>
@@ -9160,7 +9217,7 @@
         <v>8</v>
       </c>
       <c r="D57" s="11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>17</v>
@@ -9180,7 +9237,7 @@
         <v>8</v>
       </c>
       <c r="D58" s="11" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E58" s="11" t="s">
         <v>20</v>
@@ -9200,10 +9257,13 @@
         <v>8</v>
       </c>
       <c r="D59" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E59" s="11" t="s">
         <v>17</v>
+      </c>
+      <c r="F59" s="14">
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -9217,10 +9277,13 @@
         <v>49</v>
       </c>
       <c r="D60" s="12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="E60" s="11" t="s">
         <v>20</v>
+      </c>
+      <c r="F60" s="14">
+        <v>26</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -9234,10 +9297,13 @@
         <v>8</v>
       </c>
       <c r="D61" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E61" s="11" t="s">
         <v>19</v>
+      </c>
+      <c r="F61" s="14">
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -9251,10 +9317,13 @@
         <v>8</v>
       </c>
       <c r="D62" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="E62" s="11" t="s">
         <v>18</v>
+      </c>
+      <c r="F62" s="14">
+        <v>7</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -9268,15 +9337,18 @@
         <v>8</v>
       </c>
       <c r="D63" s="11" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E63" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="F63" s="14">
+        <v>7</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="23" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E64" s="11"/>
       <c r="G64" s="3" t="s">
@@ -9294,13 +9366,13 @@
         <v>8</v>
       </c>
       <c r="D65" s="11" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E65" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F65" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G65" s="2">
         <f>SUM(B65:B71)</f>
@@ -9318,13 +9390,13 @@
         <v>8</v>
       </c>
       <c r="D66" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E66" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F66" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G66" s="2"/>
     </row>
@@ -9339,13 +9411,13 @@
         <v>8</v>
       </c>
       <c r="D67" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F67" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -9359,13 +9431,13 @@
         <v>8</v>
       </c>
       <c r="D68" s="11" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F68" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -9379,10 +9451,13 @@
         <v>8</v>
       </c>
       <c r="D69" s="11" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>20</v>
+      </c>
+      <c r="F69" s="20" t="s">
+        <v>345</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -9396,13 +9471,13 @@
         <v>8</v>
       </c>
       <c r="D70" s="11" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F70" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -9416,18 +9491,18 @@
         <v>8</v>
       </c>
       <c r="D71" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F71" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="23" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C72" s="11"/>
       <c r="D72" s="11"/>
@@ -9447,13 +9522,13 @@
         <v>8</v>
       </c>
       <c r="D73" s="11" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E73" s="11" t="s">
         <v>17</v>
       </c>
       <c r="F73" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G73" s="2">
         <f>SUM(B73:B80)</f>
@@ -9471,13 +9546,13 @@
         <v>8</v>
       </c>
       <c r="D74" s="11" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E74" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F74" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -9491,13 +9566,13 @@
         <v>8</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E75" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F75" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -9511,13 +9586,13 @@
         <v>8</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="E76" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F76" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G76" s="3"/>
       <c r="J76" s="1">
@@ -9539,13 +9614,13 @@
         <v>8</v>
       </c>
       <c r="D77" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E77" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F77" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G77" s="2"/>
       <c r="J77" s="1">
@@ -9553,7 +9628,7 @@
       </c>
       <c r="K77" s="3">
         <f t="shared" ref="K77:K114" si="0">SUMIF($F$4:$F$157, J77, $B$4:$B$157)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -9567,13 +9642,13 @@
         <v>8</v>
       </c>
       <c r="D78" s="11" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="E78" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F78" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J78" s="1">
         <v>3</v>
@@ -9599,7 +9674,9 @@
       <c r="E79" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F79" s="20"/>
+      <c r="F79" s="20" t="s">
+        <v>345</v>
+      </c>
       <c r="J79" s="1">
         <v>4</v>
       </c>
@@ -9619,13 +9696,13 @@
         <v>8</v>
       </c>
       <c r="D80" s="11" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E80" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F80" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="J80" s="1">
         <v>5</v>
@@ -9637,7 +9714,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="23" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B81" s="8"/>
       <c r="C81" s="11"/>
@@ -9666,13 +9743,13 @@
         <v>8</v>
       </c>
       <c r="D82" s="11" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E82" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F82" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G82" s="2">
         <f>SUM(B82:B94)</f>
@@ -9683,7 +9760,7 @@
       </c>
       <c r="K82" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -9697,13 +9774,13 @@
         <v>8</v>
       </c>
       <c r="D83" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E83" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F83" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J83" s="1">
         <v>8</v>
@@ -9724,13 +9801,13 @@
         <v>8</v>
       </c>
       <c r="D84" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E84" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F84" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J84" s="1">
         <v>9</v>
@@ -9751,13 +9828,13 @@
         <v>8</v>
       </c>
       <c r="D85" s="11" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E85" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F85" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G85" s="3"/>
       <c r="J85" s="1">
@@ -9779,13 +9856,13 @@
         <v>8</v>
       </c>
       <c r="D86" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E86" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F86" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G86" s="2"/>
       <c r="J86" s="1">
@@ -9807,13 +9884,13 @@
         <v>8</v>
       </c>
       <c r="D87" s="11" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E87" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F87" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J87" s="1">
         <v>12</v>
@@ -9831,16 +9908,16 @@
         <v>2</v>
       </c>
       <c r="C88" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D88" s="11" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E88" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F88" s="20" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="J88" s="1">
         <v>13</v>
@@ -9861,13 +9938,13 @@
         <v>8</v>
       </c>
       <c r="D89" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E89" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F89" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J89" s="1">
         <v>14</v>
@@ -9888,20 +9965,20 @@
         <v>8</v>
       </c>
       <c r="D90" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E90" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F90" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J90" s="1">
         <v>15</v>
       </c>
       <c r="K90" s="3">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -9912,16 +9989,16 @@
         <v>2</v>
       </c>
       <c r="C91" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D91" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E91" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F91" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J91" s="1">
         <v>16</v>
@@ -9942,13 +10019,13 @@
         <v>8</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E92" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F92" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J92" s="1">
         <v>17</v>
@@ -9974,7 +10051,9 @@
       <c r="E93" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F93" s="20"/>
+      <c r="F93" s="20" t="s">
+        <v>346</v>
+      </c>
       <c r="J93" s="1">
         <v>18</v>
       </c>
@@ -9994,13 +10073,13 @@
         <v>8</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E94" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F94" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="J94" s="1">
         <v>19</v>
@@ -10012,7 +10091,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="23" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C95" s="11"/>
       <c r="D95" s="11"/>
@@ -10039,13 +10118,13 @@
         <v>8</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E96" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F96" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G96" s="2">
         <f>SUM(B96:B103)</f>
@@ -10070,13 +10149,13 @@
         <v>8</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E97" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F97" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G97" s="2"/>
       <c r="J97" s="1">
@@ -10098,13 +10177,13 @@
         <v>8</v>
       </c>
       <c r="D98" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E98" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F98" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J98" s="1">
         <v>23</v>
@@ -10125,20 +10204,20 @@
         <v>8</v>
       </c>
       <c r="D99" s="11" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E99" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F99" s="20" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="J99" s="1">
         <v>24</v>
       </c>
       <c r="K99" s="3">
         <f t="shared" si="0"/>
-        <v>5.25</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -10152,13 +10231,13 @@
         <v>8</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E100" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F100" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="J100" s="1">
         <v>25</v>
@@ -10184,12 +10263,15 @@
       <c r="E101" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="F101" s="20" t="s">
+        <v>346</v>
+      </c>
       <c r="J101" s="1">
         <v>26</v>
       </c>
       <c r="K101" s="3">
         <f t="shared" si="0"/>
-        <v>2.5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -10203,20 +10285,20 @@
         <v>8</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E102" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F102" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J102" s="1">
         <v>27</v>
       </c>
       <c r="K102" s="3">
         <f t="shared" si="0"/>
-        <v>0.5</v>
+        <v>27.5</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -10230,13 +10312,13 @@
         <v>8</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E103" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F103" s="20" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="J103" s="1">
         <v>28</v>
@@ -10248,7 +10330,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="23" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
@@ -10261,7 +10343,7 @@
       </c>
       <c r="K104" s="3">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -10275,13 +10357,13 @@
         <v>8</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E105" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F105" s="20" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G105" s="2">
         <f>SUM(B105:B112)</f>
@@ -10306,13 +10388,13 @@
         <v>8</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E106" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F106" s="20" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G106" s="2"/>
       <c r="J106" s="1">
@@ -10334,13 +10416,13 @@
         <v>8</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E107" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F107" s="20" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G107" s="2"/>
       <c r="J107" s="1">
@@ -10362,13 +10444,13 @@
         <v>8</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E108" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F108" s="20" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="J108" s="1">
         <v>33</v>
@@ -10389,13 +10471,13 @@
         <v>8</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E109" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F109" s="20" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
       <c r="J109" s="1">
         <v>34</v>
@@ -10416,13 +10498,13 @@
         <v>8</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E110" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F110" s="20" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J110" s="1">
         <v>35</v>
@@ -10443,13 +10525,13 @@
         <v>8</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E111" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F111" s="20" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="J111" s="1">
         <v>36</v>
@@ -10475,6 +10557,9 @@
       <c r="E112" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="F112" s="20" t="s">
+        <v>347</v>
+      </c>
       <c r="J112" s="1">
         <v>37</v>
       </c>
@@ -10485,7 +10570,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="23" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>24</v>
@@ -10509,13 +10594,13 @@
         <v>8</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="E114" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F114" s="20" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G114" s="2">
         <f>SUM(B114:B119)</f>
@@ -10540,13 +10625,13 @@
         <v>8</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E115" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F115" s="20" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -10560,13 +10645,13 @@
         <v>8</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E116" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F116" s="20" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -10580,13 +10665,13 @@
         <v>8</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E117" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F117" s="20" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -10600,10 +10685,13 @@
         <v>8</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
       <c r="E118" s="11" t="s">
         <v>20</v>
+      </c>
+      <c r="F118" s="20" t="s">
+        <v>347</v>
       </c>
       <c r="J118" s="2">
         <f>SUM(G77,G86,G97,G106,G114,G125,G131)</f>
@@ -10611,7 +10699,7 @@
       </c>
       <c r="K118" s="1">
         <f>SUM(K76:K114)</f>
-        <v>63</v>
+        <v>118.25</v>
       </c>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -10630,10 +10718,13 @@
       <c r="E119" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="F119" s="20" t="s">
+        <v>347</v>
+      </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="23" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="C120" s="11"/>
       <c r="D120" s="11"/>
@@ -10656,13 +10747,13 @@
         <v>8</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="E121" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F121" s="20" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="G121" s="2">
         <f>SUM(B121:B129)</f>
@@ -10670,7 +10761,7 @@
       </c>
       <c r="K121" s="1">
         <f>SUM(Nico!K97:K114)</f>
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -10684,13 +10775,13 @@
         <v>8</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E122" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F122" s="20" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -10704,13 +10795,13 @@
         <v>8</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E123" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F123" s="20" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -10724,13 +10815,13 @@
         <v>8</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E124" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F124" s="20" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G124" s="11"/>
     </row>
@@ -10745,13 +10836,13 @@
         <v>8</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="E125" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F125" s="20" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G125" s="2"/>
     </row>
@@ -10766,13 +10857,13 @@
         <v>8</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="E126" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F126" s="20" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -10786,13 +10877,13 @@
         <v>8</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="E127" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F127" s="20" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -10806,13 +10897,13 @@
         <v>8</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="E128" s="11" t="s">
         <v>18</v>
       </c>
       <c r="F128" s="20" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -10826,15 +10917,18 @@
         <v>8</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="E129" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="F129" s="20" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="23" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>24</v>
@@ -10851,13 +10945,13 @@
         <v>8</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="E131" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F131" s="20" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G131" s="2">
         <f>SUM(B131:B136)</f>
@@ -10875,13 +10969,13 @@
         <v>8</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E132" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F132" s="20" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -10895,13 +10989,13 @@
         <v>8</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E133" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F133" s="20" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -10915,13 +11009,13 @@
         <v>8</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="E134" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F134" s="20" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -10935,13 +11029,13 @@
         <v>8</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E135" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F135" s="20" t="s">
-        <v>252</v>
+        <v>292</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -10960,10 +11054,13 @@
       <c r="E136" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="F136" s="20" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="23" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="C137" s="11"/>
       <c r="D137" s="11"/>
@@ -10983,17 +11080,17 @@
         <v>8</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="E138" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F138" s="20" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="G138" s="2">
         <f>SUM(B138:B143)</f>
-        <v>8.75</v>
+        <v>14.25</v>
       </c>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -11007,13 +11104,13 @@
         <v>8</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="E139" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F139" s="20" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -11027,13 +11124,13 @@
         <v>8</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="E140" s="11" t="s">
         <v>16</v>
       </c>
       <c r="F140" s="20" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -11047,15 +11144,34 @@
         <v>8</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E141" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="F141" s="20" t="s">
+        <v>300</v>
+      </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A142" s="3"/>
-      <c r="D142" s="11"/>
+      <c r="A142" s="22">
+        <v>43250</v>
+      </c>
+      <c r="B142" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="C142" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D142" s="11" t="s">
+        <v>337</v>
+      </c>
+      <c r="E142" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F142" s="20" t="s">
+        <v>338</v>
+      </c>
       <c r="G142" s="25"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -11113,8 +11229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11190,7 +11306,7 @@
       <c r="F3" s="35"/>
       <c r="H3">
         <f>Nico!K77</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -11282,7 +11398,7 @@
       <c r="F8" s="33"/>
       <c r="H8">
         <f>Nico!K82</f>
-        <v>0</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -11432,7 +11548,7 @@
       <c r="F16" s="33"/>
       <c r="H16">
         <f>Nico!K90</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
@@ -11604,7 +11720,7 @@
       <c r="F25" s="35"/>
       <c r="H25">
         <f>Nico!K99</f>
-        <v>5.25</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -11670,7 +11786,7 @@
         <v>29</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C30" s="33"/>
       <c r="D30" s="34"/>
@@ -11728,7 +11844,7 @@
   <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11774,7 +11890,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="32"/>
@@ -11790,7 +11906,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="36"/>
@@ -11798,7 +11914,7 @@
       <c r="F3" s="35"/>
       <c r="H3">
         <f>Nico!K77</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -11806,7 +11922,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="34"/>
@@ -11822,7 +11938,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="C5" s="33"/>
       <c r="D5" s="34"/>
@@ -11838,7 +11954,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="36" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="C6" s="35"/>
       <c r="D6" s="36"/>
@@ -11854,7 +11970,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="C7" s="33"/>
       <c r="D7" s="34"/>
@@ -11862,7 +11978,7 @@
       <c r="F7" s="33"/>
       <c r="H7">
         <f>Nico!K82</f>
-        <v>0</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -11870,7 +11986,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="C8" s="35"/>
       <c r="D8" s="36"/>
@@ -11886,7 +12002,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="C9" s="33"/>
       <c r="D9" s="34"/>
@@ -11902,7 +12018,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="C10" s="35"/>
       <c r="D10" s="38"/>
@@ -11918,7 +12034,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C11" s="33"/>
       <c r="D11" s="34"/>
@@ -11934,7 +12050,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="36" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="C12" s="35"/>
       <c r="D12" s="36"/>
@@ -11950,7 +12066,7 @@
         <v>12</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="C13" s="33"/>
       <c r="D13" s="34"/>
@@ -11970,7 +12086,7 @@
       </c>
       <c r="C14" s="35"/>
       <c r="D14" s="36" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="E14" s="35"/>
       <c r="F14" s="35"/>
@@ -11984,7 +12100,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="C15" s="33"/>
       <c r="D15" s="34"/>
@@ -11992,7 +12108,7 @@
       <c r="F15" s="33"/>
       <c r="H15">
         <f>Nico!K90</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -12000,7 +12116,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="36" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="C16" s="35"/>
       <c r="D16" s="36"/>
@@ -12016,7 +12132,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="C17" s="33"/>
       <c r="D17" s="34"/>
@@ -12028,16 +12144,18 @@
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="35"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="H18">
-        <f>Nico!K93</f>
+      <c r="A18" s="33">
+        <v>17</v>
+      </c>
+      <c r="B18" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="C18" s="33"/>
+      <c r="D18" s="34"/>
+      <c r="E18" s="33">
         <v>2</v>
       </c>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="33"/>
@@ -12108,7 +12226,7 @@
       <c r="F24" s="35"/>
       <c r="H24">
         <f>Nico!K99</f>
-        <v>5.25</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -12198,7 +12316,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -12244,7 +12362,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="32"/>
@@ -12260,7 +12378,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="36"/>
@@ -12268,7 +12386,7 @@
       <c r="F3" s="35"/>
       <c r="H3">
         <f>Nico!K77</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -12276,7 +12394,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="34"/>
@@ -12292,7 +12410,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="36"/>
@@ -12308,7 +12426,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="34"/>
@@ -12324,7 +12442,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="36"/>
@@ -12340,17 +12458,17 @@
         <v>7</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="34" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E8" s="33"/>
       <c r="F8" s="33"/>
       <c r="H8">
         <f>Nico!K82</f>
-        <v>0</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -12358,11 +12476,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="36" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E9" s="35"/>
       <c r="F9" s="35"/>
@@ -12372,16 +12490,18 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34"/>
+      <c r="A10" s="33">
+        <v>9</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>344</v>
+      </c>
       <c r="C10" s="33"/>
       <c r="D10" s="34"/>
-      <c r="E10" s="33"/>
+      <c r="E10" s="33">
+        <v>2</v>
+      </c>
       <c r="F10" s="33"/>
-      <c r="H10">
-        <f>Nico!K84</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="35"/>
@@ -12452,7 +12572,7 @@
       <c r="F16" s="33"/>
       <c r="H16">
         <f>Nico!K90</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -12560,7 +12680,7 @@
       <c r="F25" s="35"/>
       <c r="H25">
         <f>Nico!K99</f>
-        <v>5.25</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -12650,7 +12770,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -12696,11 +12816,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="32" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E2" s="32">
         <v>12</v>
@@ -12716,11 +12836,11 @@
         <v>2</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="36" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E3" s="35">
         <v>8</v>
@@ -12728,7 +12848,7 @@
       <c r="F3" s="35"/>
       <c r="H3">
         <f>Nico!K77</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -12736,11 +12856,11 @@
         <v>3</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="34" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E4" s="33">
         <v>12</v>
@@ -12756,7 +12876,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="36"/>
@@ -12774,7 +12894,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="34"/>
@@ -12792,7 +12912,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="36"/>
@@ -12810,11 +12930,11 @@
         <v>7</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="34" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E8" s="33">
         <v>4</v>
@@ -12822,7 +12942,7 @@
       <c r="F8" s="33"/>
       <c r="H8">
         <f>Nico!K82</f>
-        <v>0</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -12830,11 +12950,11 @@
         <v>8</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="36" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="E9" s="35">
         <v>8</v>
@@ -12850,7 +12970,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="34"/>
@@ -12862,16 +12982,18 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
-      <c r="H11">
-        <f>Nico!K85</f>
-        <v>0</v>
-      </c>
+      <c r="A11" s="33">
+        <v>10</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="33">
+        <v>2</v>
+      </c>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="33"/>
@@ -12930,7 +13052,7 @@
       <c r="F16" s="33"/>
       <c r="H16">
         <f>Nico!K90</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -13038,7 +13160,7 @@
       <c r="F25" s="35"/>
       <c r="H25">
         <f>Nico!K99</f>
-        <v>5.25</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -13128,7 +13250,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -13174,7 +13296,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="32"/>
@@ -13192,7 +13314,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="36"/>
@@ -13202,7 +13324,7 @@
       <c r="F3" s="35"/>
       <c r="H3">
         <f>Nico!K77</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13210,7 +13332,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="34"/>
@@ -13228,7 +13350,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="36"/>
@@ -13246,11 +13368,11 @@
         <v>5</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="34" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E6" s="33">
         <v>4</v>
@@ -13266,7 +13388,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="36"/>
@@ -13284,7 +13406,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="34"/>
@@ -13294,7 +13416,7 @@
       <c r="F8" s="33"/>
       <c r="H8">
         <f>Nico!K82</f>
-        <v>0</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13302,7 +13424,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="36"/>
@@ -13316,16 +13438,18 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34"/>
+      <c r="A10" s="33">
+        <v>9</v>
+      </c>
+      <c r="B10" s="34" t="s">
+        <v>344</v>
+      </c>
       <c r="C10" s="33"/>
       <c r="D10" s="34"/>
-      <c r="E10" s="33"/>
+      <c r="E10" s="33">
+        <v>2</v>
+      </c>
       <c r="F10" s="33"/>
-      <c r="H10">
-        <f>Nico!K84</f>
-        <v>0</v>
-      </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="35"/>
@@ -13336,7 +13460,7 @@
       </c>
       <c r="E11" s="35">
         <f>SUM(E2:E10)</f>
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="F11" s="35"/>
       <c r="H11">
@@ -13401,7 +13525,7 @@
       <c r="F16" s="33"/>
       <c r="H16">
         <f>Nico!K90</f>
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -13509,7 +13633,7 @@
       <c r="F25" s="35"/>
       <c r="H25">
         <f>Nico!K99</f>
-        <v>5.25</v>
+        <v>7.25</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -13596,10 +13720,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D33CF4D-62A6-4B1E-A142-F77B1B444402}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -13645,7 +13769,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="32"/>
@@ -13663,7 +13787,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="36"/>
@@ -13673,7 +13797,7 @@
       <c r="F3" s="35"/>
       <c r="H3">
         <f>Nico!K77</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -13681,7 +13805,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="34"/>
@@ -13699,7 +13823,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="36"/>
@@ -13717,7 +13841,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="34"/>
@@ -13735,7 +13859,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="36"/>
@@ -13753,7 +13877,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="34"/>
@@ -13763,293 +13887,307 @@
       <c r="F8" s="33"/>
       <c r="H8">
         <f>Nico!K82</f>
-        <v>0</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="35"/>
-      <c r="B9" s="36"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
-      <c r="H9">
+      <c r="A9" s="33">
+        <v>8</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="C9" s="33"/>
+      <c r="D9" s="34"/>
+      <c r="E9" s="33">
+        <v>2</v>
+      </c>
+      <c r="F9" s="33"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="35"/>
+      <c r="B10" s="36"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="35"/>
+      <c r="H10">
         <f>Nico!K83</f>
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="33"/>
-      <c r="B10" s="34"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="H10">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="33"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="H11">
         <f>Nico!K84</f>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="38" t="s">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="35">
-        <f>SUM(E2:E10)</f>
-        <v>80</v>
-      </c>
-      <c r="F11" s="35"/>
-      <c r="H11">
+      <c r="E12" s="35">
+        <f>SUM(E2:E11)</f>
+        <v>82</v>
+      </c>
+      <c r="F12" s="35"/>
+      <c r="H12">
         <f>Nico!K85</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="H12">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="33"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="H13">
         <f>Nico!K86</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="H13">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="H14">
         <f>Nico!K87</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="H14">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="H15">
         <f>Nico!K88</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="H15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="H16">
         <f>Nico!K89</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="H16">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="H17">
         <f>Nico!K90</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="H17">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="H18">
         <f>Nico!K91</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="H18">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="H19">
         <f>Nico!K92</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="H19">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="H20">
         <f>Nico!K93</f>
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="H20">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="33"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="H21">
         <f>Nico!K94</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="H21">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="H22">
         <f>Nico!K95</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="33"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="H22">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="33"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="H23">
         <f>Nico!K96</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="35"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="H23">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="H24">
         <f>Nico!K97</f>
         <v>6.75</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="33"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="H24">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="33"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="H25">
         <f>Nico!K98</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="35"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="H25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="H26">
         <f>Nico!K99</f>
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="33"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="H26">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="33"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="H27">
         <f>Nico!K100</f>
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="35"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-    </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="33"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="35"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="33"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="35"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="33"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="35"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="33"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="33"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -14059,10 +14197,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C13BE1F-2828-4FDF-9831-A7CA98568C74}">
-  <dimension ref="A1:I34"/>
+  <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -14108,11 +14246,11 @@
         <v>1</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C2" s="31"/>
       <c r="D2" s="32" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E2" s="32">
         <v>5</v>
@@ -14128,7 +14266,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="36" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C3" s="35"/>
       <c r="D3" s="36"/>
@@ -14138,7 +14276,7 @@
       <c r="F3" s="35"/>
       <c r="H3">
         <f>Nico!K77</f>
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -14146,7 +14284,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C4" s="33"/>
       <c r="D4" s="34"/>
@@ -14164,7 +14302,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="36"/>
@@ -14182,7 +14320,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C6" s="33"/>
       <c r="D6" s="34"/>
@@ -14200,7 +14338,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C7" s="35"/>
       <c r="D7" s="36"/>
@@ -14218,7 +14356,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C8" s="33"/>
       <c r="D8" s="34"/>
@@ -14228,7 +14366,7 @@
       <c r="F8" s="33"/>
       <c r="H8">
         <f>Nico!K82</f>
-        <v>0</v>
+        <v>12.75</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -14236,7 +14374,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C9" s="35"/>
       <c r="D9" s="36"/>
@@ -14254,7 +14392,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="34" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C10" s="33"/>
       <c r="D10" s="34"/>
@@ -14268,265 +14406,279 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="38" t="s">
+      <c r="A11" s="33">
+        <v>10</v>
+      </c>
+      <c r="B11" s="34" t="s">
+        <v>344</v>
+      </c>
+      <c r="C11" s="33"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="33">
+        <v>2</v>
+      </c>
+      <c r="F11" s="33"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="35"/>
+      <c r="B12" s="36"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="35">
-        <f>SUM(E2:E10)</f>
-        <v>81</v>
-      </c>
-      <c r="F11" s="35"/>
-      <c r="H11">
+      <c r="E12" s="35">
+        <f>SUM(E2:E11)</f>
+        <v>83</v>
+      </c>
+      <c r="F12" s="35"/>
+      <c r="H12">
         <f>Nico!K85</f>
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="H12">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="33"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="H13">
         <f>Nico!K86</f>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
-      <c r="H13">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="35"/>
+      <c r="B14" s="36"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="35"/>
+      <c r="H14">
         <f>Nico!K87</f>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="H14">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="33"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="34"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="H15">
         <f>Nico!K88</f>
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
-      <c r="H15">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="35"/>
+      <c r="B16" s="36"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="35"/>
+      <c r="F16" s="35"/>
+      <c r="H16">
         <f>Nico!K89</f>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="H16">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="33"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="34"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="H17">
         <f>Nico!K90</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
-      <c r="H17">
+        <v>3.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="35"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35"/>
+      <c r="H18">
         <f>Nico!K91</f>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="H18">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="33"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="H19">
         <f>Nico!K92</f>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="H19">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="35"/>
+      <c r="B20" s="36"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="35"/>
+      <c r="F20" s="35"/>
+      <c r="H20">
         <f>Nico!K93</f>
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
-      <c r="H20">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="33"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="33"/>
+      <c r="H21">
         <f>Nico!K94</f>
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="H21">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="35"/>
+      <c r="B22" s="36"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="35"/>
+      <c r="H22">
         <f>Nico!K95</f>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="33"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-      <c r="H22">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="33"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="H23">
         <f>Nico!K96</f>
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="35"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
-      <c r="H23">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="35"/>
+      <c r="B24" s="36"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="H24">
         <f>Nico!K97</f>
         <v>6.75</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="33"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="H24">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="33"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="H25">
         <f>Nico!K98</f>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="35"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="H25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="35"/>
+      <c r="B26" s="36"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="H26">
         <f>Nico!K99</f>
-        <v>5.25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="33"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
-      <c r="H26">
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="33"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="33"/>
+      <c r="H27">
         <f>Nico!K100</f>
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="35"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-    </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="33"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
+      <c r="A28" s="35"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="35"/>
+      <c r="F28" s="35"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="35"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
+      <c r="A29" s="33"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="33"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="33"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
+      <c r="A30" s="35"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="36"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="35"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
+      <c r="A31" s="33"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="33"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
+      <c r="A32" s="35"/>
+      <c r="B32" s="36"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="36"/>
+      <c r="E32" s="35"/>
+      <c r="F32" s="35"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="35"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
+      <c r="A33" s="33"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="33"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
+      <c r="A34" s="35"/>
+      <c r="B34" s="36"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="36"/>
+      <c r="E34" s="35"/>
+      <c r="F34" s="35"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="33"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/project/Zeiterfassung.xlsx
+++ b/project/Zeiterfassung.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\BA\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SA\SA_AT\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A999627-7578-4950-B66A-3994F0DC1CAE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCB5DB6-07E2-4A03-BA7A-F683202E7021}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="70110" yWindow="0" windowWidth="19560" windowHeight="8118" tabRatio="745" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8050,8 +8050,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A127" workbookViewId="0">
-      <selection activeCell="F142" sqref="F142"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="F121" sqref="F121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8249,8 +8249,8 @@
         <v>27</v>
       </c>
       <c r="I7" s="1">
-        <f>I4/14</f>
-        <v>22.089285714285715</v>
+        <f>I4/15</f>
+        <v>20.616666666666667</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -11229,8 +11229,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/project/Zeiterfassung.xlsx
+++ b/project/Zeiterfassung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SA\SA_AT\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\BA\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BCB5DB6-07E2-4A03-BA7A-F683202E7021}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0B0886-A94D-4AEE-AE92-028B136FAED4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="70110" yWindow="0" windowWidth="19560" windowHeight="8118" tabRatio="745" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="71058" yWindow="0" windowWidth="19560" windowHeight="8118" tabRatio="745" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raphael" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1101" uniqueCount="349">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="358">
   <si>
     <t>Mit Betreuer</t>
   </si>
@@ -683,9 +683,6 @@
     <t>MS4: 9</t>
   </si>
   <si>
-    <t>MS4 :7</t>
-  </si>
-  <si>
     <t>scripts daemonization</t>
   </si>
   <si>
@@ -803,12 +800,6 @@
     <t>Bug fixing psql</t>
   </si>
   <si>
-    <t>MS6 :3</t>
-  </si>
-  <si>
-    <t>MS6 :7</t>
-  </si>
-  <si>
     <t>Grafana einbinden</t>
   </si>
   <si>
@@ -872,9 +863,6 @@
     <t>Influx fix für grafana</t>
   </si>
   <si>
-    <t>Bugfix</t>
-  </si>
-  <si>
     <t>done</t>
   </si>
   <si>
@@ -1083,6 +1071,45 @@
   </si>
   <si>
     <t>MS7: 10</t>
+  </si>
+  <si>
+    <t>Logging</t>
+  </si>
+  <si>
+    <t>MS8: 5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meeting </t>
+  </si>
+  <si>
+    <t>MS4: 1</t>
+  </si>
+  <si>
+    <t>MS4: 4</t>
+  </si>
+  <si>
+    <t>MS4: 2</t>
+  </si>
+  <si>
+    <t>MS4: 3</t>
+  </si>
+  <si>
+    <t>MS6: 1</t>
+  </si>
+  <si>
+    <t>MS6: 4</t>
+  </si>
+  <si>
+    <t>Neue Datenbank Funktionen für Workflows</t>
+  </si>
+  <si>
+    <t>MS6: 10</t>
+  </si>
+  <si>
+    <t>MS6: 8</t>
+  </si>
+  <si>
+    <t>MS8: 9</t>
   </si>
 </sst>
 </file>
@@ -1170,7 +1197,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1245,11 +1272,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF4F81BD"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF4F81BD"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
@@ -1263,12 +1301,6 @@
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1280,12 +1312,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -1321,6 +1347,7 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -2626,19 +2653,19 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>12.911843276936777</c:v>
+                  <c:v>12.985865724381625</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.439893143365982</c:v>
+                  <c:v>22.261484098939928</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>5.8771148708815675</c:v>
+                  <c:v>8.1272084805653702</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>41.629563668744431</c:v>
+                  <c:v>39.35512367491166</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.141585040071238</c:v>
+                  <c:v>17.270318021201415</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2861,19 +2888,19 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>72.5</c:v>
+                  <c:v>73.5</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>33</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>233.75</c:v>
+                  <c:v>222.75</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>96.25</c:v>
+                  <c:v>97.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -5117,10 +5144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M142"/>
+  <dimension ref="A1:M143"/>
   <sheetViews>
-    <sheetView topLeftCell="A113" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F124" sqref="F124"/>
+    <sheetView topLeftCell="A129" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F149" sqref="F149"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5130,7 +5157,7 @@
     <col min="3" max="3" width="12.26171875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27.68359375" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.26171875" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26171875" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="10" width="11.41796875" style="7"/>
     <col min="11" max="11" width="26.41796875" style="7" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.41796875" style="7"/>
@@ -5151,7 +5178,7 @@
       <c r="E1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="22" t="s">
         <v>23</v>
       </c>
       <c r="K1" s="9" t="s">
@@ -5205,13 +5232,16 @@
       <c r="E4" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="F4" s="22">
+        <v>27</v>
+      </c>
       <c r="G4" s="8">
         <f>SUM(B4:B8)</f>
         <v>6</v>
       </c>
       <c r="I4" s="8">
         <f>SUM(G4,G9,G21,G32,G43,G54,G64,G88,G77,G101,G69,G112,G120,G130,G139)</f>
-        <v>277.75</v>
+        <v>286.25</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
@@ -5236,6 +5266,9 @@
       <c r="E5" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="F5" s="22">
+        <v>27</v>
+      </c>
       <c r="K5" s="7" t="s">
         <v>13</v>
       </c>
@@ -5259,6 +5292,9 @@
       <c r="E6" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="F6" s="22">
+        <v>27</v>
+      </c>
       <c r="I6" s="3" t="s">
         <v>27</v>
       </c>
@@ -5285,6 +5321,9 @@
       <c r="E7" s="7" t="s">
         <v>20</v>
       </c>
+      <c r="F7" s="22">
+        <v>26</v>
+      </c>
       <c r="I7" s="7">
         <v>15</v>
       </c>
@@ -5304,6 +5343,9 @@
       </c>
       <c r="E8" s="11" t="s">
         <v>20</v>
+      </c>
+      <c r="F8" s="22">
+        <v>27</v>
       </c>
       <c r="G8" s="9" t="s">
         <v>24</v>
@@ -5324,7 +5366,7 @@
       </c>
       <c r="I10" s="7">
         <f>I4/I7</f>
-        <v>18.516666666666666</v>
+        <v>19.083333333333332</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5343,6 +5385,9 @@
       <c r="E11" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="F11" s="23">
+        <v>27</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10">
@@ -5360,6 +5405,9 @@
       <c r="E12" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="F12" s="23">
+        <v>27</v>
+      </c>
       <c r="G12" s="9"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5378,6 +5426,9 @@
       <c r="E13" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="F13" s="23">
+        <v>27</v>
+      </c>
       <c r="G13" s="8"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
@@ -5396,6 +5447,9 @@
       <c r="E14" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="F14" s="23">
+        <v>27</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4">
@@ -5413,6 +5467,9 @@
       <c r="E15" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="F15" s="23">
+        <v>27</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10">
@@ -5430,6 +5487,9 @@
       <c r="E16" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="F16" s="23">
+        <v>27</v>
+      </c>
       <c r="G16" s="9"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5448,6 +5508,9 @@
       <c r="E17" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="F17" s="23">
+        <v>27</v>
+      </c>
       <c r="G17" s="8"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5466,19 +5529,22 @@
       <c r="E18" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="F18" s="22">
+        <v>26</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="23" t="s">
+      <c r="A20" s="19" t="s">
         <v>100</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="11"/>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
-      <c r="F20" s="14"/>
+      <c r="F20" s="17"/>
       <c r="G20" s="3" t="s">
         <v>24</v>
       </c>
@@ -5499,7 +5565,7 @@
       <c r="E21" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="17">
         <v>22</v>
       </c>
       <c r="G21" s="2">
@@ -5523,7 +5589,7 @@
       <c r="E22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="17">
         <v>11</v>
       </c>
     </row>
@@ -5543,7 +5609,7 @@
       <c r="E23" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F23" s="19">
+      <c r="F23" s="22">
         <v>8</v>
       </c>
     </row>
@@ -5563,7 +5629,7 @@
       <c r="E24" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="20">
+      <c r="F24" s="23">
         <v>4</v>
       </c>
     </row>
@@ -5583,6 +5649,9 @@
       <c r="E25" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="F25" s="23">
+        <v>25</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10">
@@ -5600,7 +5669,7 @@
       <c r="E26" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="17">
         <v>11</v>
       </c>
     </row>
@@ -5620,7 +5689,7 @@
       <c r="E27" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="19">
+      <c r="F27" s="22">
         <v>8</v>
       </c>
     </row>
@@ -5640,12 +5709,12 @@
       <c r="E28" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F28" s="20">
+      <c r="F28" s="23">
         <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="22">
+      <c r="A29" s="18">
         <v>43168</v>
       </c>
       <c r="B29" s="2">
@@ -5660,10 +5729,12 @@
       <c r="E29" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F29" s="14"/>
+      <c r="F29" s="17">
+        <v>26</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="23" t="s">
+      <c r="A31" s="19" t="s">
         <v>114</v>
       </c>
       <c r="G31" s="3" t="s">
@@ -5686,12 +5757,12 @@
       <c r="E32" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="17">
         <v>24</v>
       </c>
       <c r="G32" s="2">
-        <f>SUM(B32:B40)</f>
-        <v>17.5</v>
+        <f>SUM(B32:B41)</f>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -5710,7 +5781,7 @@
       <c r="E33" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="17">
         <v>11</v>
       </c>
     </row>
@@ -5730,7 +5801,7 @@
       <c r="E34" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="19">
+      <c r="F34" s="22">
         <v>28</v>
       </c>
     </row>
@@ -5750,7 +5821,7 @@
       <c r="E35" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="17">
         <v>24</v>
       </c>
     </row>
@@ -5770,7 +5841,7 @@
       <c r="E36" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="17">
         <v>11</v>
       </c>
     </row>
@@ -5790,7 +5861,7 @@
       <c r="E37" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F37" s="14">
+      <c r="F37" s="17">
         <v>14</v>
       </c>
     </row>
@@ -5810,7 +5881,7 @@
       <c r="E38" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="17">
         <v>25</v>
       </c>
     </row>
@@ -5830,12 +5901,12 @@
       <c r="E39" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F39" s="20">
+      <c r="F39" s="23">
         <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A40" s="22">
+      <c r="A40" s="18">
         <v>43174</v>
       </c>
       <c r="B40" s="2">
@@ -5850,14 +5921,33 @@
       <c r="E40" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="14"/>
+      <c r="F40" s="17">
+        <v>25</v>
+      </c>
       <c r="G40" s="8"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="10"/>
+      <c r="A41" s="10">
+        <v>43175</v>
+      </c>
+      <c r="B41" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C41" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F41" s="23">
+        <v>26</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A42" s="23" t="s">
+      <c r="A42" s="19" t="s">
         <v>132</v>
       </c>
       <c r="G42" s="3" t="s">
@@ -5880,7 +5970,7 @@
       <c r="E43" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F43" s="14">
+      <c r="F43" s="17">
         <v>25</v>
       </c>
       <c r="G43" s="2">
@@ -5904,6 +5994,9 @@
       <c r="E44" s="11" t="s">
         <v>16</v>
       </c>
+      <c r="F44" s="23">
+        <v>12</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10">
@@ -5921,6 +6014,9 @@
       <c r="E45" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="F45" s="23">
+        <v>24</v>
+      </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="10">
@@ -5938,6 +6034,9 @@
       <c r="E46" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="F46" s="22">
+        <v>11</v>
+      </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="10">
@@ -5955,6 +6054,9 @@
       <c r="E47" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="F47" s="23">
+        <v>11</v>
+      </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10">
@@ -5972,6 +6074,9 @@
       <c r="E48" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="F48" s="23">
+        <v>24</v>
+      </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="10">
@@ -5989,6 +6094,9 @@
       <c r="E49" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="F49" s="23">
+        <v>29</v>
+      </c>
       <c r="G49" s="9"/>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -6007,13 +6115,16 @@
       <c r="E50" s="11" t="s">
         <v>17</v>
       </c>
+      <c r="F50" s="23">
+        <v>24</v>
+      </c>
       <c r="G50" s="8"/>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10">
         <v>43182</v>
       </c>
-      <c r="B51" s="25">
+      <c r="B51" s="21">
         <v>1</v>
       </c>
       <c r="C51" s="11" t="s">
@@ -6025,16 +6136,19 @@
       <c r="E51" s="11" t="s">
         <v>20</v>
       </c>
+      <c r="F51" s="23">
+        <v>26</v>
+      </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="19" t="s">
         <v>142</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="1"/>
       <c r="D53" s="6"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="14"/>
+      <c r="F53" s="17"/>
       <c r="G53" s="3" t="s">
         <v>24</v>
       </c>
@@ -6055,12 +6169,12 @@
       <c r="E54" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F54" s="14">
+      <c r="F54" s="17">
         <v>29</v>
       </c>
       <c r="G54" s="2">
         <f>SUM(B54:B61)</f>
-        <v>21.5</v>
+        <v>22.5</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -6079,7 +6193,7 @@
       <c r="E55" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F55" s="14">
+      <c r="F55" s="17">
         <v>29</v>
       </c>
     </row>
@@ -6099,15 +6213,15 @@
       <c r="E56" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F56" s="19">
-        <v>29</v>
+      <c r="F56" s="22">
+        <v>18</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="10">
         <v>43187</v>
       </c>
-      <c r="B57" s="25">
+      <c r="B57" s="21">
         <v>1</v>
       </c>
       <c r="C57" s="11" t="s">
@@ -6118,6 +6232,9 @@
       </c>
       <c r="E57" s="11" t="s">
         <v>20</v>
+      </c>
+      <c r="F57" s="23">
+        <v>26</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -6136,6 +6253,9 @@
       <c r="E58" s="11" t="s">
         <v>19</v>
       </c>
+      <c r="F58" s="23">
+        <v>5</v>
+      </c>
       <c r="M58" s="11"/>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -6154,7 +6274,9 @@
       <c r="E59" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F59" s="13"/>
+      <c r="F59" s="23">
+        <v>18</v>
+      </c>
       <c r="G59" s="9"/>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -6162,7 +6284,7 @@
         <v>43189</v>
       </c>
       <c r="B60" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C60" s="11" t="s">
         <v>8</v>
@@ -6173,7 +6295,9 @@
       <c r="E60" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F60" s="26"/>
+      <c r="F60" s="22">
+        <v>27</v>
+      </c>
       <c r="G60" s="8"/>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -6192,7 +6316,9 @@
       <c r="E61" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F61" s="26"/>
+      <c r="F61" s="22">
+        <v>12</v>
+      </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="4"/>
@@ -6200,16 +6326,15 @@
       <c r="C62" s="11"/>
       <c r="D62" s="11"/>
       <c r="E62" s="11"/>
-      <c r="F62" s="21"/>
+      <c r="F62" s="17"/>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A63" s="23" t="s">
+      <c r="A63" s="19" t="s">
         <v>164</v>
       </c>
       <c r="C63" s="11"/>
       <c r="D63" s="11"/>
       <c r="E63" s="11"/>
-      <c r="F63" s="26"/>
       <c r="G63" s="3" t="s">
         <v>24</v>
       </c>
@@ -6230,8 +6355,8 @@
       <c r="E64" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F64" s="26">
-        <v>1</v>
+      <c r="F64" s="23" t="s">
+        <v>348</v>
       </c>
       <c r="G64" s="2">
         <f>SUM(B64:B66)</f>
@@ -6254,8 +6379,8 @@
       <c r="E65" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F65" s="27">
-        <v>2</v>
+      <c r="F65" s="23" t="s">
+        <v>348</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6274,28 +6399,26 @@
       <c r="E66" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F66" s="26">
-        <v>4</v>
+      <c r="F66" s="23" t="s">
+        <v>349</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A67" s="22"/>
+      <c r="A67" s="18"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
-      <c r="F67" s="26"/>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F68" s="26"/>
       <c r="G68" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A69" s="22">
+      <c r="A69" s="18">
         <v>43199</v>
       </c>
       <c r="B69" s="8">
@@ -6310,7 +6433,9 @@
       <c r="E69" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F69" s="26"/>
+      <c r="F69" s="23" t="s">
+        <v>350</v>
+      </c>
       <c r="G69" s="2">
         <f>SUM(B69:B74)</f>
         <v>31.5</v>
@@ -6332,7 +6457,9 @@
       <c r="E70" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F70" s="26"/>
+      <c r="F70" s="23" t="s">
+        <v>351</v>
+      </c>
       <c r="G70" s="8"/>
       <c r="H70" s="9"/>
     </row>
@@ -6352,7 +6479,9 @@
       <c r="E71" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F71" s="21"/>
+      <c r="F71" s="23" t="s">
+        <v>349</v>
+      </c>
       <c r="H71" s="8"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
@@ -6371,13 +6500,15 @@
       <c r="E72" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F72" s="27"/>
+      <c r="F72" s="23" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="10">
         <v>43203</v>
       </c>
-      <c r="B73" s="25">
+      <c r="B73" s="21">
         <v>0.5</v>
       </c>
       <c r="C73" s="11" t="s">
@@ -6389,7 +6520,9 @@
       <c r="E73" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F73" s="27"/>
+      <c r="F73" s="23" t="s">
+        <v>341</v>
+      </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="10">
@@ -6407,14 +6540,16 @@
       <c r="E74" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F74" s="27"/>
+      <c r="F74" s="23" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="10"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
-      <c r="F75" s="27"/>
+      <c r="F75" s="23"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="3" t="s">
@@ -6424,13 +6559,13 @@
       <c r="C76" s="1"/>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="21"/>
+      <c r="F76" s="17"/>
       <c r="G76" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A77" s="22">
+      <c r="A77" s="18">
         <v>43206</v>
       </c>
       <c r="B77" s="2">
@@ -6445,7 +6580,9 @@
       <c r="E77" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F77" s="21"/>
+      <c r="F77" s="23" t="s">
+        <v>211</v>
+      </c>
       <c r="G77" s="2">
         <f>SUM(B77:B85)</f>
         <v>18</v>
@@ -6467,11 +6604,13 @@
       <c r="E78" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F78" s="21"/>
+      <c r="F78" s="23" t="s">
+        <v>335</v>
+      </c>
       <c r="G78" s="2"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A79" s="22">
+      <c r="A79" s="18">
         <v>43207</v>
       </c>
       <c r="B79" s="2">
@@ -6486,11 +6625,13 @@
       <c r="E79" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F79" s="21"/>
+      <c r="F79" s="23" t="s">
+        <v>211</v>
+      </c>
       <c r="G79" s="1"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A80" s="22">
+      <c r="A80" s="18">
         <v>43208</v>
       </c>
       <c r="B80" s="2">
@@ -6505,11 +6646,13 @@
       <c r="E80" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F80" s="27"/>
+      <c r="F80" s="23" t="s">
+        <v>211</v>
+      </c>
       <c r="G80" s="1"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="22">
+      <c r="A81" s="18">
         <v>43208</v>
       </c>
       <c r="B81" s="2">
@@ -6524,7 +6667,9 @@
       <c r="E81" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F81" s="27"/>
+      <c r="F81" s="23" t="s">
+        <v>234</v>
+      </c>
       <c r="G81" s="1"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6543,7 +6688,9 @@
       <c r="E82" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F82" s="21"/>
+      <c r="F82" s="23" t="s">
+        <v>234</v>
+      </c>
       <c r="G82" s="1"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6562,7 +6709,9 @@
       <c r="E83" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F83" s="27"/>
+      <c r="F83" s="23" t="s">
+        <v>234</v>
+      </c>
       <c r="G83" s="1"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6581,7 +6730,9 @@
       <c r="E84" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F84" s="27"/>
+      <c r="F84" s="23" t="s">
+        <v>211</v>
+      </c>
       <c r="G84" s="1"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6600,7 +6751,9 @@
       <c r="E85" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F85" s="21"/>
+      <c r="F85" s="23" t="s">
+        <v>335</v>
+      </c>
       <c r="G85" s="1"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6609,18 +6762,18 @@
       <c r="C86" s="1"/>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="21"/>
+      <c r="F86" s="17"/>
       <c r="G86" s="3"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A87" s="23" t="s">
+      <c r="A87" s="19" t="s">
         <v>200</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="11"/>
       <c r="D87" s="11"/>
       <c r="E87" s="11"/>
-      <c r="F87" s="21"/>
+      <c r="F87" s="17"/>
       <c r="G87" s="3" t="s">
         <v>24</v>
       </c>
@@ -6641,8 +6794,8 @@
       <c r="E88" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F88" s="27" t="s">
-        <v>235</v>
+      <c r="F88" s="23" t="s">
+        <v>234</v>
       </c>
       <c r="G88" s="2">
         <f>SUM(B88:B98)</f>
@@ -6665,8 +6818,8 @@
       <c r="E89" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F89" s="27" t="s">
-        <v>235</v>
+      <c r="F89" s="23" t="s">
+        <v>234</v>
       </c>
       <c r="G89" s="1"/>
     </row>
@@ -6686,7 +6839,9 @@
       <c r="E90" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F90" s="27"/>
+      <c r="F90" s="23" t="s">
+        <v>335</v>
+      </c>
       <c r="G90" s="1"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6705,8 +6860,8 @@
       <c r="E91" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="27" t="s">
-        <v>235</v>
+      <c r="F91" s="23" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6725,8 +6880,8 @@
       <c r="E92" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F92" s="27" t="s">
-        <v>339</v>
+      <c r="F92" s="23" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6740,13 +6895,13 @@
         <v>8</v>
       </c>
       <c r="D93" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E93" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F93" s="27" t="s">
-        <v>339</v>
+      <c r="F93" s="23" t="s">
+        <v>335</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6760,13 +6915,13 @@
         <v>8</v>
       </c>
       <c r="D94" s="11" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E94" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F94" s="27" t="s">
-        <v>340</v>
+      <c r="F94" s="23" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6780,13 +6935,13 @@
         <v>8</v>
       </c>
       <c r="D95" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E95" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F95" s="27" t="s">
-        <v>340</v>
+      <c r="F95" s="23" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -6800,13 +6955,13 @@
         <v>8</v>
       </c>
       <c r="D96" s="11" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="E96" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F96" s="27" t="s">
-        <v>339</v>
+      <c r="F96" s="23" t="s">
+        <v>335</v>
       </c>
       <c r="G96" s="3"/>
     </row>
@@ -6821,13 +6976,13 @@
         <v>8</v>
       </c>
       <c r="D97" s="11" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E97" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F97" s="27" t="s">
-        <v>340</v>
+      <c r="F97" s="23" t="s">
+        <v>336</v>
       </c>
       <c r="G97" s="2"/>
     </row>
@@ -6835,7 +6990,7 @@
       <c r="A98" s="4">
         <v>43217</v>
       </c>
-      <c r="B98" s="24">
+      <c r="B98" s="20">
         <v>1</v>
       </c>
       <c r="C98" s="11" t="s">
@@ -6847,7 +7002,9 @@
       <c r="E98" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F98" s="27"/>
+      <c r="F98" s="23" t="s">
+        <v>342</v>
+      </c>
       <c r="G98" s="1"/>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -6856,18 +7013,18 @@
       <c r="C99" s="11"/>
       <c r="D99" s="11"/>
       <c r="E99" s="11"/>
-      <c r="F99" s="21"/>
+      <c r="F99" s="17"/>
       <c r="G99" s="1"/>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A100" s="23" t="s">
-        <v>231</v>
+      <c r="A100" s="19" t="s">
+        <v>230</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" s="11"/>
       <c r="D100" s="11"/>
       <c r="E100" s="11"/>
-      <c r="F100" s="21"/>
+      <c r="F100" s="17"/>
       <c r="G100" s="3" t="s">
         <v>24</v>
       </c>
@@ -6884,15 +7041,17 @@
         <v>8</v>
       </c>
       <c r="D101" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E101" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F101" s="21"/>
+      <c r="F101" s="23" t="s">
+        <v>352</v>
+      </c>
       <c r="G101" s="2">
         <f>SUM(B101:B109)</f>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -6906,12 +7065,14 @@
         <v>8</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E102" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F102" s="21"/>
+      <c r="F102" s="23" t="s">
+        <v>355</v>
+      </c>
       <c r="G102" s="1"/>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -6925,12 +7086,14 @@
         <v>8</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E103" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F103" s="21"/>
+      <c r="F103" s="23" t="s">
+        <v>355</v>
+      </c>
       <c r="G103" s="1"/>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -6938,18 +7101,20 @@
         <v>43223</v>
       </c>
       <c r="B104" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C104" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D104" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E104" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F104" s="26"/>
+      <c r="F104" s="23" t="s">
+        <v>356</v>
+      </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="4">
@@ -6962,12 +7127,14 @@
         <v>8</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E105" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F105" s="26"/>
+      <c r="F105" s="23" t="s">
+        <v>355</v>
+      </c>
       <c r="G105" s="3"/>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -6981,12 +7148,14 @@
         <v>8</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E106" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F106" s="21"/>
+      <c r="F106" s="23" t="s">
+        <v>355</v>
+      </c>
       <c r="G106" s="2"/>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -7000,30 +7169,34 @@
         <v>8</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E107" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F107" s="21"/>
+      <c r="F107" s="23" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="10">
         <v>43224</v>
       </c>
       <c r="B108" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C108" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E108" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F108" s="21"/>
+      <c r="F108" s="23" t="s">
+        <v>355</v>
+      </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="10">
@@ -7036,28 +7209,28 @@
         <v>49</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E109" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F109" s="21"/>
+      <c r="F109" s="23" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="10"/>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
       <c r="E110" s="11"/>
-      <c r="F110" s="26"/>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A111" s="23" t="s">
-        <v>252</v>
+      <c r="A111" s="19" t="s">
+        <v>251</v>
       </c>
       <c r="C111" s="11"/>
       <c r="D111" s="11"/>
       <c r="E111" s="11"/>
-      <c r="F111" s="26"/>
       <c r="G111" s="3" t="s">
         <v>24</v>
       </c>
@@ -7073,19 +7246,21 @@
         <v>8</v>
       </c>
       <c r="D112" s="11" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E112" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F112" s="26"/>
+      <c r="F112" s="23" t="s">
+        <v>244</v>
+      </c>
       <c r="G112" s="2">
         <f>SUM(B112:B117)</f>
-        <v>22.5</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" s="22">
+      <c r="A113" s="18">
         <v>43228</v>
       </c>
       <c r="B113" s="8">
@@ -7100,7 +7275,9 @@
       <c r="E113" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F113" s="26"/>
+      <c r="F113" s="23" t="s">
+        <v>244</v>
+      </c>
       <c r="G113" s="3"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -7114,13 +7291,13 @@
         <v>8</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F114" s="20" t="s">
-        <v>278</v>
+        <v>18</v>
+      </c>
+      <c r="F114" s="23" t="s">
+        <v>356</v>
       </c>
       <c r="G114" s="2"/>
     </row>
@@ -7135,12 +7312,14 @@
         <v>8</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E115" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F115" s="21"/>
+      <c r="F115" s="23" t="s">
+        <v>353</v>
+      </c>
       <c r="G115" s="1"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -7148,18 +7327,20 @@
         <v>43231</v>
       </c>
       <c r="B116" s="8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C116" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="E116" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F116" s="21"/>
+      <c r="F116" s="23" t="s">
+        <v>353</v>
+      </c>
       <c r="G116" s="1"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -7178,23 +7359,24 @@
       <c r="E117" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F117" s="26"/>
+      <c r="F117" s="23" t="s">
+        <v>343</v>
+      </c>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="10"/>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
       <c r="E118" s="11"/>
-      <c r="F118" s="26"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A119" s="23" t="s">
-        <v>268</v>
+      <c r="A119" s="19" t="s">
+        <v>265</v>
       </c>
       <c r="C119" s="11"/>
       <c r="D119" s="11"/>
       <c r="E119" s="11"/>
-      <c r="F119" s="27"/>
+      <c r="F119" s="23"/>
       <c r="G119" s="3" t="s">
         <v>24</v>
       </c>
@@ -7210,13 +7392,13 @@
         <v>8</v>
       </c>
       <c r="D120" s="11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E120" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F120" s="20" t="s">
-        <v>278</v>
+      <c r="F120" s="23" t="s">
+        <v>244</v>
       </c>
       <c r="G120" s="2">
         <f>SUM(B120:B128)</f>
@@ -7234,13 +7416,13 @@
         <v>8</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E121" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F121" s="27" t="s">
-        <v>341</v>
+      <c r="F121" s="23" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -7254,17 +7436,17 @@
         <v>8</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="E122" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F122" s="20" t="s">
-        <v>278</v>
+      <c r="F122" s="23" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123" s="22">
+      <c r="A123" s="18">
         <v>43236</v>
       </c>
       <c r="B123" s="2">
@@ -7274,34 +7456,34 @@
         <v>8</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E123" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F123" s="27" t="s">
-        <v>341</v>
-      </c>
-      <c r="G123" s="25"/>
+      <c r="F123" s="23" t="s">
+        <v>337</v>
+      </c>
+      <c r="G123" s="21"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="4">
         <v>43236</v>
       </c>
-      <c r="B124" s="25">
+      <c r="B124" s="21">
         <v>1</v>
       </c>
       <c r="C124" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E124" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F124" s="20" t="s">
-        <v>278</v>
+      <c r="F124" s="23" t="s">
+        <v>244</v>
       </c>
       <c r="G124" s="2"/>
     </row>
@@ -7309,23 +7491,25 @@
       <c r="A125" s="4">
         <v>43237</v>
       </c>
-      <c r="B125" s="25">
+      <c r="B125" s="21">
         <v>7</v>
       </c>
       <c r="C125" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="E125" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F125" s="14"/>
+      <c r="F125" s="23" t="s">
+        <v>244</v>
+      </c>
       <c r="G125" s="1"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A126" s="22">
+      <c r="A126" s="18">
         <v>43238</v>
       </c>
       <c r="B126" s="8">
@@ -7335,12 +7519,14 @@
         <v>8</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="E126" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F126" s="20"/>
+        <v>18</v>
+      </c>
+      <c r="F126" s="23" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="10">
@@ -7353,29 +7539,31 @@
         <v>8</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="E127" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F127" s="14"/>
+      <c r="F127" s="23" t="s">
+        <v>344</v>
+      </c>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B128" s="2"/>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
       <c r="E128" s="11"/>
-      <c r="F128" s="14"/>
+      <c r="F128" s="17"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="3" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
       <c r="B129" s="2"/>
       <c r="C129" s="11"/>
       <c r="D129" s="11"/>
       <c r="E129" s="11"/>
-      <c r="F129" s="14"/>
+      <c r="F129" s="17"/>
       <c r="G129" s="3" t="s">
         <v>24</v>
       </c>
@@ -7391,12 +7579,14 @@
         <v>8</v>
       </c>
       <c r="D130" s="11" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E130" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F130" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="F130" s="23" t="s">
+        <v>346</v>
+      </c>
       <c r="G130" s="2">
         <f>SUM(B130:B136)</f>
         <v>24.5</v>
@@ -7413,12 +7603,14 @@
         <v>8</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="E131" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F131" s="14"/>
+      <c r="F131" s="23" t="s">
+        <v>337</v>
+      </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="10">
@@ -7431,12 +7623,14 @@
         <v>8</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="E132" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="F132" s="14"/>
+        <v>18</v>
+      </c>
+      <c r="F132" s="23" t="s">
+        <v>346</v>
+      </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="10">
@@ -7449,13 +7643,13 @@
         <v>8</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="E133" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F133" s="11" t="s">
-        <v>294</v>
+      <c r="F133" s="23" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -7469,13 +7663,13 @@
         <v>8</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="E134" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F134" s="11" t="s">
-        <v>342</v>
+      <c r="F134" s="23" t="s">
+        <v>338</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -7489,10 +7683,13 @@
         <v>8</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E135" s="11" t="s">
         <v>20</v>
+      </c>
+      <c r="F135" s="23" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -7506,15 +7703,18 @@
         <v>8</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E136" s="11" t="s">
         <v>19</v>
       </c>
+      <c r="F136" s="23" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="3" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G138" s="3" t="s">
         <v>24</v>
@@ -7531,17 +7731,17 @@
         <v>8</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="E139" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F139" s="11" t="s">
-        <v>312</v>
+      <c r="F139" s="23" t="s">
+        <v>308</v>
       </c>
       <c r="G139" s="8">
         <f>SUM(B139:B147)</f>
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -7555,13 +7755,13 @@
         <v>8</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E140" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F140" s="11" t="s">
-        <v>343</v>
+      <c r="F140" s="23" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -7575,13 +7775,13 @@
         <v>8</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E141" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F141" s="11" t="s">
-        <v>343</v>
+      <c r="F141" s="23" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -7595,13 +7795,33 @@
         <v>8</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="E142" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F142" s="11" t="s">
-        <v>312</v>
+      <c r="F142" s="23" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" s="10">
+        <v>43250</v>
+      </c>
+      <c r="B143" s="8">
+        <v>4</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>345</v>
+      </c>
+      <c r="E143" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F143" s="23" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
@@ -7635,11 +7855,11 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="28">
+      <c r="B2" s="24">
         <f>Raphael!G4</f>
         <v>6</v>
       </c>
-      <c r="C2" s="28">
+      <c r="C2" s="24">
         <f>Nico!G4</f>
         <v>12</v>
       </c>
@@ -7651,11 +7871,11 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3" s="28">
+      <c r="B3" s="24">
         <f>Raphael!G13</f>
         <v>0</v>
       </c>
-      <c r="C3" s="28">
+      <c r="C3" s="24">
         <f>Nico!G11</f>
         <v>0</v>
       </c>
@@ -7667,11 +7887,11 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4" s="28">
+      <c r="B4" s="24">
         <f>Raphael!G17</f>
         <v>0</v>
       </c>
-      <c r="C4" s="28">
+      <c r="C4" s="24">
         <f>Nico!G27</f>
         <v>0</v>
       </c>
@@ -7683,11 +7903,11 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="28" t="str">
+      <c r="B5" s="24" t="str">
         <f>Raphael!G31</f>
         <v>Total / Woche</v>
       </c>
-      <c r="C5" s="28">
+      <c r="C5" s="24">
         <f>Nico!G39</f>
         <v>0</v>
       </c>
@@ -7699,11 +7919,11 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="28">
+      <c r="B6" s="24">
         <f>Raphael!G40</f>
         <v>0</v>
       </c>
-      <c r="C6" s="28">
+      <c r="C6" s="24">
         <f>Nico!G55</f>
         <v>0</v>
       </c>
@@ -7715,11 +7935,11 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7" s="28">
+      <c r="B7" s="24">
         <f>Raphael!G50</f>
         <v>0</v>
       </c>
-      <c r="C7" s="28">
+      <c r="C7" s="24">
         <f>Nico!G66</f>
         <v>0</v>
       </c>
@@ -7731,11 +7951,11 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8" s="28">
+      <c r="B8" s="24">
         <f>Raphael!G60</f>
         <v>0</v>
       </c>
-      <c r="C8" s="28">
+      <c r="C8" s="24">
         <f>Nico!G77</f>
         <v>0</v>
       </c>
@@ -7747,11 +7967,11 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9" s="28">
+      <c r="B9" s="24">
         <f>Raphael!G70</f>
         <v>0</v>
       </c>
-      <c r="C9" s="28">
+      <c r="C9" s="24">
         <f>Nico!G86</f>
         <v>0</v>
       </c>
@@ -7763,11 +7983,11 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10" s="28">
+      <c r="B10" s="24">
         <f>Raphael!G78</f>
         <v>0</v>
       </c>
-      <c r="C10" s="28">
+      <c r="C10" s="24">
         <f>Nico!G97</f>
         <v>0</v>
       </c>
@@ -7779,11 +7999,11 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="28" t="str">
+      <c r="B11" s="24" t="str">
         <f>Raphael!G87</f>
         <v>Total / Woche</v>
       </c>
-      <c r="C11" s="28">
+      <c r="C11" s="24">
         <f>Nico!G106</f>
         <v>0</v>
       </c>
@@ -7795,11 +8015,11 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12" s="28">
+      <c r="B12" s="24">
         <f>Raphael!G97</f>
         <v>0</v>
       </c>
-      <c r="C12" s="28">
+      <c r="C12" s="24">
         <f>Nico!G114</f>
         <v>20</v>
       </c>
@@ -7811,11 +8031,11 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13" s="28">
+      <c r="B13" s="24">
         <f>Raphael!G106</f>
         <v>0</v>
       </c>
-      <c r="C13" s="28">
+      <c r="C13" s="24">
         <f>Nico!G125</f>
         <v>0</v>
       </c>
@@ -7827,11 +8047,11 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14" s="28">
+      <c r="B14" s="24">
         <f>Raphael!G114</f>
         <v>0</v>
       </c>
-      <c r="C14" s="28">
+      <c r="C14" s="24">
         <f>Nico!G131</f>
         <v>21.5</v>
       </c>
@@ -7843,11 +8063,11 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15" s="28">
+      <c r="B15" s="24">
         <f>Raphael!G124</f>
         <v>0</v>
       </c>
-      <c r="C15" s="28">
+      <c r="C15" s="24">
         <f>Nico!G143</f>
         <v>0</v>
       </c>
@@ -7859,11 +8079,11 @@
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="28">
+      <c r="B16" s="24">
         <f>SUM(B2:B15)</f>
         <v>6</v>
       </c>
-      <c r="C16" s="28">
+      <c r="C16" s="24">
         <f>SUM(C2:C15)</f>
         <v>53.5</v>
       </c>
@@ -7905,19 +8125,19 @@
       </c>
       <c r="B10">
         <f>SUMIF(Raphael!$E$5:$E$132,Raphael!L2,Raphael!$B$5:$B$132)</f>
-        <v>37</v>
-      </c>
-      <c r="C10" s="29">
+        <v>38</v>
+      </c>
+      <c r="C10" s="25">
         <f>SUMIF(Nico!$E$4:$E$150,Nico!L2,Nico!$B$4:$B$150)</f>
         <v>35.5</v>
       </c>
       <c r="D10">
         <f>SUM(B10:C10)</f>
-        <v>72.5</v>
-      </c>
-      <c r="E10" s="30">
+        <v>73.5</v>
+      </c>
+      <c r="E10" s="26">
         <f>D10/D$15*100</f>
-        <v>12.911843276936777</v>
+        <v>12.985865724381625</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7936,9 +8156,9 @@
         <f>SUM(B11:C11)</f>
         <v>126</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="26">
         <f t="shared" ref="E11:E15" si="0">D11/D$15*100</f>
-        <v>22.439893143365982</v>
+        <v>22.261484098939928</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7947,7 +8167,7 @@
       </c>
       <c r="B12">
         <f>SUMIF(Raphael!$E$5:$E$132,Raphael!L4,Raphael!$B$5:$B$132)</f>
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C12">
         <f>SUMIF(Nico!$E$4:$E$150,Nico!L4,Nico!$B$4:$B$150)</f>
@@ -7955,11 +8175,11 @@
       </c>
       <c r="D12">
         <f>SUM(B12:C12)</f>
-        <v>33</v>
-      </c>
-      <c r="E12" s="30">
+        <v>46</v>
+      </c>
+      <c r="E12" s="26">
         <f t="shared" si="0"/>
-        <v>5.8771148708815675</v>
+        <v>8.1272084805653702</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7968,7 +8188,7 @@
       </c>
       <c r="B13">
         <f>SUMIF(Raphael!$E$5:$E$132,Raphael!L5,Raphael!$B$5:$B$132)</f>
-        <v>104.5</v>
+        <v>93.5</v>
       </c>
       <c r="C13">
         <f>SUMIF(Nico!$E$4:$E$150,Nico!L5,Nico!$B$4:$B$150)</f>
@@ -7976,11 +8196,11 @@
       </c>
       <c r="D13">
         <f>SUM(B13:C13)</f>
-        <v>233.75</v>
-      </c>
-      <c r="E13" s="30">
+        <v>222.75</v>
+      </c>
+      <c r="E13" s="26">
         <f t="shared" si="0"/>
-        <v>41.629563668744431</v>
+        <v>39.35512367491166</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -7989,7 +8209,7 @@
       </c>
       <c r="B14">
         <f>SUMIF(Raphael!$E$5:$E$132,Raphael!L6,Raphael!$B$5:$B$132)</f>
-        <v>33.25</v>
+        <v>34.75</v>
       </c>
       <c r="C14">
         <f>SUMIF(Nico!$E$4:$E$150,Nico!L6,Nico!$B$4:$B$150)</f>
@@ -7997,11 +8217,11 @@
       </c>
       <c r="D14">
         <f>SUM(B14:C14)</f>
-        <v>96.25</v>
-      </c>
-      <c r="E14" s="30">
+        <v>97.75</v>
+      </c>
+      <c r="E14" s="26">
         <f t="shared" si="0"/>
-        <v>17.141585040071238</v>
+        <v>17.270318021201415</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
@@ -8010,7 +8230,7 @@
       </c>
       <c r="B15">
         <f>SUM(B10:B14)</f>
-        <v>252.25</v>
+        <v>256.75</v>
       </c>
       <c r="C15">
         <f>SUM(C10:C14)</f>
@@ -8018,9 +8238,9 @@
       </c>
       <c r="D15">
         <f>SUM(D10:D14)</f>
-        <v>561.5</v>
-      </c>
-      <c r="E15" s="30">
+        <v>566</v>
+      </c>
+      <c r="E15" s="26">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -8050,8 +8270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="F121" sqref="F121"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8061,7 +8281,7 @@
     <col min="3" max="3" width="12.26171875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="41.83984375" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.68359375" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.68359375" style="17" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.578125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.41796875" style="1"/>
     <col min="9" max="9" width="14.68359375" style="1" customWidth="1"/>
@@ -8084,7 +8304,7 @@
       <c r="E1" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="20" t="s">
+      <c r="F1" s="23" t="s">
         <v>28</v>
       </c>
       <c r="K1" s="3" t="s">
@@ -8094,7 +8314,7 @@
         <v>15</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -8147,7 +8367,7 @@
       <c r="E4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="17">
         <v>27</v>
       </c>
       <c r="G4" s="2">
@@ -8184,7 +8404,7 @@
       <c r="E5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="14">
+      <c r="F5" s="17">
         <v>27</v>
       </c>
       <c r="K5" s="1" t="s">
@@ -8213,7 +8433,7 @@
       <c r="E6" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="14">
+      <c r="F6" s="17">
         <v>27</v>
       </c>
       <c r="I6" s="3" t="s">
@@ -8245,12 +8465,12 @@
       <c r="E7" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F7" s="17">
         <v>27</v>
       </c>
       <c r="I7" s="1">
-        <f>I4/15</f>
-        <v>20.616666666666667</v>
+        <f>I4/14</f>
+        <v>22.089285714285715</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -8269,12 +8489,12 @@
       <c r="E8" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F8" s="14">
+      <c r="F8" s="17">
         <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="19" t="s">
         <v>47</v>
       </c>
       <c r="G9" s="3" t="s">
@@ -8282,7 +8502,7 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="22">
+      <c r="A10" s="18">
         <v>43158</v>
       </c>
       <c r="B10" s="2">
@@ -8297,7 +8517,7 @@
       <c r="E10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="14">
+      <c r="F10" s="17">
         <v>27</v>
       </c>
       <c r="G10" s="2">
@@ -8321,7 +8541,7 @@
       <c r="E11" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="17">
         <v>27</v>
       </c>
       <c r="G11" s="2"/>
@@ -8342,7 +8562,7 @@
       <c r="E12" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="17">
         <v>27</v>
       </c>
     </row>
@@ -8362,7 +8582,7 @@
       <c r="E13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="17">
         <v>27</v>
       </c>
     </row>
@@ -8382,7 +8602,7 @@
       <c r="E14" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="17">
         <v>26</v>
       </c>
     </row>
@@ -8402,12 +8622,12 @@
       <c r="E15" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="23" t="s">
+      <c r="A16" s="19" t="s">
         <v>100</v>
       </c>
       <c r="C16" s="11"/>
@@ -8433,7 +8653,7 @@
       <c r="E17" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="17">
         <v>24</v>
       </c>
       <c r="G17" s="2">
@@ -8457,7 +8677,7 @@
       <c r="E18" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F18" s="14">
+      <c r="F18" s="17">
         <v>22</v>
       </c>
     </row>
@@ -8477,7 +8697,7 @@
       <c r="E19" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F19" s="14">
+      <c r="F19" s="17">
         <v>1</v>
       </c>
     </row>
@@ -8497,7 +8717,7 @@
       <c r="E20" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F20" s="14">
+      <c r="F20" s="17">
         <v>1</v>
       </c>
     </row>
@@ -8517,7 +8737,7 @@
       <c r="E21" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F21" s="14">
+      <c r="F21" s="17">
         <v>22</v>
       </c>
     </row>
@@ -8537,12 +8757,12 @@
       <c r="E22" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F22" s="14">
+      <c r="F22" s="17">
         <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="22">
+      <c r="A23" s="18">
         <v>43167</v>
       </c>
       <c r="B23" s="2">
@@ -8557,7 +8777,7 @@
       <c r="E23" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F23" s="14">
+      <c r="F23" s="17">
         <v>25</v>
       </c>
     </row>
@@ -8577,7 +8797,7 @@
       <c r="E24" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="14">
+      <c r="F24" s="17">
         <v>18</v>
       </c>
     </row>
@@ -8597,12 +8817,12 @@
       <c r="E25" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="14">
+      <c r="F25" s="17">
         <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="22">
+      <c r="A26" s="18">
         <v>43168</v>
       </c>
       <c r="B26" s="2">
@@ -8617,7 +8837,7 @@
       <c r="E26" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="14">
+      <c r="F26" s="17">
         <v>26</v>
       </c>
       <c r="G26" s="3"/>
@@ -8638,13 +8858,13 @@
       <c r="E27" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F27" s="14">
+      <c r="F27" s="17">
         <v>22</v>
       </c>
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="19" t="s">
         <v>114</v>
       </c>
       <c r="C28" s="11"/>
@@ -8670,7 +8890,7 @@
       <c r="E29" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F29" s="14">
+      <c r="F29" s="17">
         <v>1</v>
       </c>
       <c r="G29" s="2">
@@ -8694,12 +8914,12 @@
       <c r="E30" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F30" s="14">
+      <c r="F30" s="17">
         <v>4</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="37">
+      <c r="A31" s="33">
         <v>43171</v>
       </c>
       <c r="B31" s="2">
@@ -8714,7 +8934,7 @@
       <c r="E31" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F31" s="14">
+      <c r="F31" s="17">
         <v>4</v>
       </c>
     </row>
@@ -8734,7 +8954,7 @@
       <c r="E32" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F32" s="14">
+      <c r="F32" s="17">
         <v>18</v>
       </c>
     </row>
@@ -8754,7 +8974,7 @@
       <c r="E33" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F33" s="14">
+      <c r="F33" s="17">
         <v>24</v>
       </c>
     </row>
@@ -8766,7 +8986,7 @@
         <v>1</v>
       </c>
       <c r="C34" s="11" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="D34" s="11" t="s">
         <v>120</v>
@@ -8774,7 +8994,7 @@
       <c r="E34" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F34" s="14">
+      <c r="F34" s="17">
         <v>28</v>
       </c>
     </row>
@@ -8794,7 +9014,7 @@
       <c r="E35" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F35" s="14">
+      <c r="F35" s="17">
         <v>28</v>
       </c>
     </row>
@@ -8814,7 +9034,7 @@
       <c r="E36" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F36" s="14">
+      <c r="F36" s="17">
         <v>25</v>
       </c>
     </row>
@@ -8834,12 +9054,12 @@
       <c r="E37" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F37" s="20">
+      <c r="F37" s="23">
         <v>15</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A38" s="22">
+      <c r="A38" s="18">
         <v>43174</v>
       </c>
       <c r="B38" s="2">
@@ -8854,7 +9074,7 @@
       <c r="E38" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F38" s="14">
+      <c r="F38" s="17">
         <v>27</v>
       </c>
       <c r="G38" s="3"/>
@@ -8875,7 +9095,7 @@
       <c r="E39" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F39" s="14">
+      <c r="F39" s="17">
         <v>15</v>
       </c>
       <c r="G39" s="2"/>
@@ -8896,19 +9116,19 @@
       <c r="E40" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F40" s="14">
+      <c r="F40" s="17">
         <v>27</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A41" s="22">
+      <c r="A41" s="18">
         <v>43175</v>
       </c>
       <c r="B41" s="2">
         <v>1.25</v>
       </c>
       <c r="C41" s="11" t="s">
-        <v>8</v>
+        <v>49</v>
       </c>
       <c r="D41" s="11" t="s">
         <v>129</v>
@@ -8916,7 +9136,7 @@
       <c r="E41" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F41" s="14">
+      <c r="F41" s="17">
         <v>26</v>
       </c>
     </row>
@@ -8936,12 +9156,12 @@
       <c r="E42" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F42" s="14">
+      <c r="F42" s="17">
         <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="19" t="s">
         <v>132</v>
       </c>
       <c r="G43" s="3" t="s">
@@ -8964,7 +9184,7 @@
       <c r="E44" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F44" s="14">
+      <c r="F44" s="17">
         <v>24</v>
       </c>
       <c r="G44" s="2">
@@ -8988,7 +9208,7 @@
       <c r="E45" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F45" s="14">
+      <c r="F45" s="17">
         <v>25</v>
       </c>
     </row>
@@ -9008,7 +9228,7 @@
       <c r="E46" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F46" s="14">
+      <c r="F46" s="17">
         <v>25</v>
       </c>
     </row>
@@ -9028,7 +9248,7 @@
       <c r="E47" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F47" s="14">
+      <c r="F47" s="17">
         <v>4</v>
       </c>
     </row>
@@ -9048,7 +9268,7 @@
       <c r="E48" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F48" s="14">
+      <c r="F48" s="17">
         <v>4</v>
       </c>
     </row>
@@ -9068,7 +9288,7 @@
       <c r="E49" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F49" s="14">
+      <c r="F49" s="17">
         <v>24</v>
       </c>
     </row>
@@ -9088,7 +9308,7 @@
       <c r="E50" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F50" s="14">
+      <c r="F50" s="17">
         <v>4</v>
       </c>
     </row>
@@ -9096,7 +9316,7 @@
       <c r="A51" s="4">
         <v>43182</v>
       </c>
-      <c r="B51" s="25">
+      <c r="B51" s="21">
         <v>3.5</v>
       </c>
       <c r="C51" s="11" t="s">
@@ -9108,15 +9328,15 @@
       <c r="E51" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F51" s="14">
+      <c r="F51" s="17">
         <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A52" s="22">
+      <c r="A52" s="18">
         <v>43154</v>
       </c>
-      <c r="B52" s="25">
+      <c r="B52" s="21">
         <v>1</v>
       </c>
       <c r="C52" s="11" t="s">
@@ -9128,12 +9348,12 @@
       <c r="E52" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F52" s="14">
+      <c r="F52" s="17">
         <v>26</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A53" s="23" t="s">
+      <c r="A53" s="19" t="s">
         <v>142</v>
       </c>
       <c r="D53" s="6"/>
@@ -9142,7 +9362,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A54" s="22">
+      <c r="A54" s="18">
         <v>43183</v>
       </c>
       <c r="B54" s="2">
@@ -9157,7 +9377,7 @@
       <c r="E54" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F54" s="14">
+      <c r="F54" s="17">
         <v>29</v>
       </c>
       <c r="G54" s="2">
@@ -9181,7 +9401,7 @@
       <c r="E55" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F55" s="14">
+      <c r="F55" s="17">
         <v>24</v>
       </c>
       <c r="G55" s="2"/>
@@ -9202,7 +9422,7 @@
       <c r="E56" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F56" s="14">
+      <c r="F56" s="17">
         <v>29</v>
       </c>
     </row>
@@ -9222,7 +9442,7 @@
       <c r="E57" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F57" s="14">
+      <c r="F57" s="17">
         <v>29</v>
       </c>
     </row>
@@ -9242,7 +9462,7 @@
       <c r="E58" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F58" s="14">
+      <c r="F58" s="17">
         <v>29</v>
       </c>
     </row>
@@ -9262,7 +9482,7 @@
       <c r="E59" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F59" s="14">
+      <c r="F59" s="17">
         <v>7</v>
       </c>
     </row>
@@ -9270,7 +9490,7 @@
       <c r="A60" s="4">
         <v>43187</v>
       </c>
-      <c r="B60" s="25">
+      <c r="B60" s="21">
         <v>0.5</v>
       </c>
       <c r="C60" s="11" t="s">
@@ -9282,7 +9502,7 @@
       <c r="E60" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F60" s="14">
+      <c r="F60" s="17">
         <v>26</v>
       </c>
     </row>
@@ -9302,7 +9522,7 @@
       <c r="E61" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F61" s="14">
+      <c r="F61" s="17">
         <v>7</v>
       </c>
     </row>
@@ -9322,7 +9542,7 @@
       <c r="E62" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F62" s="14">
+      <c r="F62" s="17">
         <v>7</v>
       </c>
     </row>
@@ -9342,12 +9562,12 @@
       <c r="E63" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F63" s="14">
+      <c r="F63" s="17">
         <v>7</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A64" s="23" t="s">
+      <c r="A64" s="19" t="s">
         <v>164</v>
       </c>
       <c r="E64" s="11"/>
@@ -9356,7 +9576,7 @@
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A65" s="22">
+      <c r="A65" s="18">
         <v>43192</v>
       </c>
       <c r="B65" s="2">
@@ -9371,7 +9591,7 @@
       <c r="E65" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F65" s="20" t="s">
+      <c r="F65" s="23" t="s">
         <v>170</v>
       </c>
       <c r="G65" s="2">
@@ -9395,7 +9615,7 @@
       <c r="E66" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F66" s="20" t="s">
+      <c r="F66" s="23" t="s">
         <v>169</v>
       </c>
       <c r="G66" s="2"/>
@@ -9416,7 +9636,7 @@
       <c r="E67" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F67" s="20" t="s">
+      <c r="F67" s="23" t="s">
         <v>169</v>
       </c>
     </row>
@@ -9436,7 +9656,7 @@
       <c r="E68" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F68" s="20" t="s">
+      <c r="F68" s="23" t="s">
         <v>169</v>
       </c>
     </row>
@@ -9456,8 +9676,8 @@
       <c r="E69" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F69" s="20" t="s">
-        <v>345</v>
+      <c r="F69" s="23" t="s">
+        <v>341</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -9476,7 +9696,7 @@
       <c r="E70" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F70" s="20" t="s">
+      <c r="F70" s="23" t="s">
         <v>169</v>
       </c>
     </row>
@@ -9496,12 +9716,12 @@
       <c r="E71" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F71" s="20" t="s">
+      <c r="F71" s="23" t="s">
         <v>214</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A72" s="23" t="s">
+      <c r="A72" s="19" t="s">
         <v>177</v>
       </c>
       <c r="C72" s="11"/>
@@ -9527,7 +9747,7 @@
       <c r="E73" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="F73" s="20" t="s">
+      <c r="F73" s="23" t="s">
         <v>214</v>
       </c>
       <c r="G73" s="2">
@@ -9551,7 +9771,7 @@
       <c r="E74" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F74" s="20" t="s">
+      <c r="F74" s="23" t="s">
         <v>169</v>
       </c>
     </row>
@@ -9571,7 +9791,7 @@
       <c r="E75" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F75" s="20" t="s">
+      <c r="F75" s="23" t="s">
         <v>169</v>
       </c>
     </row>
@@ -9591,7 +9811,7 @@
       <c r="E76" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F76" s="20" t="s">
+      <c r="F76" s="23" t="s">
         <v>169</v>
       </c>
       <c r="G76" s="3"/>
@@ -9619,7 +9839,7 @@
       <c r="E77" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F77" s="20" t="s">
+      <c r="F77" s="23" t="s">
         <v>169</v>
       </c>
       <c r="G77" s="2"/>
@@ -9647,7 +9867,7 @@
       <c r="E78" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F78" s="20" t="s">
+      <c r="F78" s="23" t="s">
         <v>169</v>
       </c>
       <c r="J78" s="1">
@@ -9674,8 +9894,8 @@
       <c r="E79" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F79" s="20" t="s">
-        <v>345</v>
+      <c r="F79" s="23" t="s">
+        <v>341</v>
       </c>
       <c r="J79" s="1">
         <v>4</v>
@@ -9701,8 +9921,8 @@
       <c r="E80" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F80" s="20" t="s">
-        <v>215</v>
+      <c r="F80" s="23" t="s">
+        <v>169</v>
       </c>
       <c r="J80" s="1">
         <v>5</v>
@@ -9713,14 +9933,14 @@
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A81" s="23" t="s">
+      <c r="A81" s="19" t="s">
         <v>193</v>
       </c>
       <c r="B81" s="8"/>
       <c r="C81" s="11"/>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
-      <c r="F81" s="19"/>
+      <c r="F81" s="22"/>
       <c r="G81" s="3" t="s">
         <v>24</v>
       </c>
@@ -9748,7 +9968,7 @@
       <c r="E82" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F82" s="20" t="s">
+      <c r="F82" s="23" t="s">
         <v>212</v>
       </c>
       <c r="G82" s="2">
@@ -9779,7 +9999,7 @@
       <c r="E83" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F83" s="20" t="s">
+      <c r="F83" s="23" t="s">
         <v>211</v>
       </c>
       <c r="J83" s="1">
@@ -9806,7 +10026,7 @@
       <c r="E84" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F84" s="20" t="s">
+      <c r="F84" s="23" t="s">
         <v>210</v>
       </c>
       <c r="J84" s="1">
@@ -9833,7 +10053,7 @@
       <c r="E85" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F85" s="20" t="s">
+      <c r="F85" s="23" t="s">
         <v>210</v>
       </c>
       <c r="G85" s="3"/>
@@ -9861,7 +10081,7 @@
       <c r="E86" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F86" s="20" t="s">
+      <c r="F86" s="23" t="s">
         <v>211</v>
       </c>
       <c r="G86" s="2"/>
@@ -9889,7 +10109,7 @@
       <c r="E87" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F87" s="20" t="s">
+      <c r="F87" s="23" t="s">
         <v>213</v>
       </c>
       <c r="J87" s="1">
@@ -9916,7 +10136,7 @@
       <c r="E88" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F88" s="20" t="s">
+      <c r="F88" s="23" t="s">
         <v>211</v>
       </c>
       <c r="J88" s="1">
@@ -9943,7 +10163,7 @@
       <c r="E89" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F89" s="20" t="s">
+      <c r="F89" s="23" t="s">
         <v>210</v>
       </c>
       <c r="J89" s="1">
@@ -9970,7 +10190,7 @@
       <c r="E90" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F90" s="20" t="s">
+      <c r="F90" s="23" t="s">
         <v>210</v>
       </c>
       <c r="J90" s="1">
@@ -9997,7 +10217,7 @@
       <c r="E91" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F91" s="20" t="s">
+      <c r="F91" s="23" t="s">
         <v>212</v>
       </c>
       <c r="J91" s="1">
@@ -10024,7 +10244,7 @@
       <c r="E92" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F92" s="20" t="s">
+      <c r="F92" s="23" t="s">
         <v>213</v>
       </c>
       <c r="J92" s="1">
@@ -10036,7 +10256,7 @@
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A93" s="22">
+      <c r="A93" s="18">
         <v>43210</v>
       </c>
       <c r="B93" s="2">
@@ -10051,8 +10271,8 @@
       <c r="E93" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F93" s="20" t="s">
-        <v>346</v>
+      <c r="F93" s="23" t="s">
+        <v>342</v>
       </c>
       <c r="J93" s="1">
         <v>18</v>
@@ -10078,7 +10298,7 @@
       <c r="E94" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F94" s="20" t="s">
+      <c r="F94" s="23" t="s">
         <v>213</v>
       </c>
       <c r="J94" s="1">
@@ -10090,7 +10310,7 @@
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A95" s="23" t="s">
+      <c r="A95" s="19" t="s">
         <v>200</v>
       </c>
       <c r="C95" s="11"/>
@@ -10108,7 +10328,7 @@
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A96" s="22">
+      <c r="A96" s="18">
         <v>43214</v>
       </c>
       <c r="B96" s="2">
@@ -10123,7 +10343,7 @@
       <c r="E96" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F96" s="20" t="s">
+      <c r="F96" s="23" t="s">
         <v>210</v>
       </c>
       <c r="G96" s="2">
@@ -10139,7 +10359,7 @@
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A97" s="22">
+      <c r="A97" s="18">
         <v>43214</v>
       </c>
       <c r="B97" s="2">
@@ -10154,7 +10374,7 @@
       <c r="E97" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F97" s="20" t="s">
+      <c r="F97" s="23" t="s">
         <v>210</v>
       </c>
       <c r="G97" s="2"/>
@@ -10182,8 +10402,8 @@
       <c r="E98" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F98" s="20" t="s">
-        <v>235</v>
+      <c r="F98" s="23" t="s">
+        <v>234</v>
       </c>
       <c r="J98" s="1">
         <v>23</v>
@@ -10209,8 +10429,8 @@
       <c r="E99" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F99" s="20" t="s">
-        <v>235</v>
+      <c r="F99" s="23" t="s">
+        <v>234</v>
       </c>
       <c r="J99" s="1">
         <v>24</v>
@@ -10231,12 +10451,12 @@
         <v>8</v>
       </c>
       <c r="D100" s="11" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E100" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F100" s="20" t="s">
+      <c r="F100" s="23" t="s">
         <v>212</v>
       </c>
       <c r="J100" s="1">
@@ -10263,8 +10483,8 @@
       <c r="E101" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F101" s="20" t="s">
-        <v>346</v>
+      <c r="F101" s="23" t="s">
+        <v>342</v>
       </c>
       <c r="J101" s="1">
         <v>26</v>
@@ -10285,12 +10505,12 @@
         <v>8</v>
       </c>
       <c r="D102" s="11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E102" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F102" s="20" t="s">
+      <c r="F102" s="23" t="s">
         <v>210</v>
       </c>
       <c r="J102" s="1">
@@ -10312,12 +10532,12 @@
         <v>8</v>
       </c>
       <c r="D103" s="11" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E103" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F103" s="20" t="s">
+      <c r="F103" s="23" t="s">
         <v>210</v>
       </c>
       <c r="J103" s="1">
@@ -10329,8 +10549,8 @@
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A104" s="23" t="s">
-        <v>231</v>
+      <c r="A104" s="19" t="s">
+        <v>230</v>
       </c>
       <c r="C104" s="11"/>
       <c r="D104" s="11"/>
@@ -10347,7 +10567,7 @@
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A105" s="22">
+      <c r="A105" s="18">
         <v>43218</v>
       </c>
       <c r="B105" s="2">
@@ -10357,13 +10577,13 @@
         <v>8</v>
       </c>
       <c r="D105" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E105" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F105" s="20" t="s">
-        <v>244</v>
+      <c r="F105" s="23" t="s">
+        <v>243</v>
       </c>
       <c r="G105" s="2">
         <f>SUM(B105:B112)</f>
@@ -10378,7 +10598,7 @@
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A106" s="22">
+      <c r="A106" s="18">
         <v>43220</v>
       </c>
       <c r="B106" s="2">
@@ -10388,13 +10608,13 @@
         <v>8</v>
       </c>
       <c r="D106" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E106" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F106" s="20" t="s">
-        <v>247</v>
+      <c r="F106" s="23" t="s">
+        <v>246</v>
       </c>
       <c r="G106" s="2"/>
       <c r="J106" s="1">
@@ -10416,13 +10636,13 @@
         <v>8</v>
       </c>
       <c r="D107" s="11" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E107" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F107" s="20" t="s">
-        <v>245</v>
+      <c r="F107" s="23" t="s">
+        <v>244</v>
       </c>
       <c r="G107" s="2"/>
       <c r="J107" s="1">
@@ -10444,13 +10664,13 @@
         <v>8</v>
       </c>
       <c r="D108" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E108" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F108" s="20" t="s">
-        <v>248</v>
+      <c r="F108" s="23" t="s">
+        <v>247</v>
       </c>
       <c r="J108" s="1">
         <v>33</v>
@@ -10471,13 +10691,13 @@
         <v>8</v>
       </c>
       <c r="D109" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E109" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F109" s="20" t="s">
-        <v>256</v>
+      <c r="F109" s="23" t="s">
+        <v>245</v>
       </c>
       <c r="J109" s="1">
         <v>34</v>
@@ -10498,13 +10718,13 @@
         <v>8</v>
       </c>
       <c r="D110" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E110" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F110" s="20" t="s">
-        <v>247</v>
+      <c r="F110" s="23" t="s">
+        <v>246</v>
       </c>
       <c r="J110" s="1">
         <v>35</v>
@@ -10525,13 +10745,13 @@
         <v>8</v>
       </c>
       <c r="D111" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E111" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F111" s="20" t="s">
-        <v>247</v>
+      <c r="F111" s="23" t="s">
+        <v>246</v>
       </c>
       <c r="J111" s="1">
         <v>36</v>
@@ -10557,8 +10777,8 @@
       <c r="E112" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F112" s="20" t="s">
-        <v>347</v>
+      <c r="F112" s="23" t="s">
+        <v>343</v>
       </c>
       <c r="J112" s="1">
         <v>37</v>
@@ -10569,8 +10789,8 @@
       </c>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A113" s="23" t="s">
-        <v>252</v>
+      <c r="A113" s="19" t="s">
+        <v>251</v>
       </c>
       <c r="G113" s="3" t="s">
         <v>24</v>
@@ -10594,13 +10814,13 @@
         <v>8</v>
       </c>
       <c r="D114" s="11" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E114" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F114" s="20" t="s">
-        <v>247</v>
+      <c r="F114" s="23" t="s">
+        <v>246</v>
       </c>
       <c r="G114" s="2">
         <f>SUM(B114:B119)</f>
@@ -10618,20 +10838,20 @@
       <c r="A115" s="4">
         <v>43227</v>
       </c>
-      <c r="B115" s="24">
+      <c r="B115" s="20">
         <v>1.5</v>
       </c>
       <c r="C115" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D115" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E115" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F115" s="20" t="s">
-        <v>247</v>
+      <c r="F115" s="23" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -10645,17 +10865,17 @@
         <v>8</v>
       </c>
       <c r="D116" s="11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E116" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F116" s="20" t="s">
-        <v>246</v>
+      <c r="F116" s="23" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A117" s="22">
+      <c r="A117" s="18">
         <v>43230</v>
       </c>
       <c r="B117" s="2">
@@ -10665,13 +10885,13 @@
         <v>8</v>
       </c>
       <c r="D117" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E117" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F117" s="20" t="s">
-        <v>255</v>
+      <c r="F117" s="23" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -10685,13 +10905,13 @@
         <v>8</v>
       </c>
       <c r="D118" s="11" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E118" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F118" s="20" t="s">
-        <v>347</v>
+      <c r="F118" s="23" t="s">
+        <v>343</v>
       </c>
       <c r="J118" s="2">
         <f>SUM(G77,G86,G97,G106,G114,G125,G131)</f>
@@ -10718,13 +10938,13 @@
       <c r="E119" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F119" s="20" t="s">
-        <v>347</v>
+      <c r="F119" s="23" t="s">
+        <v>343</v>
       </c>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A120" s="23" t="s">
-        <v>268</v>
+      <c r="A120" s="19" t="s">
+        <v>265</v>
       </c>
       <c r="C120" s="11"/>
       <c r="D120" s="11"/>
@@ -10747,13 +10967,13 @@
         <v>8</v>
       </c>
       <c r="D121" s="11" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="E121" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F121" s="20" t="s">
-        <v>270</v>
+      <c r="F121" s="23" t="s">
+        <v>267</v>
       </c>
       <c r="G121" s="2">
         <f>SUM(B121:B129)</f>
@@ -10775,17 +10995,17 @@
         <v>8</v>
       </c>
       <c r="D122" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="E122" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F122" s="20" t="s">
-        <v>292</v>
+      <c r="F122" s="23" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A123" s="22">
+      <c r="A123" s="18">
         <v>43234</v>
       </c>
       <c r="B123" s="2">
@@ -10795,17 +11015,17 @@
         <v>8</v>
       </c>
       <c r="D123" s="11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E123" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F123" s="20" t="s">
-        <v>293</v>
+      <c r="F123" s="23" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A124" s="22">
+      <c r="A124" s="18">
         <v>43235</v>
       </c>
       <c r="B124" s="2">
@@ -10815,13 +11035,13 @@
         <v>8</v>
       </c>
       <c r="D124" s="11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E124" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F124" s="20" t="s">
-        <v>293</v>
+      <c r="F124" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="G124" s="11"/>
     </row>
@@ -10836,13 +11056,13 @@
         <v>8</v>
       </c>
       <c r="D125" s="11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="E125" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F125" s="20" t="s">
-        <v>293</v>
+      <c r="F125" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="G125" s="2"/>
     </row>
@@ -10857,13 +11077,13 @@
         <v>8</v>
       </c>
       <c r="D126" s="11" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="E126" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F126" s="20" t="s">
-        <v>294</v>
+      <c r="F126" s="23" t="s">
+        <v>290</v>
       </c>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.55000000000000004">
@@ -10877,17 +11097,17 @@
         <v>8</v>
       </c>
       <c r="D127" s="11" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
       <c r="E127" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F127" s="20" t="s">
-        <v>293</v>
+      <c r="F127" s="23" t="s">
+        <v>289</v>
       </c>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.55000000000000004">
-      <c r="A128" s="22">
+      <c r="A128" s="18">
         <v>43238</v>
       </c>
       <c r="B128" s="2">
@@ -10897,13 +11117,13 @@
         <v>8</v>
       </c>
       <c r="D128" s="11" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="E128" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="F128" s="20" t="s">
-        <v>295</v>
+      <c r="F128" s="23" t="s">
+        <v>291</v>
       </c>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -10917,18 +11137,18 @@
         <v>8</v>
       </c>
       <c r="D129" s="11" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="E129" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F129" s="20" t="s">
-        <v>348</v>
+      <c r="F129" s="23" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A130" s="23" t="s">
-        <v>286</v>
+      <c r="A130" s="19" t="s">
+        <v>282</v>
       </c>
       <c r="G130" s="3" t="s">
         <v>24</v>
@@ -10945,13 +11165,13 @@
         <v>8</v>
       </c>
       <c r="D131" s="11" t="s">
-        <v>287</v>
+        <v>283</v>
       </c>
       <c r="E131" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F131" s="20" t="s">
-        <v>293</v>
+      <c r="F131" s="23" t="s">
+        <v>289</v>
       </c>
       <c r="G131" s="2">
         <f>SUM(B131:B136)</f>
@@ -10969,13 +11189,13 @@
         <v>8</v>
       </c>
       <c r="D132" s="11" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="E132" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F132" s="20" t="s">
-        <v>292</v>
+      <c r="F132" s="23" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -10989,13 +11209,13 @@
         <v>8</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="E133" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F133" s="20" t="s">
-        <v>297</v>
+      <c r="F133" s="23" t="s">
+        <v>293</v>
       </c>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -11009,13 +11229,13 @@
         <v>8</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E134" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F134" s="20" t="s">
-        <v>300</v>
+      <c r="F134" s="23" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -11029,13 +11249,13 @@
         <v>8</v>
       </c>
       <c r="D135" s="11" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="E135" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F135" s="20" t="s">
-        <v>292</v>
+      <c r="F135" s="23" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -11054,13 +11274,13 @@
       <c r="E136" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F136" s="20" t="s">
-        <v>348</v>
+      <c r="F136" s="23" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A137" s="23" t="s">
-        <v>307</v>
+      <c r="A137" s="19" t="s">
+        <v>303</v>
       </c>
       <c r="C137" s="11"/>
       <c r="D137" s="11"/>
@@ -11080,13 +11300,13 @@
         <v>8</v>
       </c>
       <c r="D138" s="11" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="E138" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F138" s="20" t="s">
-        <v>312</v>
+      <c r="F138" s="23" t="s">
+        <v>308</v>
       </c>
       <c r="G138" s="2">
         <f>SUM(B138:B143)</f>
@@ -11104,33 +11324,33 @@
         <v>8</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E139" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F139" s="20" t="s">
-        <v>314</v>
+      <c r="F139" s="23" t="s">
+        <v>310</v>
       </c>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="4">
         <v>43248</v>
       </c>
-      <c r="B140" s="25">
+      <c r="B140" s="21">
         <v>4.5</v>
       </c>
       <c r="C140" s="11" t="s">
         <v>8</v>
       </c>
       <c r="D140" s="11" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="E140" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F140" s="20" t="s">
-        <v>313</v>
+      <c r="F140" s="23" t="s">
+        <v>309</v>
       </c>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
@@ -11144,17 +11364,17 @@
         <v>8</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="E141" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F141" s="20" t="s">
-        <v>300</v>
+      <c r="F141" s="23" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A142" s="22">
+      <c r="A142" s="18">
         <v>43250</v>
       </c>
       <c r="B142" s="2">
@@ -11164,19 +11384,19 @@
         <v>8</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="E142" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="F142" s="20" t="s">
-        <v>338</v>
-      </c>
-      <c r="G142" s="25"/>
+      <c r="F142" s="23" t="s">
+        <v>334</v>
+      </c>
+      <c r="G142" s="21"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="4"/>
-      <c r="B143" s="25"/>
+      <c r="B143" s="21"/>
       <c r="C143" s="11"/>
       <c r="D143" s="11"/>
       <c r="E143" s="11"/>
@@ -11189,7 +11409,7 @@
       <c r="E144" s="11"/>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A145" s="22"/>
+      <c r="A145" s="18"/>
       <c r="C145" s="11"/>
       <c r="D145" s="11"/>
       <c r="E145" s="11"/>
@@ -11229,8 +11449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11246,22 +11466,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H1" t="s">
@@ -11272,566 +11492,566 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="31">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="28" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
         <v>54</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="28">
         <v>20</v>
       </c>
-      <c r="F2" s="31"/>
+      <c r="F2" s="27"/>
       <c r="H2">
         <f>Nico!K76</f>
         <v>9.5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="35">
+      <c r="A3" s="31">
         <v>2</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="32" t="s">
         <v>55</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36" t="s">
+      <c r="C3" s="31"/>
+      <c r="D3" s="32" t="s">
         <v>56</v>
       </c>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
       <c r="H3">
         <f>Nico!K77</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="33">
+      <c r="A4" s="29">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="30" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34" t="s">
+      <c r="C4" s="29"/>
+      <c r="D4" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
       <c r="H4">
         <f>Nico!K78</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="35">
+      <c r="A5" s="31">
         <v>4</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="32" t="s">
         <v>59</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36" t="s">
+      <c r="C5" s="31"/>
+      <c r="D5" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="35">
+      <c r="E5" s="31">
         <v>12</v>
       </c>
-      <c r="F5" s="35"/>
+      <c r="F5" s="31"/>
       <c r="H5">
         <f>Nico!K79</f>
         <v>15.5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="33">
+      <c r="A6" s="29">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="30" t="s">
         <v>61</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34" t="s">
+      <c r="C6" s="29"/>
+      <c r="D6" s="30" t="s">
         <v>62</v>
       </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
       <c r="H6">
         <f>Nico!K80</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="35">
+      <c r="A7" s="31">
         <v>6</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="32" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36" t="s">
+      <c r="C7" s="31"/>
+      <c r="D7" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
       <c r="H7">
         <f>Nico!K81</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="33">
+      <c r="A8" s="29">
         <v>7</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="30" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34" t="s">
+      <c r="C8" s="29"/>
+      <c r="D8" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
       <c r="H8">
         <f>Nico!K82</f>
         <v>12.75</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="35">
-        <v>8</v>
-      </c>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="31">
+        <v>8</v>
+      </c>
+      <c r="B9" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36" t="s">
+      <c r="C9" s="31"/>
+      <c r="D9" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="E9" s="35">
-        <v>8</v>
-      </c>
-      <c r="F9" s="35"/>
+      <c r="E9" s="31">
+        <v>8</v>
+      </c>
+      <c r="F9" s="31"/>
       <c r="H9">
         <f>Nico!K83</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="33">
+      <c r="A10" s="29">
         <v>9</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="30" t="s">
         <v>69</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34" t="s">
+      <c r="C10" s="29"/>
+      <c r="D10" s="30" t="s">
         <v>70</v>
       </c>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
       <c r="H10">
         <f>Nico!K84</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="35">
+      <c r="A11" s="31">
         <v>10</v>
       </c>
-      <c r="B11" s="36" t="s">
+      <c r="B11" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="C11" s="35"/>
-      <c r="D11" s="36" t="s">
+      <c r="C11" s="31"/>
+      <c r="D11" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
       <c r="H11">
         <f>Nico!K85</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="33">
+      <c r="A12" s="29">
         <v>11</v>
       </c>
-      <c r="B12" s="34" t="s">
+      <c r="B12" s="30" t="s">
         <v>73</v>
       </c>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34" t="s">
+      <c r="C12" s="29"/>
+      <c r="D12" s="30" t="s">
         <v>74</v>
       </c>
-      <c r="E12" s="33">
-        <v>8</v>
-      </c>
-      <c r="F12" s="33"/>
+      <c r="E12" s="29">
+        <v>8</v>
+      </c>
+      <c r="F12" s="29"/>
       <c r="H12">
         <f>Nico!K86</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="35">
+      <c r="A13" s="31">
         <v>12</v>
       </c>
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36" t="s">
+      <c r="C13" s="31"/>
+      <c r="D13" s="32" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
       <c r="H13">
         <f>Nico!K87</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="33">
+      <c r="A14" s="29">
         <v>13</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="30" t="s">
         <v>77</v>
       </c>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34" t="s">
+      <c r="C14" s="29"/>
+      <c r="D14" s="30" t="s">
         <v>78</v>
       </c>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
       <c r="H14">
         <f>Nico!K88</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="35">
+      <c r="A15" s="31">
         <v>14</v>
       </c>
-      <c r="B15" s="36" t="s">
+      <c r="B15" s="32" t="s">
         <v>85</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36" t="s">
+      <c r="C15" s="31"/>
+      <c r="D15" s="32" t="s">
         <v>79</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="31">
         <v>16</v>
       </c>
-      <c r="F15" s="35"/>
+      <c r="F15" s="31"/>
       <c r="H15">
         <f>Nico!K89</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="33">
+      <c r="A16" s="29">
         <v>15</v>
       </c>
-      <c r="B16" s="34" t="s">
+      <c r="B16" s="30" t="s">
         <v>80</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34" t="s">
+      <c r="C16" s="29"/>
+      <c r="D16" s="30" t="s">
         <v>81</v>
       </c>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
       <c r="H16">
         <f>Nico!K90</f>
         <v>3.5</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="35">
+      <c r="A17" s="31">
         <v>16</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="32" t="s">
         <v>82</v>
       </c>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36" t="s">
+      <c r="C17" s="31"/>
+      <c r="D17" s="32" t="s">
         <v>83</v>
       </c>
-      <c r="E17" s="35">
+      <c r="E17" s="31">
         <v>20</v>
       </c>
-      <c r="F17" s="35"/>
+      <c r="F17" s="31"/>
       <c r="H17">
         <f>Nico!K91</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="33">
+      <c r="A18" s="29">
         <v>17</v>
       </c>
-      <c r="B18" s="34" t="s">
+      <c r="B18" s="30" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34" t="s">
+      <c r="C18" s="29"/>
+      <c r="D18" s="30" t="s">
         <v>84</v>
       </c>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
       <c r="H18">
         <f>Nico!K92</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="35">
+      <c r="A19" s="31">
         <v>18</v>
       </c>
-      <c r="B19" s="36" t="s">
+      <c r="B19" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36" t="s">
+      <c r="C19" s="31"/>
+      <c r="D19" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="E19" s="35">
+      <c r="E19" s="31">
         <v>6</v>
       </c>
-      <c r="F19" s="35"/>
+      <c r="F19" s="31"/>
       <c r="H19">
         <f>Nico!K93</f>
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="33">
+      <c r="A20" s="29">
         <v>19</v>
       </c>
-      <c r="B20" s="34" t="s">
+      <c r="B20" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34" t="s">
+      <c r="C20" s="29"/>
+      <c r="D20" s="30" t="s">
         <v>90</v>
       </c>
-      <c r="E20" s="33">
+      <c r="E20" s="29">
         <v>6</v>
       </c>
-      <c r="F20" s="33"/>
+      <c r="F20" s="29"/>
       <c r="H20">
         <f>Nico!K94</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="35">
+      <c r="A21" s="31">
         <v>20</v>
       </c>
-      <c r="B21" s="36" t="s">
+      <c r="B21" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36" t="s">
+      <c r="C21" s="31"/>
+      <c r="D21" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
       <c r="H21">
         <f>Nico!K95</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="33">
+      <c r="A22" s="29">
         <v>21</v>
       </c>
-      <c r="B22" s="34" t="s">
+      <c r="B22" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34" t="s">
+      <c r="C22" s="29"/>
+      <c r="D22" s="30" t="s">
         <v>94</v>
       </c>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
       <c r="H22">
         <f>Nico!K96</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="35">
+      <c r="A23" s="31">
         <v>22</v>
       </c>
-      <c r="B23" s="36" t="s">
+      <c r="B23" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36" t="s">
+      <c r="C23" s="31"/>
+      <c r="D23" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="E23" s="35">
+      <c r="E23" s="31">
         <v>4</v>
       </c>
-      <c r="F23" s="35"/>
+      <c r="F23" s="31"/>
       <c r="H23">
         <f>Nico!K97</f>
         <v>6.75</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="33">
+      <c r="A24" s="29">
         <v>23</v>
       </c>
-      <c r="B24" s="34" t="s">
+      <c r="B24" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="34" t="s">
+      <c r="C24" s="29"/>
+      <c r="D24" s="30" t="s">
         <v>98</v>
       </c>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
       <c r="H24">
         <f>Nico!K98</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="35">
+      <c r="A25" s="31">
         <v>24</v>
       </c>
-      <c r="B25" s="36" t="s">
+      <c r="B25" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36" t="s">
+      <c r="C25" s="31"/>
+      <c r="D25" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="E25" s="35">
+      <c r="E25" s="31">
         <v>4</v>
       </c>
-      <c r="F25" s="35"/>
+      <c r="F25" s="31"/>
       <c r="H25">
         <f>Nico!K99</f>
         <v>7.25</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="33">
+      <c r="A26" s="29">
         <v>25</v>
       </c>
-      <c r="B26" s="34" t="s">
+      <c r="B26" s="30" t="s">
         <v>108</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34" t="s">
+      <c r="C26" s="29"/>
+      <c r="D26" s="30" t="s">
         <v>109</v>
       </c>
-      <c r="E26" s="33">
+      <c r="E26" s="29">
         <v>6</v>
       </c>
-      <c r="F26" s="33"/>
+      <c r="F26" s="29"/>
       <c r="H26">
         <f>Nico!K100</f>
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="35">
+      <c r="A27" s="31">
         <v>26</v>
       </c>
-      <c r="B27" s="36" t="s">
+      <c r="B27" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="33">
+      <c r="A28" s="29">
         <v>27</v>
       </c>
-      <c r="B28" s="34" t="s">
+      <c r="B28" s="30" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="35">
+      <c r="A29" s="31">
         <v>28</v>
       </c>
-      <c r="B29" s="36" t="s">
+      <c r="B29" s="32" t="s">
         <v>122</v>
       </c>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="35">
-        <v>8</v>
-      </c>
-      <c r="F29" s="35"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="31">
+        <v>8</v>
+      </c>
+      <c r="F29" s="31"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="33">
+      <c r="A30" s="29">
         <v>29</v>
       </c>
-      <c r="B30" s="34" t="s">
+      <c r="B30" s="30" t="s">
         <v>147</v>
       </c>
-      <c r="C30" s="33"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="35">
+      <c r="A31" s="31">
         <v>30</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="33">
+      <c r="A32" s="29">
         <v>31</v>
       </c>
-      <c r="B32" s="34"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="35">
+      <c r="A33" s="31">
         <v>32</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="33">
+      <c r="A34" s="29">
         <v>33</v>
       </c>
-      <c r="B34" s="34"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -11860,22 +12080,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H1" t="s">
@@ -11886,424 +12106,424 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="31">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="28" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="27"/>
       <c r="H2">
         <f>Nico!K76</f>
         <v>9.5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="35">
+      <c r="A3" s="31">
         <v>2</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>316</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
+      <c r="B3" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
       <c r="H3">
         <f>Nico!K77</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="33">
+      <c r="A4" s="29">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>317</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
+      <c r="B4" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
       <c r="H4">
         <f>Nico!K78</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="33">
+      <c r="A5" s="29">
         <v>4</v>
       </c>
-      <c r="B5" s="34" t="s">
-        <v>318</v>
-      </c>
-      <c r="C5" s="33"/>
-      <c r="D5" s="34"/>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
+      <c r="B5" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
       <c r="H5">
         <f>Nico!K80</f>
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="35">
+      <c r="A6" s="31">
         <v>5</v>
       </c>
-      <c r="B6" s="36" t="s">
-        <v>319</v>
-      </c>
-      <c r="C6" s="35"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
+      <c r="B6" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
       <c r="H6">
         <f>Nico!K81</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="33">
+      <c r="A7" s="29">
         <v>6</v>
       </c>
-      <c r="B7" s="34" t="s">
-        <v>320</v>
-      </c>
-      <c r="C7" s="33"/>
-      <c r="D7" s="34"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
+      <c r="B7" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
       <c r="H7">
         <f>Nico!K82</f>
         <v>12.75</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="35">
+      <c r="A8" s="31">
         <v>7</v>
       </c>
-      <c r="B8" s="36" t="s">
-        <v>321</v>
-      </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="35"/>
+      <c r="B8" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="C8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="31"/>
+      <c r="F8" s="31"/>
       <c r="H8">
         <f>Nico!K83</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="33">
-        <v>8</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>322</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
+      <c r="A9" s="29">
+        <v>8</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>318</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
       <c r="H9">
         <f>Nico!K84</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="35">
+      <c r="A10" s="31">
         <v>9</v>
       </c>
-      <c r="B10" s="36" t="s">
-        <v>323</v>
-      </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
+      <c r="B10" s="32" t="s">
+        <v>319</v>
+      </c>
+      <c r="C10" s="31"/>
+      <c r="D10" s="34"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
       <c r="H10">
         <f>Nico!K85</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="33">
+      <c r="A11" s="29">
         <v>10</v>
       </c>
-      <c r="B11" s="34" t="s">
+      <c r="B11" s="30" t="s">
         <v>163</v>
       </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
       <c r="H11">
         <f>Nico!K86</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="35">
+      <c r="A12" s="31">
         <v>11</v>
       </c>
-      <c r="B12" s="36" t="s">
-        <v>324</v>
-      </c>
-      <c r="C12" s="35"/>
-      <c r="D12" s="36"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="35"/>
+      <c r="B12" s="32" t="s">
+        <v>320</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
       <c r="H12">
         <f>Nico!K87</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="33">
+      <c r="A13" s="29">
         <v>12</v>
       </c>
-      <c r="B13" s="34" t="s">
-        <v>325</v>
-      </c>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
+      <c r="B13" s="30" t="s">
+        <v>321</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
       <c r="H13">
         <f>Nico!K88</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="35">
+      <c r="A14" s="31">
         <v>13</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="32" t="s">
         <v>51</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36" t="s">
-        <v>329</v>
-      </c>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
       <c r="H14">
         <f>Nico!K89</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="33">
+      <c r="A15" s="29">
         <v>14</v>
       </c>
-      <c r="B15" s="34" t="s">
-        <v>326</v>
-      </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
+      <c r="B15" s="30" t="s">
+        <v>322</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
       <c r="H15">
         <f>Nico!K90</f>
         <v>3.5</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="35">
+      <c r="A16" s="31">
         <v>15</v>
       </c>
-      <c r="B16" s="36" t="s">
-        <v>327</v>
-      </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
+      <c r="B16" s="32" t="s">
+        <v>323</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
       <c r="H16">
         <f>Nico!K91</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="33">
+      <c r="A17" s="29">
         <v>16</v>
       </c>
-      <c r="B17" s="34" t="s">
-        <v>328</v>
-      </c>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
+      <c r="B17" s="30" t="s">
+        <v>324</v>
+      </c>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
       <c r="H17">
         <f>Nico!K92</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="33">
+      <c r="A18" s="29">
         <v>17</v>
       </c>
-      <c r="B18" s="34" t="s">
-        <v>344</v>
-      </c>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="33">
+      <c r="B18" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="29">
         <v>2</v>
       </c>
-      <c r="F18" s="33"/>
+      <c r="F18" s="29"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
       <c r="H19">
         <f>Nico!K94</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
       <c r="H20">
         <f>Nico!K95</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
       <c r="H21">
         <f>Nico!K96</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="35"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
       <c r="H22">
         <f>Nico!K97</f>
         <v>6.75</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="33"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
       <c r="H23">
         <f>Nico!K98</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="35"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
       <c r="H24">
         <f>Nico!K99</f>
         <v>7.25</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
       <c r="H25">
         <f>Nico!K100</f>
         <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="35"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="33"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="35"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="33"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="35"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="33"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -12332,22 +12552,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H1" t="s">
@@ -12358,406 +12578,406 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="31">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>276</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32"/>
-      <c r="F2" s="31"/>
+      <c r="B2" s="28" t="s">
+        <v>273</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="27"/>
       <c r="H2">
         <f>Nico!K76</f>
         <v>9.5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="35">
+      <c r="A3" s="31">
         <v>2</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>301</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
+      <c r="B3" s="32" t="s">
+        <v>297</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
       <c r="H3">
         <f>Nico!K77</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="33">
+      <c r="A4" s="29">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>243</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
+      <c r="B4" s="30" t="s">
+        <v>242</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
       <c r="H4">
         <f>Nico!K78</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="35">
+      <c r="A5" s="31">
         <v>4</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>302</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="35"/>
-      <c r="F5" s="35"/>
+      <c r="B5" s="32" t="s">
+        <v>298</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="31"/>
+      <c r="F5" s="31"/>
       <c r="H5">
         <f>Nico!K79</f>
         <v>15.5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="33">
+      <c r="A6" s="29">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>303</v>
-      </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
+      <c r="B6" s="30" t="s">
+        <v>299</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
       <c r="H6">
         <f>Nico!K80</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="35">
+      <c r="A7" s="31">
         <v>6</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>304</v>
-      </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="35"/>
-      <c r="F7" s="35"/>
+      <c r="B7" s="32" t="s">
+        <v>300</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="31"/>
+      <c r="F7" s="31"/>
       <c r="H7">
         <f>Nico!K81</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="33">
+      <c r="A8" s="29">
         <v>7</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>305</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34" t="s">
-        <v>279</v>
-      </c>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
+      <c r="B8" s="30" t="s">
+        <v>301</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
       <c r="H8">
         <f>Nico!K82</f>
         <v>12.75</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="35">
-        <v>8</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>310</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36" t="s">
-        <v>279</v>
-      </c>
-      <c r="E9" s="35"/>
-      <c r="F9" s="35"/>
+      <c r="A9" s="31">
+        <v>8</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>306</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
       <c r="H9">
         <f>Nico!K83</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="33">
+      <c r="A10" s="29">
         <v>9</v>
       </c>
-      <c r="B10" s="34" t="s">
-        <v>344</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="33">
+      <c r="B10" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="29">
         <v>2</v>
       </c>
-      <c r="F10" s="33"/>
+      <c r="F10" s="29"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="35"/>
-      <c r="F11" s="35"/>
+      <c r="A11" s="31"/>
+      <c r="B11" s="32"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="34"/>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
       <c r="H11">
         <f>Nico!K85</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
       <c r="H12">
         <f>Nico!K86</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
       <c r="H13">
         <f>Nico!K87</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
       <c r="H14">
         <f>Nico!K88</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
       <c r="H15">
         <f>Nico!K89</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
       <c r="H16">
         <f>Nico!K90</f>
         <v>3.5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
       <c r="H17">
         <f>Nico!K91</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
       <c r="H18">
         <f>Nico!K92</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
       <c r="H19">
         <f>Nico!K93</f>
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
       <c r="H20">
         <f>Nico!K94</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
       <c r="H21">
         <f>Nico!K95</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="33"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
       <c r="H22">
         <f>Nico!K96</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="35"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
       <c r="H23">
         <f>Nico!K97</f>
         <v>6.75</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="33"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
       <c r="H24">
         <f>Nico!K98</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="35"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
       <c r="H25">
         <f>Nico!K99</f>
         <v>7.25</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="33"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
       <c r="H26">
         <f>Nico!K100</f>
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="35"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="33"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="35"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="33"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="35"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="33"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="35"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="33"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -12769,7 +12989,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDDA8C9E-E8C2-4DAE-A213-7FA1BC7F9D14}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
@@ -12786,22 +13006,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H1" t="s">
@@ -12812,432 +13032,432 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="31">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>257</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32" t="s">
-        <v>279</v>
-      </c>
-      <c r="E2" s="32">
+      <c r="B2" s="28" t="s">
+        <v>254</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="E2" s="28">
         <v>12</v>
       </c>
-      <c r="F2" s="31"/>
+      <c r="F2" s="27"/>
       <c r="H2">
         <f>Nico!K76</f>
         <v>9.5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="35">
+      <c r="A3" s="31">
         <v>2</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>258</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36" t="s">
-        <v>279</v>
-      </c>
-      <c r="E3" s="35">
-        <v>8</v>
-      </c>
-      <c r="F3" s="35"/>
+      <c r="B3" s="32" t="s">
+        <v>255</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="E3" s="31">
+        <v>8</v>
+      </c>
+      <c r="F3" s="31"/>
       <c r="H3">
         <f>Nico!K77</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="33">
+      <c r="A4" s="29">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>259</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34" t="s">
-        <v>279</v>
-      </c>
-      <c r="E4" s="33">
+      <c r="B4" s="30" t="s">
+        <v>256</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="E4" s="29">
         <v>12</v>
       </c>
-      <c r="F4" s="33"/>
+      <c r="F4" s="29"/>
       <c r="H4">
         <f>Nico!K78</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="35">
+      <c r="A5" s="31">
         <v>4</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>260</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="35">
+      <c r="B5" s="32" t="s">
+        <v>257</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="31">
         <v>6</v>
       </c>
-      <c r="F5" s="35"/>
+      <c r="F5" s="31"/>
       <c r="H5">
         <f>Nico!K79</f>
         <v>15.5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="33">
+      <c r="A6" s="29">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="s">
-        <v>261</v>
-      </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="33">
+      <c r="B6" s="30" t="s">
+        <v>258</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="29">
         <v>5</v>
       </c>
-      <c r="F6" s="33"/>
+      <c r="F6" s="29"/>
       <c r="H6">
         <f>Nico!K80</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="35">
+      <c r="A7" s="31">
         <v>6</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="35">
+      <c r="B7" s="32" t="s">
+        <v>259</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="31">
         <v>4</v>
       </c>
-      <c r="F7" s="35"/>
+      <c r="F7" s="31"/>
       <c r="H7">
         <f>Nico!K81</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="33">
+      <c r="A8" s="29">
         <v>7</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>263</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34" t="s">
-        <v>279</v>
-      </c>
-      <c r="E8" s="33">
+      <c r="B8" s="30" t="s">
+        <v>260</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="E8" s="29">
         <v>4</v>
       </c>
-      <c r="F8" s="33"/>
+      <c r="F8" s="29"/>
       <c r="H8">
         <f>Nico!K82</f>
         <v>12.75</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="35">
-        <v>8</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>264</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36" t="s">
-        <v>265</v>
-      </c>
-      <c r="E9" s="35">
-        <v>8</v>
-      </c>
-      <c r="F9" s="35"/>
+      <c r="A9" s="31">
+        <v>8</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>261</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32" t="s">
+        <v>262</v>
+      </c>
+      <c r="E9" s="31">
+        <v>8</v>
+      </c>
+      <c r="F9" s="31"/>
       <c r="H9">
         <f>Nico!K83</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="33">
+      <c r="A10" s="29">
         <v>9</v>
       </c>
-      <c r="B10" s="34" t="s">
-        <v>298</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
+      <c r="B10" s="30" t="s">
+        <v>294</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
       <c r="H10">
         <f>Nico!K84</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="33">
+      <c r="A11" s="29">
         <v>10</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>344</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="33">
+      <c r="B11" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="29">
         <v>2</v>
       </c>
-      <c r="F11" s="33"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
       <c r="H12">
         <f>Nico!K86</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
       <c r="H13">
         <f>Nico!K87</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
       <c r="H14">
         <f>Nico!K88</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
       <c r="H15">
         <f>Nico!K89</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
       <c r="H16">
         <f>Nico!K90</f>
         <v>3.5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
       <c r="H17">
         <f>Nico!K91</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
       <c r="H18">
         <f>Nico!K92</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
       <c r="H19">
         <f>Nico!K93</f>
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
       <c r="H20">
         <f>Nico!K94</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
       <c r="H21">
         <f>Nico!K95</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="33"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
       <c r="H22">
         <f>Nico!K96</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="35"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
       <c r="H23">
         <f>Nico!K97</f>
         <v>6.75</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="33"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
       <c r="H24">
         <f>Nico!K98</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="35"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
       <c r="H25">
         <f>Nico!K99</f>
         <v>7.25</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="33"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
       <c r="H26">
         <f>Nico!K100</f>
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="35"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="33"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="35"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="33"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="35"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="33"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="35"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="33"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -13250,7 +13470,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -13266,22 +13486,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H1" t="s">
@@ -13292,425 +13512,430 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="31">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
-        <v>220</v>
-      </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32">
+      <c r="B2" s="28" t="s">
+        <v>219</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28">
         <v>2</v>
       </c>
-      <c r="F2" s="31"/>
+      <c r="F2" s="27"/>
       <c r="H2">
         <f>Nico!K76</f>
         <v>9.5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="35">
+      <c r="A3" s="31">
         <v>2</v>
       </c>
-      <c r="B3" s="36" t="s">
-        <v>221</v>
-      </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="35">
+      <c r="B3" s="32" t="s">
+        <v>220</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="31">
         <v>6</v>
       </c>
-      <c r="F3" s="35"/>
+      <c r="F3" s="31"/>
       <c r="H3">
         <f>Nico!K77</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="33">
+      <c r="A4" s="29">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
-        <v>222</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="33">
+      <c r="B4" s="30" t="s">
+        <v>221</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="29">
         <v>18</v>
       </c>
-      <c r="F4" s="33"/>
+      <c r="F4" s="29"/>
       <c r="H4">
         <f>Nico!K78</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="35">
+      <c r="A5" s="31">
         <v>4</v>
       </c>
-      <c r="B5" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="35">
-        <v>8</v>
-      </c>
-      <c r="F5" s="35"/>
+      <c r="B5" s="32" t="s">
+        <v>222</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="31">
+        <v>8</v>
+      </c>
+      <c r="F5" s="31"/>
       <c r="H5">
         <f>Nico!K79</f>
         <v>15.5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="33">
+      <c r="A6" s="29">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="30" t="s">
+        <v>223</v>
+      </c>
+      <c r="C6" s="29"/>
+      <c r="D6" s="30" t="s">
         <v>224</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34" t="s">
-        <v>225</v>
-      </c>
-      <c r="E6" s="33">
+      <c r="E6" s="29">
         <v>4</v>
       </c>
-      <c r="F6" s="33"/>
+      <c r="F6" s="29"/>
       <c r="H6">
         <f>Nico!K80</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="35">
+      <c r="A7" s="31">
         <v>6</v>
       </c>
-      <c r="B7" s="36" t="s">
-        <v>226</v>
-      </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="35">
+      <c r="B7" s="32" t="s">
+        <v>225</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="31">
         <v>4</v>
       </c>
-      <c r="F7" s="35"/>
+      <c r="F7" s="31"/>
       <c r="H7">
         <f>Nico!K81</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="33">
+      <c r="A8" s="29">
         <v>7</v>
       </c>
-      <c r="B8" s="34" t="s">
-        <v>227</v>
-      </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="33">
+      <c r="B8" s="30" t="s">
+        <v>226</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="29">
         <v>16</v>
       </c>
-      <c r="F8" s="33"/>
+      <c r="F8" s="29"/>
       <c r="H8">
         <f>Nico!K82</f>
         <v>12.75</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="35">
-        <v>8</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>228</v>
-      </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="35">
+      <c r="A9" s="31">
+        <v>8</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>227</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="31">
         <v>2</v>
       </c>
-      <c r="F9" s="35"/>
+      <c r="F9" s="31"/>
       <c r="H9">
         <f>Nico!K83</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="33">
+      <c r="A10" s="29">
         <v>9</v>
       </c>
-      <c r="B10" s="34" t="s">
-        <v>344</v>
-      </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="33">
+      <c r="B10" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="29">
         <v>2</v>
       </c>
-      <c r="F10" s="33"/>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="35"/>
-      <c r="B11" s="36"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="38" t="s">
-        <v>22</v>
-      </c>
+      <c r="F10" s="29"/>
+    </row>
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="31">
+        <v>10</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>354</v>
+      </c>
+      <c r="C11" s="31"/>
       <c r="E11" s="35">
-        <f>SUM(E2:E10)</f>
-        <v>62</v>
-      </c>
-      <c r="F11" s="35"/>
+        <v>16</v>
+      </c>
+      <c r="F11" s="31"/>
       <c r="H11">
         <f>Nico!K85</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="33"/>
-      <c r="B12" s="34"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="34"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
+      <c r="A12" s="29"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12" s="31">
+        <f>SUM(E2:E11)</f>
+        <v>78</v>
+      </c>
+      <c r="F12" s="29"/>
       <c r="H12">
         <f>Nico!K86</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="35"/>
-      <c r="B13" s="36"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="35"/>
-      <c r="F13" s="35"/>
+      <c r="A13" s="31"/>
+      <c r="B13" s="32"/>
+      <c r="C13" s="31"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="31"/>
+      <c r="F13" s="31"/>
       <c r="H13">
         <f>Nico!K87</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="33"/>
-      <c r="B14" s="34"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="34"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
+      <c r="A14" s="29"/>
+      <c r="B14" s="30"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
       <c r="H14">
         <f>Nico!K88</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="35"/>
-      <c r="B15" s="36"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="35"/>
+      <c r="A15" s="31"/>
+      <c r="B15" s="32"/>
+      <c r="C15" s="31"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="31"/>
+      <c r="F15" s="31"/>
       <c r="H15">
         <f>Nico!K89</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="33"/>
-      <c r="B16" s="34"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
+      <c r="A16" s="29"/>
+      <c r="B16" s="30"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
       <c r="H16">
         <f>Nico!K90</f>
         <v>3.5</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="35"/>
-      <c r="B17" s="36"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="36"/>
-      <c r="E17" s="35"/>
-      <c r="F17" s="35"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="31"/>
+      <c r="F17" s="31"/>
       <c r="H17">
         <f>Nico!K91</f>
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="33"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="29"/>
+      <c r="F18" s="29"/>
       <c r="H18">
         <f>Nico!K92</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="35"/>
-      <c r="B19" s="36"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="36"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
+      <c r="A19" s="31"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="31"/>
+      <c r="F19" s="31"/>
       <c r="H19">
         <f>Nico!K93</f>
         <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="33"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="33"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="29"/>
+      <c r="F20" s="29"/>
       <c r="H20">
         <f>Nico!K94</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="35"/>
-      <c r="B21" s="36"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="36"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="32"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="31"/>
+      <c r="F21" s="31"/>
       <c r="H21">
         <f>Nico!K95</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="33"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
+      <c r="A22" s="29"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
       <c r="H22">
         <f>Nico!K96</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="35"/>
-      <c r="B23" s="36"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="35"/>
-      <c r="F23" s="35"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="31"/>
+      <c r="F23" s="31"/>
       <c r="H23">
         <f>Nico!K97</f>
         <v>6.75</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="33"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
+      <c r="A24" s="29"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="29"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="29"/>
       <c r="H24">
         <f>Nico!K98</f>
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="35"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
+      <c r="A25" s="31"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="31"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="31"/>
+      <c r="F25" s="31"/>
       <c r="H25">
         <f>Nico!K99</f>
         <v>7.25</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="33"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="33"/>
+      <c r="A26" s="29"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="29"/>
+      <c r="D26" s="30"/>
+      <c r="E26" s="29"/>
+      <c r="F26" s="29"/>
       <c r="H26">
         <f>Nico!K100</f>
         <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="35"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
+      <c r="A27" s="31"/>
+      <c r="B27" s="32"/>
+      <c r="C27" s="31"/>
+      <c r="D27" s="32"/>
+      <c r="E27" s="31"/>
+      <c r="F27" s="31"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="33"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
+      <c r="A28" s="29"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="29"/>
+      <c r="D28" s="30"/>
+      <c r="E28" s="29"/>
+      <c r="F28" s="29"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="35"/>
-      <c r="B29" s="36"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="32"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="32"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="33"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
+      <c r="A30" s="29"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="29"/>
+      <c r="D30" s="30"/>
+      <c r="E30" s="29"/>
+      <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="35"/>
-      <c r="B31" s="36"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="36"/>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
+      <c r="A31" s="31"/>
+      <c r="B31" s="32"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="31"/>
+      <c r="F31" s="31"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="33"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="33"/>
+      <c r="A32" s="29"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="30"/>
+      <c r="E32" s="29"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="35"/>
-      <c r="B33" s="36"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="36"/>
-      <c r="E33" s="35"/>
-      <c r="F33" s="35"/>
+      <c r="A33" s="31"/>
+      <c r="B33" s="32"/>
+      <c r="C33" s="31"/>
+      <c r="D33" s="32"/>
+      <c r="E33" s="31"/>
+      <c r="F33" s="31"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="33"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="33"/>
+      <c r="A34" s="29"/>
+      <c r="B34" s="30"/>
+      <c r="C34" s="29"/>
+      <c r="D34" s="30"/>
+      <c r="E34" s="29"/>
+      <c r="F34" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -13739,22 +13964,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H1" t="s">
@@ -13765,429 +13990,429 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="31">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="28" t="s">
         <v>181</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32"/>
-      <c r="E2" s="32">
+      <c r="C2" s="27"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28">
         <v>12</v>
       </c>
-      <c r="F2" s="31"/>
+      <c r="F2" s="27"/>
       <c r="H2">
         <f>Nico!K76</f>
         <v>9.5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="35">
+      <c r="A3" s="31">
         <v>2</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="32" t="s">
         <v>182</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="35">
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="31">
         <v>6</v>
       </c>
-      <c r="F3" s="35"/>
+      <c r="F3" s="31"/>
       <c r="H3">
         <f>Nico!K77</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="33">
+      <c r="A4" s="29">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="30" t="s">
         <v>183</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="33">
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="29">
         <v>10</v>
       </c>
-      <c r="F4" s="33"/>
+      <c r="F4" s="29"/>
       <c r="H4">
         <f>Nico!K78</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="35">
+      <c r="A5" s="31">
         <v>4</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="32" t="s">
         <v>184</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="35">
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="31">
         <v>20</v>
       </c>
-      <c r="F5" s="35"/>
+      <c r="F5" s="31"/>
       <c r="H5">
         <f>Nico!K79</f>
         <v>15.5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="33">
+      <c r="A6" s="29">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="30" t="s">
         <v>185</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="33">
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="29">
         <v>18</v>
       </c>
-      <c r="F6" s="33"/>
+      <c r="F6" s="29"/>
       <c r="H6">
         <f>Nico!K80</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="35">
+      <c r="A7" s="31">
         <v>6</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="35">
-        <v>8</v>
-      </c>
-      <c r="F7" s="35"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="31">
+        <v>8</v>
+      </c>
+      <c r="F7" s="31"/>
       <c r="H7">
         <f>Nico!K81</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="33">
+      <c r="A8" s="29">
         <v>7</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="30" t="s">
         <v>187</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="33">
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="29">
         <v>6</v>
       </c>
-      <c r="F8" s="33"/>
+      <c r="F8" s="29"/>
       <c r="H8">
         <f>Nico!K82</f>
         <v>12.75</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="33">
-        <v>8</v>
-      </c>
-      <c r="B9" s="34" t="s">
-        <v>344</v>
-      </c>
-      <c r="C9" s="33"/>
-      <c r="D9" s="34"/>
-      <c r="E9" s="33">
+      <c r="A9" s="29">
+        <v>8</v>
+      </c>
+      <c r="B9" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="29">
         <v>2</v>
       </c>
-      <c r="F9" s="33"/>
+      <c r="F9" s="29"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="35"/>
-      <c r="B10" s="36"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
+      <c r="A10" s="31"/>
+      <c r="B10" s="32"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
       <c r="H10">
         <f>Nico!K83</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="33"/>
-      <c r="B11" s="34"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
+      <c r="A11" s="29"/>
+      <c r="B11" s="30"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
       <c r="H11">
         <f>Nico!K84</f>
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="38" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="31">
         <f>SUM(E2:E11)</f>
         <v>82</v>
       </c>
-      <c r="F12" s="35"/>
+      <c r="F12" s="31"/>
       <c r="H12">
         <f>Nico!K85</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="33"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
       <c r="H13">
         <f>Nico!K86</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
       <c r="H14">
         <f>Nico!K87</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="33"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
       <c r="H15">
         <f>Nico!K88</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
       <c r="H16">
         <f>Nico!K89</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
       <c r="H17">
         <f>Nico!K90</f>
         <v>3.5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="35"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
       <c r="H18">
         <f>Nico!K91</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
       <c r="H19">
         <f>Nico!K92</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
       <c r="H20">
         <f>Nico!K93</f>
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
       <c r="H21">
         <f>Nico!K94</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="35"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
       <c r="H22">
         <f>Nico!K95</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="33"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
       <c r="H23">
         <f>Nico!K96</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="35"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
       <c r="H24">
         <f>Nico!K97</f>
         <v>6.75</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
       <c r="H25">
         <f>Nico!K98</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="35"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
       <c r="H26">
         <f>Nico!K99</f>
         <v>7.25</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
       <c r="H27">
         <f>Nico!K100</f>
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="33"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="35"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="33"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="35"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="33"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="35"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="33"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -14216,22 +14441,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="16" t="s">
         <v>34</v>
       </c>
       <c r="H1" t="s">
@@ -14242,443 +14467,443 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="31">
+      <c r="A2" s="27">
         <v>1</v>
       </c>
-      <c r="B2" s="32" t="s">
+      <c r="B2" s="28" t="s">
         <v>149</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="32" t="s">
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="28">
         <v>5</v>
       </c>
-      <c r="F2" s="31"/>
+      <c r="F2" s="27"/>
       <c r="H2">
         <f>Nico!K76</f>
         <v>9.5</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="35">
+      <c r="A3" s="31">
         <v>2</v>
       </c>
-      <c r="B3" s="36" t="s">
+      <c r="B3" s="32" t="s">
         <v>151</v>
       </c>
-      <c r="C3" s="35"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="35">
+      <c r="C3" s="31"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="31">
         <v>15</v>
       </c>
-      <c r="F3" s="35"/>
+      <c r="F3" s="31"/>
       <c r="H3">
         <f>Nico!K77</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="33">
+      <c r="A4" s="29">
         <v>3</v>
       </c>
-      <c r="B4" s="34" t="s">
+      <c r="B4" s="30" t="s">
         <v>152</v>
       </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="34"/>
-      <c r="E4" s="33">
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
+      <c r="E4" s="29">
         <v>10</v>
       </c>
-      <c r="F4" s="33"/>
+      <c r="F4" s="29"/>
       <c r="H4">
         <f>Nico!K78</f>
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="35">
+      <c r="A5" s="31">
         <v>4</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="C5" s="35"/>
-      <c r="D5" s="36"/>
-      <c r="E5" s="35">
+      <c r="C5" s="31"/>
+      <c r="D5" s="32"/>
+      <c r="E5" s="31">
         <v>5</v>
       </c>
-      <c r="F5" s="35"/>
+      <c r="F5" s="31"/>
       <c r="H5">
         <f>Nico!K79</f>
         <v>15.5</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="33">
+      <c r="A6" s="29">
         <v>5</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="30" t="s">
         <v>154</v>
       </c>
-      <c r="C6" s="33"/>
-      <c r="D6" s="34"/>
-      <c r="E6" s="33">
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="29">
         <v>4</v>
       </c>
-      <c r="F6" s="33"/>
+      <c r="F6" s="29"/>
       <c r="H6">
         <f>Nico!K80</f>
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="35">
+      <c r="A7" s="31">
         <v>6</v>
       </c>
-      <c r="B7" s="36" t="s">
+      <c r="B7" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="C7" s="35"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="35">
+      <c r="C7" s="31"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="31">
         <v>6</v>
       </c>
-      <c r="F7" s="35"/>
+      <c r="F7" s="31"/>
       <c r="H7">
         <f>Nico!K81</f>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="33">
+      <c r="A8" s="29">
         <v>7</v>
       </c>
-      <c r="B8" s="34" t="s">
+      <c r="B8" s="30" t="s">
         <v>155</v>
       </c>
-      <c r="C8" s="33"/>
-      <c r="D8" s="34"/>
-      <c r="E8" s="33">
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="29">
         <v>12</v>
       </c>
-      <c r="F8" s="33"/>
+      <c r="F8" s="29"/>
       <c r="H8">
         <f>Nico!K82</f>
         <v>12.75</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="35">
-        <v>8</v>
-      </c>
-      <c r="B9" s="36" t="s">
+      <c r="A9" s="31">
+        <v>8</v>
+      </c>
+      <c r="B9" s="32" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-      <c r="E9" s="35">
-        <v>8</v>
-      </c>
-      <c r="F9" s="35"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="31">
+        <v>8</v>
+      </c>
+      <c r="F9" s="31"/>
       <c r="H9">
         <f>Nico!K83</f>
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="33">
+      <c r="A10" s="29">
         <v>9</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="30" t="s">
         <v>157</v>
       </c>
-      <c r="C10" s="33"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="33">
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="29">
         <v>16</v>
       </c>
-      <c r="F10" s="33"/>
+      <c r="F10" s="29"/>
       <c r="H10">
         <f>Nico!K84</f>
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="33">
+      <c r="A11" s="29">
         <v>10</v>
       </c>
-      <c r="B11" s="34" t="s">
-        <v>344</v>
-      </c>
-      <c r="C11" s="33"/>
-      <c r="D11" s="34"/>
-      <c r="E11" s="33">
+      <c r="B11" s="30" t="s">
+        <v>340</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="29">
         <v>2</v>
       </c>
-      <c r="F11" s="33"/>
+      <c r="F11" s="29"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="35"/>
-      <c r="B12" s="36"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="38" t="s">
+      <c r="A12" s="31"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="34" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="35">
+      <c r="E12" s="31">
         <f>SUM(E2:E11)</f>
         <v>83</v>
       </c>
-      <c r="F12" s="35"/>
+      <c r="F12" s="31"/>
       <c r="H12">
         <f>Nico!K85</f>
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="33"/>
-      <c r="B13" s="34"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="34"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
+      <c r="A13" s="29"/>
+      <c r="B13" s="30"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
       <c r="H13">
         <f>Nico!K86</f>
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="35"/>
-      <c r="B14" s="36"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="35"/>
+      <c r="A14" s="31"/>
+      <c r="B14" s="32"/>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
       <c r="H14">
         <f>Nico!K87</f>
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="33"/>
-      <c r="B15" s="34"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="34"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
+      <c r="A15" s="29"/>
+      <c r="B15" s="30"/>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
       <c r="H15">
         <f>Nico!K88</f>
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="35"/>
-      <c r="B16" s="36"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="36"/>
-      <c r="E16" s="35"/>
-      <c r="F16" s="35"/>
+      <c r="A16" s="31"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
       <c r="H16">
         <f>Nico!K89</f>
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="33"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
       <c r="H17">
         <f>Nico!K90</f>
         <v>3.5</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="35"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="36"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
       <c r="H18">
         <f>Nico!K91</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="33"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
       <c r="H19">
         <f>Nico!K92</f>
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="36"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
       <c r="H20">
         <f>Nico!K93</f>
         <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="33"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
       <c r="H21">
         <f>Nico!K94</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="35"/>
-      <c r="B22" s="36"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="35"/>
-      <c r="F22" s="35"/>
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
       <c r="H22">
         <f>Nico!K95</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="33"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
       <c r="H23">
         <f>Nico!K96</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="35"/>
-      <c r="B24" s="36"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
+      <c r="A24" s="31"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
       <c r="H24">
         <f>Nico!K97</f>
         <v>6.75</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
       <c r="H25">
         <f>Nico!K98</f>
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="35"/>
-      <c r="B26" s="36"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="36"/>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
+      <c r="A26" s="31"/>
+      <c r="B26" s="32"/>
+      <c r="C26" s="31"/>
+      <c r="D26" s="32"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="31"/>
       <c r="H26">
         <f>Nico!K99</f>
         <v>7.25</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="33"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="33"/>
+      <c r="A27" s="29"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="29"/>
+      <c r="D27" s="30"/>
+      <c r="E27" s="29"/>
+      <c r="F27" s="29"/>
       <c r="H27">
         <f>Nico!K100</f>
         <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="35"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="35"/>
-      <c r="F28" s="35"/>
+      <c r="A28" s="31"/>
+      <c r="B28" s="32"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="32"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="33"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="33"/>
+      <c r="A29" s="29"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="29"/>
+      <c r="D29" s="30"/>
+      <c r="E29" s="29"/>
+      <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="35"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
+      <c r="A30" s="31"/>
+      <c r="B30" s="32"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="32"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="33"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="33"/>
+      <c r="A31" s="29"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="29"/>
+      <c r="D31" s="30"/>
+      <c r="E31" s="29"/>
+      <c r="F31" s="29"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="35"/>
-      <c r="B32" s="36"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="36"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
+      <c r="A32" s="31"/>
+      <c r="B32" s="32"/>
+      <c r="C32" s="31"/>
+      <c r="D32" s="32"/>
+      <c r="E32" s="31"/>
+      <c r="F32" s="31"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="33"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="33"/>
+      <c r="A33" s="29"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="30"/>
+      <c r="E33" s="29"/>
+      <c r="F33" s="29"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A34" s="35"/>
-      <c r="B34" s="36"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="36"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
+      <c r="A34" s="31"/>
+      <c r="B34" s="32"/>
+      <c r="C34" s="31"/>
+      <c r="D34" s="32"/>
+      <c r="E34" s="31"/>
+      <c r="F34" s="31"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A35" s="33"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
+      <c r="A35" s="29"/>
+      <c r="B35" s="30"/>
+      <c r="C35" s="29"/>
+      <c r="D35" s="30"/>
+      <c r="E35" s="29"/>
+      <c r="F35" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>

--- a/project/Zeiterfassung.xlsx
+++ b/project/Zeiterfassung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\BA\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SA\SA_AT\project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF0B0886-A94D-4AEE-AE92-028B136FAED4}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432D2CF0-091D-41AF-BF00-976E92E5397B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="71058" yWindow="0" windowWidth="19560" windowHeight="8118" tabRatio="745" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="71058" yWindow="0" windowWidth="19560" windowHeight="8118" tabRatio="745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raphael" sheetId="1" r:id="rId1"/>
@@ -5146,8 +5146,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M143"/>
   <sheetViews>
-    <sheetView topLeftCell="A129" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F149" sqref="F149"/>
+    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F66" sqref="F66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -5470,6 +5470,10 @@
       <c r="F15" s="23">
         <v>27</v>
       </c>
+      <c r="I15" s="8">
+        <f>SUM(B11,B12,B13,B14,B15,B16,B17,B18,B21,B22,B23,B24,B25,B26,B27,B28,B29,B32,B33,B34,B35,B36,B37,B38,B39,B40,B41,B43,B44,B45,B46,B47,B48,B49,B50,B51,B54,B55,B56,B57,B58,B59,B60,B61,B4,B5,B6,B7,B8)</f>
+        <v>101.25</v>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10">
@@ -7223,6 +7227,10 @@
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
       <c r="E110" s="11"/>
+      <c r="I110" s="8">
+        <f>SUM(B112,B113,B114,B115,B116,B117,B120,B122,B124,B125,B109,B108,B107,B106,B105,B104,B103,B102,B101)</f>
+        <v>59</v>
+      </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="19" t="s">
@@ -8270,8 +8278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M150"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8564,6 +8572,10 @@
       </c>
       <c r="F12" s="17">
         <v>27</v>
+      </c>
+      <c r="I12" s="2">
+        <f>SUM(B4:B8,B10:B15,B17:B27,B29:B42,B44:B52,B54:B63)</f>
+        <v>118.25</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
@@ -12990,7 +13002,7 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -14425,7 +14437,7 @@
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/project/Zeiterfassung.xlsx
+++ b/project/Zeiterfassung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SA\SA_AT\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nvinzens\Dropbox\BA\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{432D2CF0-091D-41AF-BF00-976E92E5397B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{71F4093C-49CC-4619-AC41-DFD3732D3B1B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="71058" yWindow="0" windowWidth="19560" windowHeight="8118" tabRatio="745" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80370" yWindow="0" windowWidth="19560" windowHeight="8115" tabRatio="745" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raphael" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="389">
   <si>
     <t>Mit Betreuer</t>
   </si>
@@ -986,33 +986,9 @@
     <t>Anforderungsdoku</t>
   </si>
   <si>
-    <t>Installationsanleitung</t>
-  </si>
-  <si>
-    <t>Konfigurationsanleitung</t>
-  </si>
-  <si>
-    <t>Benutzungsanleitung</t>
-  </si>
-  <si>
-    <t>Development-Anleitung</t>
-  </si>
-  <si>
-    <t>Formulare</t>
-  </si>
-  <si>
     <t>Persönliche Reflektion</t>
   </si>
   <si>
-    <t>Zeitabrechnung</t>
-  </si>
-  <si>
-    <t>Technische Risiken</t>
-  </si>
-  <si>
-    <t>Sitzungsprotokolle</t>
-  </si>
-  <si>
     <t>TODO: Arbeitspakete übertragen</t>
   </si>
   <si>
@@ -1110,6 +1086,123 @@
   </si>
   <si>
     <t>MS8: 9</t>
+  </si>
+  <si>
+    <t>Abstract</t>
+  </si>
+  <si>
+    <t>Swagger für Flask API</t>
+  </si>
+  <si>
+    <t>Domainanalyse</t>
+  </si>
+  <si>
+    <t>MS8: 6</t>
+  </si>
+  <si>
+    <t>Woche 16</t>
+  </si>
+  <si>
+    <t>Sagger Update</t>
+  </si>
+  <si>
+    <t>Anforderungsdokumentation</t>
+  </si>
+  <si>
+    <t>MS9: 1</t>
+  </si>
+  <si>
+    <t>MS9: 5</t>
+  </si>
+  <si>
+    <t>Netflow workflow abschluss</t>
+  </si>
+  <si>
+    <t>Anleitungen</t>
+  </si>
+  <si>
+    <t>Vagrant</t>
+  </si>
+  <si>
+    <t>MS9: 6</t>
+  </si>
+  <si>
+    <t>MS9: 2</t>
+  </si>
+  <si>
+    <t>MS9: 3</t>
+  </si>
+  <si>
+    <t>Präsentation vorbereiten</t>
+  </si>
+  <si>
+    <t>Abstract hochladen etc.</t>
+  </si>
+  <si>
+    <t>MS9: 14</t>
+  </si>
+  <si>
+    <t>Poster</t>
+  </si>
+  <si>
+    <t>MS9: 15</t>
+  </si>
+  <si>
+    <t>MS9: 17</t>
+  </si>
+  <si>
+    <t>Poster etc.</t>
+  </si>
+  <si>
+    <t>MS9: 4</t>
+  </si>
+  <si>
+    <t>Review Dokumente</t>
+  </si>
+  <si>
+    <t>Woche 17</t>
+  </si>
+  <si>
+    <t>Review Architektur</t>
+  </si>
+  <si>
+    <t>MS9: 13</t>
+  </si>
+  <si>
+    <t>MS9: 10</t>
+  </si>
+  <si>
+    <t>MS9: 12</t>
+  </si>
+  <si>
+    <t>MS9: 9</t>
+  </si>
+  <si>
+    <t>MS9: 7</t>
+  </si>
+  <si>
+    <t>Vorbereitung Abgabe</t>
+  </si>
+  <si>
+    <t>MS9: 11</t>
+  </si>
+  <si>
+    <t>Austellung Bachelorarbeit</t>
+  </si>
+  <si>
+    <t>Austellung</t>
+  </si>
+  <si>
+    <t>Erstellen Abgabedokument</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> MS9: 14</t>
+  </si>
+  <si>
+    <t>Projektplan abgabefertig</t>
+  </si>
+  <si>
+    <t>MS9: 8</t>
   </si>
 </sst>
 </file>
@@ -1435,7 +1528,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1720,8 +1813,8 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="135883392"/>
-        <c:axId val="308595488"/>
+        <c:axId val="268859704"/>
+        <c:axId val="268780432"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredBarSeries>
@@ -2043,8 +2136,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="135883392"/>
-        <c:axId val="308595488"/>
+        <c:axId val="268859704"/>
+        <c:axId val="268780432"/>
         <c:extLst>
           <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
             <c15:filteredLineSeries>
@@ -2207,7 +2300,7 @@
         </c:extLst>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="135883392"/>
+        <c:axId val="268859704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2247,10 +2340,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308595488"/>
+        <c:crossAx val="268780432"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2258,7 +2351,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="308595488"/>
+        <c:axId val="268780432"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2306,10 +2399,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="135883392"/>
+        <c:crossAx val="268859704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2348,7 +2441,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2378,7 +2471,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2454,7 +2547,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2594,7 +2687,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="bestFit"/>
@@ -2653,19 +2746,19 @@
                 <c:formatCode>0.0</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>12.985865724381625</c:v>
+                  <c:v>12.59100642398287</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>22.261484098939928</c:v>
+                  <c:v>21.58458244111349</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>8.1272084805653702</c:v>
+                  <c:v>7.880085653104925</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>39.35512367491166</c:v>
+                  <c:v>39.486081370449675</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>17.270318021201415</c:v>
+                  <c:v>18.458244111349035</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2723,7 +2816,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2753,7 +2846,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2834,7 +2927,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2897,10 +2990,10 @@
                   <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>222.75</c:v>
+                  <c:v>230.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>97.75</c:v>
+                  <c:v>107.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2920,11 +3013,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="182"/>
-        <c:axId val="308598624"/>
-        <c:axId val="308595880"/>
+        <c:axId val="304436944"/>
+        <c:axId val="304103864"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="308598624"/>
+        <c:axId val="304436944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2964,10 +3057,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308595880"/>
+        <c:crossAx val="304103864"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2975,7 +3068,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="308595880"/>
+        <c:axId val="304103864"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3023,10 +3116,10 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="308598624"/>
+        <c:crossAx val="304436944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3064,7 +3157,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5144,28 +5237,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M143"/>
+  <dimension ref="A1:M177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A90" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F66" sqref="F66"/>
+    <sheetView topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A173" sqref="A173:F177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.41796875" style="7"/>
+    <col min="1" max="1" width="11.42578125" style="7"/>
     <col min="2" max="2" width="10" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.26171875" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.68359375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.26171875" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="11.41796875" style="7"/>
-    <col min="11" max="11" width="26.41796875" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.41796875" style="7"/>
-    <col min="13" max="13" width="17.83984375" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.41796875" style="7"/>
+    <col min="3" max="3" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.7109375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="11.42578125" style="7"/>
+    <col min="11" max="11" width="26.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" style="7"/>
+    <col min="13" max="13" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
@@ -5188,7 +5281,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -5199,7 +5292,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
@@ -5216,7 +5309,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="10">
         <v>43153</v>
       </c>
@@ -5240,8 +5333,8 @@
         <v>6</v>
       </c>
       <c r="I4" s="8">
-        <f>SUM(G4,G9,G21,G32,G43,G54,G64,G88,G77,G101,G69,G112,G120,G130,G139)</f>
-        <v>286.25</v>
+        <f>SUM(G4,G9,G21,G32,G43,G54,G64,G88,G77,G101,G69,G112,G120,G130,G139,G152,G167)</f>
+        <v>378.75</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
@@ -5250,7 +5343,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="10">
         <v>43153</v>
       </c>
@@ -5276,7 +5369,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43153</v>
       </c>
@@ -5305,7 +5398,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10">
         <v>43154</v>
       </c>
@@ -5325,10 +5418,10 @@
         <v>26</v>
       </c>
       <c r="I7" s="7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43154</v>
       </c>
@@ -5351,7 +5444,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="G9" s="8">
         <f>SUM(B11:B18)</f>
         <v>16.25</v>
@@ -5360,16 +5453,16 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>47</v>
       </c>
       <c r="I10" s="7">
         <f>I4/I7</f>
-        <v>19.083333333333332</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+        <v>22.279411764705884</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10">
         <v>43157</v>
       </c>
@@ -5389,7 +5482,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="10">
         <v>43157</v>
       </c>
@@ -5410,7 +5503,7 @@
       </c>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="10">
         <v>43158</v>
       </c>
@@ -5431,7 +5524,7 @@
       </c>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>43159</v>
       </c>
@@ -5451,7 +5544,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>43159</v>
       </c>
@@ -5470,12 +5563,8 @@
       <c r="F15" s="23">
         <v>27</v>
       </c>
-      <c r="I15" s="8">
-        <f>SUM(B11,B12,B13,B14,B15,B16,B17,B18,B21,B22,B23,B24,B25,B26,B27,B28,B29,B32,B33,B34,B35,B36,B37,B38,B39,B40,B41,B43,B44,B45,B46,B47,B48,B49,B50,B51,B54,B55,B56,B57,B58,B59,B60,B61,B4,B5,B6,B7,B8)</f>
-        <v>101.25</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="10">
         <v>43160</v>
       </c>
@@ -5496,7 +5585,7 @@
       </c>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="10">
         <v>43160</v>
       </c>
@@ -5517,7 +5606,7 @@
       </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>43161</v>
       </c>
@@ -5537,10 +5626,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="19" t="s">
         <v>100</v>
       </c>
@@ -5553,7 +5642,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>43165</v>
       </c>
@@ -5577,7 +5666,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>43165</v>
       </c>
@@ -5597,7 +5686,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="10">
         <v>43166</v>
       </c>
@@ -5617,7 +5706,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="10">
         <v>43166</v>
       </c>
@@ -5637,7 +5726,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="10">
         <v>43167</v>
       </c>
@@ -5657,7 +5746,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="10">
         <v>43167</v>
       </c>
@@ -5677,7 +5766,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="10">
         <v>43167</v>
       </c>
@@ -5697,7 +5786,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="4">
         <v>43167</v>
       </c>
@@ -5717,7 +5806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="18">
         <v>43168</v>
       </c>
@@ -5737,7 +5826,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="19" t="s">
         <v>114</v>
       </c>
@@ -5745,7 +5834,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>43171</v>
       </c>
@@ -5769,7 +5858,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>43172</v>
       </c>
@@ -5789,7 +5878,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>43172</v>
       </c>
@@ -5809,7 +5898,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>43173</v>
       </c>
@@ -5829,7 +5918,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>43173</v>
       </c>
@@ -5849,7 +5938,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>43173</v>
       </c>
@@ -5869,7 +5958,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="4">
         <v>43174</v>
       </c>
@@ -5889,7 +5978,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>43174</v>
       </c>
@@ -5909,7 +5998,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="18">
         <v>43174</v>
       </c>
@@ -5930,7 +6019,7 @@
       </c>
       <c r="G40" s="8"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="10">
         <v>43175</v>
       </c>
@@ -5941,7 +6030,7 @@
         <v>49</v>
       </c>
       <c r="D41" s="11" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>20</v>
@@ -5950,7 +6039,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="19" t="s">
         <v>132</v>
       </c>
@@ -5958,7 +6047,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="4">
         <v>43178</v>
       </c>
@@ -5982,7 +6071,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="10">
         <v>43178</v>
       </c>
@@ -6002,7 +6091,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="10">
         <v>43179</v>
       </c>
@@ -6022,7 +6111,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="10">
         <v>43180</v>
       </c>
@@ -6042,7 +6131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="10">
         <v>43180</v>
       </c>
@@ -6062,7 +6151,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="10">
         <v>43181</v>
       </c>
@@ -6082,7 +6171,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="10">
         <v>43181</v>
       </c>
@@ -6103,7 +6192,7 @@
       </c>
       <c r="G49" s="9"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="10">
         <v>43181</v>
       </c>
@@ -6124,7 +6213,7 @@
       </c>
       <c r="G50" s="8"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="10">
         <v>43182</v>
       </c>
@@ -6144,7 +6233,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
         <v>142</v>
       </c>
@@ -6157,7 +6246,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="10">
         <v>43185</v>
       </c>
@@ -6181,7 +6270,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="10">
         <v>43186</v>
       </c>
@@ -6201,7 +6290,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="10">
         <v>43187</v>
       </c>
@@ -6221,7 +6310,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="10">
         <v>43187</v>
       </c>
@@ -6241,7 +6330,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>43188</v>
       </c>
@@ -6262,7 +6351,7 @@
       </c>
       <c r="M58" s="11"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>43188</v>
       </c>
@@ -6283,7 +6372,7 @@
       </c>
       <c r="G59" s="9"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>43189</v>
       </c>
@@ -6304,7 +6393,7 @@
       </c>
       <c r="G60" s="8"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>43189</v>
       </c>
@@ -6324,7 +6413,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
       <c r="B62" s="2"/>
       <c r="C62" s="11"/>
@@ -6332,7 +6421,7 @@
       <c r="E62" s="11"/>
       <c r="F62" s="17"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="19" t="s">
         <v>164</v>
       </c>
@@ -6343,7 +6432,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="10">
         <v>43193</v>
       </c>
@@ -6360,14 +6449,14 @@
         <v>16</v>
       </c>
       <c r="F64" s="23" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="G64" s="2">
         <f>SUM(B64:B66)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="10">
         <v>43193</v>
       </c>
@@ -6384,10 +6473,10 @@
         <v>17</v>
       </c>
       <c r="F65" s="23" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="10">
         <v>43193</v>
       </c>
@@ -6404,16 +6493,16 @@
         <v>16</v>
       </c>
       <c r="F66" s="23" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="18"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>177</v>
       </c>
@@ -6421,7 +6510,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="18">
         <v>43199</v>
       </c>
@@ -6438,14 +6527,14 @@
         <v>19</v>
       </c>
       <c r="F69" s="23" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="G69" s="2">
         <f>SUM(B69:B74)</f>
         <v>31.5</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="10">
         <v>43200</v>
       </c>
@@ -6462,12 +6551,12 @@
         <v>19</v>
       </c>
       <c r="F70" s="23" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
       <c r="G70" s="8"/>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>43201</v>
       </c>
@@ -6484,11 +6573,11 @@
         <v>19</v>
       </c>
       <c r="F71" s="23" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="H71" s="8"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="10">
         <v>43202</v>
       </c>
@@ -6505,10 +6594,10 @@
         <v>19</v>
       </c>
       <c r="F72" s="23" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="10">
         <v>43203</v>
       </c>
@@ -6525,10 +6614,10 @@
         <v>20</v>
       </c>
       <c r="F73" s="23" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="10">
         <v>43203</v>
       </c>
@@ -6545,17 +6634,17 @@
         <v>19</v>
       </c>
       <c r="F74" s="23" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
       <c r="F75" s="23"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>193</v>
       </c>
@@ -6568,7 +6657,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="18">
         <v>43206</v>
       </c>
@@ -6592,7 +6681,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>43206</v>
       </c>
@@ -6609,11 +6698,11 @@
         <v>16</v>
       </c>
       <c r="F78" s="23" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="18">
         <v>43207</v>
       </c>
@@ -6634,7 +6723,7 @@
       </c>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="18">
         <v>43208</v>
       </c>
@@ -6655,7 +6744,7 @@
       </c>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81" s="18">
         <v>43208</v>
       </c>
@@ -6676,7 +6765,7 @@
       </c>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>43209</v>
       </c>
@@ -6697,7 +6786,7 @@
       </c>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>43209</v>
       </c>
@@ -6718,7 +6807,7 @@
       </c>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>43210</v>
       </c>
@@ -6739,7 +6828,7 @@
       </c>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>43210</v>
       </c>
@@ -6756,11 +6845,11 @@
         <v>16</v>
       </c>
       <c r="F85" s="23" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -6769,7 +6858,7 @@
       <c r="F86" s="17"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87" s="19" t="s">
         <v>200</v>
       </c>
@@ -6782,7 +6871,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>43213</v>
       </c>
@@ -6806,7 +6895,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>43213</v>
       </c>
@@ -6827,7 +6916,7 @@
       </c>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>43214</v>
       </c>
@@ -6844,11 +6933,11 @@
         <v>16</v>
       </c>
       <c r="F90" s="23" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="10">
         <v>43214</v>
       </c>
@@ -6868,7 +6957,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A92" s="10">
         <v>43214</v>
       </c>
@@ -6885,10 +6974,10 @@
         <v>16</v>
       </c>
       <c r="F92" s="23" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93" s="10">
         <v>43215</v>
       </c>
@@ -6905,10 +6994,10 @@
         <v>16</v>
       </c>
       <c r="F93" s="23" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94" s="10">
         <v>43216</v>
       </c>
@@ -6925,10 +7014,10 @@
         <v>16</v>
       </c>
       <c r="F94" s="23" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95" s="10">
         <v>43216</v>
       </c>
@@ -6945,10 +7034,10 @@
         <v>16</v>
       </c>
       <c r="F95" s="23" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96" s="10">
         <v>43216</v>
       </c>
@@ -6965,11 +7054,11 @@
         <v>16</v>
       </c>
       <c r="F96" s="23" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="4">
         <v>43217</v>
       </c>
@@ -6986,11 +7075,11 @@
         <v>16</v>
       </c>
       <c r="F97" s="23" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>43217</v>
       </c>
@@ -7007,11 +7096,11 @@
         <v>20</v>
       </c>
       <c r="F98" s="23" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
       <c r="B99" s="2"/>
       <c r="C99" s="11"/>
@@ -7020,7 +7109,7 @@
       <c r="F99" s="17"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A100" s="19" t="s">
         <v>230</v>
       </c>
@@ -7034,7 +7123,7 @@
       </c>
       <c r="M100" s="11"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>43221</v>
       </c>
@@ -7051,14 +7140,14 @@
         <v>16</v>
       </c>
       <c r="F101" s="23" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="G101" s="2">
         <f>SUM(B101:B109)</f>
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>43221</v>
       </c>
@@ -7075,11 +7164,11 @@
         <v>19</v>
       </c>
       <c r="F102" s="23" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>43222</v>
       </c>
@@ -7096,11 +7185,11 @@
         <v>19</v>
       </c>
       <c r="F103" s="23" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A104" s="4">
         <v>43223</v>
       </c>
@@ -7117,10 +7206,10 @@
         <v>16</v>
       </c>
       <c r="F104" s="23" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A105" s="4">
         <v>43223</v>
       </c>
@@ -7137,11 +7226,11 @@
         <v>18</v>
       </c>
       <c r="F105" s="23" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A106" s="4">
         <v>43223</v>
       </c>
@@ -7158,11 +7247,11 @@
         <v>19</v>
       </c>
       <c r="F106" s="23" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A107" s="10">
         <v>43224</v>
       </c>
@@ -7179,10 +7268,10 @@
         <v>19</v>
       </c>
       <c r="F107" s="23" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A108" s="10">
         <v>43224</v>
       </c>
@@ -7199,10 +7288,10 @@
         <v>19</v>
       </c>
       <c r="F108" s="23" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A109" s="10">
         <v>43224</v>
       </c>
@@ -7219,20 +7308,16 @@
         <v>20</v>
       </c>
       <c r="F109" s="23" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A110" s="10"/>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
       <c r="E110" s="11"/>
-      <c r="I110" s="8">
-        <f>SUM(B112,B113,B114,B115,B116,B117,B120,B122,B124,B125,B109,B108,B107,B106,B105,B104,B103,B102,B101)</f>
-        <v>59</v>
-      </c>
-    </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A111" s="19" t="s">
         <v>251</v>
       </c>
@@ -7243,7 +7328,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A112" s="10">
         <v>43227</v>
       </c>
@@ -7267,7 +7352,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113" s="18">
         <v>43228</v>
       </c>
@@ -7288,7 +7373,7 @@
       </c>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>43229</v>
       </c>
@@ -7305,11 +7390,11 @@
         <v>18</v>
       </c>
       <c r="F114" s="23" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="G114" s="2"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>43230</v>
       </c>
@@ -7326,11 +7411,11 @@
         <v>19</v>
       </c>
       <c r="F115" s="23" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>43231</v>
       </c>
@@ -7347,11 +7432,11 @@
         <v>19</v>
       </c>
       <c r="F116" s="23" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A117" s="4">
         <v>43231</v>
       </c>
@@ -7368,16 +7453,16 @@
         <v>20</v>
       </c>
       <c r="F117" s="23" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A118" s="10"/>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
       <c r="E118" s="11"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A119" s="19" t="s">
         <v>265</v>
       </c>
@@ -7389,7 +7474,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A120" s="4">
         <v>43234</v>
       </c>
@@ -7413,7 +7498,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>43234</v>
       </c>
@@ -7430,10 +7515,10 @@
         <v>19</v>
       </c>
       <c r="F121" s="23" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="10">
         <v>43235</v>
       </c>
@@ -7453,7 +7538,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="18">
         <v>43236</v>
       </c>
@@ -7470,11 +7555,11 @@
         <v>19</v>
       </c>
       <c r="F123" s="23" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="G123" s="21"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A124" s="4">
         <v>43236</v>
       </c>
@@ -7495,7 +7580,7 @@
       </c>
       <c r="G124" s="2"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>43237</v>
       </c>
@@ -7516,7 +7601,7 @@
       </c>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A126" s="18">
         <v>43238</v>
       </c>
@@ -7533,10 +7618,10 @@
         <v>18</v>
       </c>
       <c r="F126" s="23" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A127" s="10">
         <v>43238</v>
       </c>
@@ -7553,17 +7638,17 @@
         <v>20</v>
       </c>
       <c r="F127" s="23" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
       <c r="B128" s="2"/>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
       <c r="E128" s="11"/>
       <c r="F128" s="17"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>282</v>
       </c>
@@ -7576,7 +7661,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="10">
         <v>43241</v>
       </c>
@@ -7593,14 +7678,14 @@
         <v>18</v>
       </c>
       <c r="F130" s="23" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="G130" s="2">
         <f>SUM(B130:B136)</f>
         <v>24.5</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="10">
         <v>43242</v>
       </c>
@@ -7617,10 +7702,10 @@
         <v>19</v>
       </c>
       <c r="F131" s="23" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="10">
         <v>43242</v>
       </c>
@@ -7637,10 +7722,10 @@
         <v>18</v>
       </c>
       <c r="F132" s="23" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="10">
         <v>43243</v>
       </c>
@@ -7651,7 +7736,7 @@
         <v>8</v>
       </c>
       <c r="D133" s="11" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="E133" s="11" t="s">
         <v>19</v>
@@ -7660,7 +7745,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="10">
         <v>43244</v>
       </c>
@@ -7671,16 +7756,16 @@
         <v>8</v>
       </c>
       <c r="D134" s="11" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="E134" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F134" s="23" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="10">
         <v>43245</v>
       </c>
@@ -7697,10 +7782,10 @@
         <v>20</v>
       </c>
       <c r="F135" s="23" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="10">
         <v>43245</v>
       </c>
@@ -7711,16 +7796,16 @@
         <v>8</v>
       </c>
       <c r="D136" s="11" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="E136" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F136" s="23" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>303</v>
       </c>
@@ -7728,7 +7813,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="10">
         <v>43248</v>
       </c>
@@ -7739,20 +7824,20 @@
         <v>8</v>
       </c>
       <c r="D139" s="11" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="E139" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F139" s="23" t="s">
         <v>308</v>
       </c>
       <c r="G139" s="8">
-        <f>SUM(B139:B147)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <f>SUM(B139:B149)</f>
+        <v>22.5</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="10">
         <v>43248</v>
       </c>
@@ -7769,10 +7854,10 @@
         <v>19</v>
       </c>
       <c r="F140" s="23" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="10">
         <v>43249</v>
       </c>
@@ -7789,10 +7874,10 @@
         <v>19</v>
       </c>
       <c r="F141" s="23" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="10">
         <v>43249</v>
       </c>
@@ -7803,7 +7888,7 @@
         <v>8</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="E142" s="11" t="s">
         <v>19</v>
@@ -7812,7 +7897,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="10">
         <v>43250</v>
       </c>
@@ -7823,13 +7908,644 @@
         <v>8</v>
       </c>
       <c r="D143" s="11" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="E143" s="11" t="s">
         <v>19</v>
       </c>
       <c r="F143" s="23" t="s">
         <v>296</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <v>43251</v>
+      </c>
+      <c r="B144" s="21">
+        <v>1</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F144" s="23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="10">
+        <v>43251</v>
+      </c>
+      <c r="B145" s="8">
+        <v>1</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>351</v>
+      </c>
+      <c r="E145" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F145" s="23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="10">
+        <f>$A$147</f>
+        <v>43251</v>
+      </c>
+      <c r="B146" s="8">
+        <v>3</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="E146" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F146" s="23" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="10">
+        <v>43251</v>
+      </c>
+      <c r="B147" s="8">
+        <v>4</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="E147" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F147" s="23" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="10">
+        <v>43252</v>
+      </c>
+      <c r="B148" s="8">
+        <v>2</v>
+      </c>
+      <c r="C148" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D148" s="11" t="s">
+        <v>355</v>
+      </c>
+      <c r="E148" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F148" s="23" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="10">
+        <v>43252</v>
+      </c>
+      <c r="B149" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F149" s="23" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="G151" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="10">
+        <v>43255</v>
+      </c>
+      <c r="B152" s="8">
+        <v>2</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F152" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="G152" s="8">
+        <f>SUM(B152:B164)</f>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="10">
+        <v>43255</v>
+      </c>
+      <c r="B153" s="8">
+        <v>2</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F153" s="23" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="10">
+        <v>43255</v>
+      </c>
+      <c r="B154" s="8">
+        <v>4</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>356</v>
+      </c>
+      <c r="E154" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F154" s="23" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="10">
+        <v>43256</v>
+      </c>
+      <c r="B155" s="8">
+        <v>4</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>361</v>
+      </c>
+      <c r="E155" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F155" s="23" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="10">
+        <v>43256</v>
+      </c>
+      <c r="B156" s="8">
+        <v>4</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="E156" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F156" s="23" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="10">
+        <v>43257</v>
+      </c>
+      <c r="B157" s="8">
+        <v>7</v>
+      </c>
+      <c r="C157" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D157" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E157" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F157" s="23" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="10">
+        <v>43258</v>
+      </c>
+      <c r="B158" s="8">
+        <v>3</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E158" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F158" s="23" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="10">
+        <v>43258</v>
+      </c>
+      <c r="B159" s="8">
+        <v>2</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="E159" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F159" s="23" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="10">
+        <v>43258</v>
+      </c>
+      <c r="B160" s="8">
+        <v>3</v>
+      </c>
+      <c r="C160" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="E160" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F160" s="23" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" s="10">
+        <v>43259</v>
+      </c>
+      <c r="B161" s="8">
+        <v>2</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="E161" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F161" s="23" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" s="10">
+        <v>43259</v>
+      </c>
+      <c r="B162" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>278</v>
+      </c>
+      <c r="E162" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F162" s="23" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163" s="10">
+        <v>43259</v>
+      </c>
+      <c r="B163" s="8">
+        <v>1.5</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="E163" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F163" s="23" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164" s="10">
+        <v>43259</v>
+      </c>
+      <c r="B164" s="8">
+        <v>4</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E164" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F164" s="23" t="s">
+        <v>363</v>
+      </c>
+      <c r="G164" s="23"/>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="B166" s="2"/>
+      <c r="C166" s="11"/>
+      <c r="D166" s="11"/>
+      <c r="E166" s="11"/>
+      <c r="F166" s="17"/>
+      <c r="G166" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" s="4">
+        <v>43260</v>
+      </c>
+      <c r="B167" s="2">
+        <v>5</v>
+      </c>
+      <c r="C167" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D167" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="E167" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F167" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="G167" s="2">
+        <f>SUM(B167:B177)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" s="10">
+        <v>43261</v>
+      </c>
+      <c r="B168" s="8">
+        <v>2</v>
+      </c>
+      <c r="C168" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D168" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="E168" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F168" s="23" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" s="10">
+        <v>43262</v>
+      </c>
+      <c r="B169" s="8">
+        <v>2</v>
+      </c>
+      <c r="C169" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D169" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="E169" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F169" s="23" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" s="10">
+        <v>43262</v>
+      </c>
+      <c r="B170" s="8">
+        <v>2</v>
+      </c>
+      <c r="C170" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D170" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="E170" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F170" s="23" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" s="10">
+        <v>43262</v>
+      </c>
+      <c r="B171" s="8">
+        <v>2</v>
+      </c>
+      <c r="C171" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D171" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="E171" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F171" s="23" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" s="10">
+        <v>43262</v>
+      </c>
+      <c r="B172" s="8">
+        <v>2</v>
+      </c>
+      <c r="C172" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D172" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="E172" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F172" s="23" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173" s="10">
+        <v>43263</v>
+      </c>
+      <c r="B173" s="8">
+        <v>8</v>
+      </c>
+      <c r="C173" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D173" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="E173" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F173" s="23" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174" s="10">
+        <v>43264</v>
+      </c>
+      <c r="B174" s="8">
+        <v>8</v>
+      </c>
+      <c r="C174" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D174" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="E174" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F174" s="23" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" s="10">
+        <v>43265</v>
+      </c>
+      <c r="B175" s="8">
+        <v>4</v>
+      </c>
+      <c r="C175" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D175" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="E175" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F175" s="23" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" s="10">
+        <v>43266</v>
+      </c>
+      <c r="B176" s="8">
+        <v>2</v>
+      </c>
+      <c r="C176" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D176" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="E176" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F176" s="23" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="10">
+        <v>43266</v>
+      </c>
+      <c r="B177" s="8">
+        <v>5</v>
+      </c>
+      <c r="C177" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D177" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="E177" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F177" s="23" t="s">
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -7839,16 +8555,16 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:D16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>38</v>
       </c>
@@ -7859,7 +8575,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -7875,7 +8591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -7891,7 +8607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -7907,7 +8623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -7923,7 +8639,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -7939,7 +8655,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -7955,7 +8671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -7971,7 +8687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -7987,7 +8703,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8003,7 +8719,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8019,7 +8735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8035,7 +8751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8051,7 +8767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8067,7 +8783,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8083,7 +8799,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -8103,19 +8819,19 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A9:E15"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="26.41796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" t="s">
         <v>38</v>
@@ -8127,7 +8843,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
@@ -8145,10 +8861,10 @@
       </c>
       <c r="E10" s="26">
         <f>D10/D$15*100</f>
-        <v>12.985865724381625</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>12.59100642398287</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
@@ -8166,10 +8882,10 @@
       </c>
       <c r="E11" s="26">
         <f t="shared" ref="E11:E15" si="0">D11/D$15*100</f>
-        <v>22.261484098939928</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>21.58458244111349</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
@@ -8187,10 +8903,10 @@
       </c>
       <c r="E12" s="26">
         <f t="shared" si="0"/>
-        <v>8.1272084805653702</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>7.880085653104925</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
@@ -8200,18 +8916,18 @@
       </c>
       <c r="C13">
         <f>SUMIF(Nico!$E$4:$E$150,Nico!L5,Nico!$B$4:$B$150)</f>
-        <v>129.25</v>
+        <v>137</v>
       </c>
       <c r="D13">
         <f>SUM(B13:C13)</f>
-        <v>222.75</v>
+        <v>230.5</v>
       </c>
       <c r="E13" s="26">
         <f t="shared" si="0"/>
-        <v>39.35512367491166</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>39.486081370449675</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
@@ -8221,18 +8937,18 @@
       </c>
       <c r="C14">
         <f>SUMIF(Nico!$E$4:$E$150,Nico!L6,Nico!$B$4:$B$150)</f>
-        <v>63</v>
+        <v>73</v>
       </c>
       <c r="D14">
         <f>SUM(B14:C14)</f>
-        <v>97.75</v>
+        <v>107.75</v>
       </c>
       <c r="E14" s="26">
         <f t="shared" si="0"/>
-        <v>17.270318021201415</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+        <v>18.458244111349035</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>22</v>
       </c>
@@ -8242,11 +8958,11 @@
       </c>
       <c r="C15">
         <f>SUM(C10:C14)</f>
-        <v>309.25</v>
+        <v>327</v>
       </c>
       <c r="D15">
         <f>SUM(D10:D14)</f>
-        <v>566</v>
+        <v>583.75</v>
       </c>
       <c r="E15" s="26">
         <f t="shared" si="0"/>
@@ -8261,14 +8977,14 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8276,30 +8992,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:M150"/>
+  <dimension ref="A1:M166"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.41796875" style="1"/>
-    <col min="2" max="2" width="11.41796875" style="2"/>
-    <col min="3" max="3" width="12.26171875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.83984375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.68359375" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.41796875" style="1"/>
-    <col min="9" max="9" width="14.68359375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.41796875" style="1"/>
-    <col min="11" max="11" width="26.41796875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.42578125" style="1"/>
+    <col min="2" max="2" width="11.42578125" style="2"/>
+    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" style="1"/>
+    <col min="9" max="9" width="14.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" style="1"/>
+    <col min="11" max="11" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.41796875" style="1"/>
+    <col min="13" max="16384" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
@@ -8322,10 +9038,10 @@
         <v>15</v>
       </c>
       <c r="M1" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
@@ -8339,7 +9055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -8359,7 +9075,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43150</v>
       </c>
@@ -8383,8 +9099,8 @@
         <v>12</v>
       </c>
       <c r="I4" s="2">
-        <f>SUM(G4+G10+G17+G29+G44+G54+G65+G73+G82+G96+G105+G114+G121+G131+G138)</f>
-        <v>309.25</v>
+        <f>SUM(G4+G10+G17+G29+G44+G54+G65+G73+G82+G96+G105+G114+G121+G131+G138,G149,G158)</f>
+        <v>389.25</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>12</v>
@@ -8396,7 +9112,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="4">
         <v>43152</v>
       </c>
@@ -8425,7 +9141,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="4">
         <v>43153</v>
       </c>
@@ -8457,7 +9173,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4">
         <v>43154</v>
       </c>
@@ -8477,11 +9193,11 @@
         <v>27</v>
       </c>
       <c r="I7" s="1">
-        <f>I4/14</f>
-        <v>22.089285714285715</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+        <f>I4/16</f>
+        <v>24.328125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4">
         <v>43154</v>
       </c>
@@ -8501,7 +9217,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="19" t="s">
         <v>47</v>
       </c>
@@ -8509,7 +9225,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="18">
         <v>43158</v>
       </c>
@@ -8533,7 +9249,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="4">
         <v>43159</v>
       </c>
@@ -8554,7 +9270,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="4">
         <v>43159</v>
       </c>
@@ -8573,12 +9289,8 @@
       <c r="F12" s="17">
         <v>27</v>
       </c>
-      <c r="I12" s="2">
-        <f>SUM(B4:B8,B10:B15,B17:B27,B29:B42,B44:B52,B54:B63)</f>
-        <v>118.25</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="4">
         <v>43160</v>
       </c>
@@ -8598,7 +9310,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="4">
         <v>43161</v>
       </c>
@@ -8618,7 +9330,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="4">
         <v>43161</v>
       </c>
@@ -8638,7 +9350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>100</v>
       </c>
@@ -8649,7 +9361,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="4">
         <v>43162</v>
       </c>
@@ -8673,7 +9385,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="4">
         <v>43162</v>
       </c>
@@ -8693,7 +9405,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="4">
         <v>43163</v>
       </c>
@@ -8713,7 +9425,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="4">
         <v>43164</v>
       </c>
@@ -8733,7 +9445,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="4">
         <v>43165</v>
       </c>
@@ -8753,7 +9465,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="4">
         <v>43166</v>
       </c>
@@ -8773,7 +9485,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="18">
         <v>43167</v>
       </c>
@@ -8793,7 +9505,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="4">
         <v>43167</v>
       </c>
@@ -8813,7 +9525,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="4">
         <v>43168</v>
       </c>
@@ -8833,7 +9545,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="18">
         <v>43168</v>
       </c>
@@ -8854,7 +9566,7 @@
       </c>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="4">
         <v>43168</v>
       </c>
@@ -8875,7 +9587,7 @@
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="19" t="s">
         <v>114</v>
       </c>
@@ -8886,7 +9598,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="4">
         <v>43169</v>
       </c>
@@ -8910,7 +9622,7 @@
         <v>21.25</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="4">
         <v>43170</v>
       </c>
@@ -8930,7 +9642,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="33">
         <v>43171</v>
       </c>
@@ -8950,7 +9662,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="4">
         <v>43171</v>
       </c>
@@ -8970,7 +9682,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="4">
         <v>43171</v>
       </c>
@@ -8990,7 +9702,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="4">
         <v>43172</v>
       </c>
@@ -9010,7 +9722,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="4">
         <v>43173</v>
       </c>
@@ -9030,7 +9742,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="4">
         <v>43174</v>
       </c>
@@ -9050,7 +9762,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="4">
         <v>43174</v>
       </c>
@@ -9070,7 +9782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="18">
         <v>43174</v>
       </c>
@@ -9091,7 +9803,7 @@
       </c>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="4">
         <v>43175</v>
       </c>
@@ -9112,7 +9824,7 @@
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="4">
         <v>43175</v>
       </c>
@@ -9132,7 +9844,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="18">
         <v>43175</v>
       </c>
@@ -9152,7 +9864,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="4">
         <v>43175</v>
       </c>
@@ -9172,7 +9884,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="19" t="s">
         <v>132</v>
       </c>
@@ -9180,7 +9892,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="4">
         <v>43179</v>
       </c>
@@ -9204,7 +9916,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="4">
         <v>43179</v>
       </c>
@@ -9224,7 +9936,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="4">
         <v>43180</v>
       </c>
@@ -9244,7 +9956,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="4">
         <v>43180</v>
       </c>
@@ -9264,7 +9976,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="4">
         <v>43181</v>
       </c>
@@ -9284,7 +9996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49" s="4">
         <v>43181</v>
       </c>
@@ -9304,7 +10016,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50" s="4">
         <v>43181</v>
       </c>
@@ -9324,7 +10036,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="4">
         <v>43182</v>
       </c>
@@ -9344,7 +10056,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A52" s="18">
         <v>43154</v>
       </c>
@@ -9364,7 +10076,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="19" t="s">
         <v>142</v>
       </c>
@@ -9373,7 +10085,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="18">
         <v>43183</v>
       </c>
@@ -9397,7 +10109,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="4">
         <v>43185</v>
       </c>
@@ -9418,7 +10130,7 @@
       </c>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A56" s="4">
         <v>43185</v>
       </c>
@@ -9438,7 +10150,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A57" s="4">
         <v>43185</v>
       </c>
@@ -9458,7 +10170,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A58" s="4">
         <v>43186</v>
       </c>
@@ -9478,7 +10190,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="4">
         <v>43187</v>
       </c>
@@ -9498,7 +10210,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A60" s="4">
         <v>43187</v>
       </c>
@@ -9518,7 +10230,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="4">
         <v>43188</v>
       </c>
@@ -9538,7 +10250,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="4">
         <v>43189</v>
       </c>
@@ -9558,7 +10270,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="4">
         <v>43189</v>
       </c>
@@ -9578,7 +10290,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A64" s="19" t="s">
         <v>164</v>
       </c>
@@ -9587,7 +10299,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="18">
         <v>43192</v>
       </c>
@@ -9611,7 +10323,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="4">
         <v>43193</v>
       </c>
@@ -9632,7 +10344,7 @@
       </c>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="4">
         <v>43194</v>
       </c>
@@ -9652,7 +10364,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="4">
         <v>43195</v>
       </c>
@@ -9672,7 +10384,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="4">
         <v>43195</v>
       </c>
@@ -9689,10 +10401,10 @@
         <v>20</v>
       </c>
       <c r="F69" s="23" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="4">
         <v>43195</v>
       </c>
@@ -9712,7 +10424,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="4">
         <v>43196</v>
       </c>
@@ -9732,7 +10444,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="19" t="s">
         <v>177</v>
       </c>
@@ -9743,7 +10455,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="4">
         <v>43197</v>
       </c>
@@ -9767,7 +10479,7 @@
         <v>25.25</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="4">
         <v>43198</v>
       </c>
@@ -9787,7 +10499,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="4">
         <v>43199</v>
       </c>
@@ -9807,7 +10519,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="4">
         <v>43199</v>
       </c>
@@ -9831,11 +10543,11 @@
         <v>1</v>
       </c>
       <c r="K76" s="3">
-        <f>SUMIF($F$4:$F$157, J76, $B$4:$B$157)</f>
+        <f t="shared" ref="K76:K114" si="0">SUMIF($F$4:$F$157, J76, $B$4:$B$157)</f>
         <v>9.5</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="4">
         <v>43199</v>
       </c>
@@ -9859,11 +10571,11 @@
         <v>2</v>
       </c>
       <c r="K77" s="3">
-        <f t="shared" ref="K77:K114" si="0">SUMIF($F$4:$F$157, J77, $B$4:$B$157)</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="4">
         <v>43202</v>
       </c>
@@ -9890,7 +10602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="4">
         <v>43203</v>
       </c>
@@ -9907,7 +10619,7 @@
         <v>20</v>
       </c>
       <c r="F79" s="23" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="J79" s="1">
         <v>4</v>
@@ -9917,7 +10629,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="4">
         <v>43203</v>
       </c>
@@ -9944,7 +10656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="19" t="s">
         <v>193</v>
       </c>
@@ -9964,7 +10676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="4">
         <v>43205</v>
       </c>
@@ -9995,7 +10707,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="4">
         <v>43206</v>
       </c>
@@ -10022,7 +10734,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="4">
         <v>43206</v>
       </c>
@@ -10049,7 +10761,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="4">
         <v>43206</v>
       </c>
@@ -10077,7 +10789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="4">
         <v>43207</v>
       </c>
@@ -10105,7 +10817,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="4">
         <v>43207</v>
       </c>
@@ -10132,7 +10844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="4">
         <v>43208</v>
       </c>
@@ -10159,7 +10871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="4">
         <v>43208</v>
       </c>
@@ -10186,7 +10898,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="4">
         <v>43209</v>
       </c>
@@ -10213,7 +10925,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="4">
         <v>43209</v>
       </c>
@@ -10240,7 +10952,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="4">
         <v>43209</v>
       </c>
@@ -10267,7 +10979,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="18">
         <v>43210</v>
       </c>
@@ -10284,7 +10996,7 @@
         <v>20</v>
       </c>
       <c r="F93" s="23" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="J93" s="1">
         <v>18</v>
@@ -10294,7 +11006,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="4">
         <v>43210</v>
       </c>
@@ -10321,7 +11033,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="19" t="s">
         <v>200</v>
       </c>
@@ -10339,7 +11051,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="18">
         <v>43214</v>
       </c>
@@ -10370,7 +11082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="18">
         <v>43214</v>
       </c>
@@ -10398,7 +11110,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="4">
         <v>43215</v>
       </c>
@@ -10425,7 +11137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="4">
         <v>43216</v>
       </c>
@@ -10452,7 +11164,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="4">
         <v>43216</v>
       </c>
@@ -10479,7 +11191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="4">
         <v>43217</v>
       </c>
@@ -10496,7 +11208,7 @@
         <v>20</v>
       </c>
       <c r="F101" s="23" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="J101" s="1">
         <v>26</v>
@@ -10506,7 +11218,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="4">
         <v>43217</v>
       </c>
@@ -10533,7 +11245,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="4">
         <v>43217</v>
       </c>
@@ -10560,7 +11272,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="19" t="s">
         <v>230</v>
       </c>
@@ -10578,7 +11290,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="18">
         <v>43218</v>
       </c>
@@ -10609,7 +11321,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="18">
         <v>43220</v>
       </c>
@@ -10637,7 +11349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="10">
         <v>43250</v>
       </c>
@@ -10665,7 +11377,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="4">
         <v>43221</v>
       </c>
@@ -10692,7 +11404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="4">
         <v>43222</v>
       </c>
@@ -10719,7 +11431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="4">
         <v>43223</v>
       </c>
@@ -10746,7 +11458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="4">
         <v>43224</v>
       </c>
@@ -10773,7 +11485,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="4">
         <v>43224</v>
       </c>
@@ -10790,7 +11502,7 @@
         <v>20</v>
       </c>
       <c r="F112" s="23" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="J112" s="1">
         <v>37</v>
@@ -10800,7 +11512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="19" t="s">
         <v>251</v>
       </c>
@@ -10815,7 +11527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="4">
         <v>43227</v>
       </c>
@@ -10846,7 +11558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="4">
         <v>43227</v>
       </c>
@@ -10866,7 +11578,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="4">
         <v>43229</v>
       </c>
@@ -10886,7 +11598,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="18">
         <v>43230</v>
       </c>
@@ -10906,7 +11618,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="4">
         <v>43231</v>
       </c>
@@ -10923,7 +11635,7 @@
         <v>20</v>
       </c>
       <c r="F118" s="23" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="J118" s="2">
         <f>SUM(G77,G86,G97,G106,G114,G125,G131)</f>
@@ -10934,7 +11646,7 @@
         <v>118.25</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="4">
         <v>43231</v>
       </c>
@@ -10951,10 +11663,10 @@
         <v>20</v>
       </c>
       <c r="F119" s="23" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="19" t="s">
         <v>265</v>
       </c>
@@ -10968,7 +11680,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="4">
         <v>43233</v>
       </c>
@@ -10996,7 +11708,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="4">
         <v>43234</v>
       </c>
@@ -11016,7 +11728,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="18">
         <v>43234</v>
       </c>
@@ -11036,7 +11748,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="18">
         <v>43235</v>
       </c>
@@ -11057,7 +11769,7 @@
       </c>
       <c r="G124" s="11"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="4">
         <v>43236</v>
       </c>
@@ -11078,7 +11790,7 @@
       </c>
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="4">
         <v>43237</v>
       </c>
@@ -11098,7 +11810,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="4">
         <v>43237</v>
       </c>
@@ -11118,7 +11830,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="18">
         <v>43238</v>
       </c>
@@ -11138,7 +11850,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="4">
         <v>43238</v>
       </c>
@@ -11155,10 +11867,10 @@
         <v>20</v>
       </c>
       <c r="F129" s="23" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="19" t="s">
         <v>282</v>
       </c>
@@ -11166,7 +11878,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="4">
         <v>43241</v>
       </c>
@@ -11190,7 +11902,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A132" s="4">
         <v>43242</v>
       </c>
@@ -11210,7 +11922,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="4">
         <v>43243</v>
       </c>
@@ -11230,7 +11942,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A134" s="4">
         <v>43245</v>
       </c>
@@ -11250,7 +11962,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="4">
         <v>43246</v>
       </c>
@@ -11270,7 +11982,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="4">
         <v>43246</v>
       </c>
@@ -11287,10 +11999,10 @@
         <v>20</v>
       </c>
       <c r="F136" s="23" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="19" t="s">
         <v>303</v>
       </c>
@@ -11301,7 +12013,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="4">
         <v>43246</v>
       </c>
@@ -11321,11 +12033,11 @@
         <v>308</v>
       </c>
       <c r="G138" s="2">
-        <f>SUM(B138:B143)</f>
-        <v>14.25</v>
-      </c>
-    </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <f>SUM(B138:B147)</f>
+        <v>21.25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="4">
         <v>43247</v>
       </c>
@@ -11345,7 +12057,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="4">
         <v>43248</v>
       </c>
@@ -11365,7 +12077,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="4">
         <v>43249</v>
       </c>
@@ -11376,16 +12088,16 @@
         <v>8</v>
       </c>
       <c r="D141" s="11" t="s">
-        <v>326</v>
+        <v>318</v>
       </c>
       <c r="E141" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F141" s="23" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="18">
         <v>43250</v>
       </c>
@@ -11396,60 +12108,486 @@
         <v>8</v>
       </c>
       <c r="D142" s="11" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="E142" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F142" s="23" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="G142" s="21"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A143" s="4"/>
-      <c r="B143" s="21"/>
-      <c r="C143" s="11"/>
-      <c r="D143" s="11"/>
-      <c r="E143" s="11"/>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
+        <v>43251</v>
+      </c>
+      <c r="B143" s="2">
+        <v>4</v>
+      </c>
+      <c r="C143" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D143" s="11" t="s">
+        <v>325</v>
+      </c>
+      <c r="E143" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F143" s="23" t="s">
+        <v>326</v>
+      </c>
       <c r="G143" s="2"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="A144" s="4"/>
-      <c r="C144" s="11"/>
-      <c r="D144" s="11"/>
-      <c r="E144" s="11"/>
-    </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="A145" s="18"/>
-      <c r="C145" s="11"/>
-      <c r="D145" s="11"/>
-      <c r="E145" s="11"/>
-    </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C146" s="11"/>
-      <c r="D146" s="11"/>
-      <c r="E146" s="11"/>
-    </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C147" s="11"/>
-      <c r="D147" s="11"/>
-      <c r="E147" s="11"/>
-    </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
+        <v>43252</v>
+      </c>
+      <c r="B144" s="2">
+        <v>1</v>
+      </c>
+      <c r="C144" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D144" s="11" t="s">
+        <v>237</v>
+      </c>
+      <c r="E144" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F144" s="23" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="18">
+        <v>43252</v>
+      </c>
+      <c r="B145" s="2">
+        <v>1</v>
+      </c>
+      <c r="C145" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D145" s="11" t="s">
+        <v>352</v>
+      </c>
+      <c r="E145" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F145" s="23" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
+        <v>43252</v>
+      </c>
+      <c r="B146" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C146" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D146" s="11" t="s">
+        <v>350</v>
+      </c>
+      <c r="E146" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F146" s="23" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="18">
+        <v>43252</v>
+      </c>
+      <c r="B147" s="2">
+        <v>0.5</v>
+      </c>
+      <c r="C147" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="E147" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F147" s="23" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="3" t="s">
+        <v>354</v>
+      </c>
       <c r="C148" s="11"/>
       <c r="D148" s="11"/>
       <c r="E148" s="11"/>
-    </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C149" s="11"/>
-      <c r="D149" s="11"/>
-      <c r="E149" s="11"/>
-    </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="C150" s="11"/>
-      <c r="D150" s="11"/>
-      <c r="E150" s="11"/>
+      <c r="G148" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
+        <v>43255</v>
+      </c>
+      <c r="B149" s="2">
+        <v>6.75</v>
+      </c>
+      <c r="C149" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D149" s="11" t="s">
+        <v>359</v>
+      </c>
+      <c r="E149" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="F149" s="23" t="s">
+        <v>288</v>
+      </c>
+      <c r="G149" s="2">
+        <f>SUM(B149:B156)</f>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
+        <v>43256</v>
+      </c>
+      <c r="B150" s="2">
+        <v>4</v>
+      </c>
+      <c r="C150" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D150" s="11" t="s">
+        <v>360</v>
+      </c>
+      <c r="E150" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F150" s="23" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="18">
+        <v>43256</v>
+      </c>
+      <c r="B151" s="2">
+        <v>2.75</v>
+      </c>
+      <c r="C151" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D151" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E151" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F151" s="23" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
+        <v>43257</v>
+      </c>
+      <c r="B152" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="C152" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D152" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E152" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F152" s="23" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="4">
+        <v>43258</v>
+      </c>
+      <c r="B153" s="2">
+        <v>2.5</v>
+      </c>
+      <c r="C153" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="E153" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F153" s="23" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
+        <v>43258</v>
+      </c>
+      <c r="B154" s="21">
+        <v>1</v>
+      </c>
+      <c r="C154" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D154" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="E154" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F154" s="23" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155" s="4">
+        <v>43258</v>
+      </c>
+      <c r="B155" s="2">
+        <v>3</v>
+      </c>
+      <c r="C155" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D155" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="E155" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F155" s="23" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" s="4">
+        <v>43259</v>
+      </c>
+      <c r="B156" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="C156" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="E156" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F156" s="23" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="C157" s="11"/>
+      <c r="D157" s="11"/>
+      <c r="E157" s="11"/>
+      <c r="G157" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" s="4">
+        <v>43260</v>
+      </c>
+      <c r="B158" s="2">
+        <v>3</v>
+      </c>
+      <c r="C158" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="E158" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F158" s="23" t="s">
+        <v>370</v>
+      </c>
+      <c r="G158" s="2">
+        <f>SUM(B158:B166)</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" s="4">
+        <v>43261</v>
+      </c>
+      <c r="B159" s="2">
+        <v>3</v>
+      </c>
+      <c r="C159" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D159" s="11" t="s">
+        <v>375</v>
+      </c>
+      <c r="E159" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F159" s="23" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
+        <v>43262</v>
+      </c>
+      <c r="B160" s="2">
+        <v>2</v>
+      </c>
+      <c r="C160" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="E160" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F160" s="23" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="4">
+        <v>43262</v>
+      </c>
+      <c r="B161" s="2">
+        <v>5</v>
+      </c>
+      <c r="C161" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D161" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="E161" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F161" s="23" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="10">
+        <v>43263</v>
+      </c>
+      <c r="B162" s="8">
+        <v>8</v>
+      </c>
+      <c r="C162" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D162" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="E162" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F162" s="23" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="10">
+        <v>43264</v>
+      </c>
+      <c r="B163" s="8">
+        <v>8</v>
+      </c>
+      <c r="C163" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D163" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="E163" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F163" s="23" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="10">
+        <v>43265</v>
+      </c>
+      <c r="B164" s="8">
+        <v>4</v>
+      </c>
+      <c r="C164" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D164" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="E164" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F164" s="23" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="10">
+        <v>43266</v>
+      </c>
+      <c r="B165" s="8">
+        <v>2</v>
+      </c>
+      <c r="C165" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D165" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="E165" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F165" s="23" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="10">
+        <v>43266</v>
+      </c>
+      <c r="B166" s="8">
+        <v>5</v>
+      </c>
+      <c r="C166" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="D166" s="11" t="s">
+        <v>383</v>
+      </c>
+      <c r="E166" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F166" s="23" t="s">
+        <v>369</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -11461,23 +12599,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I34"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="90.26171875" customWidth="1"/>
-    <col min="5" max="5" width="7.26171875" customWidth="1"/>
-    <col min="6" max="6" width="6.15625" customWidth="1"/>
-    <col min="8" max="8" width="22.41796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>29</v>
       </c>
@@ -11503,7 +12641,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
         <v>1</v>
       </c>
@@ -11523,7 +12661,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31">
         <v>2</v>
       </c>
@@ -11541,7 +12679,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>3</v>
       </c>
@@ -11559,7 +12697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>4</v>
       </c>
@@ -11579,7 +12717,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>5</v>
       </c>
@@ -11597,7 +12735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>6</v>
       </c>
@@ -11615,7 +12753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>7</v>
       </c>
@@ -11633,7 +12771,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>8</v>
       </c>
@@ -11653,7 +12791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>9</v>
       </c>
@@ -11671,7 +12809,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>10</v>
       </c>
@@ -11689,7 +12827,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="29">
         <v>11</v>
       </c>
@@ -11709,7 +12847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="31">
         <v>12</v>
       </c>
@@ -11727,7 +12865,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="29">
         <v>13</v>
       </c>
@@ -11745,7 +12883,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="31">
         <v>14</v>
       </c>
@@ -11765,7 +12903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="29">
         <v>15</v>
       </c>
@@ -11783,7 +12921,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="31">
         <v>16</v>
       </c>
@@ -11803,7 +12941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="29">
         <v>17</v>
       </c>
@@ -11821,7 +12959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="31">
         <v>18</v>
       </c>
@@ -11841,7 +12979,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="29">
         <v>19</v>
       </c>
@@ -11861,7 +12999,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="31">
         <v>20</v>
       </c>
@@ -11879,7 +13017,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="29">
         <v>21</v>
       </c>
@@ -11897,7 +13035,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="31">
         <v>22</v>
       </c>
@@ -11917,7 +13055,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="29">
         <v>23</v>
       </c>
@@ -11935,7 +13073,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="31">
         <v>24</v>
       </c>
@@ -11955,7 +13093,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="29">
         <v>25</v>
       </c>
@@ -11975,7 +13113,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="31">
         <v>26</v>
       </c>
@@ -11987,7 +13125,7 @@
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="29">
         <v>27</v>
       </c>
@@ -11999,7 +13137,7 @@
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="31">
         <v>28</v>
       </c>
@@ -12013,7 +13151,7 @@
       </c>
       <c r="F29" s="31"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="29">
         <v>29</v>
       </c>
@@ -12025,7 +13163,7 @@
       <c r="E30" s="29"/>
       <c r="F30" s="29"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="31">
         <v>30</v>
       </c>
@@ -12035,7 +13173,7 @@
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="29">
         <v>31</v>
       </c>
@@ -12045,7 +13183,7 @@
       <c r="E32" s="29"/>
       <c r="F32" s="29"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="31">
         <v>32</v>
       </c>
@@ -12055,7 +13193,7 @@
       <c r="E33" s="31"/>
       <c r="F33" s="31"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="29">
         <v>33</v>
       </c>
@@ -12072,26 +13210,26 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8D3616A-6673-4D07-80D3-98A3C4D36418}">
-  <dimension ref="A1:I33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="90.26171875" customWidth="1"/>
-    <col min="5" max="5" width="7.26171875" customWidth="1"/>
-    <col min="6" max="6" width="6.15625" customWidth="1"/>
-    <col min="8" max="8" width="22.41796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>29</v>
       </c>
@@ -12117,12 +13255,394 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
         <v>1</v>
       </c>
       <c r="B2" s="28" t="s">
         <v>311</v>
+      </c>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="E2" s="28"/>
+      <c r="F2" s="27"/>
+      <c r="H2">
+        <f>Nico!K76</f>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="31">
+        <v>2</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="H3">
+        <f>Nico!K77</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="29">
+        <v>3</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="H4">
+        <f>Nico!K78</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="29">
+        <v>4</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>314</v>
+      </c>
+      <c r="C5" s="29"/>
+      <c r="D5" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="H5">
+        <f>Nico!K80</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="31">
+        <v>5</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>315</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="32" t="s">
+        <v>275</v>
+      </c>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="H6">
+        <f>Nico!K81</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="29">
+        <v>6</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>360</v>
+      </c>
+      <c r="C7" s="29"/>
+      <c r="D7" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="H7">
+        <f>Nico!K82</f>
+        <v>12.75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="27">
+        <v>7</v>
+      </c>
+      <c r="B8" s="30" t="s">
+        <v>316</v>
+      </c>
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="29"/>
+      <c r="F8" s="29"/>
+      <c r="H8">
+        <f>Nico!K88</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="31">
+        <v>8</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="31"/>
+      <c r="D9" s="32" t="s">
+        <v>317</v>
+      </c>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="H9">
+        <f>Nico!K89</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="29">
+        <v>9</v>
+      </c>
+      <c r="B10" s="30" t="s">
+        <v>332</v>
+      </c>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="29">
+        <v>2</v>
+      </c>
+      <c r="F10" s="29"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="29">
+        <v>10</v>
+      </c>
+      <c r="B11" s="30" t="s">
+        <v>350</v>
+      </c>
+      <c r="C11" s="29"/>
+      <c r="D11" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="H11">
+        <f>Nico!K94</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
+        <v>11</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>365</v>
+      </c>
+      <c r="C12" s="31"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="H12">
+        <f>Nico!K95</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="29">
+        <v>12</v>
+      </c>
+      <c r="B13" s="30" t="s">
+        <v>368</v>
+      </c>
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="H13">
+        <f>Nico!K96</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14" s="27">
+        <v>13</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>373</v>
+      </c>
+      <c r="C14" s="31"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="31"/>
+      <c r="F14" s="31"/>
+      <c r="H14">
+        <f>Nico!K97</f>
+        <v>6.75</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="29">
+        <v>14</v>
+      </c>
+      <c r="B15" s="30" t="s">
+        <v>381</v>
+      </c>
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="29"/>
+      <c r="F15" s="29"/>
+      <c r="H15">
+        <f>Nico!K98</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="31">
+        <v>15</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>384</v>
+      </c>
+      <c r="C16" s="31"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="31"/>
+      <c r="F16" s="31"/>
+      <c r="H16">
+        <f>Nico!K99</f>
+        <v>7.25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="30"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="H17">
+        <f>Nico!K100</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="31"/>
+      <c r="B18" s="32"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="31"/>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="29"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="31"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="31"/>
+      <c r="F20" s="31"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="29"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="31"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="31"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="31"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="31"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="31"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="29"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="29"/>
+      <c r="F25" s="29"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <dimension ref="A1:I34"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="90.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="E1" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="F1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="27">
+        <v>1</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>273</v>
       </c>
       <c r="C2" s="27"/>
       <c r="D2" s="28"/>
@@ -12133,12 +13653,12 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31">
         <v>2</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>312</v>
+        <v>297</v>
       </c>
       <c r="C3" s="31"/>
       <c r="D3" s="32"/>
@@ -12149,12 +13669,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>3</v>
       </c>
       <c r="B4" s="30" t="s">
-        <v>313</v>
+        <v>242</v>
       </c>
       <c r="C4" s="29"/>
       <c r="D4" s="30"/>
@@ -12165,479 +13685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" s="29">
-        <v>4</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>314</v>
-      </c>
-      <c r="C5" s="29"/>
-      <c r="D5" s="30"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="H5">
-        <f>Nico!K80</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" s="31">
-        <v>5</v>
-      </c>
-      <c r="B6" s="32" t="s">
-        <v>315</v>
-      </c>
-      <c r="C6" s="31"/>
-      <c r="D6" s="32"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="H6">
-        <f>Nico!K81</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" s="29">
-        <v>6</v>
-      </c>
-      <c r="B7" s="30" t="s">
-        <v>316</v>
-      </c>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="H7">
-        <f>Nico!K82</f>
-        <v>12.75</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" s="31">
-        <v>7</v>
-      </c>
-      <c r="B8" s="32" t="s">
-        <v>317</v>
-      </c>
-      <c r="C8" s="31"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="31"/>
-      <c r="F8" s="31"/>
-      <c r="H8">
-        <f>Nico!K83</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" s="29">
-        <v>8</v>
-      </c>
-      <c r="B9" s="30" t="s">
-        <v>318</v>
-      </c>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="H9">
-        <f>Nico!K84</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" s="31">
-        <v>9</v>
-      </c>
-      <c r="B10" s="32" t="s">
-        <v>319</v>
-      </c>
-      <c r="C10" s="31"/>
-      <c r="D10" s="34"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="H10">
-        <f>Nico!K85</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" s="29">
-        <v>10</v>
-      </c>
-      <c r="B11" s="30" t="s">
-        <v>163</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="H11">
-        <f>Nico!K86</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" s="31">
-        <v>11</v>
-      </c>
-      <c r="B12" s="32" t="s">
-        <v>320</v>
-      </c>
-      <c r="C12" s="31"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="H12">
-        <f>Nico!K87</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" s="29">
-        <v>12</v>
-      </c>
-      <c r="B13" s="30" t="s">
-        <v>321</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="H13">
-        <f>Nico!K88</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="31">
-        <v>13</v>
-      </c>
-      <c r="B14" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="31"/>
-      <c r="D14" s="32" t="s">
-        <v>325</v>
-      </c>
-      <c r="E14" s="31"/>
-      <c r="F14" s="31"/>
-      <c r="H14">
-        <f>Nico!K89</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" s="29">
-        <v>14</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>322</v>
-      </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="H15">
-        <f>Nico!K90</f>
-        <v>3.5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="31">
-        <v>15</v>
-      </c>
-      <c r="B16" s="32" t="s">
-        <v>323</v>
-      </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="H16">
-        <f>Nico!K91</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="29">
-        <v>16</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>324</v>
-      </c>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="H17">
-        <f>Nico!K92</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="29">
-        <v>17</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>340</v>
-      </c>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="29">
-        <v>2</v>
-      </c>
-      <c r="F18" s="29"/>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="H19">
-        <f>Nico!K94</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" s="31"/>
-      <c r="B20" s="32"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="H20">
-        <f>Nico!K95</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" s="29"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="H21">
-        <f>Nico!K96</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A22" s="31"/>
-      <c r="B22" s="32"/>
-      <c r="C22" s="31"/>
-      <c r="D22" s="32"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="H22">
-        <f>Nico!K97</f>
-        <v>6.75</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A23" s="29"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="H23">
-        <f>Nico!K98</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A24" s="31"/>
-      <c r="B24" s="32"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="H24">
-        <f>Nico!K99</f>
-        <v>7.25</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A25" s="29"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="29"/>
-      <c r="F25" s="29"/>
-      <c r="H25">
-        <f>Nico!K100</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A26" s="31"/>
-      <c r="B26" s="32"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A27" s="29"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="30"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A28" s="31"/>
-      <c r="B28" s="32"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A29" s="29"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="30"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A30" s="31"/>
-      <c r="B30" s="32"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="32"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A31" s="29"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="30"/>
-      <c r="E31" s="29"/>
-      <c r="F31" s="29"/>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
-      <c r="A32" s="31"/>
-      <c r="B32" s="32"/>
-      <c r="C32" s="31"/>
-      <c r="D32" s="32"/>
-      <c r="E32" s="31"/>
-      <c r="F32" s="31"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
-      <c r="A33" s="29"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="30"/>
-      <c r="E33" s="29"/>
-      <c r="F33" s="29"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EF662DB-B78E-4D10-B89B-6250E14F6286}">
-  <dimension ref="A1:I34"/>
-  <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="3.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="90.26171875" customWidth="1"/>
-    <col min="5" max="5" width="7.26171875" customWidth="1"/>
-    <col min="6" max="6" width="6.15625" customWidth="1"/>
-    <col min="8" max="8" width="22.41796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.68359375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C1" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="E1" s="15" t="s">
-        <v>33</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" t="s">
-        <v>35</v>
-      </c>
-      <c r="I1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" s="27">
-        <v>1</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>273</v>
-      </c>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="27"/>
-      <c r="H2">
-        <f>Nico!K76</f>
-        <v>9.5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" s="31">
-        <v>2</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>297</v>
-      </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="H3">
-        <f>Nico!K77</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="29">
-        <v>3</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>242</v>
-      </c>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
-      <c r="E4" s="29"/>
-      <c r="F4" s="29"/>
-      <c r="H4">
-        <f>Nico!K78</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>4</v>
       </c>
@@ -12653,7 +13701,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>5</v>
       </c>
@@ -12669,7 +13717,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>6</v>
       </c>
@@ -12685,7 +13733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>7</v>
       </c>
@@ -12703,7 +13751,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>8</v>
       </c>
@@ -12721,12 +13769,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>9</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="30"/>
@@ -12735,7 +13783,7 @@
       </c>
       <c r="F10" s="29"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="31"/>
       <c r="B11" s="32"/>
       <c r="C11" s="31"/>
@@ -12747,7 +13795,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="30"/>
       <c r="C12" s="29"/>
@@ -12759,7 +13807,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
       <c r="B13" s="32"/>
       <c r="C13" s="31"/>
@@ -12771,7 +13819,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
       <c r="B14" s="30"/>
       <c r="C14" s="29"/>
@@ -12783,7 +13831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="31"/>
       <c r="B15" s="32"/>
       <c r="C15" s="31"/>
@@ -12795,7 +13843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
       <c r="B16" s="30"/>
       <c r="C16" s="29"/>
@@ -12807,7 +13855,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="31"/>
@@ -12819,7 +13867,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
       <c r="B18" s="30"/>
       <c r="C18" s="29"/>
@@ -12831,7 +13879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="31"/>
       <c r="B19" s="32"/>
       <c r="C19" s="31"/>
@@ -12843,7 +13891,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
       <c r="B20" s="30"/>
       <c r="C20" s="29"/>
@@ -12855,7 +13903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="31"/>
       <c r="B21" s="32"/>
       <c r="C21" s="31"/>
@@ -12867,7 +13915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
       <c r="B22" s="30"/>
       <c r="C22" s="29"/>
@@ -12879,7 +13927,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
       <c r="B23" s="32"/>
       <c r="C23" s="31"/>
@@ -12891,7 +13939,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
       <c r="B24" s="30"/>
       <c r="C24" s="29"/>
@@ -12903,7 +13951,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="31"/>
       <c r="B25" s="32"/>
       <c r="C25" s="31"/>
@@ -12915,7 +13963,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
       <c r="B26" s="30"/>
       <c r="C26" s="29"/>
@@ -12927,7 +13975,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
       <c r="B27" s="32"/>
       <c r="C27" s="31"/>
@@ -12935,7 +13983,7 @@
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
       <c r="B28" s="30"/>
       <c r="C28" s="29"/>
@@ -12943,7 +13991,7 @@
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="31"/>
@@ -12951,7 +13999,7 @@
       <c r="E29" s="31"/>
       <c r="F29" s="31"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="29"/>
       <c r="B30" s="30"/>
       <c r="C30" s="29"/>
@@ -12959,7 +14007,7 @@
       <c r="E30" s="29"/>
       <c r="F30" s="29"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="31"/>
@@ -12967,7 +14015,7 @@
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="29"/>
       <c r="B32" s="30"/>
       <c r="C32" s="29"/>
@@ -12975,7 +14023,7 @@
       <c r="E32" s="29"/>
       <c r="F32" s="29"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="31"/>
       <c r="B33" s="32"/>
       <c r="C33" s="31"/>
@@ -12983,7 +14031,7 @@
       <c r="E33" s="31"/>
       <c r="F33" s="31"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="29"/>
       <c r="B34" s="30"/>
       <c r="C34" s="29"/>
@@ -12998,26 +14046,26 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDDA8C9E-E8C2-4DAE-A213-7FA1BC7F9D14}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="90.26171875" customWidth="1"/>
-    <col min="5" max="5" width="7.26171875" customWidth="1"/>
-    <col min="6" max="6" width="6.15625" customWidth="1"/>
-    <col min="8" max="8" width="22.41796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>29</v>
       </c>
@@ -13043,7 +14091,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
         <v>1</v>
       </c>
@@ -13063,7 +14111,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31">
         <v>2</v>
       </c>
@@ -13083,7 +14131,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>3</v>
       </c>
@@ -13103,7 +14151,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>4</v>
       </c>
@@ -13121,7 +14169,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>5</v>
       </c>
@@ -13139,7 +14187,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>6</v>
       </c>
@@ -13157,7 +14205,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>7</v>
       </c>
@@ -13177,7 +14225,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>8</v>
       </c>
@@ -13197,7 +14245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>9</v>
       </c>
@@ -13213,12 +14261,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="30"/>
@@ -13227,7 +14275,7 @@
       </c>
       <c r="F11" s="29"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="30"/>
       <c r="C12" s="29"/>
@@ -13239,7 +14287,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
       <c r="B13" s="32"/>
       <c r="C13" s="31"/>
@@ -13251,7 +14299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
       <c r="B14" s="30"/>
       <c r="C14" s="29"/>
@@ -13263,7 +14311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="31"/>
       <c r="B15" s="32"/>
       <c r="C15" s="31"/>
@@ -13275,7 +14323,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
       <c r="B16" s="30"/>
       <c r="C16" s="29"/>
@@ -13287,7 +14335,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="31"/>
@@ -13299,7 +14347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
       <c r="B18" s="30"/>
       <c r="C18" s="29"/>
@@ -13311,7 +14359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="31"/>
       <c r="B19" s="32"/>
       <c r="C19" s="31"/>
@@ -13323,7 +14371,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
       <c r="B20" s="30"/>
       <c r="C20" s="29"/>
@@ -13335,7 +14383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="31"/>
       <c r="B21" s="32"/>
       <c r="C21" s="31"/>
@@ -13347,7 +14395,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
       <c r="B22" s="30"/>
       <c r="C22" s="29"/>
@@ -13359,7 +14407,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
       <c r="B23" s="32"/>
       <c r="C23" s="31"/>
@@ -13371,7 +14419,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
       <c r="B24" s="30"/>
       <c r="C24" s="29"/>
@@ -13383,7 +14431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="31"/>
       <c r="B25" s="32"/>
       <c r="C25" s="31"/>
@@ -13395,7 +14443,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
       <c r="B26" s="30"/>
       <c r="C26" s="29"/>
@@ -13407,7 +14455,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
       <c r="B27" s="32"/>
       <c r="C27" s="31"/>
@@ -13415,7 +14463,7 @@
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
       <c r="B28" s="30"/>
       <c r="C28" s="29"/>
@@ -13423,7 +14471,7 @@
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="31"/>
@@ -13431,7 +14479,7 @@
       <c r="E29" s="31"/>
       <c r="F29" s="31"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="29"/>
       <c r="B30" s="30"/>
       <c r="C30" s="29"/>
@@ -13439,7 +14487,7 @@
       <c r="E30" s="29"/>
       <c r="F30" s="29"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="31"/>
@@ -13447,7 +14495,7 @@
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="29"/>
       <c r="B32" s="30"/>
       <c r="C32" s="29"/>
@@ -13455,7 +14503,7 @@
       <c r="E32" s="29"/>
       <c r="F32" s="29"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="31"/>
       <c r="B33" s="32"/>
       <c r="C33" s="31"/>
@@ -13463,7 +14511,7 @@
       <c r="E33" s="31"/>
       <c r="F33" s="31"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="29"/>
       <c r="B34" s="30"/>
       <c r="C34" s="29"/>
@@ -13478,26 +14526,26 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{679E63A6-6507-4517-89D7-93CA754AF74E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="90.26171875" customWidth="1"/>
-    <col min="5" max="5" width="7.26171875" customWidth="1"/>
-    <col min="6" max="6" width="6.15625" customWidth="1"/>
-    <col min="8" max="8" width="22.41796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>29</v>
       </c>
@@ -13523,7 +14571,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
         <v>1</v>
       </c>
@@ -13541,7 +14589,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31">
         <v>2</v>
       </c>
@@ -13559,7 +14607,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>3</v>
       </c>
@@ -13577,7 +14625,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>4</v>
       </c>
@@ -13595,7 +14643,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>5</v>
       </c>
@@ -13615,7 +14663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>6</v>
       </c>
@@ -13633,7 +14681,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>7</v>
       </c>
@@ -13651,7 +14699,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>8</v>
       </c>
@@ -13669,12 +14717,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>9</v>
       </c>
       <c r="B10" s="30" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C10" s="29"/>
       <c r="D10" s="30"/>
@@ -13683,12 +14731,12 @@
       </c>
       <c r="F10" s="29"/>
     </row>
-    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="31">
         <v>10</v>
       </c>
       <c r="B11" s="32" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="C11" s="31"/>
       <c r="E11" s="35">
@@ -13700,7 +14748,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="30"/>
       <c r="C12" s="29"/>
@@ -13717,7 +14765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="31"/>
       <c r="B13" s="32"/>
       <c r="C13" s="31"/>
@@ -13729,7 +14777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
       <c r="B14" s="30"/>
       <c r="C14" s="29"/>
@@ -13741,7 +14789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="31"/>
       <c r="B15" s="32"/>
       <c r="C15" s="31"/>
@@ -13753,7 +14801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="29"/>
       <c r="B16" s="30"/>
       <c r="C16" s="29"/>
@@ -13765,7 +14813,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="31"/>
@@ -13777,7 +14825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="29"/>
       <c r="B18" s="30"/>
       <c r="C18" s="29"/>
@@ -13789,7 +14837,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="31"/>
       <c r="B19" s="32"/>
       <c r="C19" s="31"/>
@@ -13801,7 +14849,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="29"/>
       <c r="B20" s="30"/>
       <c r="C20" s="29"/>
@@ -13813,7 +14861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="31"/>
       <c r="B21" s="32"/>
       <c r="C21" s="31"/>
@@ -13825,7 +14873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="29"/>
       <c r="B22" s="30"/>
       <c r="C22" s="29"/>
@@ -13837,7 +14885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="31"/>
       <c r="B23" s="32"/>
       <c r="C23" s="31"/>
@@ -13849,7 +14897,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="29"/>
       <c r="B24" s="30"/>
       <c r="C24" s="29"/>
@@ -13861,7 +14909,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="31"/>
       <c r="B25" s="32"/>
       <c r="C25" s="31"/>
@@ -13873,7 +14921,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="29"/>
       <c r="B26" s="30"/>
       <c r="C26" s="29"/>
@@ -13885,7 +14933,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="31"/>
       <c r="B27" s="32"/>
       <c r="C27" s="31"/>
@@ -13893,7 +14941,7 @@
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="29"/>
       <c r="B28" s="30"/>
       <c r="C28" s="29"/>
@@ -13901,7 +14949,7 @@
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="31"/>
@@ -13909,7 +14957,7 @@
       <c r="E29" s="31"/>
       <c r="F29" s="31"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="29"/>
       <c r="B30" s="30"/>
       <c r="C30" s="29"/>
@@ -13917,7 +14965,7 @@
       <c r="E30" s="29"/>
       <c r="F30" s="29"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="31"/>
@@ -13925,7 +14973,7 @@
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="29"/>
       <c r="B32" s="30"/>
       <c r="C32" s="29"/>
@@ -13933,7 +14981,7 @@
       <c r="E32" s="29"/>
       <c r="F32" s="29"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="31"/>
       <c r="B33" s="32"/>
       <c r="C33" s="31"/>
@@ -13941,7 +14989,7 @@
       <c r="E33" s="31"/>
       <c r="F33" s="31"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="29"/>
       <c r="B34" s="30"/>
       <c r="C34" s="29"/>
@@ -13956,26 +15004,26 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D33CF4D-62A6-4B1E-A142-F77B1B444402}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="90.26171875" customWidth="1"/>
-    <col min="5" max="5" width="7.26171875" customWidth="1"/>
-    <col min="6" max="6" width="6.15625" customWidth="1"/>
-    <col min="8" max="8" width="22.41796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>29</v>
       </c>
@@ -14001,7 +15049,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
         <v>1</v>
       </c>
@@ -14019,7 +15067,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31">
         <v>2</v>
       </c>
@@ -14037,7 +15085,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>3</v>
       </c>
@@ -14055,7 +15103,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>4</v>
       </c>
@@ -14073,7 +15121,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>5</v>
       </c>
@@ -14091,7 +15139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>6</v>
       </c>
@@ -14109,7 +15157,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>7</v>
       </c>
@@ -14127,12 +15175,12 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="29">
         <v>8</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C9" s="29"/>
       <c r="D9" s="30"/>
@@ -14141,7 +15189,7 @@
       </c>
       <c r="F9" s="29"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="31"/>
@@ -14153,7 +15201,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="30"/>
       <c r="C11" s="29"/>
@@ -14165,7 +15213,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
       <c r="B12" s="32"/>
       <c r="C12" s="31"/>
@@ -14182,7 +15230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
       <c r="B13" s="30"/>
       <c r="C13" s="29"/>
@@ -14194,7 +15242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="31"/>
       <c r="B14" s="32"/>
       <c r="C14" s="31"/>
@@ -14206,7 +15254,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
       <c r="B15" s="30"/>
       <c r="C15" s="29"/>
@@ -14218,7 +15266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
       <c r="B16" s="32"/>
       <c r="C16" s="31"/>
@@ -14230,7 +15278,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
       <c r="B17" s="30"/>
       <c r="C17" s="29"/>
@@ -14242,7 +15290,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="31"/>
@@ -14254,7 +15302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
       <c r="B19" s="30"/>
       <c r="C19" s="29"/>
@@ -14266,7 +15314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="31"/>
       <c r="B20" s="32"/>
       <c r="C20" s="31"/>
@@ -14278,7 +15326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
       <c r="B21" s="30"/>
       <c r="C21" s="29"/>
@@ -14290,7 +15338,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="31"/>
       <c r="B22" s="32"/>
       <c r="C22" s="31"/>
@@ -14302,7 +15350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
       <c r="B23" s="30"/>
       <c r="C23" s="29"/>
@@ -14314,7 +15362,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="31"/>
       <c r="B24" s="32"/>
       <c r="C24" s="31"/>
@@ -14326,7 +15374,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
       <c r="B25" s="30"/>
       <c r="C25" s="29"/>
@@ -14338,7 +15386,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
       <c r="B26" s="32"/>
       <c r="C26" s="31"/>
@@ -14350,7 +15398,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="29"/>
       <c r="B27" s="30"/>
       <c r="C27" s="29"/>
@@ -14362,7 +15410,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="31"/>
@@ -14370,7 +15418,7 @@
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="29"/>
       <c r="B29" s="30"/>
       <c r="C29" s="29"/>
@@ -14378,7 +15426,7 @@
       <c r="E29" s="29"/>
       <c r="F29" s="29"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="31"/>
@@ -14386,7 +15434,7 @@
       <c r="E30" s="31"/>
       <c r="F30" s="31"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
       <c r="B31" s="30"/>
       <c r="C31" s="29"/>
@@ -14394,7 +15442,7 @@
       <c r="E31" s="29"/>
       <c r="F31" s="29"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="31"/>
@@ -14402,7 +15450,7 @@
       <c r="E32" s="31"/>
       <c r="F32" s="31"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="29"/>
       <c r="B33" s="30"/>
       <c r="C33" s="29"/>
@@ -14410,7 +15458,7 @@
       <c r="E33" s="29"/>
       <c r="F33" s="29"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="31"/>
       <c r="B34" s="32"/>
       <c r="C34" s="31"/>
@@ -14418,7 +15466,7 @@
       <c r="E34" s="31"/>
       <c r="F34" s="31"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="29"/>
       <c r="B35" s="30"/>
       <c r="C35" s="29"/>
@@ -14433,26 +15481,26 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C13BE1F-2828-4FDF-9831-A7CA98568C74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I35"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="3.68359375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="90.26171875" customWidth="1"/>
-    <col min="5" max="5" width="7.26171875" customWidth="1"/>
-    <col min="6" max="6" width="6.15625" customWidth="1"/>
-    <col min="8" max="8" width="22.41796875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.68359375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.28515625" customWidth="1"/>
+    <col min="6" max="6" width="6.140625" customWidth="1"/>
+    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>29</v>
       </c>
@@ -14478,7 +15526,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="27">
         <v>1</v>
       </c>
@@ -14498,7 +15546,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="31">
         <v>2</v>
       </c>
@@ -14516,7 +15564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="29">
         <v>3</v>
       </c>
@@ -14534,7 +15582,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="31">
         <v>4</v>
       </c>
@@ -14552,7 +15600,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="29">
         <v>5</v>
       </c>
@@ -14570,7 +15618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="31">
         <v>6</v>
       </c>
@@ -14588,7 +15636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="29">
         <v>7</v>
       </c>
@@ -14606,7 +15654,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="31">
         <v>8</v>
       </c>
@@ -14624,7 +15672,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="29">
         <v>9</v>
       </c>
@@ -14642,12 +15690,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="29">
         <v>10</v>
       </c>
       <c r="B11" s="30" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="C11" s="29"/>
       <c r="D11" s="30"/>
@@ -14656,7 +15704,7 @@
       </c>
       <c r="F11" s="29"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="31"/>
       <c r="B12" s="32"/>
       <c r="C12" s="31"/>
@@ -14673,7 +15721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
       <c r="B13" s="30"/>
       <c r="C13" s="29"/>
@@ -14685,7 +15733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="31"/>
       <c r="B14" s="32"/>
       <c r="C14" s="31"/>
@@ -14697,7 +15745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="29"/>
       <c r="B15" s="30"/>
       <c r="C15" s="29"/>
@@ -14709,7 +15757,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="31"/>
       <c r="B16" s="32"/>
       <c r="C16" s="31"/>
@@ -14721,7 +15769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
       <c r="B17" s="30"/>
       <c r="C17" s="29"/>
@@ -14733,7 +15781,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="31"/>
@@ -14745,7 +15793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="29"/>
       <c r="B19" s="30"/>
       <c r="C19" s="29"/>
@@ -14757,7 +15805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="31"/>
       <c r="B20" s="32"/>
       <c r="C20" s="31"/>
@@ -14769,7 +15817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="29"/>
       <c r="B21" s="30"/>
       <c r="C21" s="29"/>
@@ -14781,7 +15829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="31"/>
       <c r="B22" s="32"/>
       <c r="C22" s="31"/>
@@ -14793,7 +15841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="29"/>
       <c r="B23" s="30"/>
       <c r="C23" s="29"/>
@@ -14805,7 +15853,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="31"/>
       <c r="B24" s="32"/>
       <c r="C24" s="31"/>
@@ -14817,7 +15865,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="29"/>
       <c r="B25" s="30"/>
       <c r="C25" s="29"/>
@@ -14829,7 +15877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="31"/>
       <c r="B26" s="32"/>
       <c r="C26" s="31"/>
@@ -14841,7 +15889,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="29"/>
       <c r="B27" s="30"/>
       <c r="C27" s="29"/>
@@ -14853,7 +15901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="31"/>
@@ -14861,7 +15909,7 @@
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="29"/>
       <c r="B29" s="30"/>
       <c r="C29" s="29"/>
@@ -14869,7 +15917,7 @@
       <c r="E29" s="29"/>
       <c r="F29" s="29"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="31"/>
@@ -14877,7 +15925,7 @@
       <c r="E30" s="31"/>
       <c r="F30" s="31"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="29"/>
       <c r="B31" s="30"/>
       <c r="C31" s="29"/>
@@ -14885,7 +15933,7 @@
       <c r="E31" s="29"/>
       <c r="F31" s="29"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="31"/>
@@ -14893,7 +15941,7 @@
       <c r="E32" s="31"/>
       <c r="F32" s="31"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="29"/>
       <c r="B33" s="30"/>
       <c r="C33" s="29"/>
@@ -14901,7 +15949,7 @@
       <c r="E33" s="29"/>
       <c r="F33" s="29"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="31"/>
       <c r="B34" s="32"/>
       <c r="C34" s="31"/>
@@ -14909,7 +15957,7 @@
       <c r="E34" s="31"/>
       <c r="F34" s="31"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="29"/>
       <c r="B35" s="30"/>
       <c r="C35" s="29"/>

--- a/project/Zeiterfassung.xlsx
+++ b/project/Zeiterfassung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nvinzens\Dropbox\BA\Zeiterfassung\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\BA\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{71F4093C-49CC-4619-AC41-DFD3732D3B1B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0E688F-DEDA-4561-9DD4-8F6652059170}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80370" yWindow="0" windowWidth="19560" windowHeight="8115" tabRatio="745" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="80370" yWindow="0" windowWidth="19560" windowHeight="8118" tabRatio="745" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Raphael" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="389">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="388">
   <si>
     <t>Mit Betreuer</t>
   </si>
@@ -1146,9 +1146,6 @@
   </si>
   <si>
     <t>MS9: 15</t>
-  </si>
-  <si>
-    <t>MS9: 17</t>
   </si>
   <si>
     <t>Poster etc.</t>
@@ -1528,7 +1525,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2340,7 +2337,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="268780432"/>
@@ -2399,7 +2396,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="268859704"/>
@@ -2441,7 +2438,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2471,7 +2468,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2547,7 +2544,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -2687,7 +2684,7 @@
                     <a:cs typeface="+mn-cs"/>
                   </a:defRPr>
                 </a:pPr>
-                <a:endParaRPr lang="en-US"/>
+                <a:endParaRPr lang="de-DE"/>
               </a:p>
             </c:txPr>
             <c:dLblPos val="bestFit"/>
@@ -2816,7 +2813,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -2846,7 +2843,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2927,7 +2924,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="en-US"/>
+          <a:endParaRPr lang="de-DE"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -3057,7 +3054,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="304103864"/>
@@ -3116,7 +3113,7 @@
                 <a:cs typeface="+mn-cs"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="304436944"/>
@@ -3157,7 +3154,7 @@
       <a:pPr>
         <a:defRPr/>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -5239,26 +5236,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M177"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A173" sqref="A173:F177"/>
+    <sheetView topLeftCell="A159" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="7"/>
+    <col min="1" max="1" width="11.41796875" style="7"/>
     <col min="2" max="2" width="10" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" style="7" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.7109375" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="7" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="11.42578125" style="7"/>
-    <col min="11" max="11" width="26.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.42578125" style="7"/>
-    <col min="13" max="13" width="17.85546875" style="7" bestFit="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="7"/>
+    <col min="3" max="3" width="12.26171875" style="7" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27.68359375" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.26171875" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="11.41796875" style="7"/>
+    <col min="11" max="11" width="26.41796875" style="7" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.41796875" style="7"/>
+    <col min="13" max="13" width="17.83984375" style="7" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.41796875" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="8" t="s">
         <v>4</v>
       </c>
@@ -5281,7 +5278,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" s="7" t="s">
         <v>2</v>
       </c>
@@ -5292,7 +5289,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="9" t="s">
         <v>3</v>
       </c>
@@ -5309,7 +5306,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="10">
         <v>43153</v>
       </c>
@@ -5343,7 +5340,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="10">
         <v>43153</v>
       </c>
@@ -5369,7 +5366,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4">
         <v>43153</v>
       </c>
@@ -5398,7 +5395,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="10">
         <v>43154</v>
       </c>
@@ -5421,7 +5418,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4">
         <v>43154</v>
       </c>
@@ -5444,7 +5441,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="G9" s="8">
         <f>SUM(B11:B18)</f>
         <v>16.25</v>
@@ -5453,7 +5450,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="3" t="s">
         <v>47</v>
       </c>
@@ -5462,7 +5459,7 @@
         <v>22.279411764705884</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="10">
         <v>43157</v>
       </c>
@@ -5482,7 +5479,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="10">
         <v>43157</v>
       </c>
@@ -5503,7 +5500,7 @@
       </c>
       <c r="G12" s="9"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="10">
         <v>43158</v>
       </c>
@@ -5524,7 +5521,7 @@
       </c>
       <c r="G13" s="8"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4">
         <v>43159</v>
       </c>
@@ -5544,7 +5541,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4">
         <v>43159</v>
       </c>
@@ -5564,7 +5561,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="10">
         <v>43160</v>
       </c>
@@ -5585,7 +5582,7 @@
       </c>
       <c r="G16" s="9"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="10">
         <v>43160</v>
       </c>
@@ -5606,7 +5603,7 @@
       </c>
       <c r="G17" s="8"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4">
         <v>43161</v>
       </c>
@@ -5626,10 +5623,10 @@
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="10"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="19" t="s">
         <v>100</v>
       </c>
@@ -5642,7 +5639,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4">
         <v>43165</v>
       </c>
@@ -5666,7 +5663,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4">
         <v>43165</v>
       </c>
@@ -5686,7 +5683,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="10">
         <v>43166</v>
       </c>
@@ -5706,7 +5703,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="10">
         <v>43166</v>
       </c>
@@ -5726,7 +5723,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="10">
         <v>43167</v>
       </c>
@@ -5746,7 +5743,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="10">
         <v>43167</v>
       </c>
@@ -5766,7 +5763,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="10">
         <v>43167</v>
       </c>
@@ -5786,7 +5783,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="4">
         <v>43167</v>
       </c>
@@ -5806,7 +5803,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="18">
         <v>43168</v>
       </c>
@@ -5826,7 +5823,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="19" t="s">
         <v>114</v>
       </c>
@@ -5834,7 +5831,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="4">
         <v>43171</v>
       </c>
@@ -5858,7 +5855,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="4">
         <v>43172</v>
       </c>
@@ -5878,7 +5875,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="4">
         <v>43172</v>
       </c>
@@ -5898,7 +5895,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="4">
         <v>43173</v>
       </c>
@@ -5918,7 +5915,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="4">
         <v>43173</v>
       </c>
@@ -5938,7 +5935,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="4">
         <v>43173</v>
       </c>
@@ -5958,7 +5955,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="4">
         <v>43174</v>
       </c>
@@ -5978,7 +5975,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="4">
         <v>43174</v>
       </c>
@@ -5998,7 +5995,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="18">
         <v>43174</v>
       </c>
@@ -6019,7 +6016,7 @@
       </c>
       <c r="G40" s="8"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="10">
         <v>43175</v>
       </c>
@@ -6039,7 +6036,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="19" t="s">
         <v>132</v>
       </c>
@@ -6047,7 +6044,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="4">
         <v>43178</v>
       </c>
@@ -6071,7 +6068,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="10">
         <v>43178</v>
       </c>
@@ -6091,7 +6088,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="10">
         <v>43179</v>
       </c>
@@ -6111,7 +6108,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="10">
         <v>43180</v>
       </c>
@@ -6131,7 +6128,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="10">
         <v>43180</v>
       </c>
@@ -6151,7 +6148,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="10">
         <v>43181</v>
       </c>
@@ -6171,7 +6168,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="10">
         <v>43181</v>
       </c>
@@ -6192,7 +6189,7 @@
       </c>
       <c r="G49" s="9"/>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="10">
         <v>43181</v>
       </c>
@@ -6213,7 +6210,7 @@
       </c>
       <c r="G50" s="8"/>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="10">
         <v>43182</v>
       </c>
@@ -6233,7 +6230,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="19" t="s">
         <v>142</v>
       </c>
@@ -6246,7 +6243,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="10">
         <v>43185</v>
       </c>
@@ -6270,7 +6267,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="10">
         <v>43186</v>
       </c>
@@ -6290,7 +6287,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="10">
         <v>43187</v>
       </c>
@@ -6310,7 +6307,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="10">
         <v>43187</v>
       </c>
@@ -6330,7 +6327,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="4">
         <v>43188</v>
       </c>
@@ -6351,7 +6348,7 @@
       </c>
       <c r="M58" s="11"/>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="4">
         <v>43188</v>
       </c>
@@ -6372,7 +6369,7 @@
       </c>
       <c r="G59" s="9"/>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="4">
         <v>43189</v>
       </c>
@@ -6393,7 +6390,7 @@
       </c>
       <c r="G60" s="8"/>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="4">
         <v>43189</v>
       </c>
@@ -6413,7 +6410,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="4"/>
       <c r="B62" s="2"/>
       <c r="C62" s="11"/>
@@ -6421,7 +6418,7 @@
       <c r="E62" s="11"/>
       <c r="F62" s="17"/>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="19" t="s">
         <v>164</v>
       </c>
@@ -6432,7 +6429,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="10">
         <v>43193</v>
       </c>
@@ -6456,7 +6453,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="10">
         <v>43193</v>
       </c>
@@ -6476,7 +6473,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="10">
         <v>43193</v>
       </c>
@@ -6496,13 +6493,13 @@
         <v>341</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="18"/>
       <c r="C67" s="11"/>
       <c r="D67" s="11"/>
       <c r="E67" s="11"/>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="3" t="s">
         <v>177</v>
       </c>
@@ -6510,7 +6507,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="18">
         <v>43199</v>
       </c>
@@ -6534,7 +6531,7 @@
         <v>31.5</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="10">
         <v>43200</v>
       </c>
@@ -6556,7 +6553,7 @@
       <c r="G70" s="8"/>
       <c r="H70" s="9"/>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="4">
         <v>43201</v>
       </c>
@@ -6577,7 +6574,7 @@
       </c>
       <c r="H71" s="8"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="10">
         <v>43202</v>
       </c>
@@ -6597,7 +6594,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="10">
         <v>43203</v>
       </c>
@@ -6617,7 +6614,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="10">
         <v>43203</v>
       </c>
@@ -6637,14 +6634,14 @@
         <v>342</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="10"/>
       <c r="C75" s="11"/>
       <c r="D75" s="11"/>
       <c r="E75" s="11"/>
       <c r="F75" s="23"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="3" t="s">
         <v>193</v>
       </c>
@@ -6657,7 +6654,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="18">
         <v>43206</v>
       </c>
@@ -6681,7 +6678,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="4">
         <v>43206</v>
       </c>
@@ -6702,7 +6699,7 @@
       </c>
       <c r="G78" s="2"/>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="18">
         <v>43207</v>
       </c>
@@ -6723,7 +6720,7 @@
       </c>
       <c r="G79" s="1"/>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="18">
         <v>43208</v>
       </c>
@@ -6744,7 +6741,7 @@
       </c>
       <c r="G80" s="1"/>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="18">
         <v>43208</v>
       </c>
@@ -6765,7 +6762,7 @@
       </c>
       <c r="G81" s="1"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="4">
         <v>43209</v>
       </c>
@@ -6786,7 +6783,7 @@
       </c>
       <c r="G82" s="1"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="4">
         <v>43209</v>
       </c>
@@ -6807,7 +6804,7 @@
       </c>
       <c r="G83" s="1"/>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="4">
         <v>43210</v>
       </c>
@@ -6828,7 +6825,7 @@
       </c>
       <c r="G84" s="1"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="4">
         <v>43210</v>
       </c>
@@ -6849,7 +6846,7 @@
       </c>
       <c r="G85" s="1"/>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="3"/>
       <c r="B86" s="2"/>
       <c r="C86" s="1"/>
@@ -6858,7 +6855,7 @@
       <c r="F86" s="17"/>
       <c r="G86" s="3"/>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="19" t="s">
         <v>200</v>
       </c>
@@ -6871,7 +6868,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="4">
         <v>43213</v>
       </c>
@@ -6895,7 +6892,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="4">
         <v>43213</v>
       </c>
@@ -6916,7 +6913,7 @@
       </c>
       <c r="G89" s="1"/>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="4">
         <v>43214</v>
       </c>
@@ -6937,7 +6934,7 @@
       </c>
       <c r="G90" s="1"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="10">
         <v>43214</v>
       </c>
@@ -6957,7 +6954,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="10">
         <v>43214</v>
       </c>
@@ -6977,7 +6974,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="10">
         <v>43215</v>
       </c>
@@ -6997,7 +6994,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="10">
         <v>43216</v>
       </c>
@@ -7017,7 +7014,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="10">
         <v>43216</v>
       </c>
@@ -7037,7 +7034,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="10">
         <v>43216</v>
       </c>
@@ -7058,7 +7055,7 @@
       </c>
       <c r="G96" s="3"/>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="4">
         <v>43217</v>
       </c>
@@ -7079,7 +7076,7 @@
       </c>
       <c r="G97" s="2"/>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="4">
         <v>43217</v>
       </c>
@@ -7100,7 +7097,7 @@
       </c>
       <c r="G98" s="1"/>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="4"/>
       <c r="B99" s="2"/>
       <c r="C99" s="11"/>
@@ -7109,7 +7106,7 @@
       <c r="F99" s="17"/>
       <c r="G99" s="1"/>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="19" t="s">
         <v>230</v>
       </c>
@@ -7123,7 +7120,7 @@
       </c>
       <c r="M100" s="11"/>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="4">
         <v>43221</v>
       </c>
@@ -7147,7 +7144,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="4">
         <v>43221</v>
       </c>
@@ -7168,7 +7165,7 @@
       </c>
       <c r="G102" s="1"/>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="4">
         <v>43222</v>
       </c>
@@ -7189,7 +7186,7 @@
       </c>
       <c r="G103" s="1"/>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="4">
         <v>43223</v>
       </c>
@@ -7209,7 +7206,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="4">
         <v>43223</v>
       </c>
@@ -7230,7 +7227,7 @@
       </c>
       <c r="G105" s="3"/>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="4">
         <v>43223</v>
       </c>
@@ -7251,7 +7248,7 @@
       </c>
       <c r="G106" s="2"/>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="10">
         <v>43224</v>
       </c>
@@ -7271,7 +7268,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="10">
         <v>43224</v>
       </c>
@@ -7291,7 +7288,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="10">
         <v>43224</v>
       </c>
@@ -7311,13 +7308,13 @@
         <v>335</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="10"/>
       <c r="C110" s="11"/>
       <c r="D110" s="11"/>
       <c r="E110" s="11"/>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="19" t="s">
         <v>251</v>
       </c>
@@ -7328,7 +7325,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="10">
         <v>43227</v>
       </c>
@@ -7352,7 +7349,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="18">
         <v>43228</v>
       </c>
@@ -7373,7 +7370,7 @@
       </c>
       <c r="G113" s="3"/>
     </row>
-    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="4">
         <v>43229</v>
       </c>
@@ -7394,7 +7391,7 @@
       </c>
       <c r="G114" s="2"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="4">
         <v>43230</v>
       </c>
@@ -7415,7 +7412,7 @@
       </c>
       <c r="G115" s="1"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="4">
         <v>43231</v>
       </c>
@@ -7436,7 +7433,7 @@
       </c>
       <c r="G116" s="1"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="4">
         <v>43231</v>
       </c>
@@ -7456,13 +7453,13 @@
         <v>335</v>
       </c>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="10"/>
       <c r="C118" s="11"/>
       <c r="D118" s="11"/>
       <c r="E118" s="11"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="19" t="s">
         <v>265</v>
       </c>
@@ -7474,7 +7471,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="4">
         <v>43234</v>
       </c>
@@ -7498,7 +7495,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="4">
         <v>43234</v>
       </c>
@@ -7518,7 +7515,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="10">
         <v>43235</v>
       </c>
@@ -7538,7 +7535,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="18">
         <v>43236</v>
       </c>
@@ -7559,7 +7556,7 @@
       </c>
       <c r="G123" s="21"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="4">
         <v>43236</v>
       </c>
@@ -7580,7 +7577,7 @@
       </c>
       <c r="G124" s="2"/>
     </row>
-    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="4">
         <v>43237</v>
       </c>
@@ -7601,7 +7598,7 @@
       </c>
       <c r="G125" s="1"/>
     </row>
-    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="18">
         <v>43238</v>
       </c>
@@ -7621,7 +7618,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="10">
         <v>43238</v>
       </c>
@@ -7641,14 +7638,14 @@
         <v>336</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="B128" s="2"/>
       <c r="C128" s="11"/>
       <c r="D128" s="11"/>
       <c r="E128" s="11"/>
       <c r="F128" s="17"/>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="3" t="s">
         <v>282</v>
       </c>
@@ -7661,7 +7658,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="10">
         <v>43241</v>
       </c>
@@ -7685,7 +7682,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="10">
         <v>43242</v>
       </c>
@@ -7705,7 +7702,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="10">
         <v>43242</v>
       </c>
@@ -7725,7 +7722,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="10">
         <v>43243</v>
       </c>
@@ -7745,7 +7742,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="10">
         <v>43244</v>
       </c>
@@ -7765,7 +7762,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="10">
         <v>43245</v>
       </c>
@@ -7785,7 +7782,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="10">
         <v>43245</v>
       </c>
@@ -7805,7 +7802,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="3" t="s">
         <v>303</v>
       </c>
@@ -7813,7 +7810,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="10">
         <v>43248</v>
       </c>
@@ -7837,7 +7834,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="10">
         <v>43248</v>
       </c>
@@ -7857,7 +7854,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="10">
         <v>43249</v>
       </c>
@@ -7877,7 +7874,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="10">
         <v>43249</v>
       </c>
@@ -7897,7 +7894,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="10">
         <v>43250</v>
       </c>
@@ -7917,7 +7914,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="4">
         <v>43251</v>
       </c>
@@ -7937,7 +7934,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="10">
         <v>43251</v>
       </c>
@@ -7957,7 +7954,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="10">
         <f>$A$147</f>
         <v>43251</v>
@@ -7978,7 +7975,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="10">
         <v>43251</v>
       </c>
@@ -7998,7 +7995,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="10">
         <v>43252</v>
       </c>
@@ -8018,7 +8015,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="10">
         <v>43252</v>
       </c>
@@ -8038,7 +8035,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="3" t="s">
         <v>354</v>
       </c>
@@ -8046,7 +8043,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="10">
         <v>43255</v>
       </c>
@@ -8063,14 +8060,14 @@
         <v>20</v>
       </c>
       <c r="F152" s="23" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G152" s="8">
         <f>SUM(B152:B164)</f>
         <v>39</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="10">
         <v>43255</v>
       </c>
@@ -8090,7 +8087,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="10">
         <v>43255</v>
       </c>
@@ -8110,7 +8107,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="10">
         <v>43256</v>
       </c>
@@ -8130,7 +8127,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="10">
         <v>43256</v>
       </c>
@@ -8150,7 +8147,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="10">
         <v>43257</v>
       </c>
@@ -8170,7 +8167,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="10">
         <v>43258</v>
       </c>
@@ -8190,7 +8187,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="10">
         <v>43258</v>
       </c>
@@ -8210,7 +8207,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="10">
         <v>43258</v>
       </c>
@@ -8221,16 +8218,16 @@
         <v>8</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E160" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F160" s="23" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="10">
         <v>43259</v>
       </c>
@@ -8247,10 +8244,10 @@
         <v>20</v>
       </c>
       <c r="F161" s="23" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="10">
         <v>43259</v>
       </c>
@@ -8267,10 +8264,10 @@
         <v>20</v>
       </c>
       <c r="F162" s="23" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="10">
         <v>43259</v>
       </c>
@@ -8281,16 +8278,16 @@
         <v>8</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E163" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F163" s="23" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="10">
         <v>43259</v>
       </c>
@@ -8311,9 +8308,9 @@
       </c>
       <c r="G164" s="23"/>
     </row>
-    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="11"/>
@@ -8324,7 +8321,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="4">
         <v>43260</v>
       </c>
@@ -8335,20 +8332,20 @@
         <v>8</v>
       </c>
       <c r="D167" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E167" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F167" s="23" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G167" s="2">
         <f>SUM(B167:B177)</f>
         <v>42</v>
       </c>
     </row>
-    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="10">
         <v>43261</v>
       </c>
@@ -8368,7 +8365,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="10">
         <v>43262</v>
       </c>
@@ -8385,10 +8382,10 @@
         <v>20</v>
       </c>
       <c r="F169" s="23" t="s">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="10">
         <v>43262</v>
       </c>
@@ -8405,10 +8402,10 @@
         <v>20</v>
       </c>
       <c r="F170" s="23" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="10">
         <v>43262</v>
       </c>
@@ -8419,16 +8416,16 @@
         <v>8</v>
       </c>
       <c r="D171" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E171" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F171" s="23" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="10">
         <v>43262</v>
       </c>
@@ -8448,7 +8445,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="10">
         <v>43263</v>
       </c>
@@ -8459,16 +8456,16 @@
         <v>8</v>
       </c>
       <c r="D173" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E173" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F173" s="23" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="10">
         <v>43264</v>
       </c>
@@ -8479,7 +8476,7 @@
         <v>8</v>
       </c>
       <c r="D174" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E174" s="11" t="s">
         <v>20</v>
@@ -8488,7 +8485,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="10">
         <v>43265</v>
       </c>
@@ -8505,10 +8502,10 @@
         <v>20</v>
       </c>
       <c r="F175" s="23" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="10">
         <v>43266</v>
       </c>
@@ -8525,10 +8522,10 @@
         <v>20</v>
       </c>
       <c r="F176" s="23" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="10">
         <v>43266</v>
       </c>
@@ -8539,7 +8536,7 @@
         <v>8</v>
       </c>
       <c r="D177" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E177" s="11" t="s">
         <v>20</v>
@@ -8562,9 +8559,9 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" t="s">
         <v>38</v>
       </c>
@@ -8575,7 +8572,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>1</v>
       </c>
@@ -8591,7 +8588,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>2</v>
       </c>
@@ -8607,7 +8604,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>3</v>
       </c>
@@ -8623,7 +8620,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>4</v>
       </c>
@@ -8639,7 +8636,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>5</v>
       </c>
@@ -8655,7 +8652,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>6</v>
       </c>
@@ -8671,7 +8668,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>7</v>
       </c>
@@ -8687,7 +8684,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>8</v>
       </c>
@@ -8703,7 +8700,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>9</v>
       </c>
@@ -8719,7 +8716,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>10</v>
       </c>
@@ -8735,7 +8732,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>11</v>
       </c>
@@ -8751,7 +8748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>12</v>
       </c>
@@ -8767,7 +8764,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>13</v>
       </c>
@@ -8783,7 +8780,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>14</v>
       </c>
@@ -8799,7 +8796,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
         <v>22</v>
       </c>
@@ -8826,12 +8823,12 @@
       <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="9"/>
       <c r="B9" t="s">
         <v>38</v>
@@ -8843,7 +8840,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="7" t="s">
         <v>10</v>
       </c>
@@ -8864,7 +8861,7 @@
         <v>12.59100642398287</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7" t="s">
         <v>11</v>
       </c>
@@ -8885,7 +8882,7 @@
         <v>21.58458244111349</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
@@ -8906,7 +8903,7 @@
         <v>7.880085653104925</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7" t="s">
         <v>13</v>
       </c>
@@ -8927,7 +8924,7 @@
         <v>39.486081370449675</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7" t="s">
         <v>14</v>
       </c>
@@ -8948,7 +8945,7 @@
         <v>18.458244111349035</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="11" t="s">
         <v>22</v>
       </c>
@@ -8984,7 +8981,7 @@
       <selection sqref="A1:D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -8995,27 +8992,27 @@
   <dimension ref="A1:M166"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="E155" sqref="E155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="11.42578125" style="2"/>
-    <col min="3" max="3" width="12.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="41.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.7109375" style="17" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" style="1"/>
-    <col min="9" max="9" width="14.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="1"/>
-    <col min="11" max="11" width="26.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.41796875" style="1"/>
+    <col min="2" max="2" width="11.41796875" style="2"/>
+    <col min="3" max="3" width="12.26171875" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="41.83984375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.68359375" style="17" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.41796875" style="1"/>
+    <col min="9" max="9" width="14.68359375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="11.41796875" style="1"/>
+    <col min="11" max="11" width="26.41796875" style="1" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="5" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="11.42578125" style="1"/>
+    <col min="13" max="16384" width="11.41796875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
@@ -9041,7 +9038,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
@@ -9055,7 +9052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
@@ -9075,7 +9072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4">
         <v>43150</v>
       </c>
@@ -9112,7 +9109,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4">
         <v>43152</v>
       </c>
@@ -9141,7 +9138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4">
         <v>43153</v>
       </c>
@@ -9173,7 +9170,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4">
         <v>43154</v>
       </c>
@@ -9197,7 +9194,7 @@
         <v>24.328125</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4">
         <v>43154</v>
       </c>
@@ -9217,7 +9214,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="19" t="s">
         <v>47</v>
       </c>
@@ -9225,7 +9222,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="18">
         <v>43158</v>
       </c>
@@ -9249,7 +9246,7 @@
         <v>17.25</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="4">
         <v>43159</v>
       </c>
@@ -9270,7 +9267,7 @@
       </c>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="4">
         <v>43159</v>
       </c>
@@ -9290,7 +9287,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="4">
         <v>43160</v>
       </c>
@@ -9310,7 +9307,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="4">
         <v>43161</v>
       </c>
@@ -9330,7 +9327,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="4">
         <v>43161</v>
       </c>
@@ -9350,7 +9347,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="19" t="s">
         <v>100</v>
       </c>
@@ -9361,7 +9358,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="4">
         <v>43162</v>
       </c>
@@ -9385,7 +9382,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="4">
         <v>43162</v>
       </c>
@@ -9405,7 +9402,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="4">
         <v>43163</v>
       </c>
@@ -9425,7 +9422,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="4">
         <v>43164</v>
       </c>
@@ -9445,7 +9442,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="4">
         <v>43165</v>
       </c>
@@ -9465,7 +9462,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="4">
         <v>43166</v>
       </c>
@@ -9485,7 +9482,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="18">
         <v>43167</v>
       </c>
@@ -9505,7 +9502,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="4">
         <v>43167</v>
       </c>
@@ -9525,7 +9522,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="4">
         <v>43168</v>
       </c>
@@ -9545,7 +9542,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="18">
         <v>43168</v>
       </c>
@@ -9566,7 +9563,7 @@
       </c>
       <c r="G26" s="3"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="4">
         <v>43168</v>
       </c>
@@ -9587,7 +9584,7 @@
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="19" t="s">
         <v>114</v>
       </c>
@@ -9598,7 +9595,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="4">
         <v>43169</v>
       </c>
@@ -9622,7 +9619,7 @@
         <v>21.25</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="4">
         <v>43170</v>
       </c>
@@ -9642,7 +9639,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="33">
         <v>43171</v>
       </c>
@@ -9662,7 +9659,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="4">
         <v>43171</v>
       </c>
@@ -9682,7 +9679,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="4">
         <v>43171</v>
       </c>
@@ -9702,7 +9699,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="4">
         <v>43172</v>
       </c>
@@ -9722,7 +9719,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="4">
         <v>43173</v>
       </c>
@@ -9742,7 +9739,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="4">
         <v>43174</v>
       </c>
@@ -9762,7 +9759,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="4">
         <v>43174</v>
       </c>
@@ -9782,7 +9779,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="18">
         <v>43174</v>
       </c>
@@ -9803,7 +9800,7 @@
       </c>
       <c r="G38" s="3"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="4">
         <v>43175</v>
       </c>
@@ -9824,7 +9821,7 @@
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="4">
         <v>43175</v>
       </c>
@@ -9844,7 +9841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="18">
         <v>43175</v>
       </c>
@@ -9864,7 +9861,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="4">
         <v>43175</v>
       </c>
@@ -9884,7 +9881,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="19" t="s">
         <v>132</v>
       </c>
@@ -9892,7 +9889,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="4">
         <v>43179</v>
       </c>
@@ -9916,7 +9913,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="4">
         <v>43179</v>
       </c>
@@ -9936,7 +9933,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="4">
         <v>43180</v>
       </c>
@@ -9956,7 +9953,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="4">
         <v>43180</v>
       </c>
@@ -9976,7 +9973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="4">
         <v>43181</v>
       </c>
@@ -9996,7 +9993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="4">
         <v>43181</v>
       </c>
@@ -10016,7 +10013,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="4">
         <v>43181</v>
       </c>
@@ -10036,7 +10033,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="4">
         <v>43182</v>
       </c>
@@ -10056,7 +10053,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="18">
         <v>43154</v>
       </c>
@@ -10076,7 +10073,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="19" t="s">
         <v>142</v>
       </c>
@@ -10085,7 +10082,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="18">
         <v>43183</v>
       </c>
@@ -10109,7 +10106,7 @@
         <v>26.25</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="4">
         <v>43185</v>
       </c>
@@ -10130,7 +10127,7 @@
       </c>
       <c r="G55" s="2"/>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="4">
         <v>43185</v>
       </c>
@@ -10150,7 +10147,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="4">
         <v>43185</v>
       </c>
@@ -10170,7 +10167,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="4">
         <v>43186</v>
       </c>
@@ -10190,7 +10187,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="4">
         <v>43187</v>
       </c>
@@ -10210,7 +10207,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="4">
         <v>43187</v>
       </c>
@@ -10230,7 +10227,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="4">
         <v>43188</v>
       </c>
@@ -10250,7 +10247,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="4">
         <v>43189</v>
       </c>
@@ -10270,7 +10267,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="4">
         <v>43189</v>
       </c>
@@ -10290,7 +10287,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="19" t="s">
         <v>164</v>
       </c>
@@ -10299,7 +10296,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="18">
         <v>43192</v>
       </c>
@@ -10323,7 +10320,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="4">
         <v>43193</v>
       </c>
@@ -10344,7 +10341,7 @@
       </c>
       <c r="G66" s="2"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="4">
         <v>43194</v>
       </c>
@@ -10364,7 +10361,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="4">
         <v>43195</v>
       </c>
@@ -10384,7 +10381,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="4">
         <v>43195</v>
       </c>
@@ -10404,7 +10401,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="4">
         <v>43195</v>
       </c>
@@ -10424,7 +10421,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="4">
         <v>43196</v>
       </c>
@@ -10444,7 +10441,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="19" t="s">
         <v>177</v>
       </c>
@@ -10455,7 +10452,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="4">
         <v>43197</v>
       </c>
@@ -10479,7 +10476,7 @@
         <v>25.25</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="4">
         <v>43198</v>
       </c>
@@ -10499,7 +10496,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="4">
         <v>43199</v>
       </c>
@@ -10519,7 +10516,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="4">
         <v>43199</v>
       </c>
@@ -10547,7 +10544,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="4">
         <v>43199</v>
       </c>
@@ -10575,7 +10572,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="4">
         <v>43202</v>
       </c>
@@ -10602,7 +10599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="4">
         <v>43203</v>
       </c>
@@ -10629,7 +10626,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="4">
         <v>43203</v>
       </c>
@@ -10656,7 +10653,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="19" t="s">
         <v>193</v>
       </c>
@@ -10676,7 +10673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="4">
         <v>43205</v>
       </c>
@@ -10707,7 +10704,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="4">
         <v>43206</v>
       </c>
@@ -10734,7 +10731,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="4">
         <v>43206</v>
       </c>
@@ -10761,7 +10758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="4">
         <v>43206</v>
       </c>
@@ -10789,7 +10786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="4">
         <v>43207</v>
       </c>
@@ -10817,7 +10814,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="4">
         <v>43207</v>
       </c>
@@ -10844,7 +10841,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="4">
         <v>43208</v>
       </c>
@@ -10871,7 +10868,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="4">
         <v>43208</v>
       </c>
@@ -10898,7 +10895,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="4">
         <v>43209</v>
       </c>
@@ -10925,7 +10922,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="4">
         <v>43209</v>
       </c>
@@ -10952,7 +10949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="4">
         <v>43209</v>
       </c>
@@ -10979,7 +10976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="18">
         <v>43210</v>
       </c>
@@ -11006,7 +11003,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="4">
         <v>43210</v>
       </c>
@@ -11033,7 +11030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="19" t="s">
         <v>200</v>
       </c>
@@ -11051,7 +11048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="18">
         <v>43214</v>
       </c>
@@ -11082,7 +11079,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="18">
         <v>43214</v>
       </c>
@@ -11110,7 +11107,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="4">
         <v>43215</v>
       </c>
@@ -11137,7 +11134,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="4">
         <v>43216</v>
       </c>
@@ -11164,7 +11161,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="4">
         <v>43216</v>
       </c>
@@ -11191,7 +11188,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="4">
         <v>43217</v>
       </c>
@@ -11218,7 +11215,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="4">
         <v>43217</v>
       </c>
@@ -11245,7 +11242,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="4">
         <v>43217</v>
       </c>
@@ -11272,7 +11269,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="19" t="s">
         <v>230</v>
       </c>
@@ -11290,7 +11287,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="18">
         <v>43218</v>
       </c>
@@ -11321,7 +11318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="18">
         <v>43220</v>
       </c>
@@ -11349,7 +11346,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="10">
         <v>43250</v>
       </c>
@@ -11377,7 +11374,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="4">
         <v>43221</v>
       </c>
@@ -11404,7 +11401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="4">
         <v>43222</v>
       </c>
@@ -11431,7 +11428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="4">
         <v>43223</v>
       </c>
@@ -11458,7 +11455,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="4">
         <v>43224</v>
       </c>
@@ -11485,7 +11482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="4">
         <v>43224</v>
       </c>
@@ -11512,7 +11509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="19" t="s">
         <v>251</v>
       </c>
@@ -11527,7 +11524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="4">
         <v>43227</v>
       </c>
@@ -11558,7 +11555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="4">
         <v>43227</v>
       </c>
@@ -11578,7 +11575,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="4">
         <v>43229</v>
       </c>
@@ -11598,7 +11595,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="18">
         <v>43230</v>
       </c>
@@ -11618,7 +11615,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="4">
         <v>43231</v>
       </c>
@@ -11646,7 +11643,7 @@
         <v>118.25</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="4">
         <v>43231</v>
       </c>
@@ -11666,7 +11663,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="19" t="s">
         <v>265</v>
       </c>
@@ -11680,7 +11677,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="4">
         <v>43233</v>
       </c>
@@ -11708,7 +11705,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="4">
         <v>43234</v>
       </c>
@@ -11728,7 +11725,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="18">
         <v>43234</v>
       </c>
@@ -11748,7 +11745,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="18">
         <v>43235</v>
       </c>
@@ -11769,7 +11766,7 @@
       </c>
       <c r="G124" s="11"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="4">
         <v>43236</v>
       </c>
@@ -11790,7 +11787,7 @@
       </c>
       <c r="G125" s="2"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="4">
         <v>43237</v>
       </c>
@@ -11810,7 +11807,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="4">
         <v>43237</v>
       </c>
@@ -11830,7 +11827,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="18">
         <v>43238</v>
       </c>
@@ -11850,7 +11847,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="4">
         <v>43238</v>
       </c>
@@ -11870,7 +11867,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="19" t="s">
         <v>282</v>
       </c>
@@ -11878,7 +11875,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="4">
         <v>43241</v>
       </c>
@@ -11902,7 +11899,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="4">
         <v>43242</v>
       </c>
@@ -11922,7 +11919,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="4">
         <v>43243</v>
       </c>
@@ -11942,7 +11939,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="4">
         <v>43245</v>
       </c>
@@ -11962,7 +11959,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="4">
         <v>43246</v>
       </c>
@@ -11982,7 +11979,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="4">
         <v>43246</v>
       </c>
@@ -12002,7 +11999,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="19" t="s">
         <v>303</v>
       </c>
@@ -12013,7 +12010,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="4">
         <v>43246</v>
       </c>
@@ -12037,7 +12034,7 @@
         <v>21.25</v>
       </c>
     </row>
-    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="4">
         <v>43247</v>
       </c>
@@ -12057,7 +12054,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="4">
         <v>43248</v>
       </c>
@@ -12077,7 +12074,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="4">
         <v>43249</v>
       </c>
@@ -12097,7 +12094,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="18">
         <v>43250</v>
       </c>
@@ -12118,7 +12115,7 @@
       </c>
       <c r="G142" s="21"/>
     </row>
-    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="4">
         <v>43251</v>
       </c>
@@ -12139,7 +12136,7 @@
       </c>
       <c r="G143" s="2"/>
     </row>
-    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="4">
         <v>43252</v>
       </c>
@@ -12159,7 +12156,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="18">
         <v>43252</v>
       </c>
@@ -12179,7 +12176,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="4">
         <v>43252</v>
       </c>
@@ -12199,7 +12196,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="18">
         <v>43252</v>
       </c>
@@ -12219,7 +12216,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="3" t="s">
         <v>354</v>
       </c>
@@ -12230,7 +12227,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="4">
         <v>43255</v>
       </c>
@@ -12254,7 +12251,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="4">
         <v>43256</v>
       </c>
@@ -12274,7 +12271,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="18">
         <v>43256</v>
       </c>
@@ -12294,7 +12291,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="4">
         <v>43257</v>
       </c>
@@ -12314,7 +12311,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="4">
         <v>43258</v>
       </c>
@@ -12334,7 +12331,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="4">
         <v>43258</v>
       </c>
@@ -12354,7 +12351,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="4">
         <v>43258</v>
       </c>
@@ -12371,10 +12368,10 @@
         <v>20</v>
       </c>
       <c r="F155" s="23" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="4">
         <v>43259</v>
       </c>
@@ -12391,12 +12388,12 @@
         <v>20</v>
       </c>
       <c r="F156" s="23" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="3" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C157" s="11"/>
       <c r="D157" s="11"/>
@@ -12405,7 +12402,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="4">
         <v>43260</v>
       </c>
@@ -12416,20 +12413,20 @@
         <v>8</v>
       </c>
       <c r="D158" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E158" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F158" s="23" t="s">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="G158" s="2">
         <f>SUM(B158:B166)</f>
         <v>40</v>
       </c>
     </row>
-    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="4">
         <v>43261</v>
       </c>
@@ -12440,7 +12437,7 @@
         <v>8</v>
       </c>
       <c r="D159" s="11" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E159" s="11" t="s">
         <v>20</v>
@@ -12449,7 +12446,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="4">
         <v>43262</v>
       </c>
@@ -12460,16 +12457,16 @@
         <v>8</v>
       </c>
       <c r="D160" s="11" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="E160" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F160" s="23" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="4">
         <v>43262</v>
       </c>
@@ -12480,16 +12477,16 @@
         <v>8</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E161" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F161" s="23" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="10">
         <v>43263</v>
       </c>
@@ -12500,16 +12497,16 @@
         <v>8</v>
       </c>
       <c r="D162" s="11" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E162" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F162" s="23" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="10">
         <v>43264</v>
       </c>
@@ -12520,7 +12517,7 @@
         <v>8</v>
       </c>
       <c r="D163" s="11" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E163" s="11" t="s">
         <v>20</v>
@@ -12529,7 +12526,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="10">
         <v>43265</v>
       </c>
@@ -12546,10 +12543,10 @@
         <v>20</v>
       </c>
       <c r="F164" s="23" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="10">
         <v>43266</v>
       </c>
@@ -12566,10 +12563,10 @@
         <v>20</v>
       </c>
       <c r="F165" s="23" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="10">
         <v>43266</v>
       </c>
@@ -12580,7 +12577,7 @@
         <v>8</v>
       </c>
       <c r="D166" s="11" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E166" s="11" t="s">
         <v>20</v>
@@ -12600,22 +12597,22 @@
   <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="90.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.26171875" customWidth="1"/>
+    <col min="5" max="5" width="7.26171875" customWidth="1"/>
+    <col min="6" max="6" width="6.15625" customWidth="1"/>
+    <col min="8" max="8" width="22.41796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="13" t="s">
         <v>29</v>
       </c>
@@ -12641,7 +12638,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="27">
         <v>1</v>
       </c>
@@ -12661,7 +12658,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="31">
         <v>2</v>
       </c>
@@ -12679,7 +12676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="29">
         <v>3</v>
       </c>
@@ -12697,7 +12694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="31">
         <v>4</v>
       </c>
@@ -12717,7 +12714,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="29">
         <v>5</v>
       </c>
@@ -12735,7 +12732,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="31">
         <v>6</v>
       </c>
@@ -12753,7 +12750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="29">
         <v>7</v>
       </c>
@@ -12771,7 +12768,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="31">
         <v>8</v>
       </c>
@@ -12791,7 +12788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="29">
         <v>9</v>
       </c>
@@ -12809,7 +12806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="31">
         <v>10</v>
       </c>
@@ -12827,7 +12824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="29">
         <v>11</v>
       </c>
@@ -12847,7 +12844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="31">
         <v>12</v>
       </c>
@@ -12865,7 +12862,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="29">
         <v>13</v>
       </c>
@@ -12883,7 +12880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="31">
         <v>14</v>
       </c>
@@ -12903,7 +12900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="29">
         <v>15</v>
       </c>
@@ -12921,7 +12918,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="31">
         <v>16</v>
       </c>
@@ -12941,7 +12938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="29">
         <v>17</v>
       </c>
@@ -12959,7 +12956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="31">
         <v>18</v>
       </c>
@@ -12979,7 +12976,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="29">
         <v>19</v>
       </c>
@@ -12999,7 +12996,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="31">
         <v>20</v>
       </c>
@@ -13017,7 +13014,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="29">
         <v>21</v>
       </c>
@@ -13035,7 +13032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="31">
         <v>22</v>
       </c>
@@ -13055,7 +13052,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="29">
         <v>23</v>
       </c>
@@ -13073,7 +13070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="31">
         <v>24</v>
       </c>
@@ -13093,7 +13090,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="29">
         <v>25</v>
       </c>
@@ -13113,7 +13110,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="31">
         <v>26</v>
       </c>
@@ -13125,7 +13122,7 @@
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="29">
         <v>27</v>
       </c>
@@ -13137,7 +13134,7 @@
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="31">
         <v>28</v>
       </c>
@@ -13151,7 +13148,7 @@
       </c>
       <c r="F29" s="31"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="29">
         <v>29</v>
       </c>
@@ -13163,7 +13160,7 @@
       <c r="E30" s="29"/>
       <c r="F30" s="29"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="31">
         <v>30</v>
       </c>
@@ -13173,7 +13170,7 @@
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="29">
         <v>31</v>
       </c>
@@ -13183,7 +13180,7 @@
       <c r="E32" s="29"/>
       <c r="F32" s="29"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="31">
         <v>32</v>
       </c>
@@ -13193,7 +13190,7 @@
       <c r="E33" s="31"/>
       <c r="F33" s="31"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="29">
         <v>33</v>
       </c>
@@ -13217,19 +13214,19 @@
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="90.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.26171875" customWidth="1"/>
+    <col min="5" max="5" width="7.26171875" customWidth="1"/>
+    <col min="6" max="6" width="6.15625" customWidth="1"/>
+    <col min="8" max="8" width="22.41796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="13" t="s">
         <v>29</v>
       </c>
@@ -13255,7 +13252,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="27">
         <v>1</v>
       </c>
@@ -13273,7 +13270,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="31">
         <v>2</v>
       </c>
@@ -13291,7 +13288,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="29">
         <v>3</v>
       </c>
@@ -13309,7 +13306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="29">
         <v>4</v>
       </c>
@@ -13327,7 +13324,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="31">
         <v>5</v>
       </c>
@@ -13345,7 +13342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A7" s="29">
         <v>6</v>
       </c>
@@ -13363,7 +13360,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="27">
         <v>7</v>
       </c>
@@ -13379,7 +13376,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="31">
         <v>8</v>
       </c>
@@ -13397,7 +13394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="29">
         <v>9</v>
       </c>
@@ -13411,7 +13408,7 @@
       </c>
       <c r="F10" s="29"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="29">
         <v>10</v>
       </c>
@@ -13429,7 +13426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="31">
         <v>11</v>
       </c>
@@ -13445,7 +13442,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A13" s="29">
         <v>12</v>
       </c>
@@ -13461,12 +13458,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="27">
         <v>13</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C14" s="31"/>
       <c r="D14" s="32"/>
@@ -13477,12 +13474,12 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="29">
         <v>14</v>
       </c>
       <c r="B15" s="30" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C15" s="29"/>
       <c r="D15" s="30"/>
@@ -13493,12 +13490,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="31">
         <v>15</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C16" s="31"/>
       <c r="D16" s="32"/>
@@ -13509,7 +13506,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="29"/>
       <c r="B17" s="30"/>
       <c r="C17" s="29"/>
@@ -13521,7 +13518,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="31"/>
@@ -13529,7 +13526,7 @@
       <c r="E18" s="31"/>
       <c r="F18" s="31"/>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="29"/>
       <c r="B19" s="30"/>
       <c r="C19" s="29"/>
@@ -13537,7 +13534,7 @@
       <c r="E19" s="29"/>
       <c r="F19" s="29"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="31"/>
       <c r="B20" s="32"/>
       <c r="C20" s="31"/>
@@ -13545,7 +13542,7 @@
       <c r="E20" s="31"/>
       <c r="F20" s="31"/>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="29"/>
       <c r="B21" s="30"/>
       <c r="C21" s="29"/>
@@ -13553,7 +13550,7 @@
       <c r="E21" s="29"/>
       <c r="F21" s="29"/>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="31"/>
       <c r="B22" s="32"/>
       <c r="C22" s="31"/>
@@ -13561,7 +13558,7 @@
       <c r="E22" s="31"/>
       <c r="F22" s="31"/>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="29"/>
       <c r="B23" s="30"/>
       <c r="C23" s="29"/>
@@ -13569,7 +13566,7 @@
       <c r="E23" s="29"/>
       <c r="F23" s="29"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="31"/>
       <c r="B24" s="32"/>
       <c r="C24" s="31"/>
@@ -13577,7 +13574,7 @@
       <c r="E24" s="31"/>
       <c r="F24" s="31"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="29"/>
       <c r="B25" s="30"/>
       <c r="C25" s="29"/>
@@ -13599,19 +13596,19 @@
       <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="90.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.26171875" customWidth="1"/>
+    <col min="5" max="5" width="7.26171875" customWidth="1"/>
+    <col min="6" max="6" width="6.15625" customWidth="1"/>
+    <col min="8" max="8" width="22.41796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="13" t="s">
         <v>29</v>
       </c>
@@ -13637,7 +13634,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="27">
         <v>1</v>
       </c>
@@ -13653,7 +13650,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="31">
         <v>2</v>
       </c>
@@ -13669,7 +13666,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="29">
         <v>3</v>
       </c>
@@ -13685,7 +13682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="31">
         <v>4</v>
       </c>
@@ -13701,7 +13698,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="29">
         <v>5</v>
       </c>
@@ -13717,7 +13714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="31">
         <v>6</v>
       </c>
@@ -13733,7 +13730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="29">
         <v>7</v>
       </c>
@@ -13751,7 +13748,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="31">
         <v>8</v>
       </c>
@@ -13769,7 +13766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="29">
         <v>9</v>
       </c>
@@ -13783,7 +13780,7 @@
       </c>
       <c r="F10" s="29"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="31"/>
       <c r="B11" s="32"/>
       <c r="C11" s="31"/>
@@ -13795,7 +13792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="29"/>
       <c r="B12" s="30"/>
       <c r="C12" s="29"/>
@@ -13807,7 +13804,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="31"/>
       <c r="B13" s="32"/>
       <c r="C13" s="31"/>
@@ -13819,7 +13816,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="29"/>
       <c r="B14" s="30"/>
       <c r="C14" s="29"/>
@@ -13831,7 +13828,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="31"/>
       <c r="B15" s="32"/>
       <c r="C15" s="31"/>
@@ -13843,7 +13840,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="29"/>
       <c r="B16" s="30"/>
       <c r="C16" s="29"/>
@@ -13855,7 +13852,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="31"/>
@@ -13867,7 +13864,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="29"/>
       <c r="B18" s="30"/>
       <c r="C18" s="29"/>
@@ -13879,7 +13876,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="31"/>
       <c r="B19" s="32"/>
       <c r="C19" s="31"/>
@@ -13891,7 +13888,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="29"/>
       <c r="B20" s="30"/>
       <c r="C20" s="29"/>
@@ -13903,7 +13900,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="31"/>
       <c r="B21" s="32"/>
       <c r="C21" s="31"/>
@@ -13915,7 +13912,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="29"/>
       <c r="B22" s="30"/>
       <c r="C22" s="29"/>
@@ -13927,7 +13924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="31"/>
       <c r="B23" s="32"/>
       <c r="C23" s="31"/>
@@ -13939,7 +13936,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="29"/>
       <c r="B24" s="30"/>
       <c r="C24" s="29"/>
@@ -13951,7 +13948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="31"/>
       <c r="B25" s="32"/>
       <c r="C25" s="31"/>
@@ -13963,7 +13960,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="29"/>
       <c r="B26" s="30"/>
       <c r="C26" s="29"/>
@@ -13975,7 +13972,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="31"/>
       <c r="B27" s="32"/>
       <c r="C27" s="31"/>
@@ -13983,7 +13980,7 @@
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="29"/>
       <c r="B28" s="30"/>
       <c r="C28" s="29"/>
@@ -13991,7 +13988,7 @@
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="31"/>
@@ -13999,7 +13996,7 @@
       <c r="E29" s="31"/>
       <c r="F29" s="31"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="29"/>
       <c r="B30" s="30"/>
       <c r="C30" s="29"/>
@@ -14007,7 +14004,7 @@
       <c r="E30" s="29"/>
       <c r="F30" s="29"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="31"/>
@@ -14015,7 +14012,7 @@
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="29"/>
       <c r="B32" s="30"/>
       <c r="C32" s="29"/>
@@ -14023,7 +14020,7 @@
       <c r="E32" s="29"/>
       <c r="F32" s="29"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="31"/>
       <c r="B33" s="32"/>
       <c r="C33" s="31"/>
@@ -14031,7 +14028,7 @@
       <c r="E33" s="31"/>
       <c r="F33" s="31"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="29"/>
       <c r="B34" s="30"/>
       <c r="C34" s="29"/>
@@ -14053,19 +14050,19 @@
       <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="90.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.26171875" customWidth="1"/>
+    <col min="5" max="5" width="7.26171875" customWidth="1"/>
+    <col min="6" max="6" width="6.15625" customWidth="1"/>
+    <col min="8" max="8" width="22.41796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="13" t="s">
         <v>29</v>
       </c>
@@ -14091,7 +14088,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="27">
         <v>1</v>
       </c>
@@ -14111,7 +14108,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="31">
         <v>2</v>
       </c>
@@ -14131,7 +14128,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="29">
         <v>3</v>
       </c>
@@ -14151,7 +14148,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="31">
         <v>4</v>
       </c>
@@ -14169,7 +14166,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="29">
         <v>5</v>
       </c>
@@ -14187,7 +14184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="31">
         <v>6</v>
       </c>
@@ -14205,7 +14202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="29">
         <v>7</v>
       </c>
@@ -14225,7 +14222,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="31">
         <v>8</v>
       </c>
@@ -14245,7 +14242,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="29">
         <v>9</v>
       </c>
@@ -14261,7 +14258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="29">
         <v>10</v>
       </c>
@@ -14275,7 +14272,7 @@
       </c>
       <c r="F11" s="29"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="29"/>
       <c r="B12" s="30"/>
       <c r="C12" s="29"/>
@@ -14287,7 +14284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="31"/>
       <c r="B13" s="32"/>
       <c r="C13" s="31"/>
@@ -14299,7 +14296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="29"/>
       <c r="B14" s="30"/>
       <c r="C14" s="29"/>
@@ -14311,7 +14308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="31"/>
       <c r="B15" s="32"/>
       <c r="C15" s="31"/>
@@ -14323,7 +14320,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="29"/>
       <c r="B16" s="30"/>
       <c r="C16" s="29"/>
@@ -14335,7 +14332,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="31"/>
@@ -14347,7 +14344,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="29"/>
       <c r="B18" s="30"/>
       <c r="C18" s="29"/>
@@ -14359,7 +14356,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="31"/>
       <c r="B19" s="32"/>
       <c r="C19" s="31"/>
@@ -14371,7 +14368,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="29"/>
       <c r="B20" s="30"/>
       <c r="C20" s="29"/>
@@ -14383,7 +14380,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="31"/>
       <c r="B21" s="32"/>
       <c r="C21" s="31"/>
@@ -14395,7 +14392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="29"/>
       <c r="B22" s="30"/>
       <c r="C22" s="29"/>
@@ -14407,7 +14404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="31"/>
       <c r="B23" s="32"/>
       <c r="C23" s="31"/>
@@ -14419,7 +14416,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="29"/>
       <c r="B24" s="30"/>
       <c r="C24" s="29"/>
@@ -14431,7 +14428,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="31"/>
       <c r="B25" s="32"/>
       <c r="C25" s="31"/>
@@ -14443,7 +14440,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="29"/>
       <c r="B26" s="30"/>
       <c r="C26" s="29"/>
@@ -14455,7 +14452,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="31"/>
       <c r="B27" s="32"/>
       <c r="C27" s="31"/>
@@ -14463,7 +14460,7 @@
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="29"/>
       <c r="B28" s="30"/>
       <c r="C28" s="29"/>
@@ -14471,7 +14468,7 @@
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="31"/>
@@ -14479,7 +14476,7 @@
       <c r="E29" s="31"/>
       <c r="F29" s="31"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="29"/>
       <c r="B30" s="30"/>
       <c r="C30" s="29"/>
@@ -14487,7 +14484,7 @@
       <c r="E30" s="29"/>
       <c r="F30" s="29"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="31"/>
@@ -14495,7 +14492,7 @@
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="29"/>
       <c r="B32" s="30"/>
       <c r="C32" s="29"/>
@@ -14503,7 +14500,7 @@
       <c r="E32" s="29"/>
       <c r="F32" s="29"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="31"/>
       <c r="B33" s="32"/>
       <c r="C33" s="31"/>
@@ -14511,7 +14508,7 @@
       <c r="E33" s="31"/>
       <c r="F33" s="31"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="29"/>
       <c r="B34" s="30"/>
       <c r="C34" s="29"/>
@@ -14533,19 +14530,19 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="90.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.26171875" customWidth="1"/>
+    <col min="5" max="5" width="7.26171875" customWidth="1"/>
+    <col min="6" max="6" width="6.15625" customWidth="1"/>
+    <col min="8" max="8" width="22.41796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="13" t="s">
         <v>29</v>
       </c>
@@ -14571,7 +14568,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="27">
         <v>1</v>
       </c>
@@ -14589,7 +14586,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="31">
         <v>2</v>
       </c>
@@ -14607,7 +14604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="29">
         <v>3</v>
       </c>
@@ -14625,7 +14622,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="31">
         <v>4</v>
       </c>
@@ -14643,7 +14640,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="29">
         <v>5</v>
       </c>
@@ -14663,7 +14660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="31">
         <v>6</v>
       </c>
@@ -14681,7 +14678,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="29">
         <v>7</v>
       </c>
@@ -14699,7 +14696,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="31">
         <v>8</v>
       </c>
@@ -14717,7 +14714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="29">
         <v>9</v>
       </c>
@@ -14731,7 +14728,7 @@
       </c>
       <c r="F10" s="29"/>
     </row>
-    <row r="11" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="31">
         <v>10</v>
       </c>
@@ -14748,7 +14745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="29"/>
       <c r="B12" s="30"/>
       <c r="C12" s="29"/>
@@ -14765,7 +14762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="31"/>
       <c r="B13" s="32"/>
       <c r="C13" s="31"/>
@@ -14777,7 +14774,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="29"/>
       <c r="B14" s="30"/>
       <c r="C14" s="29"/>
@@ -14789,7 +14786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="31"/>
       <c r="B15" s="32"/>
       <c r="C15" s="31"/>
@@ -14801,7 +14798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="29"/>
       <c r="B16" s="30"/>
       <c r="C16" s="29"/>
@@ -14813,7 +14810,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="31"/>
       <c r="B17" s="32"/>
       <c r="C17" s="31"/>
@@ -14825,7 +14822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="29"/>
       <c r="B18" s="30"/>
       <c r="C18" s="29"/>
@@ -14837,7 +14834,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="31"/>
       <c r="B19" s="32"/>
       <c r="C19" s="31"/>
@@ -14849,7 +14846,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="29"/>
       <c r="B20" s="30"/>
       <c r="C20" s="29"/>
@@ -14861,7 +14858,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="31"/>
       <c r="B21" s="32"/>
       <c r="C21" s="31"/>
@@ -14873,7 +14870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="29"/>
       <c r="B22" s="30"/>
       <c r="C22" s="29"/>
@@ -14885,7 +14882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="31"/>
       <c r="B23" s="32"/>
       <c r="C23" s="31"/>
@@ -14897,7 +14894,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="29"/>
       <c r="B24" s="30"/>
       <c r="C24" s="29"/>
@@ -14909,7 +14906,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="31"/>
       <c r="B25" s="32"/>
       <c r="C25" s="31"/>
@@ -14921,7 +14918,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="29"/>
       <c r="B26" s="30"/>
       <c r="C26" s="29"/>
@@ -14933,7 +14930,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="31"/>
       <c r="B27" s="32"/>
       <c r="C27" s="31"/>
@@ -14941,7 +14938,7 @@
       <c r="E27" s="31"/>
       <c r="F27" s="31"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="29"/>
       <c r="B28" s="30"/>
       <c r="C28" s="29"/>
@@ -14949,7 +14946,7 @@
       <c r="E28" s="29"/>
       <c r="F28" s="29"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="31"/>
       <c r="B29" s="32"/>
       <c r="C29" s="31"/>
@@ -14957,7 +14954,7 @@
       <c r="E29" s="31"/>
       <c r="F29" s="31"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="29"/>
       <c r="B30" s="30"/>
       <c r="C30" s="29"/>
@@ -14965,7 +14962,7 @@
       <c r="E30" s="29"/>
       <c r="F30" s="29"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="31"/>
       <c r="B31" s="32"/>
       <c r="C31" s="31"/>
@@ -14973,7 +14970,7 @@
       <c r="E31" s="31"/>
       <c r="F31" s="31"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="29"/>
       <c r="B32" s="30"/>
       <c r="C32" s="29"/>
@@ -14981,7 +14978,7 @@
       <c r="E32" s="29"/>
       <c r="F32" s="29"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="31"/>
       <c r="B33" s="32"/>
       <c r="C33" s="31"/>
@@ -14989,7 +14986,7 @@
       <c r="E33" s="31"/>
       <c r="F33" s="31"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="29"/>
       <c r="B34" s="30"/>
       <c r="C34" s="29"/>
@@ -15011,19 +15008,19 @@
       <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="90.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.26171875" customWidth="1"/>
+    <col min="5" max="5" width="7.26171875" customWidth="1"/>
+    <col min="6" max="6" width="6.15625" customWidth="1"/>
+    <col min="8" max="8" width="22.41796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="13" t="s">
         <v>29</v>
       </c>
@@ -15049,7 +15046,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="27">
         <v>1</v>
       </c>
@@ -15067,7 +15064,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="31">
         <v>2</v>
       </c>
@@ -15085,7 +15082,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="29">
         <v>3</v>
       </c>
@@ -15103,7 +15100,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="31">
         <v>4</v>
       </c>
@@ -15121,7 +15118,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="29">
         <v>5</v>
       </c>
@@ -15139,7 +15136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="31">
         <v>6</v>
       </c>
@@ -15157,7 +15154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="29">
         <v>7</v>
       </c>
@@ -15175,7 +15172,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="29">
         <v>8</v>
       </c>
@@ -15189,7 +15186,7 @@
       </c>
       <c r="F9" s="29"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="31"/>
       <c r="B10" s="32"/>
       <c r="C10" s="31"/>
@@ -15201,7 +15198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="29"/>
       <c r="B11" s="30"/>
       <c r="C11" s="29"/>
@@ -15213,7 +15210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="31"/>
       <c r="B12" s="32"/>
       <c r="C12" s="31"/>
@@ -15230,7 +15227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="29"/>
       <c r="B13" s="30"/>
       <c r="C13" s="29"/>
@@ -15242,7 +15239,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="31"/>
       <c r="B14" s="32"/>
       <c r="C14" s="31"/>
@@ -15254,7 +15251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="29"/>
       <c r="B15" s="30"/>
       <c r="C15" s="29"/>
@@ -15266,7 +15263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="31"/>
       <c r="B16" s="32"/>
       <c r="C16" s="31"/>
@@ -15278,7 +15275,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="29"/>
       <c r="B17" s="30"/>
       <c r="C17" s="29"/>
@@ -15290,7 +15287,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="31"/>
@@ -15302,7 +15299,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="29"/>
       <c r="B19" s="30"/>
       <c r="C19" s="29"/>
@@ -15314,7 +15311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="31"/>
       <c r="B20" s="32"/>
       <c r="C20" s="31"/>
@@ -15326,7 +15323,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="29"/>
       <c r="B21" s="30"/>
       <c r="C21" s="29"/>
@@ -15338,7 +15335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="31"/>
       <c r="B22" s="32"/>
       <c r="C22" s="31"/>
@@ -15350,7 +15347,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="29"/>
       <c r="B23" s="30"/>
       <c r="C23" s="29"/>
@@ -15362,7 +15359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="31"/>
       <c r="B24" s="32"/>
       <c r="C24" s="31"/>
@@ -15374,7 +15371,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="29"/>
       <c r="B25" s="30"/>
       <c r="C25" s="29"/>
@@ -15386,7 +15383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="31"/>
       <c r="B26" s="32"/>
       <c r="C26" s="31"/>
@@ -15398,7 +15395,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="29"/>
       <c r="B27" s="30"/>
       <c r="C27" s="29"/>
@@ -15410,7 +15407,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="31"/>
@@ -15418,7 +15415,7 @@
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="29"/>
       <c r="B29" s="30"/>
       <c r="C29" s="29"/>
@@ -15426,7 +15423,7 @@
       <c r="E29" s="29"/>
       <c r="F29" s="29"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="31"/>
@@ -15434,7 +15431,7 @@
       <c r="E30" s="31"/>
       <c r="F30" s="31"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="29"/>
       <c r="B31" s="30"/>
       <c r="C31" s="29"/>
@@ -15442,7 +15439,7 @@
       <c r="E31" s="29"/>
       <c r="F31" s="29"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="31"/>
@@ -15450,7 +15447,7 @@
       <c r="E32" s="31"/>
       <c r="F32" s="31"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="29"/>
       <c r="B33" s="30"/>
       <c r="C33" s="29"/>
@@ -15458,7 +15455,7 @@
       <c r="E33" s="29"/>
       <c r="F33" s="29"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="31"/>
       <c r="B34" s="32"/>
       <c r="C34" s="31"/>
@@ -15466,7 +15463,7 @@
       <c r="E34" s="31"/>
       <c r="F34" s="31"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="29"/>
       <c r="B35" s="30"/>
       <c r="C35" s="29"/>
@@ -15488,19 +15485,19 @@
       <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="3.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="34.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="3.68359375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9" customWidth="1"/>
-    <col min="4" max="4" width="90.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.28515625" customWidth="1"/>
-    <col min="6" max="6" width="6.140625" customWidth="1"/>
-    <col min="8" max="8" width="22.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="25.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.26171875" customWidth="1"/>
+    <col min="5" max="5" width="7.26171875" customWidth="1"/>
+    <col min="6" max="6" width="6.15625" customWidth="1"/>
+    <col min="8" max="8" width="22.41796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="25.68359375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" ht="14.7" thickBot="1" x14ac:dyDescent="0.6">
       <c r="A1" s="13" t="s">
         <v>29</v>
       </c>
@@ -15526,7 +15523,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="27">
         <v>1</v>
       </c>
@@ -15546,7 +15543,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="31">
         <v>2</v>
       </c>
@@ -15564,7 +15561,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="29">
         <v>3</v>
       </c>
@@ -15582,7 +15579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="31">
         <v>4</v>
       </c>
@@ -15600,7 +15597,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="29">
         <v>5</v>
       </c>
@@ -15618,7 +15615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" ht="27" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="31">
         <v>6</v>
       </c>
@@ -15636,7 +15633,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="29">
         <v>7</v>
       </c>
@@ -15654,7 +15651,7 @@
         <v>12.75</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="31">
         <v>8</v>
       </c>
@@ -15672,7 +15669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="29">
         <v>9</v>
       </c>
@@ -15690,7 +15687,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="29">
         <v>10</v>
       </c>
@@ -15704,7 +15701,7 @@
       </c>
       <c r="F11" s="29"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="31"/>
       <c r="B12" s="32"/>
       <c r="C12" s="31"/>
@@ -15721,7 +15718,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="29"/>
       <c r="B13" s="30"/>
       <c r="C13" s="29"/>
@@ -15733,7 +15730,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="31"/>
       <c r="B14" s="32"/>
       <c r="C14" s="31"/>
@@ -15745,7 +15742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="29"/>
       <c r="B15" s="30"/>
       <c r="C15" s="29"/>
@@ -15757,7 +15754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="31"/>
       <c r="B16" s="32"/>
       <c r="C16" s="31"/>
@@ -15769,7 +15766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="29"/>
       <c r="B17" s="30"/>
       <c r="C17" s="29"/>
@@ -15781,7 +15778,7 @@
         <v>3.5</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="31"/>
       <c r="B18" s="32"/>
       <c r="C18" s="31"/>
@@ -15793,7 +15790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="29"/>
       <c r="B19" s="30"/>
       <c r="C19" s="29"/>
@@ -15805,7 +15802,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="31"/>
       <c r="B20" s="32"/>
       <c r="C20" s="31"/>
@@ -15817,7 +15814,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="29"/>
       <c r="B21" s="30"/>
       <c r="C21" s="29"/>
@@ -15829,7 +15826,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="31"/>
       <c r="B22" s="32"/>
       <c r="C22" s="31"/>
@@ -15841,7 +15838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="29"/>
       <c r="B23" s="30"/>
       <c r="C23" s="29"/>
@@ -15853,7 +15850,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="31"/>
       <c r="B24" s="32"/>
       <c r="C24" s="31"/>
@@ -15865,7 +15862,7 @@
         <v>6.75</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="29"/>
       <c r="B25" s="30"/>
       <c r="C25" s="29"/>
@@ -15877,7 +15874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="31"/>
       <c r="B26" s="32"/>
       <c r="C26" s="31"/>
@@ -15889,7 +15886,7 @@
         <v>7.25</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="29"/>
       <c r="B27" s="30"/>
       <c r="C27" s="29"/>
@@ -15901,7 +15898,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="31"/>
       <c r="B28" s="32"/>
       <c r="C28" s="31"/>
@@ -15909,7 +15906,7 @@
       <c r="E28" s="31"/>
       <c r="F28" s="31"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="29"/>
       <c r="B29" s="30"/>
       <c r="C29" s="29"/>
@@ -15917,7 +15914,7 @@
       <c r="E29" s="29"/>
       <c r="F29" s="29"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="31"/>
       <c r="B30" s="32"/>
       <c r="C30" s="31"/>
@@ -15925,7 +15922,7 @@
       <c r="E30" s="31"/>
       <c r="F30" s="31"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="29"/>
       <c r="B31" s="30"/>
       <c r="C31" s="29"/>
@@ -15933,7 +15930,7 @@
       <c r="E31" s="29"/>
       <c r="F31" s="29"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="31"/>
       <c r="B32" s="32"/>
       <c r="C32" s="31"/>
@@ -15941,7 +15938,7 @@
       <c r="E32" s="31"/>
       <c r="F32" s="31"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="29"/>
       <c r="B33" s="30"/>
       <c r="C33" s="29"/>
@@ -15949,7 +15946,7 @@
       <c r="E33" s="29"/>
       <c r="F33" s="29"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="31"/>
       <c r="B34" s="32"/>
       <c r="C34" s="31"/>
@@ -15957,7 +15954,7 @@
       <c r="E34" s="31"/>
       <c r="F34" s="31"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="29"/>
       <c r="B35" s="30"/>
       <c r="C35" s="29"/>

--- a/project/Zeiterfassung.xlsx
+++ b/project/Zeiterfassung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\BA\Zeiterfassung\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE0E688F-DEDA-4561-9DD4-8F6652059170}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED914721-1D72-4EF1-BC88-14F2406B74DA}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80370" yWindow="0" windowWidth="19560" windowHeight="8118" tabRatio="745" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="388">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="387">
   <si>
     <t>Mit Betreuer</t>
   </si>
@@ -1191,9 +1191,6 @@
   </si>
   <si>
     <t>Erstellen Abgabedokument</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> MS9: 14</t>
   </si>
   <si>
     <t>Projektplan abgabefertig</t>
@@ -5236,8 +5233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M177"/>
   <sheetViews>
-    <sheetView topLeftCell="A159" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView topLeftCell="A152" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F155" sqref="F155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -8991,8 +8988,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:M166"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A148" workbookViewId="0">
-      <selection activeCell="E155" sqref="E155"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="F161" sqref="F161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.41796875" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -12463,7 +12460,7 @@
         <v>20</v>
       </c>
       <c r="F160" s="23" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -12477,13 +12474,13 @@
         <v>8</v>
       </c>
       <c r="D161" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E161" s="11" t="s">
         <v>20</v>
       </c>
       <c r="F161" s="23" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
